--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1437"/>
+  <dimension ref="A1:G1508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D19">
         <v>122.6086</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D46">
         <v>127.7622</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D52">
         <v>122.6086</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D77">
         <v>127.7622</v>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D85">
         <v>122.6086</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D95">
         <v>127.7622</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D114">
         <v>127.7622</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D122">
         <v>122.6086</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D153">
         <v>127.7622</v>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D160">
         <v>122.6086</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D200">
         <v>127.7622</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D208">
         <v>122.6086</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D246">
         <v>127.7622</v>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D254">
         <v>122.6086</v>
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D288">
         <v>127.7622</v>
@@ -8720,7 +8720,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D295">
         <v>122.6086</v>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D334">
         <v>127.7622</v>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="C342">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D342">
         <v>122.6086</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D358">
         <v>127.7622</v>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="C372">
-        <v>61.524</v>
+        <v>61.52399999999999</v>
       </c>
       <c r="D372">
         <v>105.3188</v>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D389">
         <v>127.7622</v>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="C397">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D397">
         <v>122.6086</v>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="C445">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D445">
         <v>127.7622</v>
@@ -13226,7 +13226,7 @@
         </is>
       </c>
       <c r="C454">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D454">
         <v>122.6086</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D476">
         <v>127.7622</v>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D502">
         <v>127.7622</v>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="C511">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D511">
         <v>122.6086</v>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="C559">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D559">
         <v>127.7622</v>
@@ -16448,7 +16448,7 @@
         </is>
       </c>
       <c r="C567">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D567">
         <v>122.6086</v>
@@ -17810,7 +17810,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D615">
         <v>127.7622</v>
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="C624">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D624">
         <v>122.6086</v>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="C649">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D649">
         <v>127.7622</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D676">
         <v>127.7622</v>
@@ -19825,7 +19825,7 @@
         </is>
       </c>
       <c r="C685">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D685">
         <v>122.6086</v>
@@ -20492,7 +20492,7 @@
         </is>
       </c>
       <c r="C708">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D708">
         <v>127.7622</v>
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="C736">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D736">
         <v>127.7622</v>
@@ -21550,7 +21550,7 @@
         </is>
       </c>
       <c r="C745">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D745">
         <v>122.6086</v>
@@ -21956,7 +21956,7 @@
         </is>
       </c>
       <c r="C759">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D759">
         <v>127.7622</v>
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="C770">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D770">
         <v>127.7622</v>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="C807">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D807">
         <v>127.7622</v>
@@ -23574,7 +23574,7 @@
         </is>
       </c>
       <c r="C816">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D816">
         <v>122.6086</v>
@@ -24376,7 +24376,7 @@
         </is>
       </c>
       <c r="C844">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D844">
         <v>127.7622</v>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C876">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D876">
         <v>127.7622</v>
@@ -25535,7 +25535,7 @@
         </is>
       </c>
       <c r="C885">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D885">
         <v>122.6086</v>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C898">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D898">
         <v>127.7622</v>
@@ -26361,7 +26361,7 @@
         </is>
       </c>
       <c r="C914">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D914">
         <v>127.7622</v>
@@ -27264,7 +27264,7 @@
         </is>
       </c>
       <c r="C946">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D946">
         <v>127.7622</v>
@@ -27525,7 +27525,7 @@
         </is>
       </c>
       <c r="C955">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D955">
         <v>122.6086</v>
@@ -27989,7 +27989,7 @@
         </is>
       </c>
       <c r="C971">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D971">
         <v>127.7622</v>
@@ -28419,7 +28419,7 @@
         </is>
       </c>
       <c r="C986">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D986">
         <v>127.7622</v>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="C1019">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1019">
         <v>127.7622</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="C1028">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1028">
         <v>122.6086</v>
@@ -29926,7 +29926,7 @@
         </is>
       </c>
       <c r="C1039">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1039">
         <v>127.7622</v>
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="C1052">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1052">
         <v>127.7622</v>
@@ -31143,7 +31143,7 @@
         </is>
       </c>
       <c r="C1082">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1082">
         <v>127.7622</v>
@@ -31375,7 +31375,7 @@
         </is>
       </c>
       <c r="C1090">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1090">
         <v>122.6086</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="C1105">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1105">
         <v>127.7622</v>
@@ -32312,7 +32312,7 @@
         </is>
       </c>
       <c r="C1123">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1123">
         <v>127.7622</v>
@@ -33254,7 +33254,7 @@
         </is>
       </c>
       <c r="C1156">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1156">
         <v>127.7622</v>
@@ -33486,7 +33486,7 @@
         </is>
       </c>
       <c r="C1164">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1164">
         <v>122.6086</v>
@@ -33892,7 +33892,7 @@
         </is>
       </c>
       <c r="C1178">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1178">
         <v>122.6086</v>
@@ -34065,7 +34065,7 @@
         </is>
       </c>
       <c r="C1185">
-        <v>61.52399999999999</v>
+        <v>61.524</v>
       </c>
       <c r="D1185">
         <v>105.3188</v>
@@ -34480,7 +34480,7 @@
         </is>
       </c>
       <c r="C1200">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1200">
         <v>127.7622</v>
@@ -35451,7 +35451,7 @@
         </is>
       </c>
       <c r="C1234">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1234">
         <v>127.7622</v>
@@ -35712,7 +35712,7 @@
         </is>
       </c>
       <c r="C1243">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1243">
         <v>122.6086</v>
@@ -36229,7 +36229,7 @@
         </is>
       </c>
       <c r="C1261">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1261">
         <v>127.7622</v>
@@ -36736,7 +36736,7 @@
         </is>
       </c>
       <c r="C1279">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1279">
         <v>127.7622</v>
@@ -37707,7 +37707,7 @@
         </is>
       </c>
       <c r="C1313">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1313">
         <v>127.7622</v>
@@ -37968,7 +37968,7 @@
         </is>
       </c>
       <c r="C1322">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1322">
         <v>122.6086</v>
@@ -38345,7 +38345,7 @@
         </is>
       </c>
       <c r="C1335">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1335">
         <v>127.7622</v>
@@ -38717,7 +38717,7 @@
         </is>
       </c>
       <c r="C1348">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1348">
         <v>127.7622</v>
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="C1379">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1379">
         <v>127.7622</v>
@@ -40687,7 +40687,7 @@
         </is>
       </c>
       <c r="C1418">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1418">
         <v>127.7622</v>
@@ -41250,6 +41250,2020 @@
         <v>25</v>
       </c>
       <c r="G1437" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1438">
+        <v>35.6762</v>
+      </c>
+      <c r="D1438">
+        <v>139.6503</v>
+      </c>
+      <c r="E1438" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1438">
+        <v>16</v>
+      </c>
+      <c r="G1438" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1439">
+        <v>1.3521</v>
+      </c>
+      <c r="D1439">
+        <v>103.8198</v>
+      </c>
+      <c r="E1439" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1439">
+        <v>3</v>
+      </c>
+      <c r="G1439" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1440">
+        <v>37.5665</v>
+      </c>
+      <c r="D1440">
+        <v>126.978</v>
+      </c>
+      <c r="E1440" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1440">
+        <v>1</v>
+      </c>
+      <c r="G1440" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C1441">
+        <v>13.7563</v>
+      </c>
+      <c r="D1441">
+        <v>100.5018</v>
+      </c>
+      <c r="E1441" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1441">
+        <v>1</v>
+      </c>
+      <c r="G1441" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C1442">
+        <v>23.4241</v>
+      </c>
+      <c r="D1442">
+        <v>53.8478</v>
+      </c>
+      <c r="E1442" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1442">
+        <v>1</v>
+      </c>
+      <c r="G1442" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1443">
+        <v>31.82571</v>
+      </c>
+      <c r="D1443">
+        <v>117.2264</v>
+      </c>
+      <c r="E1443" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1443">
+        <v>12</v>
+      </c>
+      <c r="G1443" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1444">
+        <v>40.18238</v>
+      </c>
+      <c r="D1444">
+        <v>116.4142</v>
+      </c>
+      <c r="E1444" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1444">
+        <v>5</v>
+      </c>
+      <c r="G1444" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1445">
+        <v>30.05718</v>
+      </c>
+      <c r="D1445">
+        <v>107.874</v>
+      </c>
+      <c r="E1445" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1445">
+        <v>7</v>
+      </c>
+      <c r="G1445" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1446">
+        <v>35.4437</v>
+      </c>
+      <c r="D1446">
+        <v>129.638</v>
+      </c>
+      <c r="E1446" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1446">
+        <v>70</v>
+      </c>
+      <c r="G1446" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1447">
+        <v>26.07783</v>
+      </c>
+      <c r="D1447">
+        <v>117.9895</v>
+      </c>
+      <c r="E1447" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1447">
+        <v>2</v>
+      </c>
+      <c r="G1447" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1448">
+        <v>23.33841</v>
+      </c>
+      <c r="D1448">
+        <v>113.422</v>
+      </c>
+      <c r="E1448" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1448">
+        <v>22</v>
+      </c>
+      <c r="G1448" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1449">
+        <v>23.82908</v>
+      </c>
+      <c r="D1449">
+        <v>108.7881</v>
+      </c>
+      <c r="E1449" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1449">
+        <v>2</v>
+      </c>
+      <c r="G1449" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1450">
+        <v>26.81536</v>
+      </c>
+      <c r="D1450">
+        <v>106.8748</v>
+      </c>
+      <c r="E1450" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1450">
+        <v>1</v>
+      </c>
+      <c r="G1450" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1451">
+        <v>38.0428</v>
+      </c>
+      <c r="D1451">
+        <v>114.5149</v>
+      </c>
+      <c r="E1451" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1451">
+        <v>9</v>
+      </c>
+      <c r="G1451" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1452">
+        <v>47.86199999999999</v>
+      </c>
+      <c r="D1452">
+        <v>127.7622</v>
+      </c>
+      <c r="E1452" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1452">
+        <v>20</v>
+      </c>
+      <c r="G1452" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1453">
+        <v>33.88202</v>
+      </c>
+      <c r="D1453">
+        <v>113.614</v>
+      </c>
+      <c r="E1453" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1453">
+        <v>19</v>
+      </c>
+      <c r="G1453" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1454">
+        <v>22.3193</v>
+      </c>
+      <c r="D1454">
+        <v>114.1694</v>
+      </c>
+      <c r="E1454" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1454">
+        <v>1</v>
+      </c>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1455">
+        <v>30.97564</v>
+      </c>
+      <c r="D1455">
+        <v>112.2707</v>
+      </c>
+      <c r="E1455" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1455">
+        <v>1933</v>
+      </c>
+      <c r="G1455" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1456">
+        <v>27.61041</v>
+      </c>
+      <c r="D1456">
+        <v>111.7088</v>
+      </c>
+      <c r="E1456" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1456">
+        <v>3</v>
+      </c>
+      <c r="G1456" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1457">
+        <v>44.09448</v>
+      </c>
+      <c r="D1457">
+        <v>113.9456</v>
+      </c>
+      <c r="E1457" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1457">
+        <v>2</v>
+      </c>
+      <c r="G1457" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1458">
+        <v>32.97027</v>
+      </c>
+      <c r="D1458">
+        <v>119.464</v>
+      </c>
+      <c r="E1458" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1458">
+        <v>13</v>
+      </c>
+      <c r="G1458" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1459">
+        <v>27.61401</v>
+      </c>
+      <c r="D1459">
+        <v>115.7221</v>
+      </c>
+      <c r="E1459" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1459">
+        <v>12</v>
+      </c>
+      <c r="G1459" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1460">
+        <v>43.66657</v>
+      </c>
+      <c r="D1460">
+        <v>126.1917</v>
+      </c>
+      <c r="E1460" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1460">
+        <v>1</v>
+      </c>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1461">
+        <v>41.29284000000001</v>
+      </c>
+      <c r="D1461">
+        <v>122.6086</v>
+      </c>
+      <c r="E1461" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1461">
+        <v>2</v>
+      </c>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1462">
+        <v>35.19165</v>
+      </c>
+      <c r="D1462">
+        <v>108.8701</v>
+      </c>
+      <c r="E1462" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1462">
+        <v>4</v>
+      </c>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1463">
+        <v>36.34377</v>
+      </c>
+      <c r="D1463">
+        <v>118.1529</v>
+      </c>
+      <c r="E1463" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1463">
+        <v>5</v>
+      </c>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1464">
+        <v>31.20327</v>
+      </c>
+      <c r="D1464">
+        <v>121.4554</v>
+      </c>
+      <c r="E1464" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1464">
+        <v>2</v>
+      </c>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1465">
+        <v>37.57769</v>
+      </c>
+      <c r="D1465">
+        <v>112.2922</v>
+      </c>
+      <c r="E1465" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1465">
+        <v>1</v>
+      </c>
+      <c r="G1465" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1466">
+        <v>30.61714</v>
+      </c>
+      <c r="D1466">
+        <v>102.7103</v>
+      </c>
+      <c r="E1466" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1466">
+        <v>11</v>
+      </c>
+      <c r="G1466" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C1467">
+        <v>23.6978</v>
+      </c>
+      <c r="D1467">
+        <v>120.9605</v>
+      </c>
+      <c r="E1467" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1467">
+        <v>2</v>
+      </c>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1468">
+        <v>39.29362</v>
+      </c>
+      <c r="D1468">
+        <v>117.333</v>
+      </c>
+      <c r="E1468" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1468">
+        <v>2</v>
+      </c>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1469">
+        <v>41.11981</v>
+      </c>
+      <c r="D1469">
+        <v>85.17822</v>
+      </c>
+      <c r="E1469" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1469">
+        <v>1</v>
+      </c>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1470">
+        <v>24.97411</v>
+      </c>
+      <c r="D1470">
+        <v>101.4868</v>
+      </c>
+      <c r="E1470" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1470">
+        <v>3</v>
+      </c>
+      <c r="G1470" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1471">
+        <v>29.18251</v>
+      </c>
+      <c r="D1471">
+        <v>120.0985</v>
+      </c>
+      <c r="E1471" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1471">
+        <v>5</v>
+      </c>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1472">
+        <v>30.97564</v>
+      </c>
+      <c r="D1472">
+        <v>112.2707</v>
+      </c>
+      <c r="E1472" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1472">
+        <v>100</v>
+      </c>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1473">
+        <v>27.61041</v>
+      </c>
+      <c r="D1473">
+        <v>111.7088</v>
+      </c>
+      <c r="E1473" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1473">
+        <v>1</v>
+      </c>
+      <c r="G1473" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1474">
+        <v>30.61714</v>
+      </c>
+      <c r="D1474">
+        <v>102.7103</v>
+      </c>
+      <c r="E1474" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1474">
+        <v>2</v>
+      </c>
+      <c r="G1474" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C1475">
+        <v>23.6978</v>
+      </c>
+      <c r="D1475">
+        <v>120.9605</v>
+      </c>
+      <c r="E1475" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1475">
+        <v>1</v>
+      </c>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C1476">
+        <v>20.5937</v>
+      </c>
+      <c r="D1476">
+        <v>78.9629</v>
+      </c>
+      <c r="E1476" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1476">
+        <v>3</v>
+      </c>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C1477">
+        <v>13.7563</v>
+      </c>
+      <c r="D1477">
+        <v>100.5018</v>
+      </c>
+      <c r="E1477" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1477">
+        <v>2</v>
+      </c>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C1478">
+        <v>55.3781</v>
+      </c>
+      <c r="D1478">
+        <v>-3.436</v>
+      </c>
+      <c r="E1478" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1478">
+        <v>7</v>
+      </c>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C1479">
+        <v>23.4241</v>
+      </c>
+      <c r="D1479">
+        <v>53.8478</v>
+      </c>
+      <c r="E1479" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1479">
+        <v>1</v>
+      </c>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1480">
+        <v>31.82571</v>
+      </c>
+      <c r="D1480">
+        <v>117.2264</v>
+      </c>
+      <c r="E1480" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1480">
+        <v>34</v>
+      </c>
+      <c r="G1480" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1481">
+        <v>40.18238</v>
+      </c>
+      <c r="D1481">
+        <v>116.4142</v>
+      </c>
+      <c r="E1481" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1481">
+        <v>10</v>
+      </c>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1482">
+        <v>30.05718</v>
+      </c>
+      <c r="D1482">
+        <v>107.874</v>
+      </c>
+      <c r="E1482" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1482">
+        <v>23</v>
+      </c>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1483">
+        <v>26.07783</v>
+      </c>
+      <c r="D1483">
+        <v>117.9895</v>
+      </c>
+      <c r="E1483" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1483">
+        <v>11</v>
+      </c>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1484">
+        <v>36.0611</v>
+      </c>
+      <c r="D1484">
+        <v>103.8343</v>
+      </c>
+      <c r="E1484" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1484">
+        <v>5</v>
+      </c>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1485">
+        <v>23.33841</v>
+      </c>
+      <c r="D1485">
+        <v>113.422</v>
+      </c>
+      <c r="E1485" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1485">
+        <v>55</v>
+      </c>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1486">
+        <v>23.82908</v>
+      </c>
+      <c r="D1486">
+        <v>108.7881</v>
+      </c>
+      <c r="E1486" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1486">
+        <v>5</v>
+      </c>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1487">
+        <v>26.81536</v>
+      </c>
+      <c r="D1487">
+        <v>106.8748</v>
+      </c>
+      <c r="E1487" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1487">
+        <v>5</v>
+      </c>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1488">
+        <v>19.19673</v>
+      </c>
+      <c r="D1488">
+        <v>109.7455</v>
+      </c>
+      <c r="E1488" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1488">
+        <v>13</v>
+      </c>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1489">
+        <v>38.0428</v>
+      </c>
+      <c r="D1489">
+        <v>114.5149</v>
+      </c>
+      <c r="E1489" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1489">
+        <v>4</v>
+      </c>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1490">
+        <v>47.862</v>
+      </c>
+      <c r="D1490">
+        <v>127.7622</v>
+      </c>
+      <c r="E1490" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1490">
+        <v>11</v>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1491">
+        <v>33.88202</v>
+      </c>
+      <c r="D1491">
+        <v>113.614</v>
+      </c>
+      <c r="E1491" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1491">
+        <v>49</v>
+      </c>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1492">
+        <v>22.3193</v>
+      </c>
+      <c r="D1492">
+        <v>114.1694</v>
+      </c>
+      <c r="E1492" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1492">
+        <v>1</v>
+      </c>
+      <c r="G1492" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1493">
+        <v>30.97564</v>
+      </c>
+      <c r="D1493">
+        <v>112.2707</v>
+      </c>
+      <c r="E1493" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1493">
+        <v>1016</v>
+      </c>
+      <c r="G1493" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1494">
+        <v>27.61041</v>
+      </c>
+      <c r="D1494">
+        <v>111.7088</v>
+      </c>
+      <c r="E1494" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1494">
+        <v>39</v>
+      </c>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1495">
+        <v>44.09448</v>
+      </c>
+      <c r="D1495">
+        <v>113.9456</v>
+      </c>
+      <c r="E1495" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1495">
+        <v>1</v>
+      </c>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1496">
+        <v>32.97027</v>
+      </c>
+      <c r="D1496">
+        <v>119.464</v>
+      </c>
+      <c r="E1496" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1496">
+        <v>32</v>
+      </c>
+      <c r="G1496" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1497">
+        <v>27.61401</v>
+      </c>
+      <c r="D1497">
+        <v>115.7221</v>
+      </c>
+      <c r="E1497" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1497">
+        <v>30</v>
+      </c>
+      <c r="G1497" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1498">
+        <v>43.66657</v>
+      </c>
+      <c r="D1498">
+        <v>126.1917</v>
+      </c>
+      <c r="E1498" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1498">
+        <v>4</v>
+      </c>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1499">
+        <v>41.29284000000001</v>
+      </c>
+      <c r="D1499">
+        <v>122.6086</v>
+      </c>
+      <c r="E1499" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1499">
+        <v>9</v>
+      </c>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="C1500">
+        <v>22.1987</v>
+      </c>
+      <c r="D1500">
+        <v>113.5439</v>
+      </c>
+      <c r="E1500" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1500">
+        <v>2</v>
+      </c>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1501">
+        <v>35.19165</v>
+      </c>
+      <c r="D1501">
+        <v>108.8701</v>
+      </c>
+      <c r="E1501" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1501">
+        <v>11</v>
+      </c>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1502">
+        <v>36.34377</v>
+      </c>
+      <c r="D1502">
+        <v>118.1529</v>
+      </c>
+      <c r="E1502" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1502">
+        <v>17</v>
+      </c>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1503">
+        <v>31.20327</v>
+      </c>
+      <c r="D1503">
+        <v>121.4554</v>
+      </c>
+      <c r="E1503" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1503">
+        <v>16</v>
+      </c>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1504">
+        <v>37.57769</v>
+      </c>
+      <c r="D1504">
+        <v>112.2922</v>
+      </c>
+      <c r="E1504" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1504">
+        <v>4</v>
+      </c>
+      <c r="G1504" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1505">
+        <v>30.61714000000001</v>
+      </c>
+      <c r="D1505">
+        <v>102.7103</v>
+      </c>
+      <c r="E1505" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1505">
+        <v>12</v>
+      </c>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1506">
+        <v>39.29362</v>
+      </c>
+      <c r="D1506">
+        <v>117.333</v>
+      </c>
+      <c r="E1506" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1506">
+        <v>8</v>
+      </c>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1507">
+        <v>41.11981</v>
+      </c>
+      <c r="D1507">
+        <v>85.17822</v>
+      </c>
+      <c r="E1507" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1507">
+        <v>2</v>
+      </c>
+      <c r="G1507" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1508">
+        <v>29.18251</v>
+      </c>
+      <c r="D1508">
+        <v>120.0985</v>
+      </c>
+      <c r="E1508" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F1508">
+        <v>28</v>
+      </c>
+      <c r="G1508" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1508"/>
+  <dimension ref="A1:G1576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D19">
         <v>122.6086</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D46">
         <v>127.7622</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D52">
         <v>122.6086</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D77">
         <v>127.7622</v>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D85">
         <v>122.6086</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D95">
         <v>127.7622</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D114">
         <v>127.7622</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D122">
         <v>122.6086</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D153">
         <v>127.7622</v>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D160">
         <v>122.6086</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D200">
         <v>127.7622</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D208">
         <v>122.6086</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D246">
         <v>127.7622</v>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D254">
         <v>122.6086</v>
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D288">
         <v>127.7622</v>
@@ -8720,7 +8720,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D295">
         <v>122.6086</v>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="C314">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D314">
         <v>122.6086</v>
@@ -9387,7 +9387,7 @@
         </is>
       </c>
       <c r="C318">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D318">
         <v>102.7103</v>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D334">
         <v>127.7622</v>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="C342">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D342">
         <v>122.6086</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D358">
         <v>127.7622</v>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="C372">
-        <v>61.52399999999999</v>
+        <v>61.524</v>
       </c>
       <c r="D372">
         <v>105.3188</v>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D389">
         <v>127.7622</v>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="C397">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D397">
         <v>122.6086</v>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="C445">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D445">
         <v>127.7622</v>
@@ -13226,7 +13226,7 @@
         </is>
       </c>
       <c r="C454">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D454">
         <v>122.6086</v>
@@ -14062,7 +14062,7 @@
         </is>
       </c>
       <c r="C483">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D483">
         <v>102.7103</v>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D502">
         <v>127.7622</v>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="C511">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D511">
         <v>122.6086</v>
@@ -15738,7 +15738,7 @@
         </is>
       </c>
       <c r="C542">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D542">
         <v>102.7103</v>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="C559">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D559">
         <v>127.7622</v>
@@ -16448,7 +16448,7 @@
         </is>
       </c>
       <c r="C567">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D567">
         <v>122.6086</v>
@@ -17289,7 +17289,7 @@
         </is>
       </c>
       <c r="C596">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D596">
         <v>102.7103</v>
@@ -17810,7 +17810,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D615">
         <v>127.7622</v>
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="C624">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D624">
         <v>122.6086</v>
@@ -18970,7 +18970,7 @@
         </is>
       </c>
       <c r="C655">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D655">
         <v>122.6086</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D676">
         <v>127.7622</v>
@@ -19825,7 +19825,7 @@
         </is>
       </c>
       <c r="C685">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D685">
         <v>122.6086</v>
@@ -20724,7 +20724,7 @@
         </is>
       </c>
       <c r="C716">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D716">
         <v>122.6086</v>
@@ -20898,7 +20898,7 @@
         </is>
       </c>
       <c r="C722">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D722">
         <v>102.7103</v>
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="C736">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D736">
         <v>127.7622</v>
@@ -21550,7 +21550,7 @@
         </is>
       </c>
       <c r="C745">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D745">
         <v>122.6086</v>
@@ -21956,7 +21956,7 @@
         </is>
       </c>
       <c r="C759">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D759">
         <v>127.7622</v>
@@ -22507,7 +22507,7 @@
         </is>
       </c>
       <c r="C778">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D778">
         <v>122.6086</v>
@@ -22681,7 +22681,7 @@
         </is>
       </c>
       <c r="C784">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D784">
         <v>102.7103</v>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="C807">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D807">
         <v>127.7622</v>
@@ -23574,7 +23574,7 @@
         </is>
       </c>
       <c r="C816">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D816">
         <v>122.6086</v>
@@ -24579,7 +24579,7 @@
         </is>
       </c>
       <c r="C851">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D851">
         <v>122.6086</v>
@@ -24753,7 +24753,7 @@
         </is>
       </c>
       <c r="C857">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D857">
         <v>102.7103</v>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C876">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D876">
         <v>127.7622</v>
@@ -25535,7 +25535,7 @@
         </is>
       </c>
       <c r="C885">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D885">
         <v>122.6086</v>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C898">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D898">
         <v>127.7622</v>
@@ -26535,7 +26535,7 @@
         </is>
       </c>
       <c r="C920">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D920">
         <v>122.6086</v>
@@ -26709,7 +26709,7 @@
         </is>
       </c>
       <c r="C926">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D926">
         <v>102.7103</v>
@@ -27264,7 +27264,7 @@
         </is>
       </c>
       <c r="C946">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D946">
         <v>127.7622</v>
@@ -27525,7 +27525,7 @@
         </is>
       </c>
       <c r="C955">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D955">
         <v>122.6086</v>
@@ -27989,7 +27989,7 @@
         </is>
       </c>
       <c r="C971">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D971">
         <v>127.7622</v>
@@ -28622,7 +28622,7 @@
         </is>
       </c>
       <c r="C993">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D993">
         <v>122.6086</v>
@@ -28825,7 +28825,7 @@
         </is>
       </c>
       <c r="C1000">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D1000">
         <v>102.7103</v>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="C1019">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1019">
         <v>127.7622</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="C1028">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1028">
         <v>122.6086</v>
@@ -29926,7 +29926,7 @@
         </is>
       </c>
       <c r="C1039">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1039">
         <v>127.7622</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="C1059">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1059">
         <v>122.6086</v>
@@ -30617,7 +30617,7 @@
         </is>
       </c>
       <c r="C1063">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D1063">
         <v>102.7103</v>
@@ -31143,7 +31143,7 @@
         </is>
       </c>
       <c r="C1082">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1082">
         <v>127.7622</v>
@@ -31375,7 +31375,7 @@
         </is>
       </c>
       <c r="C1090">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1090">
         <v>122.6086</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="C1105">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1105">
         <v>127.7622</v>
@@ -32515,7 +32515,7 @@
         </is>
       </c>
       <c r="C1130">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1130">
         <v>122.6086</v>
@@ -32718,7 +32718,7 @@
         </is>
       </c>
       <c r="C1137">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D1137">
         <v>102.7103</v>
@@ -33254,7 +33254,7 @@
         </is>
       </c>
       <c r="C1156">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1156">
         <v>127.7622</v>
@@ -33486,7 +33486,7 @@
         </is>
       </c>
       <c r="C1164">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1164">
         <v>122.6086</v>
@@ -33892,7 +33892,7 @@
         </is>
       </c>
       <c r="C1178">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1178">
         <v>122.6086</v>
@@ -34741,7 +34741,7 @@
         </is>
       </c>
       <c r="C1209">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1209">
         <v>122.6086</v>
@@ -35002,7 +35002,7 @@
         </is>
       </c>
       <c r="C1218">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D1218">
         <v>102.7103</v>
@@ -35451,7 +35451,7 @@
         </is>
       </c>
       <c r="C1234">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1234">
         <v>127.7622</v>
@@ -35712,7 +35712,7 @@
         </is>
       </c>
       <c r="C1243">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1243">
         <v>122.6086</v>
@@ -36229,7 +36229,7 @@
         </is>
       </c>
       <c r="C1261">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1261">
         <v>127.7622</v>
@@ -36939,7 +36939,7 @@
         </is>
       </c>
       <c r="C1286">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1286">
         <v>122.6086</v>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="C1294">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D1294">
         <v>102.7103</v>
@@ -37707,7 +37707,7 @@
         </is>
       </c>
       <c r="C1313">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1313">
         <v>127.7622</v>
@@ -37968,7 +37968,7 @@
         </is>
       </c>
       <c r="C1322">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1322">
         <v>122.6086</v>
@@ -38345,7 +38345,7 @@
         </is>
       </c>
       <c r="C1335">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1335">
         <v>127.7622</v>
@@ -38920,7 +38920,7 @@
         </is>
       </c>
       <c r="C1355">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1355">
         <v>122.6086</v>
@@ -39065,7 +39065,7 @@
         </is>
       </c>
       <c r="C1360">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D1360">
         <v>102.7103</v>
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="C1379">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1379">
         <v>127.7622</v>
@@ -40919,7 +40919,7 @@
         </is>
       </c>
       <c r="C1426">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1426">
         <v>122.6086</v>
@@ -41122,7 +41122,7 @@
         </is>
       </c>
       <c r="C1433">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D1433">
         <v>102.7103</v>
@@ -41648,7 +41648,7 @@
         </is>
       </c>
       <c r="C1452">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1452">
         <v>127.7622</v>
@@ -41909,7 +41909,7 @@
         </is>
       </c>
       <c r="C1461">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1461">
         <v>122.6086</v>
@@ -42991,7 +42991,7 @@
         </is>
       </c>
       <c r="C1499">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1499">
         <v>122.6086</v>
@@ -43165,7 +43165,7 @@
         </is>
       </c>
       <c r="C1505">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D1505">
         <v>102.7103</v>
@@ -43264,6 +43264,1938 @@
         <v>28</v>
       </c>
       <c r="G1508" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1509">
+        <v>35.6762</v>
+      </c>
+      <c r="D1509">
+        <v>139.6503</v>
+      </c>
+      <c r="E1509" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1509">
+        <v>7</v>
+      </c>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1510">
+        <v>1.3521</v>
+      </c>
+      <c r="D1510">
+        <v>103.8198</v>
+      </c>
+      <c r="E1510" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1510">
+        <v>2</v>
+      </c>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1511">
+        <v>37.5665</v>
+      </c>
+      <c r="D1511">
+        <v>126.978</v>
+      </c>
+      <c r="E1511" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1511">
+        <v>1</v>
+      </c>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C1512">
+        <v>13.7563</v>
+      </c>
+      <c r="D1512">
+        <v>100.5018</v>
+      </c>
+      <c r="E1512" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1512">
+        <v>1</v>
+      </c>
+      <c r="G1512" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1513">
+        <v>31.82571</v>
+      </c>
+      <c r="D1513">
+        <v>117.2264</v>
+      </c>
+      <c r="E1513" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1513">
+        <v>11</v>
+      </c>
+      <c r="G1513" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1514">
+        <v>40.18238</v>
+      </c>
+      <c r="D1514">
+        <v>116.4142</v>
+      </c>
+      <c r="E1514" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1514">
+        <v>1</v>
+      </c>
+      <c r="G1514" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C1515">
+        <v>49.2827</v>
+      </c>
+      <c r="D1515">
+        <v>-123.121</v>
+      </c>
+      <c r="E1515" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1515">
+        <v>1</v>
+      </c>
+      <c r="G1515" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1516">
+        <v>30.05718</v>
+      </c>
+      <c r="D1516">
+        <v>107.874</v>
+      </c>
+      <c r="E1516" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1516">
+        <v>2</v>
+      </c>
+      <c r="G1516" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1517">
+        <v>35.4437</v>
+      </c>
+      <c r="D1517">
+        <v>129.638</v>
+      </c>
+      <c r="E1517" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1517">
+        <v>99</v>
+      </c>
+      <c r="G1517" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1518">
+        <v>26.07783</v>
+      </c>
+      <c r="D1518">
+        <v>117.9895</v>
+      </c>
+      <c r="E1518" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1518">
+        <v>3</v>
+      </c>
+      <c r="G1518" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1519">
+        <v>36.0611</v>
+      </c>
+      <c r="D1519">
+        <v>103.8343</v>
+      </c>
+      <c r="E1519" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1519">
+        <v>1</v>
+      </c>
+      <c r="G1519" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1520">
+        <v>23.33841</v>
+      </c>
+      <c r="D1520">
+        <v>113.422</v>
+      </c>
+      <c r="E1520" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1520">
+        <v>6</v>
+      </c>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1521">
+        <v>23.82908</v>
+      </c>
+      <c r="D1521">
+        <v>108.7881</v>
+      </c>
+      <c r="E1521" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1521">
+        <v>1</v>
+      </c>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1522">
+        <v>26.81536</v>
+      </c>
+      <c r="D1522">
+        <v>106.8748</v>
+      </c>
+      <c r="E1522" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1522">
+        <v>2</v>
+      </c>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1523">
+        <v>19.19673</v>
+      </c>
+      <c r="D1523">
+        <v>109.7455</v>
+      </c>
+      <c r="E1523" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1523">
+        <v>1</v>
+      </c>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1524">
+        <v>38.0428</v>
+      </c>
+      <c r="D1524">
+        <v>114.5149</v>
+      </c>
+      <c r="E1524" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1524">
+        <v>1</v>
+      </c>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1525">
+        <v>47.862</v>
+      </c>
+      <c r="D1525">
+        <v>127.7622</v>
+      </c>
+      <c r="E1525" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1525">
+        <v>12</v>
+      </c>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1526">
+        <v>33.88202</v>
+      </c>
+      <c r="D1526">
+        <v>113.614</v>
+      </c>
+      <c r="E1526" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1526">
+        <v>15</v>
+      </c>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1527">
+        <v>22.3193</v>
+      </c>
+      <c r="D1527">
+        <v>114.1694</v>
+      </c>
+      <c r="E1527" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1527">
+        <v>3</v>
+      </c>
+      <c r="G1527" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1528">
+        <v>30.97564</v>
+      </c>
+      <c r="D1528">
+        <v>112.2707</v>
+      </c>
+      <c r="E1528" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1528">
+        <v>1807</v>
+      </c>
+      <c r="G1528" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1529">
+        <v>27.61041</v>
+      </c>
+      <c r="D1529">
+        <v>111.7088</v>
+      </c>
+      <c r="E1529" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1529">
+        <v>2</v>
+      </c>
+      <c r="G1529" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1530">
+        <v>44.09448</v>
+      </c>
+      <c r="D1530">
+        <v>113.9456</v>
+      </c>
+      <c r="E1530" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1530">
+        <v>2</v>
+      </c>
+      <c r="G1530" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1531">
+        <v>32.97027</v>
+      </c>
+      <c r="D1531">
+        <v>119.464</v>
+      </c>
+      <c r="E1531" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1531">
+        <v>9</v>
+      </c>
+      <c r="G1531" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1532">
+        <v>27.61401</v>
+      </c>
+      <c r="D1532">
+        <v>115.7221</v>
+      </c>
+      <c r="E1532" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1532">
+        <v>5</v>
+      </c>
+      <c r="G1532" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1533">
+        <v>35.19165</v>
+      </c>
+      <c r="D1533">
+        <v>108.8701</v>
+      </c>
+      <c r="E1533" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1533">
+        <v>4</v>
+      </c>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1534">
+        <v>36.34377</v>
+      </c>
+      <c r="D1534">
+        <v>118.1529</v>
+      </c>
+      <c r="E1534" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1534">
+        <v>4</v>
+      </c>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1535">
+        <v>31.20327</v>
+      </c>
+      <c r="D1535">
+        <v>121.4554</v>
+      </c>
+      <c r="E1535" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1535">
+        <v>5</v>
+      </c>
+      <c r="G1535" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1536">
+        <v>37.57769</v>
+      </c>
+      <c r="D1536">
+        <v>112.2922</v>
+      </c>
+      <c r="E1536" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1536">
+        <v>1</v>
+      </c>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1537">
+        <v>30.61714</v>
+      </c>
+      <c r="D1537">
+        <v>102.7103</v>
+      </c>
+      <c r="E1537" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1537">
+        <v>14</v>
+      </c>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C1538">
+        <v>23.6978</v>
+      </c>
+      <c r="D1538">
+        <v>120.9605</v>
+      </c>
+      <c r="E1538" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1538">
+        <v>2</v>
+      </c>
+      <c r="G1538" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1539">
+        <v>39.29362</v>
+      </c>
+      <c r="D1539">
+        <v>117.333</v>
+      </c>
+      <c r="E1539" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1539">
+        <v>1</v>
+      </c>
+      <c r="G1539" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1540">
+        <v>41.11981</v>
+      </c>
+      <c r="D1540">
+        <v>85.17822</v>
+      </c>
+      <c r="E1540" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1540">
+        <v>4</v>
+      </c>
+      <c r="G1540" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1541">
+        <v>29.18251</v>
+      </c>
+      <c r="D1541">
+        <v>120.0985</v>
+      </c>
+      <c r="E1541" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1541">
+        <v>4</v>
+      </c>
+      <c r="G1541" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1542">
+        <v>23.33841</v>
+      </c>
+      <c r="D1542">
+        <v>113.422</v>
+      </c>
+      <c r="E1542" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1542">
+        <v>2</v>
+      </c>
+      <c r="G1542" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1543">
+        <v>33.88202</v>
+      </c>
+      <c r="D1543">
+        <v>113.614</v>
+      </c>
+      <c r="E1543" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1543">
+        <v>3</v>
+      </c>
+      <c r="G1543" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1544">
+        <v>30.97564</v>
+      </c>
+      <c r="D1544">
+        <v>112.2707</v>
+      </c>
+      <c r="E1544" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1544">
+        <v>93</v>
+      </c>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C1545">
+        <v>50.5039</v>
+      </c>
+      <c r="D1545">
+        <v>4.4699</v>
+      </c>
+      <c r="E1545" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1545">
+        <v>1</v>
+      </c>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1546">
+        <v>1.3521</v>
+      </c>
+      <c r="D1546">
+        <v>103.8198</v>
+      </c>
+      <c r="E1546" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1546">
+        <v>6</v>
+      </c>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1547">
+        <v>37.5665</v>
+      </c>
+      <c r="D1547">
+        <v>126.978</v>
+      </c>
+      <c r="E1547" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1547">
+        <v>1</v>
+      </c>
+      <c r="G1547" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C1548">
+        <v>13.7563</v>
+      </c>
+      <c r="D1548">
+        <v>100.5018</v>
+      </c>
+      <c r="E1548" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1548">
+        <v>1</v>
+      </c>
+      <c r="G1548" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1549">
+        <v>31.82571</v>
+      </c>
+      <c r="D1549">
+        <v>117.2264</v>
+      </c>
+      <c r="E1549" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1549">
+        <v>25</v>
+      </c>
+      <c r="G1549" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1550">
+        <v>40.18238</v>
+      </c>
+      <c r="D1550">
+        <v>116.4142</v>
+      </c>
+      <c r="E1550" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1550">
+        <v>6</v>
+      </c>
+      <c r="G1550" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1551">
+        <v>30.05718</v>
+      </c>
+      <c r="D1551">
+        <v>107.874</v>
+      </c>
+      <c r="E1551" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1551">
+        <v>18</v>
+      </c>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1552">
+        <v>26.07783</v>
+      </c>
+      <c r="D1552">
+        <v>117.9895</v>
+      </c>
+      <c r="E1552" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1552">
+        <v>8</v>
+      </c>
+      <c r="G1552" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1553">
+        <v>36.0611</v>
+      </c>
+      <c r="D1553">
+        <v>103.8343</v>
+      </c>
+      <c r="E1553" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1553">
+        <v>4</v>
+      </c>
+      <c r="G1553" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1554">
+        <v>23.33841</v>
+      </c>
+      <c r="D1554">
+        <v>113.422</v>
+      </c>
+      <c r="E1554" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1554">
+        <v>59</v>
+      </c>
+      <c r="G1554" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1555">
+        <v>23.82908</v>
+      </c>
+      <c r="D1555">
+        <v>108.7881</v>
+      </c>
+      <c r="E1555" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1555">
+        <v>4</v>
+      </c>
+      <c r="G1555" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1556">
+        <v>26.81536</v>
+      </c>
+      <c r="D1556">
+        <v>106.8748</v>
+      </c>
+      <c r="E1556" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1556">
+        <v>11</v>
+      </c>
+      <c r="G1556" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1557">
+        <v>19.19673</v>
+      </c>
+      <c r="D1557">
+        <v>109.7455</v>
+      </c>
+      <c r="E1557" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1557">
+        <v>7</v>
+      </c>
+      <c r="G1557" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1558">
+        <v>38.0428</v>
+      </c>
+      <c r="D1558">
+        <v>114.5149</v>
+      </c>
+      <c r="E1558" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1558">
+        <v>17</v>
+      </c>
+      <c r="G1558" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1559">
+        <v>47.862</v>
+      </c>
+      <c r="D1559">
+        <v>127.7622</v>
+      </c>
+      <c r="E1559" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1559">
+        <v>6</v>
+      </c>
+      <c r="G1559" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1560">
+        <v>33.88202</v>
+      </c>
+      <c r="D1560">
+        <v>113.614</v>
+      </c>
+      <c r="E1560" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1560">
+        <v>69</v>
+      </c>
+      <c r="G1560" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1561">
+        <v>30.97564</v>
+      </c>
+      <c r="D1561">
+        <v>112.2707</v>
+      </c>
+      <c r="E1561" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1561">
+        <v>1223</v>
+      </c>
+      <c r="G1561" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1562">
+        <v>27.61041</v>
+      </c>
+      <c r="D1562">
+        <v>111.7088</v>
+      </c>
+      <c r="E1562" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1562">
+        <v>34</v>
+      </c>
+      <c r="G1562" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1563">
+        <v>32.97027</v>
+      </c>
+      <c r="D1563">
+        <v>119.464</v>
+      </c>
+      <c r="E1563" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1563">
+        <v>40</v>
+      </c>
+      <c r="G1563" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1564">
+        <v>27.61401</v>
+      </c>
+      <c r="D1564">
+        <v>115.7221</v>
+      </c>
+      <c r="E1564" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1564">
+        <v>35</v>
+      </c>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1565">
+        <v>43.66657</v>
+      </c>
+      <c r="D1565">
+        <v>126.1917</v>
+      </c>
+      <c r="E1565" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1565">
+        <v>4</v>
+      </c>
+      <c r="G1565" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1566">
+        <v>41.29284</v>
+      </c>
+      <c r="D1566">
+        <v>122.6086</v>
+      </c>
+      <c r="E1566" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1566">
+        <v>3</v>
+      </c>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1567">
+        <v>37.26923</v>
+      </c>
+      <c r="D1567">
+        <v>106.1655</v>
+      </c>
+      <c r="E1567" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1567">
+        <v>2</v>
+      </c>
+      <c r="G1567" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1568">
+        <v>35.19165</v>
+      </c>
+      <c r="D1568">
+        <v>108.8701</v>
+      </c>
+      <c r="E1568" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1568">
+        <v>8</v>
+      </c>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1569">
+        <v>36.34377</v>
+      </c>
+      <c r="D1569">
+        <v>118.1529</v>
+      </c>
+      <c r="E1569" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1569">
+        <v>18</v>
+      </c>
+      <c r="G1569" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1570">
+        <v>31.20327</v>
+      </c>
+      <c r="D1570">
+        <v>121.4554</v>
+      </c>
+      <c r="E1570" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1570">
+        <v>21</v>
+      </c>
+      <c r="G1570" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1571">
+        <v>37.57769</v>
+      </c>
+      <c r="D1571">
+        <v>112.2922</v>
+      </c>
+      <c r="E1571" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1571">
+        <v>3</v>
+      </c>
+      <c r="G1571" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1572">
+        <v>30.61714</v>
+      </c>
+      <c r="D1572">
+        <v>102.7103</v>
+      </c>
+      <c r="E1572" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1572">
+        <v>25</v>
+      </c>
+      <c r="G1572" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>South Australia</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C1573">
+        <v>-34.9285</v>
+      </c>
+      <c r="D1573">
+        <v>138.6007</v>
+      </c>
+      <c r="E1573" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1573">
+        <v>2</v>
+      </c>
+      <c r="G1573" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1574">
+        <v>39.29362</v>
+      </c>
+      <c r="D1574">
+        <v>117.333</v>
+      </c>
+      <c r="E1574" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1574">
+        <v>1</v>
+      </c>
+      <c r="G1574" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1575">
+        <v>24.97411</v>
+      </c>
+      <c r="D1575">
+        <v>101.4868</v>
+      </c>
+      <c r="E1575" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1575">
+        <v>5</v>
+      </c>
+      <c r="G1575" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1576">
+        <v>29.18251</v>
+      </c>
+      <c r="D1576">
+        <v>120.0985</v>
+      </c>
+      <c r="E1576" s="2">
+        <v>43878</v>
+      </c>
+      <c r="F1576">
+        <v>51</v>
+      </c>
+      <c r="G1576" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1576"/>
+  <dimension ref="A1:G1642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45201,6 +45201,1880 @@
         </is>
       </c>
     </row>
+    <row r="1577">
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1577">
+        <v>35.6762</v>
+      </c>
+      <c r="D1577">
+        <v>139.6503</v>
+      </c>
+      <c r="E1577" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1577">
+        <v>8</v>
+      </c>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1578">
+        <v>1.3521</v>
+      </c>
+      <c r="D1578">
+        <v>103.8198</v>
+      </c>
+      <c r="E1578" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1578">
+        <v>4</v>
+      </c>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1579">
+        <v>37.5665</v>
+      </c>
+      <c r="D1579">
+        <v>126.978</v>
+      </c>
+      <c r="E1579" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1579">
+        <v>1</v>
+      </c>
+      <c r="G1579" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1580">
+        <v>31.82571</v>
+      </c>
+      <c r="D1580">
+        <v>117.2264</v>
+      </c>
+      <c r="E1580" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1580">
+        <v>9</v>
+      </c>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1581">
+        <v>40.18238</v>
+      </c>
+      <c r="D1581">
+        <v>116.4142</v>
+      </c>
+      <c r="E1581" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1581">
+        <v>6</v>
+      </c>
+      <c r="G1581" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1582">
+        <v>30.05718</v>
+      </c>
+      <c r="D1582">
+        <v>107.874</v>
+      </c>
+      <c r="E1582" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1582">
+        <v>2</v>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1583">
+        <v>35.4437</v>
+      </c>
+      <c r="D1583">
+        <v>129.638</v>
+      </c>
+      <c r="E1583" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1583">
+        <v>88</v>
+      </c>
+      <c r="G1583" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1584">
+        <v>26.07783</v>
+      </c>
+      <c r="D1584">
+        <v>117.9895</v>
+      </c>
+      <c r="E1584" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1584">
+        <v>2</v>
+      </c>
+      <c r="G1584" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1585">
+        <v>23.33841</v>
+      </c>
+      <c r="D1585">
+        <v>113.422</v>
+      </c>
+      <c r="E1585" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1585">
+        <v>6</v>
+      </c>
+      <c r="G1585" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1586">
+        <v>23.82908</v>
+      </c>
+      <c r="D1586">
+        <v>108.7881</v>
+      </c>
+      <c r="E1586" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1586">
+        <v>4</v>
+      </c>
+      <c r="G1586" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1587">
+        <v>38.0428</v>
+      </c>
+      <c r="D1587">
+        <v>114.5149</v>
+      </c>
+      <c r="E1587" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1587">
+        <v>5</v>
+      </c>
+      <c r="G1587" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1588">
+        <v>47.862</v>
+      </c>
+      <c r="D1588">
+        <v>127.7622</v>
+      </c>
+      <c r="E1588" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1588">
+        <v>7</v>
+      </c>
+      <c r="G1588" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1589">
+        <v>33.88202</v>
+      </c>
+      <c r="D1589">
+        <v>113.614</v>
+      </c>
+      <c r="E1589" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1589">
+        <v>11</v>
+      </c>
+      <c r="G1589" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1590">
+        <v>22.3193</v>
+      </c>
+      <c r="D1590">
+        <v>114.1694</v>
+      </c>
+      <c r="E1590" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1590">
+        <v>2</v>
+      </c>
+      <c r="G1590" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1591">
+        <v>30.97564</v>
+      </c>
+      <c r="D1591">
+        <v>112.2707</v>
+      </c>
+      <c r="E1591" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1591">
+        <v>1693</v>
+      </c>
+      <c r="G1591" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1592">
+        <v>27.61041</v>
+      </c>
+      <c r="D1592">
+        <v>111.7088</v>
+      </c>
+      <c r="E1592" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1592">
+        <v>1</v>
+      </c>
+      <c r="G1592" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1593">
+        <v>44.09448</v>
+      </c>
+      <c r="D1593">
+        <v>113.9456</v>
+      </c>
+      <c r="E1593" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1593">
+        <v>1</v>
+      </c>
+      <c r="G1593" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1594">
+        <v>32.97027</v>
+      </c>
+      <c r="D1594">
+        <v>119.464</v>
+      </c>
+      <c r="E1594" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1594">
+        <v>3</v>
+      </c>
+      <c r="G1594" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1595">
+        <v>27.61401</v>
+      </c>
+      <c r="D1595">
+        <v>115.7221</v>
+      </c>
+      <c r="E1595" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1595">
+        <v>3</v>
+      </c>
+      <c r="G1595" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>Omaha, NE</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1596">
+        <v>41.2545</v>
+      </c>
+      <c r="D1596">
+        <v>-95.97580000000001</v>
+      </c>
+      <c r="E1596" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1596">
+        <v>14</v>
+      </c>
+      <c r="G1596" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1597">
+        <v>36.34377</v>
+      </c>
+      <c r="D1597">
+        <v>118.1529</v>
+      </c>
+      <c r="E1597" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1597">
+        <v>2</v>
+      </c>
+      <c r="G1597" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1598">
+        <v>37.57769</v>
+      </c>
+      <c r="D1598">
+        <v>112.2922</v>
+      </c>
+      <c r="E1598" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1598">
+        <v>1</v>
+      </c>
+      <c r="G1598" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1599">
+        <v>30.61714</v>
+      </c>
+      <c r="D1599">
+        <v>102.7103</v>
+      </c>
+      <c r="E1599" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1599">
+        <v>13</v>
+      </c>
+      <c r="G1599" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1600">
+        <v>39.29362</v>
+      </c>
+      <c r="D1600">
+        <v>117.333</v>
+      </c>
+      <c r="E1600" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1600">
+        <v>3</v>
+      </c>
+      <c r="G1600" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1601">
+        <v>41.11981</v>
+      </c>
+      <c r="D1601">
+        <v>85.17822</v>
+      </c>
+      <c r="E1601" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1601">
+        <v>1</v>
+      </c>
+      <c r="G1601" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1602">
+        <v>24.97411</v>
+      </c>
+      <c r="D1602">
+        <v>101.4868</v>
+      </c>
+      <c r="E1602" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1602">
+        <v>1</v>
+      </c>
+      <c r="G1602" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1603">
+        <v>29.18251</v>
+      </c>
+      <c r="D1603">
+        <v>120.0985</v>
+      </c>
+      <c r="E1603" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1603">
+        <v>1</v>
+      </c>
+      <c r="G1603" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1604">
+        <v>26.81536</v>
+      </c>
+      <c r="D1604">
+        <v>106.8748</v>
+      </c>
+      <c r="E1604" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1604">
+        <v>1</v>
+      </c>
+      <c r="G1604" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1605">
+        <v>38.0428</v>
+      </c>
+      <c r="D1605">
+        <v>114.5149</v>
+      </c>
+      <c r="E1605" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1605">
+        <v>1</v>
+      </c>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1606">
+        <v>33.88202</v>
+      </c>
+      <c r="D1606">
+        <v>113.614</v>
+      </c>
+      <c r="E1606" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1606">
+        <v>3</v>
+      </c>
+      <c r="G1606" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1607">
+        <v>30.97564</v>
+      </c>
+      <c r="D1607">
+        <v>112.2707</v>
+      </c>
+      <c r="E1607" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1607">
+        <v>132</v>
+      </c>
+      <c r="G1607" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1608">
+        <v>27.61041</v>
+      </c>
+      <c r="D1608">
+        <v>111.7088</v>
+      </c>
+      <c r="E1608" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1608">
+        <v>1</v>
+      </c>
+      <c r="G1608" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1609">
+        <v>36.34377</v>
+      </c>
+      <c r="D1609">
+        <v>118.1529</v>
+      </c>
+      <c r="E1609" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1609">
+        <v>1</v>
+      </c>
+      <c r="G1609" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C1610">
+        <v>51.1657</v>
+      </c>
+      <c r="D1610">
+        <v>10.4515</v>
+      </c>
+      <c r="E1610" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1610">
+        <v>11</v>
+      </c>
+      <c r="G1610" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1611">
+        <v>35.6762</v>
+      </c>
+      <c r="D1611">
+        <v>139.6503</v>
+      </c>
+      <c r="E1611" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1611">
+        <v>1</v>
+      </c>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C1612">
+        <v>4.2105</v>
+      </c>
+      <c r="D1612">
+        <v>101.9758</v>
+      </c>
+      <c r="E1612" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1612">
+        <v>6</v>
+      </c>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1613">
+        <v>1.3521</v>
+      </c>
+      <c r="D1613">
+        <v>103.8198</v>
+      </c>
+      <c r="E1613" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1613">
+        <v>5</v>
+      </c>
+      <c r="G1613" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1614">
+        <v>37.5665</v>
+      </c>
+      <c r="D1614">
+        <v>126.978</v>
+      </c>
+      <c r="E1614" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1614">
+        <v>2</v>
+      </c>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1615">
+        <v>31.82571</v>
+      </c>
+      <c r="D1615">
+        <v>117.2264</v>
+      </c>
+      <c r="E1615" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1615">
+        <v>81</v>
+      </c>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1616">
+        <v>40.18238</v>
+      </c>
+      <c r="D1616">
+        <v>116.4142</v>
+      </c>
+      <c r="E1616" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1616">
+        <v>8</v>
+      </c>
+      <c r="G1616" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1617">
+        <v>30.05718</v>
+      </c>
+      <c r="D1617">
+        <v>107.874</v>
+      </c>
+      <c r="E1617" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1617">
+        <v>29</v>
+      </c>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1618">
+        <v>26.07783</v>
+      </c>
+      <c r="D1618">
+        <v>117.9895</v>
+      </c>
+      <c r="E1618" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1618">
+        <v>3</v>
+      </c>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1619">
+        <v>36.0611</v>
+      </c>
+      <c r="D1619">
+        <v>103.8343</v>
+      </c>
+      <c r="E1619" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1619">
+        <v>4</v>
+      </c>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1620">
+        <v>23.33841</v>
+      </c>
+      <c r="D1620">
+        <v>113.422</v>
+      </c>
+      <c r="E1620" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1620">
+        <v>41</v>
+      </c>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1621">
+        <v>23.82908</v>
+      </c>
+      <c r="D1621">
+        <v>108.7881</v>
+      </c>
+      <c r="E1621" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1621">
+        <v>16</v>
+      </c>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1622">
+        <v>26.81536</v>
+      </c>
+      <c r="D1622">
+        <v>106.8748</v>
+      </c>
+      <c r="E1622" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1622">
+        <v>9</v>
+      </c>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1623">
+        <v>19.19673</v>
+      </c>
+      <c r="D1623">
+        <v>109.7455</v>
+      </c>
+      <c r="E1623" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1623">
+        <v>20</v>
+      </c>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1624">
+        <v>38.0428</v>
+      </c>
+      <c r="D1624">
+        <v>114.5149</v>
+      </c>
+      <c r="E1624" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1624">
+        <v>14</v>
+      </c>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1625">
+        <v>47.862</v>
+      </c>
+      <c r="D1625">
+        <v>127.7622</v>
+      </c>
+      <c r="E1625" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1625">
+        <v>26</v>
+      </c>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1626">
+        <v>33.88202</v>
+      </c>
+      <c r="D1626">
+        <v>113.614</v>
+      </c>
+      <c r="E1626" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1626">
+        <v>13</v>
+      </c>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1627">
+        <v>30.97564</v>
+      </c>
+      <c r="D1627">
+        <v>112.2707</v>
+      </c>
+      <c r="E1627" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1627">
+        <v>1266</v>
+      </c>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1628">
+        <v>27.61041</v>
+      </c>
+      <c r="D1628">
+        <v>111.7088</v>
+      </c>
+      <c r="E1628" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1628">
+        <v>29</v>
+      </c>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1629">
+        <v>32.97027</v>
+      </c>
+      <c r="D1629">
+        <v>119.464</v>
+      </c>
+      <c r="E1629" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1629">
+        <v>22</v>
+      </c>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1630">
+        <v>27.61401</v>
+      </c>
+      <c r="D1630">
+        <v>115.7221</v>
+      </c>
+      <c r="E1630" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1630">
+        <v>35</v>
+      </c>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1631">
+        <v>43.66657</v>
+      </c>
+      <c r="D1631">
+        <v>126.1917</v>
+      </c>
+      <c r="E1631" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1631">
+        <v>2</v>
+      </c>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1632">
+        <v>41.29284</v>
+      </c>
+      <c r="D1632">
+        <v>122.6086</v>
+      </c>
+      <c r="E1632" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1632">
+        <v>10</v>
+      </c>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1633">
+        <v>37.26923</v>
+      </c>
+      <c r="D1633">
+        <v>106.1655</v>
+      </c>
+      <c r="E1633" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1633">
+        <v>7</v>
+      </c>
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>Qinghai</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1634">
+        <v>35.65945</v>
+      </c>
+      <c r="D1634">
+        <v>96.02564</v>
+      </c>
+      <c r="E1634" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1634">
+        <v>2</v>
+      </c>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1635">
+        <v>35.19165</v>
+      </c>
+      <c r="D1635">
+        <v>108.8701</v>
+      </c>
+      <c r="E1635" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1635">
+        <v>10</v>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1636">
+        <v>36.34377</v>
+      </c>
+      <c r="D1636">
+        <v>118.1529</v>
+      </c>
+      <c r="E1636" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1636">
+        <v>20</v>
+      </c>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1637">
+        <v>31.20327</v>
+      </c>
+      <c r="D1637">
+        <v>121.4554</v>
+      </c>
+      <c r="E1637" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1637">
+        <v>16</v>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1638">
+        <v>37.57769</v>
+      </c>
+      <c r="D1638">
+        <v>112.2922</v>
+      </c>
+      <c r="E1638" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1638">
+        <v>8</v>
+      </c>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1639">
+        <v>30.61714</v>
+      </c>
+      <c r="D1639">
+        <v>102.7103</v>
+      </c>
+      <c r="E1639" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1639">
+        <v>13</v>
+      </c>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1640">
+        <v>39.29362</v>
+      </c>
+      <c r="D1640">
+        <v>117.333</v>
+      </c>
+      <c r="E1640" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1640">
+        <v>2</v>
+      </c>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1641">
+        <v>24.97411</v>
+      </c>
+      <c r="D1641">
+        <v>101.4868</v>
+      </c>
+      <c r="E1641" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1641">
+        <v>10</v>
+      </c>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1642">
+        <v>29.18251</v>
+      </c>
+      <c r="D1642">
+        <v>120.0985</v>
+      </c>
+      <c r="E1642" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F1642">
+        <v>28</v>
+      </c>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1642"/>
+  <dimension ref="A1:G1709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23084,7 +23084,7 @@
         <v>35.4437</v>
       </c>
       <c r="D799">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E799" s="2">
         <v>43868</v>
@@ -27035,7 +27035,7 @@
         <v>35.4437</v>
       </c>
       <c r="D938">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E938" s="2">
         <v>43870</v>
@@ -29146,7 +29146,7 @@
         <v>35.4437</v>
       </c>
       <c r="D1012">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E1012" s="2">
         <v>43871</v>
@@ -33025,7 +33025,7 @@
         <v>35.4437</v>
       </c>
       <c r="D1148">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E1148" s="2">
         <v>43873</v>
@@ -37507,7 +37507,7 @@
         <v>35.4437</v>
       </c>
       <c r="D1306">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E1306" s="2">
         <v>43875</v>
@@ -39396,7 +39396,7 @@
         <v>35.4437</v>
       </c>
       <c r="D1372">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E1372" s="2">
         <v>43876</v>
@@ -41477,7 +41477,7 @@
         <v>35.4437</v>
       </c>
       <c r="D1446">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E1446" s="2">
         <v>43877</v>
@@ -43496,7 +43496,7 @@
         <v>35.4437</v>
       </c>
       <c r="D1517">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E1517" s="2">
         <v>43878</v>
@@ -45375,7 +45375,7 @@
         <v>35.4437</v>
       </c>
       <c r="D1583">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E1583" s="2">
         <v>43879</v>
@@ -45740,25 +45740,25 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>Omaha, NE</t>
+          <t>Shandong</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C1596">
-        <v>41.2545</v>
+        <v>36.34377</v>
       </c>
       <c r="D1596">
-        <v>-95.97580000000001</v>
+        <v>118.1529</v>
       </c>
       <c r="E1596" s="2">
         <v>43879</v>
       </c>
       <c r="F1596">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G1596" t="inlineStr">
         <is>
@@ -45769,7 +45769,7 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
@@ -45778,16 +45778,16 @@
         </is>
       </c>
       <c r="C1597">
-        <v>36.34377</v>
+        <v>37.57769</v>
       </c>
       <c r="D1597">
-        <v>118.1529</v>
+        <v>112.2922</v>
       </c>
       <c r="E1597" s="2">
         <v>43879</v>
       </c>
       <c r="F1597">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
@@ -45798,7 +45798,7 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
@@ -45807,16 +45807,16 @@
         </is>
       </c>
       <c r="C1598">
-        <v>37.57769</v>
+        <v>30.61714</v>
       </c>
       <c r="D1598">
-        <v>112.2922</v>
+        <v>102.7103</v>
       </c>
       <c r="E1598" s="2">
         <v>43879</v>
       </c>
       <c r="F1598">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Tianjin</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -45836,16 +45836,16 @@
         </is>
       </c>
       <c r="C1599">
-        <v>30.61714</v>
+        <v>39.29362</v>
       </c>
       <c r="D1599">
-        <v>102.7103</v>
+        <v>117.333</v>
       </c>
       <c r="E1599" s="2">
         <v>43879</v>
       </c>
       <c r="F1599">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
@@ -45856,7 +45856,7 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>Tianjin</t>
+          <t>Xinjiang</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -45865,16 +45865,16 @@
         </is>
       </c>
       <c r="C1600">
-        <v>39.29362</v>
+        <v>41.11981</v>
       </c>
       <c r="D1600">
-        <v>117.333</v>
+        <v>85.17822</v>
       </c>
       <c r="E1600" s="2">
         <v>43879</v>
       </c>
       <c r="F1600">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1600" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>Xinjiang</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -45894,10 +45894,10 @@
         </is>
       </c>
       <c r="C1601">
-        <v>41.11981</v>
+        <v>24.97411</v>
       </c>
       <c r="D1601">
-        <v>85.17822</v>
+        <v>101.4868</v>
       </c>
       <c r="E1601" s="2">
         <v>43879</v>
@@ -45914,7 +45914,7 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Zhejiang</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -45923,10 +45923,10 @@
         </is>
       </c>
       <c r="C1602">
-        <v>24.97411</v>
+        <v>29.18251</v>
       </c>
       <c r="D1602">
-        <v>101.4868</v>
+        <v>120.0985</v>
       </c>
       <c r="E1602" s="2">
         <v>43879</v>
@@ -45943,7 +45943,7 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>Zhejiang</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
@@ -45952,10 +45952,10 @@
         </is>
       </c>
       <c r="C1603">
-        <v>29.18251</v>
+        <v>26.81536</v>
       </c>
       <c r="D1603">
-        <v>120.0985</v>
+        <v>106.8748</v>
       </c>
       <c r="E1603" s="2">
         <v>43879</v>
@@ -45965,14 +45965,14 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>death</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
@@ -45981,10 +45981,10 @@
         </is>
       </c>
       <c r="C1604">
-        <v>26.81536</v>
+        <v>38.0428</v>
       </c>
       <c r="D1604">
-        <v>106.8748</v>
+        <v>114.5149</v>
       </c>
       <c r="E1604" s="2">
         <v>43879</v>
@@ -46001,7 +46001,7 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
@@ -46010,16 +46010,16 @@
         </is>
       </c>
       <c r="C1605">
-        <v>38.0428</v>
+        <v>33.88202</v>
       </c>
       <c r="D1605">
-        <v>114.5149</v>
+        <v>113.614</v>
       </c>
       <c r="E1605" s="2">
         <v>43879</v>
       </c>
       <c r="F1605">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1605" t="inlineStr">
         <is>
@@ -46030,7 +46030,7 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
@@ -46039,16 +46039,16 @@
         </is>
       </c>
       <c r="C1606">
-        <v>33.88202</v>
+        <v>30.97564</v>
       </c>
       <c r="D1606">
-        <v>113.614</v>
+        <v>112.2707</v>
       </c>
       <c r="E1606" s="2">
         <v>43879</v>
       </c>
       <c r="F1606">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
@@ -46068,16 +46068,16 @@
         </is>
       </c>
       <c r="C1607">
-        <v>30.97564</v>
+        <v>27.61041</v>
       </c>
       <c r="D1607">
-        <v>112.2707</v>
+        <v>111.7088</v>
       </c>
       <c r="E1607" s="2">
         <v>43879</v>
       </c>
       <c r="F1607">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Shandong</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
@@ -46097,10 +46097,10 @@
         </is>
       </c>
       <c r="C1608">
-        <v>27.61041</v>
+        <v>36.34377</v>
       </c>
       <c r="D1608">
-        <v>111.7088</v>
+        <v>118.1529</v>
       </c>
       <c r="E1608" s="2">
         <v>43879</v>
@@ -46115,51 +46115,46 @@
       </c>
     </row>
     <row r="1609">
-      <c r="A1609" t="inlineStr">
-        <is>
-          <t>Shandong</t>
-        </is>
-      </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C1609">
-        <v>36.34377</v>
+        <v>51.1657</v>
       </c>
       <c r="D1609">
-        <v>118.1529</v>
+        <v>10.4515</v>
       </c>
       <c r="E1609" s="2">
         <v>43879</v>
       </c>
       <c r="F1609">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>recovered</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="B1610" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C1610">
-        <v>51.1657</v>
+        <v>35.6762</v>
       </c>
       <c r="D1610">
-        <v>10.4515</v>
+        <v>139.6503</v>
       </c>
       <c r="E1610" s="2">
         <v>43879</v>
       </c>
       <c r="F1610">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G1610" t="inlineStr">
         <is>
@@ -46170,20 +46165,20 @@
     <row r="1611">
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C1611">
-        <v>35.6762</v>
+        <v>4.2105</v>
       </c>
       <c r="D1611">
-        <v>139.6503</v>
+        <v>101.9758</v>
       </c>
       <c r="E1611" s="2">
         <v>43879</v>
       </c>
       <c r="F1611">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1611" t="inlineStr">
         <is>
@@ -46194,20 +46189,20 @@
     <row r="1612">
       <c r="B1612" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C1612">
-        <v>4.2105</v>
+        <v>1.3521</v>
       </c>
       <c r="D1612">
-        <v>101.9758</v>
+        <v>103.8198</v>
       </c>
       <c r="E1612" s="2">
         <v>43879</v>
       </c>
       <c r="F1612">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1612" t="inlineStr">
         <is>
@@ -46218,20 +46213,20 @@
     <row r="1613">
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C1613">
-        <v>1.3521</v>
+        <v>37.5665</v>
       </c>
       <c r="D1613">
-        <v>103.8198</v>
+        <v>126.978</v>
       </c>
       <c r="E1613" s="2">
         <v>43879</v>
       </c>
       <c r="F1613">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1613" t="inlineStr">
         <is>
@@ -46240,22 +46235,27 @@
       </c>
     </row>
     <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C1614">
-        <v>37.5665</v>
+        <v>31.82571</v>
       </c>
       <c r="D1614">
-        <v>126.978</v>
+        <v>117.2264</v>
       </c>
       <c r="E1614" s="2">
         <v>43879</v>
       </c>
       <c r="F1614">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G1614" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>Anhui</t>
+          <t>Beijing</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
@@ -46275,16 +46275,16 @@
         </is>
       </c>
       <c r="C1615">
-        <v>31.82571</v>
+        <v>40.18238</v>
       </c>
       <c r="D1615">
-        <v>117.2264</v>
+        <v>116.4142</v>
       </c>
       <c r="E1615" s="2">
         <v>43879</v>
       </c>
       <c r="F1615">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="G1615" t="inlineStr">
         <is>
@@ -46295,7 +46295,7 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
@@ -46304,16 +46304,16 @@
         </is>
       </c>
       <c r="C1616">
-        <v>40.18238</v>
+        <v>30.05718</v>
       </c>
       <c r="D1616">
-        <v>116.4142</v>
+        <v>107.874</v>
       </c>
       <c r="E1616" s="2">
         <v>43879</v>
       </c>
       <c r="F1616">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G1616" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Fujian</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
@@ -46333,16 +46333,16 @@
         </is>
       </c>
       <c r="C1617">
-        <v>30.05718</v>
+        <v>26.07783</v>
       </c>
       <c r="D1617">
-        <v>107.874</v>
+        <v>117.9895</v>
       </c>
       <c r="E1617" s="2">
         <v>43879</v>
       </c>
       <c r="F1617">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G1617" t="inlineStr">
         <is>
@@ -46353,7 +46353,7 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>Fujian</t>
+          <t>Gansu</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
@@ -46362,16 +46362,16 @@
         </is>
       </c>
       <c r="C1618">
-        <v>26.07783</v>
+        <v>36.0611</v>
       </c>
       <c r="D1618">
-        <v>117.9895</v>
+        <v>103.8343</v>
       </c>
       <c r="E1618" s="2">
         <v>43879</v>
       </c>
       <c r="F1618">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1618" t="inlineStr">
         <is>
@@ -46382,7 +46382,7 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>Gansu</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
@@ -46391,16 +46391,16 @@
         </is>
       </c>
       <c r="C1619">
-        <v>36.0611</v>
+        <v>23.33841</v>
       </c>
       <c r="D1619">
-        <v>103.8343</v>
+        <v>113.422</v>
       </c>
       <c r="E1619" s="2">
         <v>43879</v>
       </c>
       <c r="F1619">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G1619" t="inlineStr">
         <is>
@@ -46411,7 +46411,7 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
@@ -46420,16 +46420,16 @@
         </is>
       </c>
       <c r="C1620">
-        <v>23.33841</v>
+        <v>23.82908</v>
       </c>
       <c r="D1620">
-        <v>113.422</v>
+        <v>108.7881</v>
       </c>
       <c r="E1620" s="2">
         <v>43879</v>
       </c>
       <c r="F1620">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G1620" t="inlineStr">
         <is>
@@ -46440,7 +46440,7 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
@@ -46449,16 +46449,16 @@
         </is>
       </c>
       <c r="C1621">
-        <v>23.82908</v>
+        <v>26.81536</v>
       </c>
       <c r="D1621">
-        <v>108.7881</v>
+        <v>106.8748</v>
       </c>
       <c r="E1621" s="2">
         <v>43879</v>
       </c>
       <c r="F1621">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G1621" t="inlineStr">
         <is>
@@ -46469,7 +46469,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Hainan</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -46478,16 +46478,16 @@
         </is>
       </c>
       <c r="C1622">
-        <v>26.81536</v>
+        <v>19.19673</v>
       </c>
       <c r="D1622">
-        <v>106.8748</v>
+        <v>109.7455</v>
       </c>
       <c r="E1622" s="2">
         <v>43879</v>
       </c>
       <c r="F1622">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G1622" t="inlineStr">
         <is>
@@ -46498,7 +46498,7 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>Hainan</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
@@ -46507,16 +46507,16 @@
         </is>
       </c>
       <c r="C1623">
-        <v>19.19673</v>
+        <v>38.0428</v>
       </c>
       <c r="D1623">
-        <v>109.7455</v>
+        <v>114.5149</v>
       </c>
       <c r="E1623" s="2">
         <v>43879</v>
       </c>
       <c r="F1623">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G1623" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Heilongjiang</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -46536,16 +46536,16 @@
         </is>
       </c>
       <c r="C1624">
-        <v>38.0428</v>
+        <v>47.862</v>
       </c>
       <c r="D1624">
-        <v>114.5149</v>
+        <v>127.7622</v>
       </c>
       <c r="E1624" s="2">
         <v>43879</v>
       </c>
       <c r="F1624">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G1624" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>Heilongjiang</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
@@ -46565,16 +46565,16 @@
         </is>
       </c>
       <c r="C1625">
-        <v>47.862</v>
+        <v>33.88202</v>
       </c>
       <c r="D1625">
-        <v>127.7622</v>
+        <v>113.614</v>
       </c>
       <c r="E1625" s="2">
         <v>43879</v>
       </c>
       <c r="F1625">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G1625" t="inlineStr">
         <is>
@@ -46585,7 +46585,7 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
@@ -46594,16 +46594,16 @@
         </is>
       </c>
       <c r="C1626">
-        <v>33.88202</v>
+        <v>30.97564</v>
       </c>
       <c r="D1626">
-        <v>113.614</v>
+        <v>112.2707</v>
       </c>
       <c r="E1626" s="2">
         <v>43879</v>
       </c>
       <c r="F1626">
-        <v>13</v>
+        <v>1266</v>
       </c>
       <c r="G1626" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
@@ -46623,16 +46623,16 @@
         </is>
       </c>
       <c r="C1627">
-        <v>30.97564</v>
+        <v>27.61041</v>
       </c>
       <c r="D1627">
-        <v>112.2707</v>
+        <v>111.7088</v>
       </c>
       <c r="E1627" s="2">
         <v>43879</v>
       </c>
       <c r="F1627">
-        <v>1266</v>
+        <v>29</v>
       </c>
       <c r="G1627" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Jiangsu</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
@@ -46652,16 +46652,16 @@
         </is>
       </c>
       <c r="C1628">
-        <v>27.61041</v>
+        <v>32.97027</v>
       </c>
       <c r="D1628">
-        <v>111.7088</v>
+        <v>119.464</v>
       </c>
       <c r="E1628" s="2">
         <v>43879</v>
       </c>
       <c r="F1628">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G1628" t="inlineStr">
         <is>
@@ -46672,7 +46672,7 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>Jiangsu</t>
+          <t>Jiangxi</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
@@ -46681,16 +46681,16 @@
         </is>
       </c>
       <c r="C1629">
-        <v>32.97027</v>
+        <v>27.61401</v>
       </c>
       <c r="D1629">
-        <v>119.464</v>
+        <v>115.7221</v>
       </c>
       <c r="E1629" s="2">
         <v>43879</v>
       </c>
       <c r="F1629">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G1629" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>Jiangxi</t>
+          <t>Jilin</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
@@ -46710,16 +46710,16 @@
         </is>
       </c>
       <c r="C1630">
-        <v>27.61401</v>
+        <v>43.66657</v>
       </c>
       <c r="D1630">
-        <v>115.7221</v>
+        <v>126.1917</v>
       </c>
       <c r="E1630" s="2">
         <v>43879</v>
       </c>
       <c r="F1630">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G1630" t="inlineStr">
         <is>
@@ -46730,7 +46730,7 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>Jilin</t>
+          <t>Liaoning</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
@@ -46739,16 +46739,16 @@
         </is>
       </c>
       <c r="C1631">
-        <v>43.66657</v>
+        <v>41.29284</v>
       </c>
       <c r="D1631">
-        <v>126.1917</v>
+        <v>122.6086</v>
       </c>
       <c r="E1631" s="2">
         <v>43879</v>
       </c>
       <c r="F1631">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G1631" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>Liaoning</t>
+          <t>Ningxia</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
@@ -46768,16 +46768,16 @@
         </is>
       </c>
       <c r="C1632">
-        <v>41.29284</v>
+        <v>37.26923</v>
       </c>
       <c r="D1632">
-        <v>122.6086</v>
+        <v>106.1655</v>
       </c>
       <c r="E1632" s="2">
         <v>43879</v>
       </c>
       <c r="F1632">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G1632" t="inlineStr">
         <is>
@@ -46788,7 +46788,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>Ningxia</t>
+          <t>Qinghai</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="C1633">
-        <v>37.26923</v>
+        <v>35.65945</v>
       </c>
       <c r="D1633">
-        <v>106.1655</v>
+        <v>96.02564</v>
       </c>
       <c r="E1633" s="2">
         <v>43879</v>
       </c>
       <c r="F1633">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G1633" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>Qinghai</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
@@ -46826,16 +46826,16 @@
         </is>
       </c>
       <c r="C1634">
-        <v>35.65945</v>
+        <v>35.19165</v>
       </c>
       <c r="D1634">
-        <v>96.02564</v>
+        <v>108.8701</v>
       </c>
       <c r="E1634" s="2">
         <v>43879</v>
       </c>
       <c r="F1634">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G1634" t="inlineStr">
         <is>
@@ -46846,7 +46846,7 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Shandong</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
@@ -46855,16 +46855,16 @@
         </is>
       </c>
       <c r="C1635">
-        <v>35.19165</v>
+        <v>36.34377</v>
       </c>
       <c r="D1635">
-        <v>108.8701</v>
+        <v>118.1529</v>
       </c>
       <c r="E1635" s="2">
         <v>43879</v>
       </c>
       <c r="F1635">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G1635" t="inlineStr">
         <is>
@@ -46875,7 +46875,7 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
@@ -46884,16 +46884,16 @@
         </is>
       </c>
       <c r="C1636">
-        <v>36.34377</v>
+        <v>31.20327</v>
       </c>
       <c r="D1636">
-        <v>118.1529</v>
+        <v>121.4554</v>
       </c>
       <c r="E1636" s="2">
         <v>43879</v>
       </c>
       <c r="F1636">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G1636" t="inlineStr">
         <is>
@@ -46904,7 +46904,7 @@
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
@@ -46913,16 +46913,16 @@
         </is>
       </c>
       <c r="C1637">
-        <v>31.20327</v>
+        <v>37.57769</v>
       </c>
       <c r="D1637">
-        <v>121.4554</v>
+        <v>112.2922</v>
       </c>
       <c r="E1637" s="2">
         <v>43879</v>
       </c>
       <c r="F1637">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G1637" t="inlineStr">
         <is>
@@ -46933,7 +46933,7 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
@@ -46942,16 +46942,16 @@
         </is>
       </c>
       <c r="C1638">
-        <v>37.57769</v>
+        <v>30.61714</v>
       </c>
       <c r="D1638">
-        <v>112.2922</v>
+        <v>102.7103</v>
       </c>
       <c r="E1638" s="2">
         <v>43879</v>
       </c>
       <c r="F1638">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G1638" t="inlineStr">
         <is>
@@ -46962,7 +46962,7 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Tianjin</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
@@ -46971,16 +46971,16 @@
         </is>
       </c>
       <c r="C1639">
-        <v>30.61714</v>
+        <v>39.29362</v>
       </c>
       <c r="D1639">
-        <v>102.7103</v>
+        <v>117.333</v>
       </c>
       <c r="E1639" s="2">
         <v>43879</v>
       </c>
       <c r="F1639">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G1639" t="inlineStr">
         <is>
@@ -46991,7 +46991,7 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>Tianjin</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
@@ -47000,16 +47000,16 @@
         </is>
       </c>
       <c r="C1640">
-        <v>39.29362</v>
+        <v>24.97411</v>
       </c>
       <c r="D1640">
-        <v>117.333</v>
+        <v>101.4868</v>
       </c>
       <c r="E1640" s="2">
         <v>43879</v>
       </c>
       <c r="F1640">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G1640" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Zhejiang</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
@@ -47029,47 +47029,1955 @@
         </is>
       </c>
       <c r="C1641">
-        <v>24.97411</v>
+        <v>29.18251</v>
       </c>
       <c r="D1641">
-        <v>101.4868</v>
+        <v>120.0985</v>
       </c>
       <c r="E1641" s="2">
         <v>43879</v>
       </c>
       <c r="F1641">
+        <v>28</v>
+      </c>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1642">
+        <v>32.4279</v>
+      </c>
+      <c r="D1642">
+        <v>53.688</v>
+      </c>
+      <c r="E1642" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1642">
+        <v>2</v>
+      </c>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1643">
+        <v>35.6762</v>
+      </c>
+      <c r="D1643">
+        <v>139.6503</v>
+      </c>
+      <c r="E1643" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1643">
         <v>10</v>
       </c>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>recovered</t>
-        </is>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="inlineStr">
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1644">
+        <v>1.3521</v>
+      </c>
+      <c r="D1644">
+        <v>103.8198</v>
+      </c>
+      <c r="E1644" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1644">
+        <v>3</v>
+      </c>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1645">
+        <v>31.82571</v>
+      </c>
+      <c r="D1645">
+        <v>117.2264</v>
+      </c>
+      <c r="E1645" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1645">
+        <v>4</v>
+      </c>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1646">
+        <v>40.18238</v>
+      </c>
+      <c r="D1646">
+        <v>116.4142</v>
+      </c>
+      <c r="E1646" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1646">
+        <v>6</v>
+      </c>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1647">
+        <v>30.05718</v>
+      </c>
+      <c r="D1647">
+        <v>107.874</v>
+      </c>
+      <c r="E1647" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1647">
+        <v>5</v>
+      </c>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1648">
+        <v>35.4437</v>
+      </c>
+      <c r="D1648">
+        <v>139.638</v>
+      </c>
+      <c r="E1648" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1648">
+        <v>79</v>
+      </c>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1649">
+        <v>26.07783</v>
+      </c>
+      <c r="D1649">
+        <v>117.9895</v>
+      </c>
+      <c r="E1649" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1649">
+        <v>1</v>
+      </c>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1650">
+        <v>23.33841</v>
+      </c>
+      <c r="D1650">
+        <v>113.422</v>
+      </c>
+      <c r="E1650" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1650">
+        <v>3</v>
+      </c>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1651">
+        <v>23.82908</v>
+      </c>
+      <c r="D1651">
+        <v>108.7881</v>
+      </c>
+      <c r="E1651" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1651">
+        <v>2</v>
+      </c>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1652">
+        <v>19.19673</v>
+      </c>
+      <c r="D1652">
+        <v>109.7455</v>
+      </c>
+      <c r="E1652" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1652">
+        <v>5</v>
+      </c>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1653">
+        <v>47.862</v>
+      </c>
+      <c r="D1653">
+        <v>127.7622</v>
+      </c>
+      <c r="E1653" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1653">
+        <v>6</v>
+      </c>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1654">
+        <v>33.88202</v>
+      </c>
+      <c r="D1654">
+        <v>113.614</v>
+      </c>
+      <c r="E1654" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1654">
+        <v>5</v>
+      </c>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1655">
+        <v>22.3193</v>
+      </c>
+      <c r="D1655">
+        <v>114.1694</v>
+      </c>
+      <c r="E1655" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1655">
+        <v>1</v>
+      </c>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1656">
+        <v>30.97564</v>
+      </c>
+      <c r="D1656">
+        <v>112.2707</v>
+      </c>
+      <c r="E1656" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1656">
+        <v>349</v>
+      </c>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1657">
+        <v>27.61041</v>
+      </c>
+      <c r="D1657">
+        <v>111.7088</v>
+      </c>
+      <c r="E1657" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1657">
+        <v>1</v>
+      </c>
+      <c r="G1657" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1658">
+        <v>44.09448</v>
+      </c>
+      <c r="D1658">
+        <v>113.9456</v>
+      </c>
+      <c r="E1658" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1658">
+        <v>2</v>
+      </c>
+      <c r="G1658" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1659">
+        <v>32.97027</v>
+      </c>
+      <c r="D1659">
+        <v>119.464</v>
+      </c>
+      <c r="E1659" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1659">
+        <v>2</v>
+      </c>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1660">
+        <v>27.61401</v>
+      </c>
+      <c r="D1660">
+        <v>115.7221</v>
+      </c>
+      <c r="E1660" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1660">
+        <v>1</v>
+      </c>
+      <c r="G1660" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1661">
+        <v>43.66657</v>
+      </c>
+      <c r="D1661">
+        <v>126.1917</v>
+      </c>
+      <c r="E1661" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1661">
+        <v>1</v>
+      </c>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1662">
+        <v>37.26923</v>
+      </c>
+      <c r="D1662">
+        <v>106.1655</v>
+      </c>
+      <c r="E1662" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1662">
+        <v>1</v>
+      </c>
+      <c r="G1662" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1663">
+        <v>35.19165</v>
+      </c>
+      <c r="D1663">
+        <v>108.8701</v>
+      </c>
+      <c r="E1663" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1663">
+        <v>2</v>
+      </c>
+      <c r="G1663" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1664">
+        <v>36.34377</v>
+      </c>
+      <c r="D1664">
+        <v>118.1529</v>
+      </c>
+      <c r="E1664" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1664">
+        <v>1</v>
+      </c>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1665">
+        <v>30.61714</v>
+      </c>
+      <c r="D1665">
+        <v>102.7103</v>
+      </c>
+      <c r="E1665" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1665">
+        <v>6</v>
+      </c>
+      <c r="G1665" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C1666">
+        <v>23.6978</v>
+      </c>
+      <c r="D1666">
+        <v>120.9605</v>
+      </c>
+      <c r="E1666" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1666">
+        <v>1</v>
+      </c>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1667">
+        <v>39.29362</v>
+      </c>
+      <c r="D1667">
+        <v>117.333</v>
+      </c>
+      <c r="E1667" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1667">
+        <v>2</v>
+      </c>
+      <c r="G1667" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
         <is>
           <t>Zhejiang</t>
         </is>
       </c>
-      <c r="B1642" t="inlineStr">
-        <is>
-          <t>Mainland China</t>
-        </is>
-      </c>
-      <c r="C1642">
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1668">
         <v>29.18251</v>
       </c>
-      <c r="D1642">
+      <c r="D1668">
         <v>120.0985</v>
       </c>
-      <c r="E1642" s="2">
-        <v>43879</v>
-      </c>
-      <c r="F1642">
-        <v>28</v>
-      </c>
-      <c r="G1642" t="inlineStr">
+      <c r="E1668" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1668">
+        <v>2</v>
+      </c>
+      <c r="G1668" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1669">
+        <v>32.4279</v>
+      </c>
+      <c r="D1669">
+        <v>53.688</v>
+      </c>
+      <c r="E1669" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1669">
+        <v>2</v>
+      </c>
+      <c r="G1669" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1670">
+        <v>23.33841</v>
+      </c>
+      <c r="D1670">
+        <v>113.422</v>
+      </c>
+      <c r="E1670" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1670">
+        <v>1</v>
+      </c>
+      <c r="G1670" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1671">
+        <v>47.862</v>
+      </c>
+      <c r="D1671">
+        <v>127.7622</v>
+      </c>
+      <c r="E1671" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1671">
+        <v>1</v>
+      </c>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1672">
+        <v>22.3193</v>
+      </c>
+      <c r="D1672">
+        <v>114.1694</v>
+      </c>
+      <c r="E1672" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1672">
+        <v>1</v>
+      </c>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1673">
+        <v>30.97564</v>
+      </c>
+      <c r="D1673">
+        <v>112.2707</v>
+      </c>
+      <c r="E1673" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1673">
+        <v>108</v>
+      </c>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1674">
+        <v>31.20327</v>
+      </c>
+      <c r="D1674">
+        <v>121.4554</v>
+      </c>
+      <c r="E1674" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1674">
+        <v>1</v>
+      </c>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1675">
+        <v>24.97411</v>
+      </c>
+      <c r="D1675">
+        <v>101.4868</v>
+      </c>
+      <c r="E1675" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1675">
+        <v>1</v>
+      </c>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1676">
+        <v>35.6762</v>
+      </c>
+      <c r="D1676">
+        <v>139.6503</v>
+      </c>
+      <c r="E1676" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1676">
+        <v>5</v>
+      </c>
+      <c r="G1676" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C1677">
+        <v>4.2105</v>
+      </c>
+      <c r="D1677">
+        <v>101.9758</v>
+      </c>
+      <c r="E1677" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1677">
+        <v>2</v>
+      </c>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1678">
+        <v>1.3521</v>
+      </c>
+      <c r="D1678">
+        <v>103.8198</v>
+      </c>
+      <c r="E1678" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1678">
+        <v>5</v>
+      </c>
+      <c r="G1678" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1679">
+        <v>31.82571</v>
+      </c>
+      <c r="D1679">
+        <v>117.2264</v>
+      </c>
+      <c r="E1679" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1679">
+        <v>52</v>
+      </c>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1680">
+        <v>40.18238</v>
+      </c>
+      <c r="D1680">
+        <v>116.4142</v>
+      </c>
+      <c r="E1680" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1680">
+        <v>23</v>
+      </c>
+      <c r="G1680" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1681">
+        <v>30.05718</v>
+      </c>
+      <c r="D1681">
+        <v>107.874</v>
+      </c>
+      <c r="E1681" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1681">
+        <v>20</v>
+      </c>
+      <c r="G1681" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1682">
+        <v>35.4437</v>
+      </c>
+      <c r="D1682">
+        <v>139.638</v>
+      </c>
+      <c r="E1682" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1682">
+        <v>1</v>
+      </c>
+      <c r="G1682" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1683">
+        <v>26.07783</v>
+      </c>
+      <c r="D1683">
+        <v>117.9895</v>
+      </c>
+      <c r="E1683" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1683">
+        <v>19</v>
+      </c>
+      <c r="G1683" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1684">
+        <v>36.0611</v>
+      </c>
+      <c r="D1684">
+        <v>103.8343</v>
+      </c>
+      <c r="E1684" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1684">
+        <v>3</v>
+      </c>
+      <c r="G1684" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1685">
+        <v>23.33841</v>
+      </c>
+      <c r="D1685">
+        <v>113.422</v>
+      </c>
+      <c r="E1685" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1685">
+        <v>41</v>
+      </c>
+      <c r="G1685" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1686">
+        <v>23.82908</v>
+      </c>
+      <c r="D1686">
+        <v>108.7881</v>
+      </c>
+      <c r="E1686" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1686">
+        <v>17</v>
+      </c>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1687">
+        <v>26.81536</v>
+      </c>
+      <c r="D1687">
+        <v>106.8748</v>
+      </c>
+      <c r="E1687" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1687">
+        <v>4</v>
+      </c>
+      <c r="G1687" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1688">
+        <v>19.19673</v>
+      </c>
+      <c r="D1688">
+        <v>109.7455</v>
+      </c>
+      <c r="E1688" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1688">
+        <v>5</v>
+      </c>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1689">
+        <v>38.0428</v>
+      </c>
+      <c r="D1689">
+        <v>114.5149</v>
+      </c>
+      <c r="E1689" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1689">
+        <v>16</v>
+      </c>
+      <c r="G1689" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1690">
+        <v>47.862</v>
+      </c>
+      <c r="D1690">
+        <v>127.7622</v>
+      </c>
+      <c r="E1690" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1690">
+        <v>9</v>
+      </c>
+      <c r="G1690" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1691">
+        <v>33.88202</v>
+      </c>
+      <c r="D1691">
+        <v>113.614</v>
+      </c>
+      <c r="E1691" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1691">
+        <v>51</v>
+      </c>
+      <c r="G1691" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1692">
+        <v>22.3193</v>
+      </c>
+      <c r="D1692">
+        <v>114.1694</v>
+      </c>
+      <c r="E1692" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1692">
+        <v>3</v>
+      </c>
+      <c r="G1692" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1693">
+        <v>30.97564</v>
+      </c>
+      <c r="D1693">
+        <v>112.2707</v>
+      </c>
+      <c r="E1693" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1693">
+        <v>1209</v>
+      </c>
+      <c r="G1693" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1694">
+        <v>27.61041</v>
+      </c>
+      <c r="D1694">
+        <v>111.7088</v>
+      </c>
+      <c r="E1694" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1694">
+        <v>34</v>
+      </c>
+      <c r="G1694" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1695">
+        <v>44.09448</v>
+      </c>
+      <c r="D1695">
+        <v>113.9456</v>
+      </c>
+      <c r="E1695" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1695">
+        <v>2</v>
+      </c>
+      <c r="G1695" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1696">
+        <v>32.97027</v>
+      </c>
+      <c r="D1696">
+        <v>119.464</v>
+      </c>
+      <c r="E1696" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1696">
+        <v>38</v>
+      </c>
+      <c r="G1696" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1697">
+        <v>27.61401</v>
+      </c>
+      <c r="D1697">
+        <v>115.7221</v>
+      </c>
+      <c r="E1697" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1697">
+        <v>52</v>
+      </c>
+      <c r="G1697" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1698">
+        <v>43.66657</v>
+      </c>
+      <c r="D1698">
+        <v>126.1917</v>
+      </c>
+      <c r="E1698" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1698">
+        <v>1</v>
+      </c>
+      <c r="G1698" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1699">
+        <v>41.29284</v>
+      </c>
+      <c r="D1699">
+        <v>122.6086</v>
+      </c>
+      <c r="E1699" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1699">
+        <v>2</v>
+      </c>
+      <c r="G1699" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>Qinghai</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1700">
+        <v>35.65945</v>
+      </c>
+      <c r="D1700">
+        <v>96.02564</v>
+      </c>
+      <c r="E1700" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1700">
+        <v>1</v>
+      </c>
+      <c r="G1700" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1701">
+        <v>35.19165</v>
+      </c>
+      <c r="D1701">
+        <v>108.8701</v>
+      </c>
+      <c r="E1701" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1701">
+        <v>13</v>
+      </c>
+      <c r="G1701" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1702">
+        <v>36.34377</v>
+      </c>
+      <c r="D1702">
+        <v>118.1529</v>
+      </c>
+      <c r="E1702" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1702">
+        <v>20</v>
+      </c>
+      <c r="G1702" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1703">
+        <v>31.20327</v>
+      </c>
+      <c r="D1703">
+        <v>121.4554</v>
+      </c>
+      <c r="E1703" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1703">
+        <v>9</v>
+      </c>
+      <c r="G1703" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1704">
+        <v>37.57769</v>
+      </c>
+      <c r="D1704">
+        <v>112.2922</v>
+      </c>
+      <c r="E1704" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1704">
+        <v>7</v>
+      </c>
+      <c r="G1704" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1705">
+        <v>30.61714</v>
+      </c>
+      <c r="D1705">
+        <v>102.7103</v>
+      </c>
+      <c r="E1705" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1705">
+        <v>19</v>
+      </c>
+      <c r="G1705" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1706">
+        <v>39.29362</v>
+      </c>
+      <c r="D1706">
+        <v>117.333</v>
+      </c>
+      <c r="E1706" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1706">
+        <v>6</v>
+      </c>
+      <c r="G1706" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1707">
+        <v>41.11981</v>
+      </c>
+      <c r="D1707">
+        <v>85.17822</v>
+      </c>
+      <c r="E1707" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1707">
+        <v>8</v>
+      </c>
+      <c r="G1707" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1708">
+        <v>24.97411</v>
+      </c>
+      <c r="D1708">
+        <v>101.4868</v>
+      </c>
+      <c r="E1708" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1708">
+        <v>3</v>
+      </c>
+      <c r="G1708" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1709">
+        <v>29.18251</v>
+      </c>
+      <c r="D1709">
+        <v>120.0985</v>
+      </c>
+      <c r="E1709" s="2">
+        <v>43880</v>
+      </c>
+      <c r="F1709">
+        <v>69</v>
+      </c>
+      <c r="G1709" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1709"/>
+  <dimension ref="A1:G1776"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D19">
         <v>122.6086</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D46">
         <v>127.7622</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D52">
         <v>122.6086</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D77">
         <v>127.7622</v>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D85">
         <v>122.6086</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D95">
         <v>127.7622</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D114">
         <v>127.7622</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D122">
         <v>122.6086</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D153">
         <v>127.7622</v>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D160">
         <v>122.6086</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D200">
         <v>127.7622</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D208">
         <v>122.6086</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D246">
         <v>127.7622</v>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D254">
         <v>122.6086</v>
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D288">
         <v>127.7622</v>
@@ -8720,7 +8720,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D295">
         <v>122.6086</v>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="C314">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D314">
         <v>122.6086</v>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D334">
         <v>127.7622</v>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="C342">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D342">
         <v>122.6086</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D358">
         <v>127.7622</v>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="C372">
-        <v>61.524</v>
+        <v>61.52399999999999</v>
       </c>
       <c r="D372">
         <v>105.3188</v>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D389">
         <v>127.7622</v>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="C397">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D397">
         <v>122.6086</v>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="C445">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D445">
         <v>127.7622</v>
@@ -13226,7 +13226,7 @@
         </is>
       </c>
       <c r="C454">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D454">
         <v>122.6086</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D476">
         <v>127.7622</v>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D502">
         <v>127.7622</v>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="C511">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D511">
         <v>122.6086</v>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="C559">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D559">
         <v>127.7622</v>
@@ -16448,7 +16448,7 @@
         </is>
       </c>
       <c r="C567">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D567">
         <v>122.6086</v>
@@ -17810,7 +17810,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D615">
         <v>127.7622</v>
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="C624">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D624">
         <v>122.6086</v>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="C649">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D649">
         <v>127.7622</v>
@@ -18970,7 +18970,7 @@
         </is>
       </c>
       <c r="C655">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D655">
         <v>122.6086</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D676">
         <v>127.7622</v>
@@ -19825,7 +19825,7 @@
         </is>
       </c>
       <c r="C685">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D685">
         <v>122.6086</v>
@@ -20492,7 +20492,7 @@
         </is>
       </c>
       <c r="C708">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D708">
         <v>127.7622</v>
@@ -20724,7 +20724,7 @@
         </is>
       </c>
       <c r="C716">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D716">
         <v>122.6086</v>
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="C736">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D736">
         <v>127.7622</v>
@@ -21550,7 +21550,7 @@
         </is>
       </c>
       <c r="C745">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D745">
         <v>122.6086</v>
@@ -21956,7 +21956,7 @@
         </is>
       </c>
       <c r="C759">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D759">
         <v>127.7622</v>
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="C770">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D770">
         <v>127.7622</v>
@@ -22507,7 +22507,7 @@
         </is>
       </c>
       <c r="C778">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D778">
         <v>122.6086</v>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="C807">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D807">
         <v>127.7622</v>
@@ -23574,7 +23574,7 @@
         </is>
       </c>
       <c r="C816">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D816">
         <v>122.6086</v>
@@ -24376,7 +24376,7 @@
         </is>
       </c>
       <c r="C844">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D844">
         <v>127.7622</v>
@@ -24579,7 +24579,7 @@
         </is>
       </c>
       <c r="C851">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D851">
         <v>122.6086</v>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C876">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D876">
         <v>127.7622</v>
@@ -25535,7 +25535,7 @@
         </is>
       </c>
       <c r="C885">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D885">
         <v>122.6086</v>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C898">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D898">
         <v>127.7622</v>
@@ -26361,7 +26361,7 @@
         </is>
       </c>
       <c r="C914">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D914">
         <v>127.7622</v>
@@ -26535,7 +26535,7 @@
         </is>
       </c>
       <c r="C920">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D920">
         <v>122.6086</v>
@@ -27264,7 +27264,7 @@
         </is>
       </c>
       <c r="C946">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D946">
         <v>127.7622</v>
@@ -27525,7 +27525,7 @@
         </is>
       </c>
       <c r="C955">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D955">
         <v>122.6086</v>
@@ -27989,7 +27989,7 @@
         </is>
       </c>
       <c r="C971">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D971">
         <v>127.7622</v>
@@ -28419,7 +28419,7 @@
         </is>
       </c>
       <c r="C986">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D986">
         <v>127.7622</v>
@@ -28622,7 +28622,7 @@
         </is>
       </c>
       <c r="C993">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D993">
         <v>122.6086</v>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="C1019">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1019">
         <v>127.7622</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="C1028">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1028">
         <v>122.6086</v>
@@ -29926,7 +29926,7 @@
         </is>
       </c>
       <c r="C1039">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1039">
         <v>127.7622</v>
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="C1052">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1052">
         <v>127.7622</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="C1059">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1059">
         <v>122.6086</v>
@@ -31143,7 +31143,7 @@
         </is>
       </c>
       <c r="C1082">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1082">
         <v>127.7622</v>
@@ -31375,7 +31375,7 @@
         </is>
       </c>
       <c r="C1090">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1090">
         <v>122.6086</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="C1105">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1105">
         <v>127.7622</v>
@@ -32312,7 +32312,7 @@
         </is>
       </c>
       <c r="C1123">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1123">
         <v>127.7622</v>
@@ -32515,7 +32515,7 @@
         </is>
       </c>
       <c r="C1130">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1130">
         <v>122.6086</v>
@@ -33254,7 +33254,7 @@
         </is>
       </c>
       <c r="C1156">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1156">
         <v>127.7622</v>
@@ -33486,7 +33486,7 @@
         </is>
       </c>
       <c r="C1164">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1164">
         <v>122.6086</v>
@@ -33892,7 +33892,7 @@
         </is>
       </c>
       <c r="C1178">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1178">
         <v>122.6086</v>
@@ -34065,7 +34065,7 @@
         </is>
       </c>
       <c r="C1185">
-        <v>61.524</v>
+        <v>61.52399999999999</v>
       </c>
       <c r="D1185">
         <v>105.3188</v>
@@ -34480,7 +34480,7 @@
         </is>
       </c>
       <c r="C1200">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1200">
         <v>127.7622</v>
@@ -34741,7 +34741,7 @@
         </is>
       </c>
       <c r="C1209">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1209">
         <v>122.6086</v>
@@ -35451,7 +35451,7 @@
         </is>
       </c>
       <c r="C1234">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1234">
         <v>127.7622</v>
@@ -35712,7 +35712,7 @@
         </is>
       </c>
       <c r="C1243">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1243">
         <v>122.6086</v>
@@ -36229,7 +36229,7 @@
         </is>
       </c>
       <c r="C1261">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1261">
         <v>127.7622</v>
@@ -36736,7 +36736,7 @@
         </is>
       </c>
       <c r="C1279">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1279">
         <v>127.7622</v>
@@ -36939,7 +36939,7 @@
         </is>
       </c>
       <c r="C1286">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1286">
         <v>122.6086</v>
@@ -37707,7 +37707,7 @@
         </is>
       </c>
       <c r="C1313">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1313">
         <v>127.7622</v>
@@ -37968,7 +37968,7 @@
         </is>
       </c>
       <c r="C1322">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1322">
         <v>122.6086</v>
@@ -38345,7 +38345,7 @@
         </is>
       </c>
       <c r="C1335">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1335">
         <v>127.7622</v>
@@ -38717,7 +38717,7 @@
         </is>
       </c>
       <c r="C1348">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1348">
         <v>127.7622</v>
@@ -38920,7 +38920,7 @@
         </is>
       </c>
       <c r="C1355">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1355">
         <v>122.6086</v>
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="C1379">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1379">
         <v>127.7622</v>
@@ -40687,7 +40687,7 @@
         </is>
       </c>
       <c r="C1418">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1418">
         <v>127.7622</v>
@@ -40919,7 +40919,7 @@
         </is>
       </c>
       <c r="C1426">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1426">
         <v>122.6086</v>
@@ -41648,7 +41648,7 @@
         </is>
       </c>
       <c r="C1452">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1452">
         <v>127.7622</v>
@@ -41909,7 +41909,7 @@
         </is>
       </c>
       <c r="C1461">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1461">
         <v>122.6086</v>
@@ -42730,7 +42730,7 @@
         </is>
       </c>
       <c r="C1490">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1490">
         <v>127.7622</v>
@@ -42991,7 +42991,7 @@
         </is>
       </c>
       <c r="C1499">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1499">
         <v>122.6086</v>
@@ -43725,7 +43725,7 @@
         </is>
       </c>
       <c r="C1525">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1525">
         <v>127.7622</v>
@@ -44691,7 +44691,7 @@
         </is>
       </c>
       <c r="C1559">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1559">
         <v>127.7622</v>
@@ -44894,7 +44894,7 @@
         </is>
       </c>
       <c r="C1566">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1566">
         <v>122.6086</v>
@@ -45517,7 +45517,7 @@
         </is>
       </c>
       <c r="C1588">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1588">
         <v>127.7622</v>
@@ -46536,7 +46536,7 @@
         </is>
       </c>
       <c r="C1624">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1624">
         <v>127.7622</v>
@@ -46739,7 +46739,7 @@
         </is>
       </c>
       <c r="C1631">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1631">
         <v>122.6086</v>
@@ -47362,7 +47362,7 @@
         </is>
       </c>
       <c r="C1653">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1653">
         <v>127.7622</v>
@@ -47879,7 +47879,7 @@
         </is>
       </c>
       <c r="C1671">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1671">
         <v>127.7622</v>
@@ -48415,7 +48415,7 @@
         </is>
       </c>
       <c r="C1690">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1690">
         <v>127.7622</v>
@@ -48676,7 +48676,7 @@
         </is>
       </c>
       <c r="C1699">
-        <v>41.29284</v>
+        <v>41.29284000000001</v>
       </c>
       <c r="D1699">
         <v>122.6086</v>
@@ -48978,6 +48978,1924 @@
         <v>69</v>
       </c>
       <c r="G1709" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1710">
+        <v>32.4279</v>
+      </c>
+      <c r="D1710">
+        <v>53.688</v>
+      </c>
+      <c r="E1710" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1710">
+        <v>3</v>
+      </c>
+      <c r="G1710" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1711">
+        <v>35.6762</v>
+      </c>
+      <c r="D1711">
+        <v>139.6503</v>
+      </c>
+      <c r="E1711" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1711">
+        <v>10</v>
+      </c>
+      <c r="G1711" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1712">
+        <v>37.5665</v>
+      </c>
+      <c r="D1712">
+        <v>126.978</v>
+      </c>
+      <c r="E1712" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1712">
+        <v>73</v>
+      </c>
+      <c r="G1712" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1713">
+        <v>31.82571</v>
+      </c>
+      <c r="D1713">
+        <v>117.2264</v>
+      </c>
+      <c r="E1713" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1713">
+        <v>1</v>
+      </c>
+      <c r="G1713" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1714">
+        <v>40.18238</v>
+      </c>
+      <c r="D1714">
+        <v>116.4142</v>
+      </c>
+      <c r="E1714" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1714">
+        <v>2</v>
+      </c>
+      <c r="G1714" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1715">
+        <v>30.05718</v>
+      </c>
+      <c r="D1715">
+        <v>107.874</v>
+      </c>
+      <c r="E1715" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1715">
+        <v>7</v>
+      </c>
+      <c r="G1715" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1716">
+        <v>35.4437</v>
+      </c>
+      <c r="D1716">
+        <v>139.638</v>
+      </c>
+      <c r="E1716" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1716">
+        <v>13</v>
+      </c>
+      <c r="G1716" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1717">
+        <v>23.33841</v>
+      </c>
+      <c r="D1717">
+        <v>113.422</v>
+      </c>
+      <c r="E1717" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1717">
+        <v>1</v>
+      </c>
+      <c r="G1717" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1718">
+        <v>23.82908</v>
+      </c>
+      <c r="D1718">
+        <v>108.7881</v>
+      </c>
+      <c r="E1718" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1718">
+        <v>1</v>
+      </c>
+      <c r="G1718" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1719">
+        <v>38.0428</v>
+      </c>
+      <c r="D1719">
+        <v>114.5149</v>
+      </c>
+      <c r="E1719" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1719">
+        <v>1</v>
+      </c>
+      <c r="G1719" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1720">
+        <v>47.86199999999999</v>
+      </c>
+      <c r="D1720">
+        <v>127.7622</v>
+      </c>
+      <c r="E1720" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1720">
+        <v>6</v>
+      </c>
+      <c r="G1720" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1721">
+        <v>33.88202</v>
+      </c>
+      <c r="D1721">
+        <v>113.614</v>
+      </c>
+      <c r="E1721" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1721">
+        <v>3</v>
+      </c>
+      <c r="G1721" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1722">
+        <v>22.3193</v>
+      </c>
+      <c r="D1722">
+        <v>114.1694</v>
+      </c>
+      <c r="E1722" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1722">
+        <v>5</v>
+      </c>
+      <c r="G1722" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1723">
+        <v>30.97564</v>
+      </c>
+      <c r="D1723">
+        <v>112.2707</v>
+      </c>
+      <c r="E1723" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1723">
+        <v>411</v>
+      </c>
+      <c r="G1723" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1724">
+        <v>27.61041</v>
+      </c>
+      <c r="D1724">
+        <v>111.7088</v>
+      </c>
+      <c r="E1724" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1724">
+        <v>2</v>
+      </c>
+      <c r="G1724" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1725">
+        <v>43.66657</v>
+      </c>
+      <c r="D1725">
+        <v>126.1917</v>
+      </c>
+      <c r="E1725" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1725">
+        <v>1</v>
+      </c>
+      <c r="G1725" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1726">
+        <v>35.19165</v>
+      </c>
+      <c r="D1726">
+        <v>108.8701</v>
+      </c>
+      <c r="E1726" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1726">
+        <v>3</v>
+      </c>
+      <c r="G1726" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1727">
+        <v>36.34377</v>
+      </c>
+      <c r="D1727">
+        <v>118.1529</v>
+      </c>
+      <c r="E1727" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1727">
+        <v>2</v>
+      </c>
+      <c r="G1727" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1728">
+        <v>31.20327</v>
+      </c>
+      <c r="D1728">
+        <v>121.4554</v>
+      </c>
+      <c r="E1728" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1728">
+        <v>1</v>
+      </c>
+      <c r="G1728" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1729">
+        <v>37.57769</v>
+      </c>
+      <c r="D1729">
+        <v>112.2922</v>
+      </c>
+      <c r="E1729" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1729">
+        <v>1</v>
+      </c>
+      <c r="G1729" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1730">
+        <v>30.61714</v>
+      </c>
+      <c r="D1730">
+        <v>102.7103</v>
+      </c>
+      <c r="E1730" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1730">
+        <v>6</v>
+      </c>
+      <c r="G1730" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C1731">
+        <v>23.6978</v>
+      </c>
+      <c r="D1731">
+        <v>120.9605</v>
+      </c>
+      <c r="E1731" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1731">
+        <v>1</v>
+      </c>
+      <c r="G1731" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1732">
+        <v>39.29362</v>
+      </c>
+      <c r="D1732">
+        <v>117.333</v>
+      </c>
+      <c r="E1732" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1732">
+        <v>1</v>
+      </c>
+      <c r="G1732" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1733">
+        <v>24.97411</v>
+      </c>
+      <c r="D1733">
+        <v>101.4868</v>
+      </c>
+      <c r="E1733" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1733">
+        <v>2</v>
+      </c>
+      <c r="G1733" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1734">
+        <v>29.18251</v>
+      </c>
+      <c r="D1734">
+        <v>120.0985</v>
+      </c>
+      <c r="E1734" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1734">
+        <v>1</v>
+      </c>
+      <c r="G1734" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1735">
+        <v>37.5665</v>
+      </c>
+      <c r="D1735">
+        <v>126.978</v>
+      </c>
+      <c r="E1735" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1735">
+        <v>1</v>
+      </c>
+      <c r="G1735" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1736">
+        <v>30.05718</v>
+      </c>
+      <c r="D1736">
+        <v>107.874</v>
+      </c>
+      <c r="E1736" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1736">
+        <v>1</v>
+      </c>
+      <c r="G1736" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1737">
+        <v>35.4437</v>
+      </c>
+      <c r="D1737">
+        <v>139.638</v>
+      </c>
+      <c r="E1737" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1737">
+        <v>2</v>
+      </c>
+      <c r="G1737" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1738">
+        <v>26.07783</v>
+      </c>
+      <c r="D1738">
+        <v>117.9895</v>
+      </c>
+      <c r="E1738" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1738">
+        <v>1</v>
+      </c>
+      <c r="G1738" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1739">
+        <v>38.0428</v>
+      </c>
+      <c r="D1739">
+        <v>114.5149</v>
+      </c>
+      <c r="E1739" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1739">
+        <v>1</v>
+      </c>
+      <c r="G1739" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1740">
+        <v>30.97564</v>
+      </c>
+      <c r="D1740">
+        <v>112.2707</v>
+      </c>
+      <c r="E1740" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1740">
+        <v>115</v>
+      </c>
+      <c r="G1740" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1741">
+        <v>35.19165</v>
+      </c>
+      <c r="D1741">
+        <v>108.8701</v>
+      </c>
+      <c r="E1741" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1741">
+        <v>1</v>
+      </c>
+      <c r="G1741" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1742">
+        <v>36.34377</v>
+      </c>
+      <c r="D1742">
+        <v>118.1529</v>
+      </c>
+      <c r="E1742" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1742">
+        <v>1</v>
+      </c>
+      <c r="G1742" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1743">
+        <v>24.97411</v>
+      </c>
+      <c r="D1743">
+        <v>101.4868</v>
+      </c>
+      <c r="E1743" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1743">
+        <v>1</v>
+      </c>
+      <c r="G1743" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1744">
+        <v>29.18251</v>
+      </c>
+      <c r="D1744">
+        <v>120.0985</v>
+      </c>
+      <c r="E1744" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1744">
+        <v>1</v>
+      </c>
+      <c r="G1744" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1745">
+        <v>37.5665</v>
+      </c>
+      <c r="D1745">
+        <v>126.978</v>
+      </c>
+      <c r="E1745" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1745">
+        <v>4</v>
+      </c>
+      <c r="G1745" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1746">
+        <v>31.82571</v>
+      </c>
+      <c r="D1746">
+        <v>117.2264</v>
+      </c>
+      <c r="E1746" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1746">
+        <v>61</v>
+      </c>
+      <c r="G1746" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1747">
+        <v>40.18238</v>
+      </c>
+      <c r="D1747">
+        <v>116.4142</v>
+      </c>
+      <c r="E1747" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1747">
+        <v>8</v>
+      </c>
+      <c r="G1747" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1748">
+        <v>30.05718</v>
+      </c>
+      <c r="D1748">
+        <v>107.874</v>
+      </c>
+      <c r="E1748" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1748">
+        <v>25</v>
+      </c>
+      <c r="G1748" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1749">
+        <v>26.07783</v>
+      </c>
+      <c r="D1749">
+        <v>117.9895</v>
+      </c>
+      <c r="E1749" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1749">
+        <v>14</v>
+      </c>
+      <c r="G1749" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1750">
+        <v>36.0611</v>
+      </c>
+      <c r="D1750">
+        <v>103.8343</v>
+      </c>
+      <c r="E1750" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1750">
+        <v>6</v>
+      </c>
+      <c r="G1750" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1751">
+        <v>23.33841</v>
+      </c>
+      <c r="D1751">
+        <v>113.422</v>
+      </c>
+      <c r="E1751" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1751">
+        <v>36</v>
+      </c>
+      <c r="G1751" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1752">
+        <v>23.82908</v>
+      </c>
+      <c r="D1752">
+        <v>108.7881</v>
+      </c>
+      <c r="E1752" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1752">
+        <v>4</v>
+      </c>
+      <c r="G1752" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1753">
+        <v>26.81536</v>
+      </c>
+      <c r="D1753">
+        <v>106.8748</v>
+      </c>
+      <c r="E1753" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1753">
+        <v>2</v>
+      </c>
+      <c r="G1753" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1754">
+        <v>19.19673</v>
+      </c>
+      <c r="D1754">
+        <v>109.7455</v>
+      </c>
+      <c r="E1754" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1754">
+        <v>2</v>
+      </c>
+      <c r="G1754" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1755">
+        <v>38.0428</v>
+      </c>
+      <c r="D1755">
+        <v>114.5149</v>
+      </c>
+      <c r="E1755" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1755">
+        <v>17</v>
+      </c>
+      <c r="G1755" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1756">
+        <v>47.86199999999999</v>
+      </c>
+      <c r="D1756">
+        <v>127.7622</v>
+      </c>
+      <c r="E1756" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1756">
+        <v>16</v>
+      </c>
+      <c r="G1756" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1757">
+        <v>33.88202</v>
+      </c>
+      <c r="D1757">
+        <v>113.614</v>
+      </c>
+      <c r="E1757" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1757">
+        <v>64</v>
+      </c>
+      <c r="G1757" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1758">
+        <v>22.3193</v>
+      </c>
+      <c r="D1758">
+        <v>114.1694</v>
+      </c>
+      <c r="E1758" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1758">
+        <v>1</v>
+      </c>
+      <c r="G1758" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1759">
+        <v>30.97564</v>
+      </c>
+      <c r="D1759">
+        <v>112.2707</v>
+      </c>
+      <c r="E1759" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1759">
+        <v>1451</v>
+      </c>
+      <c r="G1759" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1760">
+        <v>27.61041</v>
+      </c>
+      <c r="D1760">
+        <v>111.7088</v>
+      </c>
+      <c r="E1760" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1760">
+        <v>73</v>
+      </c>
+      <c r="G1760" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1761">
+        <v>44.09448</v>
+      </c>
+      <c r="D1761">
+        <v>113.9456</v>
+      </c>
+      <c r="E1761" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1761">
+        <v>6</v>
+      </c>
+      <c r="G1761" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1762">
+        <v>32.97027</v>
+      </c>
+      <c r="D1762">
+        <v>119.464</v>
+      </c>
+      <c r="E1762" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1762">
+        <v>38</v>
+      </c>
+      <c r="G1762" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1763">
+        <v>27.61401</v>
+      </c>
+      <c r="D1763">
+        <v>115.7221</v>
+      </c>
+      <c r="E1763" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1763">
+        <v>71</v>
+      </c>
+      <c r="G1763" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1764">
+        <v>43.66657</v>
+      </c>
+      <c r="D1764">
+        <v>126.1917</v>
+      </c>
+      <c r="E1764" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1764">
+        <v>6</v>
+      </c>
+      <c r="G1764" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1765">
+        <v>41.29284000000001</v>
+      </c>
+      <c r="D1765">
+        <v>122.6086</v>
+      </c>
+      <c r="E1765" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1765">
+        <v>4</v>
+      </c>
+      <c r="G1765" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="C1766">
+        <v>22.1987</v>
+      </c>
+      <c r="D1766">
+        <v>113.5439</v>
+      </c>
+      <c r="E1766" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1766">
+        <v>1</v>
+      </c>
+      <c r="G1766" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1767">
+        <v>37.26923</v>
+      </c>
+      <c r="D1767">
+        <v>106.1655</v>
+      </c>
+      <c r="E1767" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1767">
+        <v>2</v>
+      </c>
+      <c r="G1767" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1768">
+        <v>35.19165</v>
+      </c>
+      <c r="D1768">
+        <v>108.8701</v>
+      </c>
+      <c r="E1768" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1768">
+        <v>16</v>
+      </c>
+      <c r="G1768" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1769">
+        <v>36.34377</v>
+      </c>
+      <c r="D1769">
+        <v>118.1529</v>
+      </c>
+      <c r="E1769" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1769">
+        <v>23</v>
+      </c>
+      <c r="G1769" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1770">
+        <v>31.20327</v>
+      </c>
+      <c r="D1770">
+        <v>121.4554</v>
+      </c>
+      <c r="E1770" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1770">
+        <v>13</v>
+      </c>
+      <c r="G1770" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1771">
+        <v>37.57769</v>
+      </c>
+      <c r="D1771">
+        <v>112.2922</v>
+      </c>
+      <c r="E1771" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1771">
+        <v>8</v>
+      </c>
+      <c r="G1771" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1772">
+        <v>30.61714</v>
+      </c>
+      <c r="D1772">
+        <v>102.7103</v>
+      </c>
+      <c r="E1772" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1772">
+        <v>29</v>
+      </c>
+      <c r="G1772" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1773">
+        <v>39.29362</v>
+      </c>
+      <c r="D1773">
+        <v>117.333</v>
+      </c>
+      <c r="E1773" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1773">
+        <v>5</v>
+      </c>
+      <c r="G1773" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1774">
+        <v>41.11981</v>
+      </c>
+      <c r="D1774">
+        <v>85.17822</v>
+      </c>
+      <c r="E1774" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1774">
+        <v>2</v>
+      </c>
+      <c r="G1774" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1775">
+        <v>24.97411</v>
+      </c>
+      <c r="D1775">
+        <v>101.4868</v>
+      </c>
+      <c r="E1775" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1775">
+        <v>19</v>
+      </c>
+      <c r="G1775" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1776">
+        <v>29.18251</v>
+      </c>
+      <c r="D1776">
+        <v>120.0985</v>
+      </c>
+      <c r="E1776" s="2">
+        <v>43881</v>
+      </c>
+      <c r="F1776">
+        <v>29</v>
+      </c>
+      <c r="G1776" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1776"/>
+  <dimension ref="A1:G1848"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D19">
         <v>122.6086</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D46">
         <v>127.7622</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D52">
         <v>122.6086</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D77">
         <v>127.7622</v>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D85">
         <v>122.6086</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D95">
         <v>127.7622</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D114">
         <v>127.7622</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D122">
         <v>122.6086</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D153">
         <v>127.7622</v>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D160">
         <v>122.6086</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D200">
         <v>127.7622</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D208">
         <v>122.6086</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D246">
         <v>127.7622</v>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D254">
         <v>122.6086</v>
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D288">
         <v>127.7622</v>
@@ -8720,7 +8720,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D295">
         <v>122.6086</v>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="C314">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D314">
         <v>122.6086</v>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D334">
         <v>127.7622</v>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="C342">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D342">
         <v>122.6086</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D358">
         <v>127.7622</v>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="C372">
-        <v>61.52399999999999</v>
+        <v>61.524</v>
       </c>
       <c r="D372">
         <v>105.3188</v>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D389">
         <v>127.7622</v>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="C397">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D397">
         <v>122.6086</v>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="C445">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D445">
         <v>127.7622</v>
@@ -13226,7 +13226,7 @@
         </is>
       </c>
       <c r="C454">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D454">
         <v>122.6086</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D476">
         <v>127.7622</v>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D502">
         <v>127.7622</v>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="C511">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D511">
         <v>122.6086</v>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="C559">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D559">
         <v>127.7622</v>
@@ -16448,7 +16448,7 @@
         </is>
       </c>
       <c r="C567">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D567">
         <v>122.6086</v>
@@ -17810,7 +17810,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D615">
         <v>127.7622</v>
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="C624">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D624">
         <v>122.6086</v>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="C649">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D649">
         <v>127.7622</v>
@@ -18970,7 +18970,7 @@
         </is>
       </c>
       <c r="C655">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D655">
         <v>122.6086</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D676">
         <v>127.7622</v>
@@ -19825,7 +19825,7 @@
         </is>
       </c>
       <c r="C685">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D685">
         <v>122.6086</v>
@@ -20492,7 +20492,7 @@
         </is>
       </c>
       <c r="C708">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D708">
         <v>127.7622</v>
@@ -20724,7 +20724,7 @@
         </is>
       </c>
       <c r="C716">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D716">
         <v>122.6086</v>
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="C736">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D736">
         <v>127.7622</v>
@@ -21550,7 +21550,7 @@
         </is>
       </c>
       <c r="C745">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D745">
         <v>122.6086</v>
@@ -21956,7 +21956,7 @@
         </is>
       </c>
       <c r="C759">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D759">
         <v>127.7622</v>
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="C770">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D770">
         <v>127.7622</v>
@@ -22507,7 +22507,7 @@
         </is>
       </c>
       <c r="C778">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D778">
         <v>122.6086</v>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="C807">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D807">
         <v>127.7622</v>
@@ -23574,7 +23574,7 @@
         </is>
       </c>
       <c r="C816">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D816">
         <v>122.6086</v>
@@ -24376,7 +24376,7 @@
         </is>
       </c>
       <c r="C844">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D844">
         <v>127.7622</v>
@@ -24579,7 +24579,7 @@
         </is>
       </c>
       <c r="C851">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D851">
         <v>122.6086</v>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C876">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D876">
         <v>127.7622</v>
@@ -25535,7 +25535,7 @@
         </is>
       </c>
       <c r="C885">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D885">
         <v>122.6086</v>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C898">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D898">
         <v>127.7622</v>
@@ -26361,7 +26361,7 @@
         </is>
       </c>
       <c r="C914">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D914">
         <v>127.7622</v>
@@ -26535,7 +26535,7 @@
         </is>
       </c>
       <c r="C920">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D920">
         <v>122.6086</v>
@@ -27264,7 +27264,7 @@
         </is>
       </c>
       <c r="C946">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D946">
         <v>127.7622</v>
@@ -27525,7 +27525,7 @@
         </is>
       </c>
       <c r="C955">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D955">
         <v>122.6086</v>
@@ -27989,7 +27989,7 @@
         </is>
       </c>
       <c r="C971">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D971">
         <v>127.7622</v>
@@ -28419,7 +28419,7 @@
         </is>
       </c>
       <c r="C986">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D986">
         <v>127.7622</v>
@@ -28622,7 +28622,7 @@
         </is>
       </c>
       <c r="C993">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D993">
         <v>122.6086</v>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="C1019">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1019">
         <v>127.7622</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="C1028">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1028">
         <v>122.6086</v>
@@ -29926,7 +29926,7 @@
         </is>
       </c>
       <c r="C1039">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1039">
         <v>127.7622</v>
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="C1052">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1052">
         <v>127.7622</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="C1059">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1059">
         <v>122.6086</v>
@@ -31143,7 +31143,7 @@
         </is>
       </c>
       <c r="C1082">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1082">
         <v>127.7622</v>
@@ -31375,7 +31375,7 @@
         </is>
       </c>
       <c r="C1090">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1090">
         <v>122.6086</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="C1105">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1105">
         <v>127.7622</v>
@@ -32312,7 +32312,7 @@
         </is>
       </c>
       <c r="C1123">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1123">
         <v>127.7622</v>
@@ -32515,7 +32515,7 @@
         </is>
       </c>
       <c r="C1130">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1130">
         <v>122.6086</v>
@@ -33254,7 +33254,7 @@
         </is>
       </c>
       <c r="C1156">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1156">
         <v>127.7622</v>
@@ -33486,7 +33486,7 @@
         </is>
       </c>
       <c r="C1164">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1164">
         <v>122.6086</v>
@@ -33892,7 +33892,7 @@
         </is>
       </c>
       <c r="C1178">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1178">
         <v>122.6086</v>
@@ -34065,7 +34065,7 @@
         </is>
       </c>
       <c r="C1185">
-        <v>61.52399999999999</v>
+        <v>61.524</v>
       </c>
       <c r="D1185">
         <v>105.3188</v>
@@ -34480,7 +34480,7 @@
         </is>
       </c>
       <c r="C1200">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1200">
         <v>127.7622</v>
@@ -34741,7 +34741,7 @@
         </is>
       </c>
       <c r="C1209">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1209">
         <v>122.6086</v>
@@ -35451,7 +35451,7 @@
         </is>
       </c>
       <c r="C1234">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1234">
         <v>127.7622</v>
@@ -35712,7 +35712,7 @@
         </is>
       </c>
       <c r="C1243">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1243">
         <v>122.6086</v>
@@ -36229,7 +36229,7 @@
         </is>
       </c>
       <c r="C1261">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1261">
         <v>127.7622</v>
@@ -36736,7 +36736,7 @@
         </is>
       </c>
       <c r="C1279">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1279">
         <v>127.7622</v>
@@ -36939,7 +36939,7 @@
         </is>
       </c>
       <c r="C1286">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1286">
         <v>122.6086</v>
@@ -37707,7 +37707,7 @@
         </is>
       </c>
       <c r="C1313">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1313">
         <v>127.7622</v>
@@ -37968,7 +37968,7 @@
         </is>
       </c>
       <c r="C1322">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1322">
         <v>122.6086</v>
@@ -38345,7 +38345,7 @@
         </is>
       </c>
       <c r="C1335">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1335">
         <v>127.7622</v>
@@ -38717,7 +38717,7 @@
         </is>
       </c>
       <c r="C1348">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1348">
         <v>127.7622</v>
@@ -38920,7 +38920,7 @@
         </is>
       </c>
       <c r="C1355">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1355">
         <v>122.6086</v>
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="C1379">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1379">
         <v>127.7622</v>
@@ -40687,7 +40687,7 @@
         </is>
       </c>
       <c r="C1418">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1418">
         <v>127.7622</v>
@@ -40919,7 +40919,7 @@
         </is>
       </c>
       <c r="C1426">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1426">
         <v>122.6086</v>
@@ -41648,7 +41648,7 @@
         </is>
       </c>
       <c r="C1452">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1452">
         <v>127.7622</v>
@@ -41909,7 +41909,7 @@
         </is>
       </c>
       <c r="C1461">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1461">
         <v>122.6086</v>
@@ -42730,7 +42730,7 @@
         </is>
       </c>
       <c r="C1490">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1490">
         <v>127.7622</v>
@@ -42991,7 +42991,7 @@
         </is>
       </c>
       <c r="C1499">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1499">
         <v>122.6086</v>
@@ -43725,7 +43725,7 @@
         </is>
       </c>
       <c r="C1525">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1525">
         <v>127.7622</v>
@@ -44691,7 +44691,7 @@
         </is>
       </c>
       <c r="C1559">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1559">
         <v>127.7622</v>
@@ -44894,7 +44894,7 @@
         </is>
       </c>
       <c r="C1566">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1566">
         <v>122.6086</v>
@@ -45517,7 +45517,7 @@
         </is>
       </c>
       <c r="C1588">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1588">
         <v>127.7622</v>
@@ -46536,7 +46536,7 @@
         </is>
       </c>
       <c r="C1624">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1624">
         <v>127.7622</v>
@@ -46739,7 +46739,7 @@
         </is>
       </c>
       <c r="C1631">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1631">
         <v>122.6086</v>
@@ -47362,7 +47362,7 @@
         </is>
       </c>
       <c r="C1653">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1653">
         <v>127.7622</v>
@@ -47879,7 +47879,7 @@
         </is>
       </c>
       <c r="C1671">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1671">
         <v>127.7622</v>
@@ -48415,7 +48415,7 @@
         </is>
       </c>
       <c r="C1690">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1690">
         <v>127.7622</v>
@@ -48676,7 +48676,7 @@
         </is>
       </c>
       <c r="C1699">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1699">
         <v>122.6086</v>
@@ -49270,7 +49270,7 @@
         </is>
       </c>
       <c r="C1720">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1720">
         <v>127.7622</v>
@@ -50304,7 +50304,7 @@
         </is>
       </c>
       <c r="C1756">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1756">
         <v>127.7622</v>
@@ -50565,7 +50565,7 @@
         </is>
       </c>
       <c r="C1765">
-        <v>41.29284000000001</v>
+        <v>41.29284</v>
       </c>
       <c r="D1765">
         <v>122.6086</v>
@@ -50896,6 +50896,2029 @@
         <v>29</v>
       </c>
       <c r="G1776" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1777">
+        <v>32.4279</v>
+      </c>
+      <c r="D1777">
+        <v>53.688</v>
+      </c>
+      <c r="E1777" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1777">
+        <v>13</v>
+      </c>
+      <c r="G1777" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1778">
+        <v>41.8719</v>
+      </c>
+      <c r="D1778">
+        <v>12.5674</v>
+      </c>
+      <c r="E1778" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1778">
+        <v>17</v>
+      </c>
+      <c r="G1778" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1779">
+        <v>35.6762</v>
+      </c>
+      <c r="D1779">
+        <v>139.6503</v>
+      </c>
+      <c r="E1779" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1779">
+        <v>11</v>
+      </c>
+      <c r="G1779" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1780">
+        <v>1.3521</v>
+      </c>
+      <c r="D1780">
+        <v>103.8198</v>
+      </c>
+      <c r="E1780" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1780">
+        <v>1</v>
+      </c>
+      <c r="G1780" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1781">
+        <v>37.5665</v>
+      </c>
+      <c r="D1781">
+        <v>126.978</v>
+      </c>
+      <c r="E1781" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1781">
+        <v>100</v>
+      </c>
+      <c r="G1781" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1782">
+        <v>31.82571</v>
+      </c>
+      <c r="D1782">
+        <v>117.2264</v>
+      </c>
+      <c r="E1782" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1782">
+        <v>1</v>
+      </c>
+      <c r="G1782" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>Ashland, NE</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1783">
+        <v>41.0652</v>
+      </c>
+      <c r="D1783">
+        <v>-96.3339</v>
+      </c>
+      <c r="E1783" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1783">
+        <v>11</v>
+      </c>
+      <c r="G1783" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1784">
+        <v>40.18238</v>
+      </c>
+      <c r="D1784">
+        <v>116.4142</v>
+      </c>
+      <c r="E1784" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1784">
+        <v>1</v>
+      </c>
+      <c r="G1784" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C1785">
+        <v>49.2827</v>
+      </c>
+      <c r="D1785">
+        <v>-123.121</v>
+      </c>
+      <c r="E1785" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1785">
+        <v>1</v>
+      </c>
+      <c r="G1785" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1786">
+        <v>30.05718</v>
+      </c>
+      <c r="D1786">
+        <v>107.874</v>
+      </c>
+      <c r="E1786" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1786">
+        <v>5</v>
+      </c>
+      <c r="G1786" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>From Diamond Princess</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C1787">
+        <v>35.4437</v>
+      </c>
+      <c r="D1787">
+        <v>139.638</v>
+      </c>
+      <c r="E1787" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1787">
+        <v>4</v>
+      </c>
+      <c r="G1787" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>From Diamond Princess</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C1788">
+        <v>31.0461</v>
+      </c>
+      <c r="D1788">
+        <v>34.8516</v>
+      </c>
+      <c r="E1788" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1788">
+        <v>1</v>
+      </c>
+      <c r="G1788" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1789">
+        <v>23.33841</v>
+      </c>
+      <c r="D1789">
+        <v>113.422</v>
+      </c>
+      <c r="E1789" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1789">
+        <v>1</v>
+      </c>
+      <c r="G1789" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1790">
+        <v>23.82908</v>
+      </c>
+      <c r="D1790">
+        <v>108.7881</v>
+      </c>
+      <c r="E1790" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1790">
+        <v>1</v>
+      </c>
+      <c r="G1790" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1791">
+        <v>38.0428</v>
+      </c>
+      <c r="D1791">
+        <v>114.5149</v>
+      </c>
+      <c r="E1791" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1791">
+        <v>1</v>
+      </c>
+      <c r="G1791" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1792">
+        <v>47.862</v>
+      </c>
+      <c r="D1792">
+        <v>127.7622</v>
+      </c>
+      <c r="E1792" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1792">
+        <v>3</v>
+      </c>
+      <c r="G1792" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1793">
+        <v>33.88202</v>
+      </c>
+      <c r="D1793">
+        <v>113.614</v>
+      </c>
+      <c r="E1793" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1793">
+        <v>2</v>
+      </c>
+      <c r="G1793" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1794">
+        <v>30.97564</v>
+      </c>
+      <c r="D1794">
+        <v>112.2707</v>
+      </c>
+      <c r="E1794" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1794">
+        <v>220</v>
+      </c>
+      <c r="G1794" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>Humboldt County, CA</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1795">
+        <v>40.745</v>
+      </c>
+      <c r="D1795">
+        <v>-123.8695</v>
+      </c>
+      <c r="E1795" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1795">
+        <v>1</v>
+      </c>
+      <c r="G1795" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1796">
+        <v>27.61041</v>
+      </c>
+      <c r="D1796">
+        <v>111.7088</v>
+      </c>
+      <c r="E1796" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1796">
+        <v>1</v>
+      </c>
+      <c r="G1796" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>Lackland, TX</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1797">
+        <v>29.3829</v>
+      </c>
+      <c r="D1797">
+        <v>-98.6134</v>
+      </c>
+      <c r="E1797" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1797">
+        <v>2</v>
+      </c>
+      <c r="G1797" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C1798">
+        <v>33.8547</v>
+      </c>
+      <c r="D1798">
+        <v>35.8623</v>
+      </c>
+      <c r="E1798" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1798">
+        <v>1</v>
+      </c>
+      <c r="G1798" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>Sacramento County, CA</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1799">
+        <v>38.4747</v>
+      </c>
+      <c r="D1799">
+        <v>-121.3542</v>
+      </c>
+      <c r="E1799" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1799">
+        <v>1</v>
+      </c>
+      <c r="G1799" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1800">
+        <v>36.34377</v>
+      </c>
+      <c r="D1800">
+        <v>118.1529</v>
+      </c>
+      <c r="E1800" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1800">
+        <v>203</v>
+      </c>
+      <c r="G1800" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1801">
+        <v>30.61714</v>
+      </c>
+      <c r="D1801">
+        <v>102.7103</v>
+      </c>
+      <c r="E1801" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1801">
+        <v>5</v>
+      </c>
+      <c r="G1801" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C1802">
+        <v>23.6978</v>
+      </c>
+      <c r="D1802">
+        <v>120.9605</v>
+      </c>
+      <c r="E1802" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1802">
+        <v>2</v>
+      </c>
+      <c r="G1802" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1803">
+        <v>39.29362</v>
+      </c>
+      <c r="D1803">
+        <v>117.333</v>
+      </c>
+      <c r="E1803" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1803">
+        <v>1</v>
+      </c>
+      <c r="G1803" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>Travis, CA</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1804">
+        <v>38.2721</v>
+      </c>
+      <c r="D1804">
+        <v>-121.9399</v>
+      </c>
+      <c r="E1804" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1804">
+        <v>5</v>
+      </c>
+      <c r="G1804" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1805">
+        <v>29.18251</v>
+      </c>
+      <c r="D1805">
+        <v>120.0985</v>
+      </c>
+      <c r="E1805" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1805">
+        <v>28</v>
+      </c>
+      <c r="G1805" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1806">
+        <v>32.4279</v>
+      </c>
+      <c r="D1806">
+        <v>53.688</v>
+      </c>
+      <c r="E1806" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1806">
+        <v>2</v>
+      </c>
+      <c r="G1806" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1807">
+        <v>41.8719</v>
+      </c>
+      <c r="D1807">
+        <v>12.5674</v>
+      </c>
+      <c r="E1807" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1807">
+        <v>1</v>
+      </c>
+      <c r="G1807" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1808">
+        <v>37.5665</v>
+      </c>
+      <c r="D1808">
+        <v>126.978</v>
+      </c>
+      <c r="E1808" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1808">
+        <v>1</v>
+      </c>
+      <c r="G1808" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C1809">
+        <v>51.1657</v>
+      </c>
+      <c r="D1809">
+        <v>10.4515</v>
+      </c>
+      <c r="E1809" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1809">
+        <v>2</v>
+      </c>
+      <c r="G1809" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1810">
+        <v>35.6762</v>
+      </c>
+      <c r="D1810">
+        <v>139.6503</v>
+      </c>
+      <c r="E1810" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1810">
+        <v>4</v>
+      </c>
+      <c r="G1810" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1811">
+        <v>1.3521</v>
+      </c>
+      <c r="D1811">
+        <v>103.8198</v>
+      </c>
+      <c r="E1811" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1811">
+        <v>3</v>
+      </c>
+      <c r="G1811" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C1812">
+        <v>13.7563</v>
+      </c>
+      <c r="D1812">
+        <v>100.5018</v>
+      </c>
+      <c r="E1812" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1812">
+        <v>2</v>
+      </c>
+      <c r="G1812" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C1813">
+        <v>21.0278</v>
+      </c>
+      <c r="D1813">
+        <v>105.8342</v>
+      </c>
+      <c r="E1813" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1813">
+        <v>7</v>
+      </c>
+      <c r="G1813" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1814">
+        <v>31.82571</v>
+      </c>
+      <c r="D1814">
+        <v>117.2264</v>
+      </c>
+      <c r="E1814" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1814">
+        <v>65</v>
+      </c>
+      <c r="G1814" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1815">
+        <v>40.18238</v>
+      </c>
+      <c r="D1815">
+        <v>116.4142</v>
+      </c>
+      <c r="E1815" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1815">
+        <v>16</v>
+      </c>
+      <c r="G1815" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1816">
+        <v>30.05718</v>
+      </c>
+      <c r="D1816">
+        <v>107.874</v>
+      </c>
+      <c r="E1816" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1816">
+        <v>17</v>
+      </c>
+      <c r="G1816" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1817">
+        <v>26.07783</v>
+      </c>
+      <c r="D1817">
+        <v>117.9895</v>
+      </c>
+      <c r="E1817" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1817">
+        <v>23</v>
+      </c>
+      <c r="G1817" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1818">
+        <v>36.0611</v>
+      </c>
+      <c r="D1818">
+        <v>103.8343</v>
+      </c>
+      <c r="E1818" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1818">
+        <v>5</v>
+      </c>
+      <c r="G1818" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1819">
+        <v>23.33841</v>
+      </c>
+      <c r="D1819">
+        <v>113.422</v>
+      </c>
+      <c r="E1819" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1819">
+        <v>48</v>
+      </c>
+      <c r="G1819" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1820">
+        <v>23.82908</v>
+      </c>
+      <c r="D1820">
+        <v>108.7881</v>
+      </c>
+      <c r="E1820" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1820">
+        <v>7</v>
+      </c>
+      <c r="G1820" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1821">
+        <v>26.81536</v>
+      </c>
+      <c r="D1821">
+        <v>106.8748</v>
+      </c>
+      <c r="E1821" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1821">
+        <v>5</v>
+      </c>
+      <c r="G1821" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1822">
+        <v>19.19673</v>
+      </c>
+      <c r="D1822">
+        <v>109.7455</v>
+      </c>
+      <c r="E1822" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1822">
+        <v>9</v>
+      </c>
+      <c r="G1822" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1823">
+        <v>38.0428</v>
+      </c>
+      <c r="D1823">
+        <v>114.5149</v>
+      </c>
+      <c r="E1823" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1823">
+        <v>15</v>
+      </c>
+      <c r="G1823" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1824">
+        <v>47.862</v>
+      </c>
+      <c r="D1824">
+        <v>127.7622</v>
+      </c>
+      <c r="E1824" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1824">
+        <v>39</v>
+      </c>
+      <c r="G1824" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1825">
+        <v>33.88202</v>
+      </c>
+      <c r="D1825">
+        <v>113.614</v>
+      </c>
+      <c r="E1825" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1825">
+        <v>99</v>
+      </c>
+      <c r="G1825" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1826">
+        <v>22.3193</v>
+      </c>
+      <c r="D1826">
+        <v>114.1694</v>
+      </c>
+      <c r="E1826" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1826">
+        <v>-1</v>
+      </c>
+      <c r="G1826" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1827">
+        <v>30.97564</v>
+      </c>
+      <c r="D1827">
+        <v>112.2707</v>
+      </c>
+      <c r="E1827" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1827">
+        <v>93</v>
+      </c>
+      <c r="G1827" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1828">
+        <v>27.61041</v>
+      </c>
+      <c r="D1828">
+        <v>111.7088</v>
+      </c>
+      <c r="E1828" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1828">
+        <v>27</v>
+      </c>
+      <c r="G1828" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1829">
+        <v>44.09448</v>
+      </c>
+      <c r="D1829">
+        <v>113.9456</v>
+      </c>
+      <c r="E1829" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1829">
+        <v>1</v>
+      </c>
+      <c r="G1829" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1830">
+        <v>32.97027</v>
+      </c>
+      <c r="D1830">
+        <v>119.464</v>
+      </c>
+      <c r="E1830" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1830">
+        <v>17</v>
+      </c>
+      <c r="G1830" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1831">
+        <v>27.61401</v>
+      </c>
+      <c r="D1831">
+        <v>115.7221</v>
+      </c>
+      <c r="E1831" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1831">
+        <v>56</v>
+      </c>
+      <c r="G1831" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1832">
+        <v>43.66657</v>
+      </c>
+      <c r="D1832">
+        <v>126.1917</v>
+      </c>
+      <c r="E1832" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1832">
+        <v>2</v>
+      </c>
+      <c r="G1832" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1833">
+        <v>41.29284</v>
+      </c>
+      <c r="D1833">
+        <v>122.6086</v>
+      </c>
+      <c r="E1833" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1833">
+        <v>2</v>
+      </c>
+      <c r="G1833" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1834">
+        <v>37.26923</v>
+      </c>
+      <c r="D1834">
+        <v>106.1655</v>
+      </c>
+      <c r="E1834" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1834">
+        <v>4</v>
+      </c>
+      <c r="G1834" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>Qinghai</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1835">
+        <v>35.65945</v>
+      </c>
+      <c r="D1835">
+        <v>96.02564</v>
+      </c>
+      <c r="E1835" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1835">
+        <v>2</v>
+      </c>
+      <c r="G1835" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C1836">
+        <v>-27.4698</v>
+      </c>
+      <c r="D1836">
+        <v>153.0251</v>
+      </c>
+      <c r="E1836" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1836">
+        <v>1</v>
+      </c>
+      <c r="G1836" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>San Diego County, CA</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1837">
+        <v>32.7157</v>
+      </c>
+      <c r="D1837">
+        <v>-117.1611</v>
+      </c>
+      <c r="E1837" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1837">
+        <v>1</v>
+      </c>
+      <c r="G1837" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1838">
+        <v>37.3541</v>
+      </c>
+      <c r="D1838">
+        <v>-121.9552</v>
+      </c>
+      <c r="E1838" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1838">
+        <v>1</v>
+      </c>
+      <c r="G1838" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1839">
+        <v>35.19165</v>
+      </c>
+      <c r="D1839">
+        <v>108.8701</v>
+      </c>
+      <c r="E1839" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1839">
+        <v>16</v>
+      </c>
+      <c r="G1839" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1840">
+        <v>36.34377</v>
+      </c>
+      <c r="D1840">
+        <v>118.1529</v>
+      </c>
+      <c r="E1840" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1840">
+        <v>27</v>
+      </c>
+      <c r="G1840" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1841">
+        <v>31.20327</v>
+      </c>
+      <c r="D1841">
+        <v>121.4554</v>
+      </c>
+      <c r="E1841" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1841">
+        <v>12</v>
+      </c>
+      <c r="G1841" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1842">
+        <v>37.57769</v>
+      </c>
+      <c r="D1842">
+        <v>112.2922</v>
+      </c>
+      <c r="E1842" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1842">
+        <v>2</v>
+      </c>
+      <c r="G1842" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1843">
+        <v>30.61714</v>
+      </c>
+      <c r="D1843">
+        <v>102.7103</v>
+      </c>
+      <c r="E1843" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1843">
+        <v>14</v>
+      </c>
+      <c r="G1843" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1844">
+        <v>39.29362</v>
+      </c>
+      <c r="D1844">
+        <v>117.333</v>
+      </c>
+      <c r="E1844" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1844">
+        <v>3</v>
+      </c>
+      <c r="G1844" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>Toronto, ON</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C1845">
+        <v>43.6532</v>
+      </c>
+      <c r="D1845">
+        <v>-79.3832</v>
+      </c>
+      <c r="E1845" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1845">
+        <v>2</v>
+      </c>
+      <c r="G1845" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1846">
+        <v>41.11981</v>
+      </c>
+      <c r="D1846">
+        <v>85.17822</v>
+      </c>
+      <c r="E1846" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1846">
+        <v>2</v>
+      </c>
+      <c r="G1846" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1847">
+        <v>24.97411</v>
+      </c>
+      <c r="D1847">
+        <v>101.4868</v>
+      </c>
+      <c r="E1847" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1847">
+        <v>17</v>
+      </c>
+      <c r="G1847" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1848">
+        <v>29.18251</v>
+      </c>
+      <c r="D1848">
+        <v>120.0985</v>
+      </c>
+      <c r="E1848" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F1848">
+        <v>46</v>
+      </c>
+      <c r="G1848" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1848"/>
+  <dimension ref="A1:G1904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -50976,14 +50976,14 @@
     <row r="1780">
       <c r="B1780" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="C1780">
-        <v>1.3521</v>
+        <v>33.8547</v>
       </c>
       <c r="D1780">
-        <v>103.8198</v>
+        <v>35.8623</v>
       </c>
       <c r="E1780" s="2">
         <v>43882</v>
@@ -51000,20 +51000,20 @@
     <row r="1781">
       <c r="B1781" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C1781">
-        <v>37.5665</v>
+        <v>1.3521</v>
       </c>
       <c r="D1781">
-        <v>126.978</v>
+        <v>103.8198</v>
       </c>
       <c r="E1781" s="2">
         <v>43882</v>
       </c>
       <c r="F1781">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G1781" t="inlineStr">
         <is>
@@ -51022,27 +51022,22 @@
       </c>
     </row>
     <row r="1782">
-      <c r="A1782" t="inlineStr">
-        <is>
-          <t>Anhui</t>
-        </is>
-      </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C1782">
-        <v>31.82571</v>
+        <v>37.5665</v>
       </c>
       <c r="D1782">
-        <v>117.2264</v>
+        <v>126.978</v>
       </c>
       <c r="E1782" s="2">
         <v>43882</v>
       </c>
       <c r="F1782">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G1782" t="inlineStr">
         <is>
@@ -51053,25 +51048,25 @@
     <row r="1783">
       <c r="A1783" t="inlineStr">
         <is>
-          <t>Ashland, NE</t>
+          <t>Anhui</t>
         </is>
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C1783">
-        <v>41.0652</v>
+        <v>31.82571</v>
       </c>
       <c r="D1783">
-        <v>-96.3339</v>
+        <v>117.2264</v>
       </c>
       <c r="E1783" s="2">
         <v>43882</v>
       </c>
       <c r="F1783">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G1783" t="inlineStr">
         <is>
@@ -51459,7 +51454,7 @@
     <row r="1797">
       <c r="A1797" t="inlineStr">
         <is>
-          <t>Lackland, TX</t>
+          <t>Lackland, TX (From Diamond Princess)</t>
         </is>
       </c>
       <c r="B1797" t="inlineStr">
@@ -51488,25 +51483,25 @@
     <row r="1798">
       <c r="A1798" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Omaha, NE (From Diamond Princess)</t>
         </is>
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1798">
-        <v>33.8547</v>
+        <v>41.2545</v>
       </c>
       <c r="D1798">
-        <v>35.8623</v>
+        <v>-95.97580000000001</v>
       </c>
       <c r="E1798" s="2">
         <v>43882</v>
       </c>
       <c r="F1798">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G1798" t="inlineStr">
         <is>
@@ -51662,7 +51657,7 @@
     <row r="1804">
       <c r="A1804" t="inlineStr">
         <is>
-          <t>Travis, CA</t>
+          <t>Travis, CA (From Diamond Princess)</t>
         </is>
       </c>
       <c r="B1804" t="inlineStr">
@@ -52919,6 +52914,1590 @@
         <v>46</v>
       </c>
       <c r="G1848" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1849">
+        <v>32.4279</v>
+      </c>
+      <c r="D1849">
+        <v>53.688</v>
+      </c>
+      <c r="E1849" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1849">
+        <v>10</v>
+      </c>
+      <c r="G1849" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1850">
+        <v>41.8719</v>
+      </c>
+      <c r="D1850">
+        <v>12.5674</v>
+      </c>
+      <c r="E1850" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1850">
+        <v>42</v>
+      </c>
+      <c r="G1850" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1851">
+        <v>35.6762</v>
+      </c>
+      <c r="D1851">
+        <v>139.6503</v>
+      </c>
+      <c r="E1851" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1851">
+        <v>17</v>
+      </c>
+      <c r="G1851" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1852">
+        <v>37.5665</v>
+      </c>
+      <c r="D1852">
+        <v>126.978</v>
+      </c>
+      <c r="E1852" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1852">
+        <v>229</v>
+      </c>
+      <c r="G1852" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C1853">
+        <v>23.4241</v>
+      </c>
+      <c r="D1853">
+        <v>53.8478</v>
+      </c>
+      <c r="E1853" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1853">
+        <v>4</v>
+      </c>
+      <c r="G1853" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1854">
+        <v>31.82571</v>
+      </c>
+      <c r="D1854">
+        <v>117.2264</v>
+      </c>
+      <c r="E1854" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1854">
+        <v>1</v>
+      </c>
+      <c r="G1854" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1855">
+        <v>40.18238</v>
+      </c>
+      <c r="D1855">
+        <v>116.4142</v>
+      </c>
+      <c r="E1855" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1855">
+        <v>3</v>
+      </c>
+      <c r="G1855" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1856">
+        <v>30.05718</v>
+      </c>
+      <c r="D1856">
+        <v>107.874</v>
+      </c>
+      <c r="E1856" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1856">
+        <v>1</v>
+      </c>
+      <c r="G1856" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>From Diamond Princess</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C1857">
+        <v>35.4437</v>
+      </c>
+      <c r="D1857">
+        <v>139.638</v>
+      </c>
+      <c r="E1857" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1857">
+        <v>3</v>
+      </c>
+      <c r="G1857" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1858">
+        <v>23.33841</v>
+      </c>
+      <c r="D1858">
+        <v>113.422</v>
+      </c>
+      <c r="E1858" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1858">
+        <v>6</v>
+      </c>
+      <c r="G1858" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1859">
+        <v>23.82908</v>
+      </c>
+      <c r="D1859">
+        <v>108.7881</v>
+      </c>
+      <c r="E1859" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1859">
+        <v>3</v>
+      </c>
+      <c r="G1859" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1860">
+        <v>38.0428</v>
+      </c>
+      <c r="D1860">
+        <v>114.5149</v>
+      </c>
+      <c r="E1860" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1860">
+        <v>1</v>
+      </c>
+      <c r="G1860" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1861">
+        <v>33.88202</v>
+      </c>
+      <c r="D1861">
+        <v>113.614</v>
+      </c>
+      <c r="E1861" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1861">
+        <v>3</v>
+      </c>
+      <c r="G1861" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1862">
+        <v>22.3193</v>
+      </c>
+      <c r="D1862">
+        <v>114.1694</v>
+      </c>
+      <c r="E1862" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1862">
+        <v>1</v>
+      </c>
+      <c r="G1862" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1863">
+        <v>30.97564</v>
+      </c>
+      <c r="D1863">
+        <v>112.2707</v>
+      </c>
+      <c r="E1863" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1863">
+        <v>1422</v>
+      </c>
+      <c r="G1863" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1864">
+        <v>27.61041</v>
+      </c>
+      <c r="D1864">
+        <v>111.7088</v>
+      </c>
+      <c r="E1864" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1864">
+        <v>2</v>
+      </c>
+      <c r="G1864" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1865">
+        <v>36.34377</v>
+      </c>
+      <c r="D1865">
+        <v>118.1529</v>
+      </c>
+      <c r="E1865" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1865">
+        <v>1</v>
+      </c>
+      <c r="G1865" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1866">
+        <v>31.20327</v>
+      </c>
+      <c r="D1866">
+        <v>121.4554</v>
+      </c>
+      <c r="E1866" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1866">
+        <v>1</v>
+      </c>
+      <c r="G1866" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1867">
+        <v>30.61714</v>
+      </c>
+      <c r="D1867">
+        <v>102.7103</v>
+      </c>
+      <c r="E1867" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1867">
+        <v>1</v>
+      </c>
+      <c r="G1867" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1868">
+        <v>39.29362</v>
+      </c>
+      <c r="D1868">
+        <v>117.333</v>
+      </c>
+      <c r="E1868" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1868">
+        <v>3</v>
+      </c>
+      <c r="G1868" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1869">
+        <v>29.18251</v>
+      </c>
+      <c r="D1869">
+        <v>120.0985</v>
+      </c>
+      <c r="E1869" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1869">
+        <v>2</v>
+      </c>
+      <c r="G1869" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1870">
+        <v>32.4279</v>
+      </c>
+      <c r="D1870">
+        <v>53.688</v>
+      </c>
+      <c r="E1870" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1870">
+        <v>1</v>
+      </c>
+      <c r="G1870" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1871">
+        <v>41.8719</v>
+      </c>
+      <c r="D1871">
+        <v>12.5674</v>
+      </c>
+      <c r="E1871" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1871">
+        <v>1</v>
+      </c>
+      <c r="G1871" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1872">
+        <v>38.0428</v>
+      </c>
+      <c r="D1872">
+        <v>114.5149</v>
+      </c>
+      <c r="E1872" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1872">
+        <v>1</v>
+      </c>
+      <c r="G1872" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1873">
+        <v>30.97564</v>
+      </c>
+      <c r="D1873">
+        <v>112.2707</v>
+      </c>
+      <c r="E1873" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1873">
+        <v>202</v>
+      </c>
+      <c r="G1873" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1874">
+        <v>31.20327</v>
+      </c>
+      <c r="D1874">
+        <v>121.4554</v>
+      </c>
+      <c r="E1874" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1874">
+        <v>1</v>
+      </c>
+      <c r="G1874" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1875">
+        <v>41.11981</v>
+      </c>
+      <c r="D1875">
+        <v>85.17822</v>
+      </c>
+      <c r="E1875" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1875">
+        <v>1</v>
+      </c>
+      <c r="G1875" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1876">
+        <v>41.8719</v>
+      </c>
+      <c r="D1876">
+        <v>12.5674</v>
+      </c>
+      <c r="E1876" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1876">
+        <v>1</v>
+      </c>
+      <c r="G1876" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1877">
+        <v>31.82571</v>
+      </c>
+      <c r="D1877">
+        <v>117.2264</v>
+      </c>
+      <c r="E1877" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1877">
+        <v>58</v>
+      </c>
+      <c r="G1877" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1878">
+        <v>40.18238</v>
+      </c>
+      <c r="D1878">
+        <v>116.4142</v>
+      </c>
+      <c r="E1878" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1878">
+        <v>9</v>
+      </c>
+      <c r="G1878" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1879">
+        <v>30.05718</v>
+      </c>
+      <c r="D1879">
+        <v>107.874</v>
+      </c>
+      <c r="E1879" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1879">
+        <v>12</v>
+      </c>
+      <c r="G1879" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1880">
+        <v>26.07783</v>
+      </c>
+      <c r="D1880">
+        <v>117.9895</v>
+      </c>
+      <c r="E1880" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1880">
+        <v>13</v>
+      </c>
+      <c r="G1880" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1881">
+        <v>23.33841</v>
+      </c>
+      <c r="D1881">
+        <v>113.422</v>
+      </c>
+      <c r="E1881" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1881">
+        <v>38</v>
+      </c>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1882">
+        <v>23.82908</v>
+      </c>
+      <c r="D1882">
+        <v>108.7881</v>
+      </c>
+      <c r="E1882" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1882">
+        <v>7</v>
+      </c>
+      <c r="G1882" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1883">
+        <v>26.81536</v>
+      </c>
+      <c r="D1883">
+        <v>106.8748</v>
+      </c>
+      <c r="E1883" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1883">
+        <v>13</v>
+      </c>
+      <c r="G1883" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1884">
+        <v>19.19673</v>
+      </c>
+      <c r="D1884">
+        <v>109.7455</v>
+      </c>
+      <c r="E1884" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1884">
+        <v>9</v>
+      </c>
+      <c r="G1884" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1885">
+        <v>38.0428</v>
+      </c>
+      <c r="D1885">
+        <v>114.5149</v>
+      </c>
+      <c r="E1885" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1885">
+        <v>19</v>
+      </c>
+      <c r="G1885" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1886">
+        <v>47.862</v>
+      </c>
+      <c r="D1886">
+        <v>127.7622</v>
+      </c>
+      <c r="E1886" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1886">
+        <v>29</v>
+      </c>
+      <c r="G1886" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1887">
+        <v>33.88202</v>
+      </c>
+      <c r="D1887">
+        <v>113.614</v>
+      </c>
+      <c r="E1887" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1887">
+        <v>94</v>
+      </c>
+      <c r="G1887" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1888">
+        <v>22.3193</v>
+      </c>
+      <c r="D1888">
+        <v>114.1694</v>
+      </c>
+      <c r="E1888" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1888">
+        <v>1</v>
+      </c>
+      <c r="G1888" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1889">
+        <v>30.97564</v>
+      </c>
+      <c r="D1889">
+        <v>112.2707</v>
+      </c>
+      <c r="E1889" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1889">
+        <v>3418</v>
+      </c>
+      <c r="G1889" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1890">
+        <v>27.61041</v>
+      </c>
+      <c r="D1890">
+        <v>111.7088</v>
+      </c>
+      <c r="E1890" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1890">
+        <v>31</v>
+      </c>
+      <c r="G1890" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1891">
+        <v>44.09448</v>
+      </c>
+      <c r="D1891">
+        <v>113.9456</v>
+      </c>
+      <c r="E1891" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1891">
+        <v>9</v>
+      </c>
+      <c r="G1891" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1892">
+        <v>32.97027</v>
+      </c>
+      <c r="D1892">
+        <v>119.464</v>
+      </c>
+      <c r="E1892" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1892">
+        <v>28</v>
+      </c>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1893">
+        <v>27.61401</v>
+      </c>
+      <c r="D1893">
+        <v>115.7221</v>
+      </c>
+      <c r="E1893" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1893">
+        <v>66</v>
+      </c>
+      <c r="G1893" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1894">
+        <v>43.66657</v>
+      </c>
+      <c r="D1894">
+        <v>126.1917</v>
+      </c>
+      <c r="E1894" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1894">
+        <v>7</v>
+      </c>
+      <c r="G1894" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1895">
+        <v>41.29284</v>
+      </c>
+      <c r="D1895">
+        <v>122.6086</v>
+      </c>
+      <c r="E1895" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1895">
+        <v>5</v>
+      </c>
+      <c r="G1895" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1896">
+        <v>35.19165</v>
+      </c>
+      <c r="D1896">
+        <v>108.8701</v>
+      </c>
+      <c r="E1896" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1896">
+        <v>15</v>
+      </c>
+      <c r="G1896" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1897">
+        <v>36.34377</v>
+      </c>
+      <c r="D1897">
+        <v>118.1529</v>
+      </c>
+      <c r="E1897" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1897">
+        <v>21</v>
+      </c>
+      <c r="G1897" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1898">
+        <v>31.20327</v>
+      </c>
+      <c r="D1898">
+        <v>121.4554</v>
+      </c>
+      <c r="E1898" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1898">
+        <v>16</v>
+      </c>
+      <c r="G1898" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1899">
+        <v>37.57769</v>
+      </c>
+      <c r="D1899">
+        <v>112.2922</v>
+      </c>
+      <c r="E1899" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1899">
+        <v>3</v>
+      </c>
+      <c r="G1899" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1900">
+        <v>30.61714</v>
+      </c>
+      <c r="D1900">
+        <v>102.7103</v>
+      </c>
+      <c r="E1900" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1900">
+        <v>19</v>
+      </c>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1901">
+        <v>39.29362</v>
+      </c>
+      <c r="D1901">
+        <v>117.333</v>
+      </c>
+      <c r="E1901" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1901">
+        <v>3</v>
+      </c>
+      <c r="G1901" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1902">
+        <v>41.11981</v>
+      </c>
+      <c r="D1902">
+        <v>85.17822</v>
+      </c>
+      <c r="E1902" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1902">
+        <v>1</v>
+      </c>
+      <c r="G1902" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1903">
+        <v>24.97411</v>
+      </c>
+      <c r="D1903">
+        <v>101.4868</v>
+      </c>
+      <c r="E1903" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1903">
+        <v>11</v>
+      </c>
+      <c r="G1903" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1904">
+        <v>29.18251</v>
+      </c>
+      <c r="D1904">
+        <v>120.0985</v>
+      </c>
+      <c r="E1904" s="2">
+        <v>43883</v>
+      </c>
+      <c r="F1904">
+        <v>40</v>
+      </c>
+      <c r="G1904" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1904"/>
+  <dimension ref="A1:G1960"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54503,6 +54503,1570 @@
         </is>
       </c>
     </row>
+    <row r="1905">
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1905">
+        <v>32.4279</v>
+      </c>
+      <c r="D1905">
+        <v>53.688</v>
+      </c>
+      <c r="E1905" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1905">
+        <v>15</v>
+      </c>
+      <c r="G1905" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1906">
+        <v>41.8719</v>
+      </c>
+      <c r="D1906">
+        <v>12.5674</v>
+      </c>
+      <c r="E1906" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1906">
+        <v>93</v>
+      </c>
+      <c r="G1906" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1907">
+        <v>35.6762</v>
+      </c>
+      <c r="D1907">
+        <v>139.6503</v>
+      </c>
+      <c r="E1907" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1907">
+        <v>25</v>
+      </c>
+      <c r="G1907" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1908">
+        <v>1.3521</v>
+      </c>
+      <c r="D1908">
+        <v>103.8198</v>
+      </c>
+      <c r="E1908" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1908">
+        <v>4</v>
+      </c>
+      <c r="G1908" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1909">
+        <v>37.5665</v>
+      </c>
+      <c r="D1909">
+        <v>126.978</v>
+      </c>
+      <c r="E1909" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1909">
+        <v>169</v>
+      </c>
+      <c r="G1909" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1910">
+        <v>30.05718</v>
+      </c>
+      <c r="D1910">
+        <v>107.874</v>
+      </c>
+      <c r="E1910" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1910">
+        <v>2</v>
+      </c>
+      <c r="G1910" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1911">
+        <v>35.4437</v>
+      </c>
+      <c r="D1911">
+        <v>139.638</v>
+      </c>
+      <c r="E1911" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1911">
+        <v>57</v>
+      </c>
+      <c r="G1911" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1912">
+        <v>23.33841</v>
+      </c>
+      <c r="D1912">
+        <v>113.422</v>
+      </c>
+      <c r="E1912" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1912">
+        <v>3</v>
+      </c>
+      <c r="G1912" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1913">
+        <v>38.0428</v>
+      </c>
+      <c r="D1913">
+        <v>114.5149</v>
+      </c>
+      <c r="E1913" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1913">
+        <v>2</v>
+      </c>
+      <c r="G1913" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1914">
+        <v>47.862</v>
+      </c>
+      <c r="D1914">
+        <v>127.7622</v>
+      </c>
+      <c r="E1914" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1914">
+        <v>1</v>
+      </c>
+      <c r="G1914" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1915">
+        <v>33.88202</v>
+      </c>
+      <c r="D1915">
+        <v>113.614</v>
+      </c>
+      <c r="E1915" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1915">
+        <v>1</v>
+      </c>
+      <c r="G1915" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1916">
+        <v>22.3193</v>
+      </c>
+      <c r="D1916">
+        <v>114.1694</v>
+      </c>
+      <c r="E1916" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1916">
+        <v>5</v>
+      </c>
+      <c r="G1916" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1917">
+        <v>27.61041</v>
+      </c>
+      <c r="D1917">
+        <v>111.7088</v>
+      </c>
+      <c r="E1917" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1917">
+        <v>3</v>
+      </c>
+      <c r="G1917" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1918">
+        <v>36.34377</v>
+      </c>
+      <c r="D1918">
+        <v>118.1529</v>
+      </c>
+      <c r="E1918" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1918">
+        <v>4</v>
+      </c>
+      <c r="G1918" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C1919">
+        <v>23.6978</v>
+      </c>
+      <c r="D1919">
+        <v>120.9605</v>
+      </c>
+      <c r="E1919" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1919">
+        <v>2</v>
+      </c>
+      <c r="G1919" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1920">
+        <v>32.4279</v>
+      </c>
+      <c r="D1920">
+        <v>53.688</v>
+      </c>
+      <c r="E1920" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1920">
+        <v>3</v>
+      </c>
+      <c r="G1920" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1921">
+        <v>41.8719</v>
+      </c>
+      <c r="D1921">
+        <v>12.5674</v>
+      </c>
+      <c r="E1921" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1921">
+        <v>1</v>
+      </c>
+      <c r="G1921" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1922">
+        <v>37.5665</v>
+      </c>
+      <c r="D1922">
+        <v>126.978</v>
+      </c>
+      <c r="E1922" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1922">
+        <v>4</v>
+      </c>
+      <c r="G1922" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1923">
+        <v>35.4437</v>
+      </c>
+      <c r="D1923">
+        <v>139.638</v>
+      </c>
+      <c r="E1923" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1923">
+        <v>1</v>
+      </c>
+      <c r="G1923" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1924">
+        <v>23.33841</v>
+      </c>
+      <c r="D1924">
+        <v>113.422</v>
+      </c>
+      <c r="E1924" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1924">
+        <v>1</v>
+      </c>
+      <c r="G1924" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1925">
+        <v>19.19673</v>
+      </c>
+      <c r="D1925">
+        <v>109.7455</v>
+      </c>
+      <c r="E1925" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1925">
+        <v>1</v>
+      </c>
+      <c r="G1925" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1926">
+        <v>41.8719</v>
+      </c>
+      <c r="D1926">
+        <v>12.5674</v>
+      </c>
+      <c r="E1926" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1926">
+        <v>1</v>
+      </c>
+      <c r="G1926" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C1927">
+        <v>1.3521</v>
+      </c>
+      <c r="D1927">
+        <v>103.8198</v>
+      </c>
+      <c r="E1927" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1927">
+        <v>14</v>
+      </c>
+      <c r="G1927" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1928">
+        <v>37.5665</v>
+      </c>
+      <c r="D1928">
+        <v>126.978</v>
+      </c>
+      <c r="E1928" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1928">
+        <v>2</v>
+      </c>
+      <c r="G1928" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C1929">
+        <v>13.7563</v>
+      </c>
+      <c r="D1929">
+        <v>100.5018</v>
+      </c>
+      <c r="E1929" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1929">
+        <v>4</v>
+      </c>
+      <c r="G1929" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1930">
+        <v>31.82571</v>
+      </c>
+      <c r="D1930">
+        <v>117.2264</v>
+      </c>
+      <c r="E1930" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1930">
+        <v>40</v>
+      </c>
+      <c r="G1930" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1931">
+        <v>40.18238</v>
+      </c>
+      <c r="D1931">
+        <v>116.4142</v>
+      </c>
+      <c r="E1931" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1931">
+        <v>11</v>
+      </c>
+      <c r="G1931" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1932">
+        <v>30.05718</v>
+      </c>
+      <c r="D1932">
+        <v>107.874</v>
+      </c>
+      <c r="E1932" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1932">
+        <v>7</v>
+      </c>
+      <c r="G1932" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C1933">
+        <v>35.4437</v>
+      </c>
+      <c r="D1933">
+        <v>139.638</v>
+      </c>
+      <c r="E1933" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1933">
+        <v>-1</v>
+      </c>
+      <c r="G1933" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1934">
+        <v>26.07783</v>
+      </c>
+      <c r="D1934">
+        <v>117.9895</v>
+      </c>
+      <c r="E1934" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1934">
+        <v>8</v>
+      </c>
+      <c r="G1934" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1935">
+        <v>36.0611</v>
+      </c>
+      <c r="D1935">
+        <v>103.8343</v>
+      </c>
+      <c r="E1935" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1935">
+        <v>2</v>
+      </c>
+      <c r="G1935" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1936">
+        <v>23.33841</v>
+      </c>
+      <c r="D1936">
+        <v>113.422</v>
+      </c>
+      <c r="E1936" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1936">
+        <v>27</v>
+      </c>
+      <c r="G1936" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1937">
+        <v>23.82908</v>
+      </c>
+      <c r="D1937">
+        <v>108.7881</v>
+      </c>
+      <c r="E1937" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1937">
+        <v>2</v>
+      </c>
+      <c r="G1937" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1938">
+        <v>26.81536</v>
+      </c>
+      <c r="D1938">
+        <v>106.8748</v>
+      </c>
+      <c r="E1938" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1938">
+        <v>12</v>
+      </c>
+      <c r="G1938" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1939">
+        <v>19.19673</v>
+      </c>
+      <c r="D1939">
+        <v>109.7455</v>
+      </c>
+      <c r="E1939" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1939">
+        <v>2</v>
+      </c>
+      <c r="G1939" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1940">
+        <v>38.0428</v>
+      </c>
+      <c r="D1940">
+        <v>114.5149</v>
+      </c>
+      <c r="E1940" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1940">
+        <v>16</v>
+      </c>
+      <c r="G1940" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1941">
+        <v>47.862</v>
+      </c>
+      <c r="D1941">
+        <v>127.7622</v>
+      </c>
+      <c r="E1941" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1941">
+        <v>18</v>
+      </c>
+      <c r="G1941" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1942">
+        <v>33.88202</v>
+      </c>
+      <c r="D1942">
+        <v>113.614</v>
+      </c>
+      <c r="E1942" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1942">
+        <v>38</v>
+      </c>
+      <c r="G1942" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1943">
+        <v>22.3193</v>
+      </c>
+      <c r="D1943">
+        <v>114.1694</v>
+      </c>
+      <c r="E1943" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1943">
+        <v>5</v>
+      </c>
+      <c r="G1943" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1944">
+        <v>30.97564</v>
+      </c>
+      <c r="D1944">
+        <v>112.2707</v>
+      </c>
+      <c r="E1944" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1944">
+        <v>44</v>
+      </c>
+      <c r="G1944" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1945">
+        <v>27.61041</v>
+      </c>
+      <c r="D1945">
+        <v>111.7088</v>
+      </c>
+      <c r="E1945" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1945">
+        <v>22</v>
+      </c>
+      <c r="G1945" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1946">
+        <v>44.09448</v>
+      </c>
+      <c r="D1946">
+        <v>113.9456</v>
+      </c>
+      <c r="E1946" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1946">
+        <v>1</v>
+      </c>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1947">
+        <v>32.97027</v>
+      </c>
+      <c r="D1947">
+        <v>119.464</v>
+      </c>
+      <c r="E1947" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1947">
+        <v>17</v>
+      </c>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1948">
+        <v>27.61401</v>
+      </c>
+      <c r="D1948">
+        <v>115.7221</v>
+      </c>
+      <c r="E1948" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1948">
+        <v>58</v>
+      </c>
+      <c r="G1948" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1949">
+        <v>43.66657</v>
+      </c>
+      <c r="D1949">
+        <v>126.1917</v>
+      </c>
+      <c r="E1949" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1949">
+        <v>2</v>
+      </c>
+      <c r="G1949" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1950">
+        <v>41.29284</v>
+      </c>
+      <c r="D1950">
+        <v>122.6086</v>
+      </c>
+      <c r="E1950" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1950">
+        <v>7</v>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1951">
+        <v>37.26923</v>
+      </c>
+      <c r="D1951">
+        <v>106.1655</v>
+      </c>
+      <c r="E1951" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1951">
+        <v>8</v>
+      </c>
+      <c r="G1951" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1952">
+        <v>35.19165</v>
+      </c>
+      <c r="D1952">
+        <v>108.8701</v>
+      </c>
+      <c r="E1952" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1952">
+        <v>14</v>
+      </c>
+      <c r="G1952" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1953">
+        <v>36.34377</v>
+      </c>
+      <c r="D1953">
+        <v>118.1529</v>
+      </c>
+      <c r="E1953" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1953">
+        <v>19</v>
+      </c>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1954">
+        <v>31.20327</v>
+      </c>
+      <c r="D1954">
+        <v>121.4554</v>
+      </c>
+      <c r="E1954" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1954">
+        <v>22</v>
+      </c>
+      <c r="G1954" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1955">
+        <v>37.57769</v>
+      </c>
+      <c r="D1955">
+        <v>112.2922</v>
+      </c>
+      <c r="E1955" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1955">
+        <v>7</v>
+      </c>
+      <c r="G1955" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1956">
+        <v>30.61714</v>
+      </c>
+      <c r="D1956">
+        <v>102.7103</v>
+      </c>
+      <c r="E1956" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1956">
+        <v>11</v>
+      </c>
+      <c r="G1956" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1957">
+        <v>39.29362</v>
+      </c>
+      <c r="D1957">
+        <v>117.333</v>
+      </c>
+      <c r="E1957" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1957">
+        <v>16</v>
+      </c>
+      <c r="G1957" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1958">
+        <v>41.11981</v>
+      </c>
+      <c r="D1958">
+        <v>85.17822</v>
+      </c>
+      <c r="E1958" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1958">
+        <v>3</v>
+      </c>
+      <c r="G1958" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1959">
+        <v>24.97411</v>
+      </c>
+      <c r="D1959">
+        <v>101.4868</v>
+      </c>
+      <c r="E1959" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1959">
+        <v>8</v>
+      </c>
+      <c r="G1959" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1960">
+        <v>29.18251</v>
+      </c>
+      <c r="D1960">
+        <v>120.0985</v>
+      </c>
+      <c r="E1960" s="2">
+        <v>43884</v>
+      </c>
+      <c r="F1960">
+        <v>41</v>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1960"/>
+  <dimension ref="A1:G2022"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -56067,6 +56067,1729 @@
         </is>
       </c>
     </row>
+    <row r="1961">
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="C1961">
+        <v>33</v>
+      </c>
+      <c r="D1961">
+        <v>65</v>
+      </c>
+      <c r="E1961" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1961">
+        <v>1</v>
+      </c>
+      <c r="G1961" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C1962">
+        <v>26.0275</v>
+      </c>
+      <c r="D1962">
+        <v>50.55</v>
+      </c>
+      <c r="E1962" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1962">
+        <v>1</v>
+      </c>
+      <c r="G1962" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1963">
+        <v>32.4279</v>
+      </c>
+      <c r="D1963">
+        <v>53.688</v>
+      </c>
+      <c r="E1963" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1963">
+        <v>18</v>
+      </c>
+      <c r="G1963" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C1964">
+        <v>33.2232</v>
+      </c>
+      <c r="D1964">
+        <v>43.6793</v>
+      </c>
+      <c r="E1964" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1964">
+        <v>1</v>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1965">
+        <v>41.8719</v>
+      </c>
+      <c r="D1965">
+        <v>12.5674</v>
+      </c>
+      <c r="E1965" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1965">
+        <v>74</v>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C1966">
+        <v>35.6762</v>
+      </c>
+      <c r="D1966">
+        <v>139.6503</v>
+      </c>
+      <c r="E1966" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1966">
+        <v>12</v>
+      </c>
+      <c r="G1966" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="C1967">
+        <v>29.5</v>
+      </c>
+      <c r="D1967">
+        <v>47.75</v>
+      </c>
+      <c r="E1967" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1967">
+        <v>1</v>
+      </c>
+      <c r="G1967" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="C1968">
+        <v>21.4735</v>
+      </c>
+      <c r="D1968">
+        <v>55.9754</v>
+      </c>
+      <c r="E1968" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1968">
+        <v>2</v>
+      </c>
+      <c r="G1968" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1969">
+        <v>37.5665</v>
+      </c>
+      <c r="D1969">
+        <v>126.978</v>
+      </c>
+      <c r="E1969" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1969">
+        <v>231</v>
+      </c>
+      <c r="G1969" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C1970">
+        <v>55.3781</v>
+      </c>
+      <c r="D1970">
+        <v>-3.436</v>
+      </c>
+      <c r="E1970" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1970">
+        <v>4</v>
+      </c>
+      <c r="G1970" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1971">
+        <v>30.05718</v>
+      </c>
+      <c r="D1971">
+        <v>107.874</v>
+      </c>
+      <c r="E1971" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1971">
+        <v>1</v>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1972">
+        <v>23.33841</v>
+      </c>
+      <c r="D1972">
+        <v>113.422</v>
+      </c>
+      <c r="E1972" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1972">
+        <v>3</v>
+      </c>
+      <c r="G1972" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1973">
+        <v>23.82908</v>
+      </c>
+      <c r="D1973">
+        <v>108.7881</v>
+      </c>
+      <c r="E1973" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1973">
+        <v>2</v>
+      </c>
+      <c r="G1973" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C1974">
+        <v>22.3193</v>
+      </c>
+      <c r="D1974">
+        <v>114.1694</v>
+      </c>
+      <c r="E1974" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1974">
+        <v>5</v>
+      </c>
+      <c r="G1974" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1975">
+        <v>30.97564</v>
+      </c>
+      <c r="D1975">
+        <v>112.2707</v>
+      </c>
+      <c r="E1975" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1975">
+        <v>203</v>
+      </c>
+      <c r="G1975" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1976">
+        <v>43.66657</v>
+      </c>
+      <c r="D1976">
+        <v>126.1917</v>
+      </c>
+      <c r="E1976" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1976">
+        <v>2</v>
+      </c>
+      <c r="G1976" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>Lackland, TX (From Diamond Princess)</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1977">
+        <v>29.3829</v>
+      </c>
+      <c r="D1977">
+        <v>-98.6134</v>
+      </c>
+      <c r="E1977" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1977">
+        <v>-2</v>
+      </c>
+      <c r="G1977" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>Omaha, NE (From Diamond Princess)</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1978">
+        <v>41.2545</v>
+      </c>
+      <c r="D1978">
+        <v>-95.97580000000001</v>
+      </c>
+      <c r="E1978" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1978">
+        <v>-11</v>
+      </c>
+      <c r="G1978" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1979">
+        <v>36.34377</v>
+      </c>
+      <c r="D1979">
+        <v>118.1529</v>
+      </c>
+      <c r="E1979" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1979">
+        <v>1</v>
+      </c>
+      <c r="G1979" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1980">
+        <v>37.57769</v>
+      </c>
+      <c r="D1980">
+        <v>112.2922</v>
+      </c>
+      <c r="E1980" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1980">
+        <v>1</v>
+      </c>
+      <c r="G1980" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1981">
+        <v>30.61714</v>
+      </c>
+      <c r="D1981">
+        <v>102.7103</v>
+      </c>
+      <c r="E1981" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1981">
+        <v>1</v>
+      </c>
+      <c r="G1981" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C1982">
+        <v>23.6978</v>
+      </c>
+      <c r="D1982">
+        <v>120.9605</v>
+      </c>
+      <c r="E1982" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1982">
+        <v>2</v>
+      </c>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>Toronto, ON</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C1983">
+        <v>43.6532</v>
+      </c>
+      <c r="D1983">
+        <v>-79.3832</v>
+      </c>
+      <c r="E1983" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1983">
+        <v>1</v>
+      </c>
+      <c r="G1983" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>Travis, CA (From Diamond Princess)</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1984">
+        <v>38.2721</v>
+      </c>
+      <c r="D1984">
+        <v>-121.9399</v>
+      </c>
+      <c r="E1984" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1984">
+        <v>-5</v>
+      </c>
+      <c r="G1984" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>Unassigned Location (From Diamond Princess)</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1985">
+        <v>37.0902</v>
+      </c>
+      <c r="D1985">
+        <v>-95.7129</v>
+      </c>
+      <c r="E1985" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1985">
+        <v>36</v>
+      </c>
+      <c r="G1985" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C1986">
+        <v>32.4279</v>
+      </c>
+      <c r="D1986">
+        <v>53.688</v>
+      </c>
+      <c r="E1986" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1986">
+        <v>4</v>
+      </c>
+      <c r="G1986" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1987">
+        <v>41.8719</v>
+      </c>
+      <c r="D1987">
+        <v>12.5674</v>
+      </c>
+      <c r="E1987" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1987">
+        <v>4</v>
+      </c>
+      <c r="G1987" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C1988">
+        <v>37.5665</v>
+      </c>
+      <c r="D1988">
+        <v>126.978</v>
+      </c>
+      <c r="E1988" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1988">
+        <v>2</v>
+      </c>
+      <c r="G1988" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1989">
+        <v>30.97564</v>
+      </c>
+      <c r="D1989">
+        <v>112.2707</v>
+      </c>
+      <c r="E1989" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1989">
+        <v>149</v>
+      </c>
+      <c r="G1989" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1990">
+        <v>36.34377</v>
+      </c>
+      <c r="D1990">
+        <v>118.1529</v>
+      </c>
+      <c r="E1990" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1990">
+        <v>1</v>
+      </c>
+      <c r="G1990" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C1991">
+        <v>41.8719</v>
+      </c>
+      <c r="D1991">
+        <v>12.5674</v>
+      </c>
+      <c r="E1991" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1991">
+        <v>-1</v>
+      </c>
+      <c r="G1991" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C1992">
+        <v>4.2105</v>
+      </c>
+      <c r="D1992">
+        <v>101.9758</v>
+      </c>
+      <c r="E1992" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1992">
+        <v>3</v>
+      </c>
+      <c r="G1992" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1993">
+        <v>31.82571</v>
+      </c>
+      <c r="D1993">
+        <v>117.2264</v>
+      </c>
+      <c r="E1993" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1993">
+        <v>26</v>
+      </c>
+      <c r="G1993" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1994">
+        <v>40.18238</v>
+      </c>
+      <c r="D1994">
+        <v>116.4142</v>
+      </c>
+      <c r="E1994" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1994">
+        <v>9</v>
+      </c>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1995">
+        <v>30.05718</v>
+      </c>
+      <c r="D1995">
+        <v>107.874</v>
+      </c>
+      <c r="E1995" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1995">
+        <v>14</v>
+      </c>
+      <c r="G1995" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1996">
+        <v>26.07783</v>
+      </c>
+      <c r="D1996">
+        <v>117.9895</v>
+      </c>
+      <c r="E1996" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1996">
+        <v>13</v>
+      </c>
+      <c r="G1996" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1997">
+        <v>36.0611</v>
+      </c>
+      <c r="D1997">
+        <v>103.8343</v>
+      </c>
+      <c r="E1997" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1997">
+        <v>2</v>
+      </c>
+      <c r="G1997" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1998">
+        <v>23.33841</v>
+      </c>
+      <c r="D1998">
+        <v>113.422</v>
+      </c>
+      <c r="E1998" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1998">
+        <v>31</v>
+      </c>
+      <c r="G1998" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C1999">
+        <v>23.82908</v>
+      </c>
+      <c r="D1999">
+        <v>108.7881</v>
+      </c>
+      <c r="E1999" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F1999">
+        <v>6</v>
+      </c>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2000">
+        <v>19.19673</v>
+      </c>
+      <c r="D2000">
+        <v>109.7455</v>
+      </c>
+      <c r="E2000" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2000">
+        <v>10</v>
+      </c>
+      <c r="G2000" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2001">
+        <v>38.0428</v>
+      </c>
+      <c r="D2001">
+        <v>114.5149</v>
+      </c>
+      <c r="E2001" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2001">
+        <v>15</v>
+      </c>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2002">
+        <v>47.862</v>
+      </c>
+      <c r="D2002">
+        <v>127.7622</v>
+      </c>
+      <c r="E2002" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2002">
+        <v>5</v>
+      </c>
+      <c r="G2002" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2003">
+        <v>33.88202</v>
+      </c>
+      <c r="D2003">
+        <v>113.614</v>
+      </c>
+      <c r="E2003" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2003">
+        <v>75</v>
+      </c>
+      <c r="G2003" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2004">
+        <v>22.3193</v>
+      </c>
+      <c r="D2004">
+        <v>114.1694</v>
+      </c>
+      <c r="E2004" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2004">
+        <v>8</v>
+      </c>
+      <c r="G2004" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2005">
+        <v>30.97564</v>
+      </c>
+      <c r="D2005">
+        <v>112.2707</v>
+      </c>
+      <c r="E2005" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2005">
+        <v>1405</v>
+      </c>
+      <c r="G2005" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2006">
+        <v>27.61041</v>
+      </c>
+      <c r="D2006">
+        <v>111.7088</v>
+      </c>
+      <c r="E2006" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2006">
+        <v>17</v>
+      </c>
+      <c r="G2006" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2007">
+        <v>44.09448</v>
+      </c>
+      <c r="D2007">
+        <v>113.9456</v>
+      </c>
+      <c r="E2007" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2007">
+        <v>7</v>
+      </c>
+      <c r="G2007" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2008">
+        <v>32.97027</v>
+      </c>
+      <c r="D2008">
+        <v>119.464</v>
+      </c>
+      <c r="E2008" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2008">
+        <v>34</v>
+      </c>
+      <c r="G2008" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2009">
+        <v>27.61401</v>
+      </c>
+      <c r="D2009">
+        <v>115.7221</v>
+      </c>
+      <c r="E2009" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2009">
+        <v>32</v>
+      </c>
+      <c r="G2009" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2010">
+        <v>43.66657</v>
+      </c>
+      <c r="D2010">
+        <v>126.1917</v>
+      </c>
+      <c r="E2010" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2010">
+        <v>6</v>
+      </c>
+      <c r="G2010" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2011">
+        <v>41.29284</v>
+      </c>
+      <c r="D2011">
+        <v>122.6086</v>
+      </c>
+      <c r="E2011" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2011">
+        <v>7</v>
+      </c>
+      <c r="G2011" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2012">
+        <v>37.26923</v>
+      </c>
+      <c r="D2012">
+        <v>106.1655</v>
+      </c>
+      <c r="E2012" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2012">
+        <v>2</v>
+      </c>
+      <c r="G2012" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2013">
+        <v>35.19165</v>
+      </c>
+      <c r="D2013">
+        <v>108.8701</v>
+      </c>
+      <c r="E2013" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2013">
+        <v>10</v>
+      </c>
+      <c r="G2013" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2014">
+        <v>36.34377</v>
+      </c>
+      <c r="D2014">
+        <v>118.1529</v>
+      </c>
+      <c r="E2014" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2014">
+        <v>22</v>
+      </c>
+      <c r="G2014" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2015">
+        <v>31.20327</v>
+      </c>
+      <c r="D2015">
+        <v>121.4554</v>
+      </c>
+      <c r="E2015" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2015">
+        <v>12</v>
+      </c>
+      <c r="G2015" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2016">
+        <v>37.57769</v>
+      </c>
+      <c r="D2016">
+        <v>112.2922</v>
+      </c>
+      <c r="E2016" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2016">
+        <v>6</v>
+      </c>
+      <c r="G2016" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2017">
+        <v>30.61714</v>
+      </c>
+      <c r="D2017">
+        <v>102.7103</v>
+      </c>
+      <c r="E2017" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2017">
+        <v>15</v>
+      </c>
+      <c r="G2017" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2018">
+        <v>23.6978</v>
+      </c>
+      <c r="D2018">
+        <v>120.9605</v>
+      </c>
+      <c r="E2018" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2018">
+        <v>3</v>
+      </c>
+      <c r="G2018" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2019">
+        <v>39.29362</v>
+      </c>
+      <c r="D2019">
+        <v>117.333</v>
+      </c>
+      <c r="E2019" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2019">
+        <v>6</v>
+      </c>
+      <c r="G2019" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2020">
+        <v>41.11981</v>
+      </c>
+      <c r="D2020">
+        <v>85.17822</v>
+      </c>
+      <c r="E2020" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2020">
+        <v>2</v>
+      </c>
+      <c r="G2020" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2021">
+        <v>24.97411</v>
+      </c>
+      <c r="D2021">
+        <v>101.4868</v>
+      </c>
+      <c r="E2021" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2021">
+        <v>9</v>
+      </c>
+      <c r="G2021" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2022">
+        <v>29.18251</v>
+      </c>
+      <c r="D2022">
+        <v>120.0985</v>
+      </c>
+      <c r="E2022" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F2022">
+        <v>22</v>
+      </c>
+      <c r="G2022" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2022"/>
+  <dimension ref="A1:G2088"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -57790,6 +57790,1810 @@
         </is>
       </c>
     </row>
+    <row r="2023">
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="C2023">
+        <v>28.0339</v>
+      </c>
+      <c r="D2023">
+        <v>1.6596</v>
+      </c>
+      <c r="E2023" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2023">
+        <v>1</v>
+      </c>
+      <c r="G2023" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C2024">
+        <v>26.0275</v>
+      </c>
+      <c r="D2024">
+        <v>50.55</v>
+      </c>
+      <c r="E2024" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2024">
+        <v>22</v>
+      </c>
+      <c r="G2024" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C2025">
+        <v>45.1</v>
+      </c>
+      <c r="D2025">
+        <v>15.2</v>
+      </c>
+      <c r="E2025" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2025">
+        <v>1</v>
+      </c>
+      <c r="G2025" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2026">
+        <v>46.2276</v>
+      </c>
+      <c r="D2026">
+        <v>2.2137</v>
+      </c>
+      <c r="E2026" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2026">
+        <v>2</v>
+      </c>
+      <c r="G2026" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2027">
+        <v>51.1657</v>
+      </c>
+      <c r="D2027">
+        <v>10.4515</v>
+      </c>
+      <c r="E2027" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2027">
+        <v>1</v>
+      </c>
+      <c r="G2027" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2028">
+        <v>32.4279</v>
+      </c>
+      <c r="D2028">
+        <v>53.688</v>
+      </c>
+      <c r="E2028" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2028">
+        <v>34</v>
+      </c>
+      <c r="G2028" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2029">
+        <v>41.8719</v>
+      </c>
+      <c r="D2029">
+        <v>12.5674</v>
+      </c>
+      <c r="E2029" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2029">
+        <v>93</v>
+      </c>
+      <c r="G2029" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2030">
+        <v>35.6762</v>
+      </c>
+      <c r="D2030">
+        <v>139.6503</v>
+      </c>
+      <c r="E2030" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2030">
+        <v>11</v>
+      </c>
+      <c r="G2030" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="C2031">
+        <v>29.5</v>
+      </c>
+      <c r="D2031">
+        <v>47.75</v>
+      </c>
+      <c r="E2031" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2031">
+        <v>10</v>
+      </c>
+      <c r="G2031" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2032">
+        <v>1.3521</v>
+      </c>
+      <c r="D2032">
+        <v>103.8198</v>
+      </c>
+      <c r="E2032" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2032">
+        <v>2</v>
+      </c>
+      <c r="G2032" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2033">
+        <v>37.5665</v>
+      </c>
+      <c r="D2033">
+        <v>126.978</v>
+      </c>
+      <c r="E2033" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2033">
+        <v>144</v>
+      </c>
+      <c r="G2033" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2034">
+        <v>40.4637</v>
+      </c>
+      <c r="D2034">
+        <v>-3.7492</v>
+      </c>
+      <c r="E2034" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2034">
+        <v>4</v>
+      </c>
+      <c r="G2034" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2035">
+        <v>46.8182</v>
+      </c>
+      <c r="D2035">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2035" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2035">
+        <v>1</v>
+      </c>
+      <c r="G2035" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C2036">
+        <v>13.7563</v>
+      </c>
+      <c r="D2036">
+        <v>100.5018</v>
+      </c>
+      <c r="E2036" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2036">
+        <v>2</v>
+      </c>
+      <c r="G2036" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2037">
+        <v>40.18238</v>
+      </c>
+      <c r="D2037">
+        <v>116.4142</v>
+      </c>
+      <c r="E2037" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2037">
+        <v>1</v>
+      </c>
+      <c r="G2037" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2038">
+        <v>49.2827</v>
+      </c>
+      <c r="D2038">
+        <v>-123.121</v>
+      </c>
+      <c r="E2038" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2038">
+        <v>1</v>
+      </c>
+      <c r="G2038" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2039">
+        <v>26.07783</v>
+      </c>
+      <c r="D2039">
+        <v>117.9895</v>
+      </c>
+      <c r="E2039" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2039">
+        <v>1</v>
+      </c>
+      <c r="G2039" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2040">
+        <v>23.33841</v>
+      </c>
+      <c r="D2040">
+        <v>113.422</v>
+      </c>
+      <c r="E2040" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2040">
+        <v>2</v>
+      </c>
+      <c r="G2040" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2041">
+        <v>23.82908</v>
+      </c>
+      <c r="D2041">
+        <v>108.7881</v>
+      </c>
+      <c r="E2041" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2041">
+        <v>1</v>
+      </c>
+      <c r="G2041" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2042">
+        <v>22.3193</v>
+      </c>
+      <c r="D2042">
+        <v>114.1694</v>
+      </c>
+      <c r="E2042" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2042">
+        <v>5</v>
+      </c>
+      <c r="G2042" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2043">
+        <v>30.97564</v>
+      </c>
+      <c r="D2043">
+        <v>112.2707</v>
+      </c>
+      <c r="E2043" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2043">
+        <v>499</v>
+      </c>
+      <c r="G2043" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C2044">
+        <v>47.5162</v>
+      </c>
+      <c r="D2044">
+        <v>14.5501</v>
+      </c>
+      <c r="E2044" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2044">
+        <v>2</v>
+      </c>
+      <c r="G2044" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2045">
+        <v>36.34377</v>
+      </c>
+      <c r="D2045">
+        <v>118.1529</v>
+      </c>
+      <c r="E2045" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2045">
+        <v>1</v>
+      </c>
+      <c r="G2045" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2046">
+        <v>31.20327</v>
+      </c>
+      <c r="D2046">
+        <v>121.4554</v>
+      </c>
+      <c r="E2046" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2046">
+        <v>1</v>
+      </c>
+      <c r="G2046" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2047">
+        <v>30.61714</v>
+      </c>
+      <c r="D2047">
+        <v>102.7103</v>
+      </c>
+      <c r="E2047" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2047">
+        <v>2</v>
+      </c>
+      <c r="G2047" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2048">
+        <v>23.6978</v>
+      </c>
+      <c r="D2048">
+        <v>120.9605</v>
+      </c>
+      <c r="E2048" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2048">
+        <v>1</v>
+      </c>
+      <c r="G2048" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2049">
+        <v>32.4279</v>
+      </c>
+      <c r="D2049">
+        <v>53.688</v>
+      </c>
+      <c r="E2049" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2049">
+        <v>4</v>
+      </c>
+      <c r="G2049" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2050">
+        <v>41.8719</v>
+      </c>
+      <c r="D2050">
+        <v>12.5674</v>
+      </c>
+      <c r="E2050" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2050">
+        <v>3</v>
+      </c>
+      <c r="G2050" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2051">
+        <v>37.5665</v>
+      </c>
+      <c r="D2051">
+        <v>126.978</v>
+      </c>
+      <c r="E2051" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2051">
+        <v>2</v>
+      </c>
+      <c r="G2051" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2052">
+        <v>23.33841</v>
+      </c>
+      <c r="D2052">
+        <v>113.422</v>
+      </c>
+      <c r="E2052" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2052">
+        <v>1</v>
+      </c>
+      <c r="G2052" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2053">
+        <v>30.97564</v>
+      </c>
+      <c r="D2053">
+        <v>112.2707</v>
+      </c>
+      <c r="E2053" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2053">
+        <v>68</v>
+      </c>
+      <c r="G2053" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2054">
+        <v>36.34377</v>
+      </c>
+      <c r="D2054">
+        <v>118.1529</v>
+      </c>
+      <c r="E2054" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2054">
+        <v>1</v>
+      </c>
+      <c r="G2054" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2055">
+        <v>46.2276</v>
+      </c>
+      <c r="D2055">
+        <v>2.2137</v>
+      </c>
+      <c r="E2055" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2055">
+        <v>7</v>
+      </c>
+      <c r="G2055" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2056">
+        <v>1.3521</v>
+      </c>
+      <c r="D2056">
+        <v>103.8198</v>
+      </c>
+      <c r="E2056" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2056">
+        <v>2</v>
+      </c>
+      <c r="G2056" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2057">
+        <v>37.5665</v>
+      </c>
+      <c r="D2057">
+        <v>126.978</v>
+      </c>
+      <c r="E2057" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2057">
+        <v>4</v>
+      </c>
+      <c r="G2057" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C2058">
+        <v>13.7563</v>
+      </c>
+      <c r="D2058">
+        <v>100.5018</v>
+      </c>
+      <c r="E2058" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2058">
+        <v>1</v>
+      </c>
+      <c r="G2058" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C2059">
+        <v>21.0278</v>
+      </c>
+      <c r="D2059">
+        <v>105.8342</v>
+      </c>
+      <c r="E2059" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2059">
+        <v>2</v>
+      </c>
+      <c r="G2059" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2060">
+        <v>31.82571</v>
+      </c>
+      <c r="D2060">
+        <v>117.2264</v>
+      </c>
+      <c r="E2060" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2060">
+        <v>49</v>
+      </c>
+      <c r="G2060" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2061">
+        <v>40.18238</v>
+      </c>
+      <c r="D2061">
+        <v>116.4142</v>
+      </c>
+      <c r="E2061" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2061">
+        <v>17</v>
+      </c>
+      <c r="G2061" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2062">
+        <v>30.05718</v>
+      </c>
+      <c r="D2062">
+        <v>107.874</v>
+      </c>
+      <c r="E2062" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2062">
+        <v>23</v>
+      </c>
+      <c r="G2062" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2063">
+        <v>26.07783</v>
+      </c>
+      <c r="D2063">
+        <v>117.9895</v>
+      </c>
+      <c r="E2063" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2063">
+        <v>16</v>
+      </c>
+      <c r="G2063" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2064">
+        <v>23.33841</v>
+      </c>
+      <c r="D2064">
+        <v>113.422</v>
+      </c>
+      <c r="E2064" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2064">
+        <v>36</v>
+      </c>
+      <c r="G2064" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2065">
+        <v>23.82908</v>
+      </c>
+      <c r="D2065">
+        <v>108.7881</v>
+      </c>
+      <c r="E2065" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2065">
+        <v>22</v>
+      </c>
+      <c r="G2065" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2066">
+        <v>26.81536</v>
+      </c>
+      <c r="D2066">
+        <v>106.8748</v>
+      </c>
+      <c r="E2066" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2066">
+        <v>2</v>
+      </c>
+      <c r="G2066" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2067">
+        <v>19.19673</v>
+      </c>
+      <c r="D2067">
+        <v>109.7455</v>
+      </c>
+      <c r="E2067" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2067">
+        <v>8</v>
+      </c>
+      <c r="G2067" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2068">
+        <v>38.0428</v>
+      </c>
+      <c r="D2068">
+        <v>114.5149</v>
+      </c>
+      <c r="E2068" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2068">
+        <v>14</v>
+      </c>
+      <c r="G2068" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2069">
+        <v>47.862</v>
+      </c>
+      <c r="D2069">
+        <v>127.7622</v>
+      </c>
+      <c r="E2069" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2069">
+        <v>16</v>
+      </c>
+      <c r="G2069" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2070">
+        <v>33.88202</v>
+      </c>
+      <c r="D2070">
+        <v>113.614</v>
+      </c>
+      <c r="E2070" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2070">
+        <v>59</v>
+      </c>
+      <c r="G2070" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2071">
+        <v>30.97564</v>
+      </c>
+      <c r="D2071">
+        <v>112.2707</v>
+      </c>
+      <c r="E2071" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2071">
+        <v>2223</v>
+      </c>
+      <c r="G2071" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2072">
+        <v>27.61041</v>
+      </c>
+      <c r="D2072">
+        <v>111.7088</v>
+      </c>
+      <c r="E2072" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2072">
+        <v>37</v>
+      </c>
+      <c r="G2072" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2073">
+        <v>44.09448</v>
+      </c>
+      <c r="D2073">
+        <v>113.9456</v>
+      </c>
+      <c r="E2073" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2073">
+        <v>1</v>
+      </c>
+      <c r="G2073" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2074">
+        <v>32.97027</v>
+      </c>
+      <c r="D2074">
+        <v>119.464</v>
+      </c>
+      <c r="E2074" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2074">
+        <v>6</v>
+      </c>
+      <c r="G2074" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2075">
+        <v>27.61401</v>
+      </c>
+      <c r="D2075">
+        <v>115.7221</v>
+      </c>
+      <c r="E2075" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2075">
+        <v>38</v>
+      </c>
+      <c r="G2075" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2076">
+        <v>43.66657</v>
+      </c>
+      <c r="D2076">
+        <v>126.1917</v>
+      </c>
+      <c r="E2076" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2076">
+        <v>3</v>
+      </c>
+      <c r="G2076" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2077">
+        <v>41.29284</v>
+      </c>
+      <c r="D2077">
+        <v>122.6086</v>
+      </c>
+      <c r="E2077" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2077">
+        <v>3</v>
+      </c>
+      <c r="G2077" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="C2078">
+        <v>22.1987</v>
+      </c>
+      <c r="D2078">
+        <v>113.5439</v>
+      </c>
+      <c r="E2078" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2078">
+        <v>1</v>
+      </c>
+      <c r="G2078" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2079">
+        <v>37.26923</v>
+      </c>
+      <c r="D2079">
+        <v>106.1655</v>
+      </c>
+      <c r="E2079" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2079">
+        <v>3</v>
+      </c>
+      <c r="G2079" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2080">
+        <v>35.19165</v>
+      </c>
+      <c r="D2080">
+        <v>108.8701</v>
+      </c>
+      <c r="E2080" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2080">
+        <v>13</v>
+      </c>
+      <c r="G2080" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2081">
+        <v>36.34377</v>
+      </c>
+      <c r="D2081">
+        <v>118.1529</v>
+      </c>
+      <c r="E2081" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2081">
+        <v>12</v>
+      </c>
+      <c r="G2081" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2082">
+        <v>31.20327</v>
+      </c>
+      <c r="D2082">
+        <v>121.4554</v>
+      </c>
+      <c r="E2082" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2082">
+        <v>7</v>
+      </c>
+      <c r="G2082" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2083">
+        <v>37.57769</v>
+      </c>
+      <c r="D2083">
+        <v>112.2922</v>
+      </c>
+      <c r="E2083" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2083">
+        <v>4</v>
+      </c>
+      <c r="G2083" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2084">
+        <v>30.61714</v>
+      </c>
+      <c r="D2084">
+        <v>102.7103</v>
+      </c>
+      <c r="E2084" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2084">
+        <v>13</v>
+      </c>
+      <c r="G2084" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>Tempe, AZ</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2085">
+        <v>34.0489</v>
+      </c>
+      <c r="D2085">
+        <v>-111.094</v>
+      </c>
+      <c r="E2085" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2085">
+        <v>1</v>
+      </c>
+      <c r="G2085" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2086">
+        <v>39.29362</v>
+      </c>
+      <c r="D2086">
+        <v>117.333</v>
+      </c>
+      <c r="E2086" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2086">
+        <v>4</v>
+      </c>
+      <c r="G2086" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2087">
+        <v>24.97411</v>
+      </c>
+      <c r="D2087">
+        <v>101.4868</v>
+      </c>
+      <c r="E2087" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2087">
+        <v>5</v>
+      </c>
+      <c r="G2087" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2088">
+        <v>29.18251</v>
+      </c>
+      <c r="D2088">
+        <v>120.0985</v>
+      </c>
+      <c r="E2088" s="2">
+        <v>43886</v>
+      </c>
+      <c r="F2088">
+        <v>26</v>
+      </c>
+      <c r="G2088" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2088"/>
+  <dimension ref="A1:G2162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -50928,20 +50928,20 @@
     <row r="1778">
       <c r="B1778" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C1778">
-        <v>41.8719</v>
+        <v>31</v>
       </c>
       <c r="D1778">
-        <v>12.5674</v>
+        <v>35</v>
       </c>
       <c r="E1778" s="2">
         <v>43882</v>
       </c>
       <c r="F1778">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G1778" t="inlineStr">
         <is>
@@ -50952,20 +50952,20 @@
     <row r="1779">
       <c r="B1779" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C1779">
-        <v>35.6762</v>
+        <v>41.8719</v>
       </c>
       <c r="D1779">
-        <v>139.6503</v>
+        <v>12.5674</v>
       </c>
       <c r="E1779" s="2">
         <v>43882</v>
       </c>
       <c r="F1779">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G1779" t="inlineStr">
         <is>
@@ -50976,20 +50976,20 @@
     <row r="1780">
       <c r="B1780" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C1780">
-        <v>33.8547</v>
+        <v>35.6762</v>
       </c>
       <c r="D1780">
-        <v>35.8623</v>
+        <v>139.6503</v>
       </c>
       <c r="E1780" s="2">
         <v>43882</v>
       </c>
       <c r="F1780">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G1780" t="inlineStr">
         <is>
@@ -51000,14 +51000,14 @@
     <row r="1781">
       <c r="B1781" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="C1781">
-        <v>1.3521</v>
+        <v>33.8547</v>
       </c>
       <c r="D1781">
-        <v>103.8198</v>
+        <v>35.8623</v>
       </c>
       <c r="E1781" s="2">
         <v>43882</v>
@@ -51024,20 +51024,20 @@
     <row r="1782">
       <c r="B1782" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C1782">
-        <v>37.5665</v>
+        <v>1.3521</v>
       </c>
       <c r="D1782">
-        <v>126.978</v>
+        <v>103.8198</v>
       </c>
       <c r="E1782" s="2">
         <v>43882</v>
       </c>
       <c r="F1782">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G1782" t="inlineStr">
         <is>
@@ -51046,27 +51046,22 @@
       </c>
     </row>
     <row r="1783">
-      <c r="A1783" t="inlineStr">
-        <is>
-          <t>Anhui</t>
-        </is>
-      </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C1783">
-        <v>31.82571</v>
+        <v>37.5665</v>
       </c>
       <c r="D1783">
-        <v>117.2264</v>
+        <v>126.978</v>
       </c>
       <c r="E1783" s="2">
         <v>43882</v>
       </c>
       <c r="F1783">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G1783" t="inlineStr">
         <is>
@@ -51077,7 +51072,7 @@
     <row r="1784">
       <c r="A1784" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Anhui</t>
         </is>
       </c>
       <c r="B1784" t="inlineStr">
@@ -51086,10 +51081,10 @@
         </is>
       </c>
       <c r="C1784">
-        <v>40.18238</v>
+        <v>31.82571</v>
       </c>
       <c r="D1784">
-        <v>116.4142</v>
+        <v>117.2264</v>
       </c>
       <c r="E1784" s="2">
         <v>43882</v>
@@ -51106,19 +51101,19 @@
     <row r="1785">
       <c r="A1785" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Beijing</t>
         </is>
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C1785">
-        <v>49.2827</v>
+        <v>40.18238</v>
       </c>
       <c r="D1785">
-        <v>-123.121</v>
+        <v>116.4142</v>
       </c>
       <c r="E1785" s="2">
         <v>43882</v>
@@ -51135,25 +51130,25 @@
     <row r="1786">
       <c r="A1786" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C1786">
-        <v>30.05718</v>
+        <v>49.2827</v>
       </c>
       <c r="D1786">
-        <v>107.874</v>
+        <v>-123.121</v>
       </c>
       <c r="E1786" s="2">
         <v>43882</v>
       </c>
       <c r="F1786">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1786" t="inlineStr">
         <is>
@@ -51164,25 +51159,25 @@
     <row r="1787">
       <c r="A1787" t="inlineStr">
         <is>
-          <t>From Diamond Princess</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B1787" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C1787">
-        <v>35.4437</v>
+        <v>30.05718</v>
       </c>
       <c r="D1787">
-        <v>139.638</v>
+        <v>107.874</v>
       </c>
       <c r="E1787" s="2">
         <v>43882</v>
       </c>
       <c r="F1787">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1787" t="inlineStr">
         <is>
@@ -51198,20 +51193,20 @@
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C1788">
-        <v>31.0461</v>
+        <v>35.4437</v>
       </c>
       <c r="D1788">
-        <v>34.8516</v>
+        <v>139.638</v>
       </c>
       <c r="E1788" s="2">
         <v>43882</v>
       </c>
       <c r="F1788">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1788" t="inlineStr">
         <is>
@@ -57817,20 +57812,20 @@
     <row r="2024">
       <c r="B2024" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C2024">
-        <v>26.0275</v>
+        <v>47.5162</v>
       </c>
       <c r="D2024">
-        <v>50.55</v>
+        <v>14.5501</v>
       </c>
       <c r="E2024" s="2">
         <v>43886</v>
       </c>
       <c r="F2024">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G2024" t="inlineStr">
         <is>
@@ -57841,20 +57836,20 @@
     <row r="2025">
       <c r="B2025" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="C2025">
-        <v>45.1</v>
+        <v>26.0275</v>
       </c>
       <c r="D2025">
-        <v>15.2</v>
+        <v>50.55</v>
       </c>
       <c r="E2025" s="2">
         <v>43886</v>
       </c>
       <c r="F2025">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G2025" t="inlineStr">
         <is>
@@ -57865,20 +57860,20 @@
     <row r="2026">
       <c r="B2026" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C2026">
-        <v>46.2276</v>
+        <v>45.1</v>
       </c>
       <c r="D2026">
-        <v>2.2137</v>
+        <v>15.2</v>
       </c>
       <c r="E2026" s="2">
         <v>43886</v>
       </c>
       <c r="F2026">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2026" t="inlineStr">
         <is>
@@ -57889,20 +57884,20 @@
     <row r="2027">
       <c r="B2027" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C2027">
-        <v>51.1657</v>
+        <v>46.2276</v>
       </c>
       <c r="D2027">
-        <v>10.4515</v>
+        <v>2.2137</v>
       </c>
       <c r="E2027" s="2">
         <v>43886</v>
       </c>
       <c r="F2027">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2027" t="inlineStr">
         <is>
@@ -57913,20 +57908,20 @@
     <row r="2028">
       <c r="B2028" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C2028">
-        <v>32.4279</v>
+        <v>51.1657</v>
       </c>
       <c r="D2028">
-        <v>53.688</v>
+        <v>10.4515</v>
       </c>
       <c r="E2028" s="2">
         <v>43886</v>
       </c>
       <c r="F2028">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G2028" t="inlineStr">
         <is>
@@ -57937,20 +57932,20 @@
     <row r="2029">
       <c r="B2029" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C2029">
-        <v>41.8719</v>
+        <v>32.4279</v>
       </c>
       <c r="D2029">
-        <v>12.5674</v>
+        <v>53.688</v>
       </c>
       <c r="E2029" s="2">
         <v>43886</v>
       </c>
       <c r="F2029">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="G2029" t="inlineStr">
         <is>
@@ -57961,20 +57956,20 @@
     <row r="2030">
       <c r="B2030" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C2030">
-        <v>35.6762</v>
+        <v>41.8719</v>
       </c>
       <c r="D2030">
-        <v>139.6503</v>
+        <v>12.5674</v>
       </c>
       <c r="E2030" s="2">
         <v>43886</v>
       </c>
       <c r="F2030">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="G2030" t="inlineStr">
         <is>
@@ -57985,20 +57980,20 @@
     <row r="2031">
       <c r="B2031" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C2031">
-        <v>29.5</v>
+        <v>35.6762</v>
       </c>
       <c r="D2031">
-        <v>47.75</v>
+        <v>139.6503</v>
       </c>
       <c r="E2031" s="2">
         <v>43886</v>
       </c>
       <c r="F2031">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2031" t="inlineStr">
         <is>
@@ -58009,20 +58004,20 @@
     <row r="2032">
       <c r="B2032" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="C2032">
-        <v>1.3521</v>
+        <v>29.5</v>
       </c>
       <c r="D2032">
-        <v>103.8198</v>
+        <v>47.75</v>
       </c>
       <c r="E2032" s="2">
         <v>43886</v>
       </c>
       <c r="F2032">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G2032" t="inlineStr">
         <is>
@@ -58033,20 +58028,20 @@
     <row r="2033">
       <c r="B2033" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C2033">
-        <v>37.5665</v>
+        <v>1.3521</v>
       </c>
       <c r="D2033">
-        <v>126.978</v>
+        <v>103.8198</v>
       </c>
       <c r="E2033" s="2">
         <v>43886</v>
       </c>
       <c r="F2033">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="G2033" t="inlineStr">
         <is>
@@ -58057,20 +58052,20 @@
     <row r="2034">
       <c r="B2034" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C2034">
-        <v>40.4637</v>
+        <v>37.5665</v>
       </c>
       <c r="D2034">
-        <v>-3.7492</v>
+        <v>126.978</v>
       </c>
       <c r="E2034" s="2">
         <v>43886</v>
       </c>
       <c r="F2034">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="G2034" t="inlineStr">
         <is>
@@ -58081,20 +58076,20 @@
     <row r="2035">
       <c r="B2035" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C2035">
-        <v>46.8182</v>
+        <v>40.4637</v>
       </c>
       <c r="D2035">
-        <v>8.227499999999999</v>
+        <v>-3.7492</v>
       </c>
       <c r="E2035" s="2">
         <v>43886</v>
       </c>
       <c r="F2035">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2035" t="inlineStr">
         <is>
@@ -58105,20 +58100,20 @@
     <row r="2036">
       <c r="B2036" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C2036">
-        <v>13.7563</v>
+        <v>46.8182</v>
       </c>
       <c r="D2036">
-        <v>100.5018</v>
+        <v>8.227499999999999</v>
       </c>
       <c r="E2036" s="2">
         <v>43886</v>
       </c>
       <c r="F2036">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2036" t="inlineStr">
         <is>
@@ -58127,27 +58122,22 @@
       </c>
     </row>
     <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Beijing</t>
-        </is>
-      </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C2037">
-        <v>40.18238</v>
+        <v>13.7563</v>
       </c>
       <c r="D2037">
-        <v>116.4142</v>
+        <v>100.5018</v>
       </c>
       <c r="E2037" s="2">
         <v>43886</v>
       </c>
       <c r="F2037">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2037" t="inlineStr">
         <is>
@@ -58158,19 +58148,19 @@
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Beijing</t>
         </is>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2038">
-        <v>49.2827</v>
+        <v>40.18238</v>
       </c>
       <c r="D2038">
-        <v>-123.121</v>
+        <v>116.4142</v>
       </c>
       <c r="E2038" s="2">
         <v>43886</v>
@@ -58187,19 +58177,19 @@
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>Fujian</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C2039">
-        <v>26.07783</v>
+        <v>49.2827</v>
       </c>
       <c r="D2039">
-        <v>117.9895</v>
+        <v>-123.121</v>
       </c>
       <c r="E2039" s="2">
         <v>43886</v>
@@ -58216,7 +58206,7 @@
     <row r="2040">
       <c r="A2040" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Fujian</t>
         </is>
       </c>
       <c r="B2040" t="inlineStr">
@@ -58225,16 +58215,16 @@
         </is>
       </c>
       <c r="C2040">
-        <v>23.33841</v>
+        <v>26.07783</v>
       </c>
       <c r="D2040">
-        <v>113.422</v>
+        <v>117.9895</v>
       </c>
       <c r="E2040" s="2">
         <v>43886</v>
       </c>
       <c r="F2040">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2040" t="inlineStr">
         <is>
@@ -58245,7 +58235,7 @@
     <row r="2041">
       <c r="A2041" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="B2041" t="inlineStr">
@@ -58254,16 +58244,16 @@
         </is>
       </c>
       <c r="C2041">
-        <v>23.82908</v>
+        <v>23.33841</v>
       </c>
       <c r="D2041">
-        <v>108.7881</v>
+        <v>113.422</v>
       </c>
       <c r="E2041" s="2">
         <v>43886</v>
       </c>
       <c r="F2041">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2041" t="inlineStr">
         <is>
@@ -58274,25 +58264,25 @@
     <row r="2042">
       <c r="A2042" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2042">
-        <v>22.3193</v>
+        <v>23.82908</v>
       </c>
       <c r="D2042">
-        <v>114.1694</v>
+        <v>108.7881</v>
       </c>
       <c r="E2042" s="2">
         <v>43886</v>
       </c>
       <c r="F2042">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2042" t="inlineStr">
         <is>
@@ -58303,25 +58293,25 @@
     <row r="2043">
       <c r="A2043" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C2043">
-        <v>30.97564</v>
+        <v>22.3193</v>
       </c>
       <c r="D2043">
-        <v>112.2707</v>
+        <v>114.1694</v>
       </c>
       <c r="E2043" s="2">
         <v>43886</v>
       </c>
       <c r="F2043">
-        <v>499</v>
+        <v>5</v>
       </c>
       <c r="G2043" t="inlineStr">
         <is>
@@ -58332,25 +58322,25 @@
     <row r="2044">
       <c r="A2044" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2044">
-        <v>47.5162</v>
+        <v>30.97564</v>
       </c>
       <c r="D2044">
-        <v>14.5501</v>
+        <v>112.2707</v>
       </c>
       <c r="E2044" s="2">
         <v>43886</v>
       </c>
       <c r="F2044">
-        <v>2</v>
+        <v>499</v>
       </c>
       <c r="G2044" t="inlineStr">
         <is>
@@ -59589,6 +59579,1982 @@
         <v>26</v>
       </c>
       <c r="G2088" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C2089">
+        <v>26.0275</v>
+      </c>
+      <c r="D2089">
+        <v>50.55</v>
+      </c>
+      <c r="E2089" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2089">
+        <v>10</v>
+      </c>
+      <c r="G2089" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="C2090">
+        <v>-14.235</v>
+      </c>
+      <c r="D2090">
+        <v>-51.9253</v>
+      </c>
+      <c r="E2090" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2090">
+        <v>1</v>
+      </c>
+      <c r="G2090" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C2091">
+        <v>45.1</v>
+      </c>
+      <c r="D2091">
+        <v>15.2</v>
+      </c>
+      <c r="E2091" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2091">
+        <v>2</v>
+      </c>
+      <c r="G2091" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C2092">
+        <v>61.9241</v>
+      </c>
+      <c r="D2092">
+        <v>25.7482</v>
+      </c>
+      <c r="E2092" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2092">
+        <v>1</v>
+      </c>
+      <c r="G2092" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2093">
+        <v>46.2276</v>
+      </c>
+      <c r="D2093">
+        <v>2.2137</v>
+      </c>
+      <c r="E2093" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2093">
+        <v>4</v>
+      </c>
+      <c r="G2093" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="C2094">
+        <v>42.3154</v>
+      </c>
+      <c r="D2094">
+        <v>43.3569</v>
+      </c>
+      <c r="E2094" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2094">
+        <v>1</v>
+      </c>
+      <c r="G2094" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2095">
+        <v>51.1657</v>
+      </c>
+      <c r="D2095">
+        <v>10.4515</v>
+      </c>
+      <c r="E2095" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2095">
+        <v>10</v>
+      </c>
+      <c r="G2095" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C2096">
+        <v>39.0742</v>
+      </c>
+      <c r="D2096">
+        <v>21.8243</v>
+      </c>
+      <c r="E2096" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2096">
+        <v>1</v>
+      </c>
+      <c r="G2096" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2097">
+        <v>32.4279</v>
+      </c>
+      <c r="D2097">
+        <v>53.688</v>
+      </c>
+      <c r="E2097" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2097">
+        <v>44</v>
+      </c>
+      <c r="G2097" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C2098">
+        <v>33.2232</v>
+      </c>
+      <c r="D2098">
+        <v>43.6793</v>
+      </c>
+      <c r="E2098" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2098">
+        <v>4</v>
+      </c>
+      <c r="G2098" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C2099">
+        <v>31</v>
+      </c>
+      <c r="D2099">
+        <v>35</v>
+      </c>
+      <c r="E2099" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2099">
+        <v>1</v>
+      </c>
+      <c r="G2099" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2100">
+        <v>41.8719</v>
+      </c>
+      <c r="D2100">
+        <v>12.5674</v>
+      </c>
+      <c r="E2100" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2100">
+        <v>131</v>
+      </c>
+      <c r="G2100" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2101">
+        <v>35.6762</v>
+      </c>
+      <c r="D2101">
+        <v>139.6503</v>
+      </c>
+      <c r="E2101" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2101">
+        <v>19</v>
+      </c>
+      <c r="G2101" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="C2102">
+        <v>29.5</v>
+      </c>
+      <c r="D2102">
+        <v>47.75</v>
+      </c>
+      <c r="E2102" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2102">
+        <v>15</v>
+      </c>
+      <c r="G2102" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C2103">
+        <v>33.8547</v>
+      </c>
+      <c r="D2103">
+        <v>35.8623</v>
+      </c>
+      <c r="E2103" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2103">
+        <v>1</v>
+      </c>
+      <c r="G2103" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="C2104">
+        <v>41.6086</v>
+      </c>
+      <c r="D2104">
+        <v>21.7453</v>
+      </c>
+      <c r="E2104" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2104">
+        <v>1</v>
+      </c>
+      <c r="G2104" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2105">
+        <v>60.472</v>
+      </c>
+      <c r="D2105">
+        <v>8.4689</v>
+      </c>
+      <c r="E2105" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2105">
+        <v>1</v>
+      </c>
+      <c r="G2105" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="C2106">
+        <v>21.4735</v>
+      </c>
+      <c r="D2106">
+        <v>55.9754</v>
+      </c>
+      <c r="E2106" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2106">
+        <v>2</v>
+      </c>
+      <c r="G2106" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="C2107">
+        <v>30.3753</v>
+      </c>
+      <c r="D2107">
+        <v>69.3451</v>
+      </c>
+      <c r="E2107" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2107">
+        <v>2</v>
+      </c>
+      <c r="G2107" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C2108">
+        <v>45.9432</v>
+      </c>
+      <c r="D2108">
+        <v>24.9668</v>
+      </c>
+      <c r="E2108" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2108">
+        <v>1</v>
+      </c>
+      <c r="G2108" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2109">
+        <v>1.3521</v>
+      </c>
+      <c r="D2109">
+        <v>103.8198</v>
+      </c>
+      <c r="E2109" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2109">
+        <v>2</v>
+      </c>
+      <c r="G2109" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2110">
+        <v>37.5665</v>
+      </c>
+      <c r="D2110">
+        <v>126.978</v>
+      </c>
+      <c r="E2110" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2110">
+        <v>284</v>
+      </c>
+      <c r="G2110" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2111">
+        <v>40.4637</v>
+      </c>
+      <c r="D2111">
+        <v>-3.7492</v>
+      </c>
+      <c r="E2111" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2111">
+        <v>7</v>
+      </c>
+      <c r="G2111" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C2112">
+        <v>60.1282</v>
+      </c>
+      <c r="D2112">
+        <v>18.6435</v>
+      </c>
+      <c r="E2112" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2112">
+        <v>1</v>
+      </c>
+      <c r="G2112" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C2113">
+        <v>13.7563</v>
+      </c>
+      <c r="D2113">
+        <v>100.5018</v>
+      </c>
+      <c r="E2113" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2113">
+        <v>3</v>
+      </c>
+      <c r="G2113" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C2114">
+        <v>35.4437</v>
+      </c>
+      <c r="D2114">
+        <v>139.638</v>
+      </c>
+      <c r="E2114" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2114">
+        <v>14</v>
+      </c>
+      <c r="G2114" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2115">
+        <v>38.0428</v>
+      </c>
+      <c r="D2115">
+        <v>114.5149</v>
+      </c>
+      <c r="E2115" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2115">
+        <v>1</v>
+      </c>
+      <c r="G2115" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2116">
+        <v>22.3193</v>
+      </c>
+      <c r="D2116">
+        <v>114.1694</v>
+      </c>
+      <c r="E2116" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2116">
+        <v>7</v>
+      </c>
+      <c r="G2116" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2117">
+        <v>30.97564</v>
+      </c>
+      <c r="D2117">
+        <v>112.2707</v>
+      </c>
+      <c r="E2117" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2117">
+        <v>401</v>
+      </c>
+      <c r="G2117" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2118">
+        <v>31.20327</v>
+      </c>
+      <c r="D2118">
+        <v>121.4554</v>
+      </c>
+      <c r="E2118" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2118">
+        <v>1</v>
+      </c>
+      <c r="G2118" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2119">
+        <v>30.61714</v>
+      </c>
+      <c r="D2119">
+        <v>102.7103</v>
+      </c>
+      <c r="E2119" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2119">
+        <v>2</v>
+      </c>
+      <c r="G2119" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2120">
+        <v>23.6978</v>
+      </c>
+      <c r="D2120">
+        <v>120.9605</v>
+      </c>
+      <c r="E2120" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2120">
+        <v>1</v>
+      </c>
+      <c r="G2120" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>Unassigned Location (From Diamond Princess)</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2121">
+        <v>37.0902</v>
+      </c>
+      <c r="D2121">
+        <v>-95.7129</v>
+      </c>
+      <c r="E2121" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2121">
+        <v>6</v>
+      </c>
+      <c r="G2121" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2122">
+        <v>46.2276</v>
+      </c>
+      <c r="D2122">
+        <v>2.2137</v>
+      </c>
+      <c r="E2122" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2122">
+        <v>1</v>
+      </c>
+      <c r="G2122" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2123">
+        <v>32.4279</v>
+      </c>
+      <c r="D2123">
+        <v>53.688</v>
+      </c>
+      <c r="E2123" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2123">
+        <v>3</v>
+      </c>
+      <c r="G2123" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2124">
+        <v>41.8719</v>
+      </c>
+      <c r="D2124">
+        <v>12.5674</v>
+      </c>
+      <c r="E2124" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2124">
+        <v>2</v>
+      </c>
+      <c r="G2124" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2125">
+        <v>35.6762</v>
+      </c>
+      <c r="D2125">
+        <v>139.6503</v>
+      </c>
+      <c r="E2125" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2125">
+        <v>1</v>
+      </c>
+      <c r="G2125" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2126">
+        <v>37.5665</v>
+      </c>
+      <c r="D2126">
+        <v>126.978</v>
+      </c>
+      <c r="E2126" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2126">
+        <v>2</v>
+      </c>
+      <c r="G2126" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C2127">
+        <v>35.4437</v>
+      </c>
+      <c r="D2127">
+        <v>139.638</v>
+      </c>
+      <c r="E2127" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2127">
+        <v>1</v>
+      </c>
+      <c r="G2127" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2128">
+        <v>30.97564</v>
+      </c>
+      <c r="D2128">
+        <v>112.2707</v>
+      </c>
+      <c r="E2128" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2128">
+        <v>52</v>
+      </c>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2129">
+        <v>51.1657</v>
+      </c>
+      <c r="D2129">
+        <v>10.4515</v>
+      </c>
+      <c r="E2129" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2129">
+        <v>1</v>
+      </c>
+      <c r="G2129" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2130">
+        <v>32.4279</v>
+      </c>
+      <c r="D2130">
+        <v>53.688</v>
+      </c>
+      <c r="E2130" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2130">
+        <v>49</v>
+      </c>
+      <c r="G2130" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2131">
+        <v>41.8719</v>
+      </c>
+      <c r="D2131">
+        <v>12.5674</v>
+      </c>
+      <c r="E2131" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2131">
+        <v>2</v>
+      </c>
+      <c r="G2131" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2132">
+        <v>1.3521</v>
+      </c>
+      <c r="D2132">
+        <v>103.8198</v>
+      </c>
+      <c r="E2132" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2132">
+        <v>9</v>
+      </c>
+      <c r="G2132" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2133">
+        <v>31.82571</v>
+      </c>
+      <c r="D2133">
+        <v>117.2264</v>
+      </c>
+      <c r="E2133" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2133">
+        <v>32</v>
+      </c>
+      <c r="G2133" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2134">
+        <v>40.18238</v>
+      </c>
+      <c r="D2134">
+        <v>116.4142</v>
+      </c>
+      <c r="E2134" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2134">
+        <v>20</v>
+      </c>
+      <c r="G2134" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2135">
+        <v>30.05718</v>
+      </c>
+      <c r="D2135">
+        <v>107.874</v>
+      </c>
+      <c r="E2135" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2135">
+        <v>12</v>
+      </c>
+      <c r="G2135" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C2136">
+        <v>35.4437</v>
+      </c>
+      <c r="D2136">
+        <v>139.638</v>
+      </c>
+      <c r="E2136" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2136">
+        <v>10</v>
+      </c>
+      <c r="G2136" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2137">
+        <v>26.07783</v>
+      </c>
+      <c r="D2137">
+        <v>117.9895</v>
+      </c>
+      <c r="E2137" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2137">
+        <v>19</v>
+      </c>
+      <c r="G2137" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2138">
+        <v>36.0611</v>
+      </c>
+      <c r="D2138">
+        <v>103.8343</v>
+      </c>
+      <c r="E2138" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2138">
+        <v>1</v>
+      </c>
+      <c r="G2138" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2139">
+        <v>23.33841</v>
+      </c>
+      <c r="D2139">
+        <v>113.422</v>
+      </c>
+      <c r="E2139" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2139">
+        <v>29</v>
+      </c>
+      <c r="G2139" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2140">
+        <v>23.82908</v>
+      </c>
+      <c r="D2140">
+        <v>108.7881</v>
+      </c>
+      <c r="E2140" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2140">
+        <v>13</v>
+      </c>
+      <c r="G2140" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2141">
+        <v>19.19673</v>
+      </c>
+      <c r="D2141">
+        <v>109.7455</v>
+      </c>
+      <c r="E2141" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2141">
+        <v>5</v>
+      </c>
+      <c r="G2141" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2142">
+        <v>38.0428</v>
+      </c>
+      <c r="D2142">
+        <v>114.5149</v>
+      </c>
+      <c r="E2142" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2142">
+        <v>13</v>
+      </c>
+      <c r="G2142" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2143">
+        <v>47.862</v>
+      </c>
+      <c r="D2143">
+        <v>127.7622</v>
+      </c>
+      <c r="E2143" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2143">
+        <v>6</v>
+      </c>
+      <c r="G2143" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2144">
+        <v>33.88202</v>
+      </c>
+      <c r="D2144">
+        <v>113.614</v>
+      </c>
+      <c r="E2144" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2144">
+        <v>31</v>
+      </c>
+      <c r="G2144" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2145">
+        <v>22.3193</v>
+      </c>
+      <c r="D2145">
+        <v>114.1694</v>
+      </c>
+      <c r="E2145" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2145">
+        <v>5</v>
+      </c>
+      <c r="G2145" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2146">
+        <v>30.97564</v>
+      </c>
+      <c r="D2146">
+        <v>112.2707</v>
+      </c>
+      <c r="E2146" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2146">
+        <v>1998</v>
+      </c>
+      <c r="G2146" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2147">
+        <v>27.61041</v>
+      </c>
+      <c r="D2147">
+        <v>111.7088</v>
+      </c>
+      <c r="E2147" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2147">
+        <v>15</v>
+      </c>
+      <c r="G2147" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2148">
+        <v>44.09448</v>
+      </c>
+      <c r="D2148">
+        <v>113.9456</v>
+      </c>
+      <c r="E2148" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2148">
+        <v>3</v>
+      </c>
+      <c r="G2148" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2149">
+        <v>32.97027</v>
+      </c>
+      <c r="D2149">
+        <v>119.464</v>
+      </c>
+      <c r="E2149" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2149">
+        <v>20</v>
+      </c>
+      <c r="G2149" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2150">
+        <v>27.61401</v>
+      </c>
+      <c r="D2150">
+        <v>115.7221</v>
+      </c>
+      <c r="E2150" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2150">
+        <v>36</v>
+      </c>
+      <c r="G2150" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2151">
+        <v>43.66657</v>
+      </c>
+      <c r="D2151">
+        <v>126.1917</v>
+      </c>
+      <c r="E2151" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2151">
+        <v>2</v>
+      </c>
+      <c r="G2151" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2152">
+        <v>41.29284</v>
+      </c>
+      <c r="D2152">
+        <v>122.6086</v>
+      </c>
+      <c r="E2152" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2152">
+        <v>5</v>
+      </c>
+      <c r="G2152" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2153">
+        <v>37.26923</v>
+      </c>
+      <c r="D2153">
+        <v>106.1655</v>
+      </c>
+      <c r="E2153" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2153">
+        <v>4</v>
+      </c>
+      <c r="G2153" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2154">
+        <v>35.19165</v>
+      </c>
+      <c r="D2154">
+        <v>108.8701</v>
+      </c>
+      <c r="E2154" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2154">
+        <v>6</v>
+      </c>
+      <c r="G2154" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2155">
+        <v>36.34377</v>
+      </c>
+      <c r="D2155">
+        <v>118.1529</v>
+      </c>
+      <c r="E2155" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2155">
+        <v>22</v>
+      </c>
+      <c r="G2155" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2156">
+        <v>31.20327</v>
+      </c>
+      <c r="D2156">
+        <v>121.4554</v>
+      </c>
+      <c r="E2156" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2156">
+        <v>4</v>
+      </c>
+      <c r="G2156" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2157">
+        <v>37.57769</v>
+      </c>
+      <c r="D2157">
+        <v>112.2922</v>
+      </c>
+      <c r="E2157" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2157">
+        <v>6</v>
+      </c>
+      <c r="G2157" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2158">
+        <v>30.61714</v>
+      </c>
+      <c r="D2158">
+        <v>102.7103</v>
+      </c>
+      <c r="E2158" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2158">
+        <v>18</v>
+      </c>
+      <c r="G2158" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2159">
+        <v>39.29362</v>
+      </c>
+      <c r="D2159">
+        <v>117.333</v>
+      </c>
+      <c r="E2159" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2159">
+        <v>5</v>
+      </c>
+      <c r="G2159" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2160">
+        <v>41.11981</v>
+      </c>
+      <c r="D2160">
+        <v>85.17822</v>
+      </c>
+      <c r="E2160" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2160">
+        <v>4</v>
+      </c>
+      <c r="G2160" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2161">
+        <v>24.97411</v>
+      </c>
+      <c r="D2161">
+        <v>101.4868</v>
+      </c>
+      <c r="E2161" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2161">
+        <v>15</v>
+      </c>
+      <c r="G2161" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2162">
+        <v>29.18251</v>
+      </c>
+      <c r="D2162">
+        <v>120.0985</v>
+      </c>
+      <c r="E2162" s="2">
+        <v>43887</v>
+      </c>
+      <c r="F2162">
+        <v>59</v>
+      </c>
+      <c r="G2162" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2310"/>
+  <dimension ref="A1:G2401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63574,20 +63574,20 @@
     <row r="2237">
       <c r="B2237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Azerbaijan</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="C2237">
-        <v>40.1431</v>
+        <v>26.0275</v>
       </c>
       <c r="D2237">
-        <v>47.5769</v>
+        <v>50.55</v>
       </c>
       <c r="E2237" s="2">
         <v>43889</v>
       </c>
       <c r="F2237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2237" t="inlineStr">
         <is>
@@ -63598,20 +63598,20 @@
     <row r="2238">
       <c r="B2238" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="C2238">
-        <v>26.0275</v>
+        <v>53.7098</v>
       </c>
       <c r="D2238">
-        <v>50.55</v>
+        <v>27.9534</v>
       </c>
       <c r="E2238" s="2">
         <v>43889</v>
       </c>
       <c r="F2238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2238" t="inlineStr">
         <is>
@@ -63622,20 +63622,20 @@
     <row r="2239">
       <c r="B2239" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C2239">
-        <v>53.7098</v>
+        <v>45.1</v>
       </c>
       <c r="D2239">
-        <v>27.9534</v>
+        <v>15.2</v>
       </c>
       <c r="E2239" s="2">
         <v>43889</v>
       </c>
       <c r="F2239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2239" t="inlineStr">
         <is>
@@ -63646,20 +63646,20 @@
     <row r="2240">
       <c r="B2240" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C2240">
-        <v>45.1</v>
+        <v>47</v>
       </c>
       <c r="D2240">
-        <v>15.2</v>
+        <v>2</v>
       </c>
       <c r="E2240" s="2">
         <v>43889</v>
       </c>
       <c r="F2240">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G2240" t="inlineStr">
         <is>
@@ -63670,20 +63670,20 @@
     <row r="2241">
       <c r="B2241" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C2241">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2241">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2241" s="2">
         <v>43889</v>
       </c>
       <c r="F2241">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G2241" t="inlineStr">
         <is>
@@ -63694,20 +63694,20 @@
     <row r="2242">
       <c r="B2242" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C2242">
-        <v>51</v>
+        <v>39.0742</v>
       </c>
       <c r="D2242">
-        <v>9</v>
+        <v>21.8243</v>
       </c>
       <c r="E2242" s="2">
         <v>43889</v>
       </c>
       <c r="F2242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2242" t="inlineStr">
         <is>
@@ -63718,14 +63718,14 @@
     <row r="2243">
       <c r="B2243" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C2243">
-        <v>39.0742</v>
+        <v>64.9631</v>
       </c>
       <c r="D2243">
-        <v>21.8243</v>
+        <v>-19.0208</v>
       </c>
       <c r="E2243" s="2">
         <v>43889</v>
@@ -63742,20 +63742,20 @@
     <row r="2244">
       <c r="B2244" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C2244">
-        <v>64.9631</v>
+        <v>32</v>
       </c>
       <c r="D2244">
-        <v>-19.0208</v>
+        <v>53</v>
       </c>
       <c r="E2244" s="2">
         <v>43889</v>
       </c>
       <c r="F2244">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="G2244" t="inlineStr">
         <is>
@@ -63766,20 +63766,20 @@
     <row r="2245">
       <c r="B2245" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C2245">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2245">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E2245" s="2">
         <v>43889</v>
       </c>
       <c r="F2245">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="G2245" t="inlineStr">
         <is>
@@ -63790,20 +63790,20 @@
     <row r="2246">
       <c r="B2246" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C2246">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D2246">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E2246" s="2">
         <v>43889</v>
       </c>
       <c r="F2246">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="G2246" t="inlineStr">
         <is>
@@ -63814,20 +63814,20 @@
     <row r="2247">
       <c r="B2247" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C2247">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D2247">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="E2247" s="2">
         <v>43889</v>
       </c>
       <c r="F2247">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="G2247" t="inlineStr">
         <is>
@@ -63838,20 +63838,20 @@
     <row r="2248">
       <c r="B2248" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="C2248">
-        <v>36</v>
+        <v>29.5</v>
       </c>
       <c r="D2248">
-        <v>138</v>
+        <v>47.75</v>
       </c>
       <c r="E2248" s="2">
         <v>43889</v>
       </c>
       <c r="F2248">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G2248" t="inlineStr">
         <is>
@@ -63862,20 +63862,20 @@
     <row r="2249">
       <c r="B2249" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C2249">
-        <v>29.5</v>
+        <v>55.1694</v>
       </c>
       <c r="D2249">
-        <v>47.75</v>
+        <v>23.8813</v>
       </c>
       <c r="E2249" s="2">
         <v>43889</v>
       </c>
       <c r="F2249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2249" t="inlineStr">
         <is>
@@ -63886,14 +63886,14 @@
     <row r="2250">
       <c r="B2250" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C2250">
-        <v>55.1694</v>
+        <v>23.6345</v>
       </c>
       <c r="D2250">
-        <v>23.8813</v>
+        <v>-102.5528</v>
       </c>
       <c r="E2250" s="2">
         <v>43889</v>
@@ -63910,14 +63910,14 @@
     <row r="2251">
       <c r="B2251" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="C2251">
-        <v>23.6345</v>
+        <v>-40.9006</v>
       </c>
       <c r="D2251">
-        <v>-102.5528</v>
+        <v>174.886</v>
       </c>
       <c r="E2251" s="2">
         <v>43889</v>
@@ -63934,14 +63934,14 @@
     <row r="2252">
       <c r="B2252" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="C2252">
-        <v>-40.9006</v>
+        <v>9.082000000000001</v>
       </c>
       <c r="D2252">
-        <v>174.886</v>
+        <v>8.6753</v>
       </c>
       <c r="E2252" s="2">
         <v>43889</v>
@@ -63958,20 +63958,20 @@
     <row r="2253">
       <c r="B2253" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C2253">
-        <v>9.082000000000001</v>
+        <v>60.472</v>
       </c>
       <c r="D2253">
-        <v>8.6753</v>
+        <v>8.4689</v>
       </c>
       <c r="E2253" s="2">
         <v>43889</v>
       </c>
       <c r="F2253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2253" t="inlineStr">
         <is>
@@ -63982,20 +63982,20 @@
     <row r="2254">
       <c r="B2254" t="inlineStr">
         <is>
-          <t>North Ireland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C2254">
-        <v>54.7877</v>
+        <v>45.9432</v>
       </c>
       <c r="D2254">
-        <v>-6.4923</v>
+        <v>24.9668</v>
       </c>
       <c r="E2254" s="2">
         <v>43889</v>
       </c>
       <c r="F2254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2254" t="inlineStr">
         <is>
@@ -64006,20 +64006,20 @@
     <row r="2255">
       <c r="B2255" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C2255">
-        <v>60.472</v>
+        <v>36</v>
       </c>
       <c r="D2255">
-        <v>8.4689</v>
+        <v>128</v>
       </c>
       <c r="E2255" s="2">
         <v>43889</v>
       </c>
       <c r="F2255">
-        <v>5</v>
+        <v>571</v>
       </c>
       <c r="G2255" t="inlineStr">
         <is>
@@ -64030,20 +64030,20 @@
     <row r="2256">
       <c r="B2256" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C2256">
-        <v>45.9432</v>
+        <v>40</v>
       </c>
       <c r="D2256">
-        <v>24.9668</v>
+        <v>-4</v>
       </c>
       <c r="E2256" s="2">
         <v>43889</v>
       </c>
       <c r="F2256">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G2256" t="inlineStr">
         <is>
@@ -64054,20 +64054,20 @@
     <row r="2257">
       <c r="B2257" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C2257">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D2257">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E2257" s="2">
         <v>43889</v>
       </c>
       <c r="F2257">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="G2257" t="inlineStr">
         <is>
@@ -64078,20 +64078,20 @@
     <row r="2258">
       <c r="B2258" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C2258">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D2258">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E2258" s="2">
         <v>43889</v>
       </c>
       <c r="F2258">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G2258" t="inlineStr">
         <is>
@@ -64102,20 +64102,20 @@
     <row r="2259">
       <c r="B2259" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C2259">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D2259">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="E2259" s="2">
         <v>43889</v>
       </c>
       <c r="F2259">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2259" t="inlineStr">
         <is>
@@ -64124,22 +64124,27 @@
       </c>
     </row>
     <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>Montreal, QC</t>
+        </is>
+      </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C2260">
-        <v>55</v>
+        <v>45.5017</v>
       </c>
       <c r="D2260">
-        <v>-3</v>
+        <v>-73.5673</v>
       </c>
       <c r="E2260" s="2">
         <v>43889</v>
       </c>
       <c r="F2260">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2260" t="inlineStr">
         <is>
@@ -64148,22 +64153,27 @@
       </c>
     </row>
     <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2261">
-        <v>24</v>
+        <v>31.8257</v>
       </c>
       <c r="D2261">
-        <v>54</v>
+        <v>117.2264</v>
       </c>
       <c r="E2261" s="2">
         <v>43889</v>
       </c>
       <c r="F2261">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2261" t="inlineStr">
         <is>
@@ -64174,19 +64184,19 @@
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Montreal, QC</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2262">
-        <v>45.5017</v>
+        <v>23.3417</v>
       </c>
       <c r="D2262">
-        <v>-73.5673</v>
+        <v>113.4244</v>
       </c>
       <c r="E2262" s="2">
         <v>43889</v>
@@ -64203,7 +64213,7 @@
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>Anhui</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
@@ -64212,10 +64222,10 @@
         </is>
       </c>
       <c r="C2263">
-        <v>31.8257</v>
+        <v>38.0428</v>
       </c>
       <c r="D2263">
-        <v>117.2264</v>
+        <v>114.5149</v>
       </c>
       <c r="E2263" s="2">
         <v>43889</v>
@@ -64232,25 +64242,25 @@
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C2264">
-        <v>23.3417</v>
+        <v>22.3</v>
       </c>
       <c r="D2264">
-        <v>113.4244</v>
+        <v>114.2</v>
       </c>
       <c r="E2264" s="2">
         <v>43889</v>
       </c>
       <c r="F2264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2264" t="inlineStr">
         <is>
@@ -64261,7 +64271,7 @@
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
@@ -64270,16 +64280,16 @@
         </is>
       </c>
       <c r="C2265">
-        <v>38.0428</v>
+        <v>30.9756</v>
       </c>
       <c r="D2265">
-        <v>114.5149</v>
+        <v>112.2707</v>
       </c>
       <c r="E2265" s="2">
         <v>43889</v>
       </c>
       <c r="F2265">
-        <v>1</v>
+        <v>318</v>
       </c>
       <c r="G2265" t="inlineStr">
         <is>
@@ -64290,25 +64300,25 @@
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Jiangxi</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2266">
-        <v>22.3</v>
+        <v>27.614</v>
       </c>
       <c r="D2266">
-        <v>114.2</v>
+        <v>115.7221</v>
       </c>
       <c r="E2266" s="2">
         <v>43889</v>
       </c>
       <c r="F2266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2266" t="inlineStr">
         <is>
@@ -64319,7 +64329,7 @@
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
@@ -64328,16 +64338,16 @@
         </is>
       </c>
       <c r="C2267">
-        <v>30.9756</v>
+        <v>30.6171</v>
       </c>
       <c r="D2267">
-        <v>112.2707</v>
+        <v>102.7103</v>
       </c>
       <c r="E2267" s="2">
         <v>43889</v>
       </c>
       <c r="F2267">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="G2267" t="inlineStr">
         <is>
@@ -64348,25 +64358,25 @@
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>Jiangxi</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C2268">
-        <v>27.614</v>
+        <v>23.7</v>
       </c>
       <c r="D2268">
-        <v>115.7221</v>
+        <v>121</v>
       </c>
       <c r="E2268" s="2">
         <v>43889</v>
       </c>
       <c r="F2268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2268" t="inlineStr">
         <is>
@@ -64377,25 +64387,25 @@
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Unassigned Location (From Diamond Princess)</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2269">
-        <v>30.6171</v>
+        <v>35.4437</v>
       </c>
       <c r="D2269">
-        <v>102.7103</v>
+        <v>139.638</v>
       </c>
       <c r="E2269" s="2">
         <v>43889</v>
       </c>
       <c r="F2269">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2269" t="inlineStr">
         <is>
@@ -64404,80 +64414,75 @@
       </c>
     </row>
     <row r="2270">
-      <c r="A2270" t="inlineStr">
-        <is>
-          <t>Taiwan</t>
-        </is>
-      </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C2270">
-        <v>23.7</v>
+        <v>32</v>
       </c>
       <c r="D2270">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="E2270" s="2">
         <v>43889</v>
       </c>
       <c r="F2270">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G2270" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>death</t>
         </is>
       </c>
     </row>
     <row r="2271">
-      <c r="A2271" t="inlineStr">
-        <is>
-          <t>Unassigned Location (From Diamond Princess)</t>
-        </is>
-      </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C2271">
-        <v>35.4437</v>
+        <v>43</v>
       </c>
       <c r="D2271">
-        <v>139.638</v>
+        <v>12</v>
       </c>
       <c r="E2271" s="2">
         <v>43889</v>
       </c>
       <c r="F2271">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>death</t>
         </is>
       </c>
     </row>
     <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2272">
-        <v>32</v>
+        <v>40.1824</v>
       </c>
       <c r="D2272">
-        <v>53</v>
+        <v>116.4142</v>
       </c>
       <c r="E2272" s="2">
         <v>43889</v>
       </c>
       <c r="F2272">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2272" t="inlineStr">
         <is>
@@ -64486,22 +64491,27 @@
       </c>
     </row>
     <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C2273">
-        <v>43</v>
+        <v>35.4437</v>
       </c>
       <c r="D2273">
-        <v>12</v>
+        <v>139.638</v>
       </c>
       <c r="E2273" s="2">
         <v>43889</v>
       </c>
       <c r="F2273">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2273" t="inlineStr">
         <is>
@@ -64512,7 +64522,7 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
@@ -64521,16 +64531,16 @@
         </is>
       </c>
       <c r="C2274">
-        <v>40.1824</v>
+        <v>30.9756</v>
       </c>
       <c r="D2274">
-        <v>116.4142</v>
+        <v>112.2707</v>
       </c>
       <c r="E2274" s="2">
         <v>43889</v>
       </c>
       <c r="F2274">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G2274" t="inlineStr">
         <is>
@@ -64541,25 +64551,25 @@
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>Diamond Princess cruise ship</t>
+          <t>Xinjiang</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2275">
-        <v>35.4437</v>
+        <v>41.1129</v>
       </c>
       <c r="D2275">
-        <v>139.638</v>
+        <v>85.2401</v>
       </c>
       <c r="E2275" s="2">
         <v>43889</v>
       </c>
       <c r="F2275">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G2275" t="inlineStr">
         <is>
@@ -64568,74 +64578,64 @@
       </c>
     </row>
     <row r="2276">
-      <c r="A2276" t="inlineStr">
-        <is>
-          <t>Hubei</t>
-        </is>
-      </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C2276">
-        <v>30.9756</v>
+        <v>26</v>
       </c>
       <c r="D2276">
-        <v>112.2707</v>
+        <v>30</v>
       </c>
       <c r="E2276" s="2">
         <v>43889</v>
       </c>
       <c r="F2276">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>recovered</t>
         </is>
       </c>
     </row>
     <row r="2277">
-      <c r="A2277" t="inlineStr">
-        <is>
-          <t>Xinjiang</t>
-        </is>
-      </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C2277">
-        <v>41.1129</v>
+        <v>32</v>
       </c>
       <c r="D2277">
-        <v>85.2401</v>
+        <v>53</v>
       </c>
       <c r="E2277" s="2">
         <v>43889</v>
       </c>
       <c r="F2277">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>recovered</t>
         </is>
       </c>
     </row>
     <row r="2278">
       <c r="B2278" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C2278">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D2278">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E2278" s="2">
         <v>43889</v>
@@ -64652,20 +64652,20 @@
     <row r="2279">
       <c r="B2279" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C2279">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D2279">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E2279" s="2">
         <v>43889</v>
       </c>
       <c r="F2279">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G2279" t="inlineStr">
         <is>
@@ -64676,14 +64676,14 @@
     <row r="2280">
       <c r="B2280" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C2280">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D2280">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E2280" s="2">
         <v>43889</v>
@@ -64698,22 +64698,27 @@
       </c>
     </row>
     <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2281">
-        <v>15</v>
+        <v>31.8257</v>
       </c>
       <c r="D2281">
-        <v>101</v>
+        <v>117.2264</v>
       </c>
       <c r="E2281" s="2">
         <v>43889</v>
       </c>
       <c r="F2281">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G2281" t="inlineStr">
         <is>
@@ -64722,22 +64727,27 @@
       </c>
     </row>
     <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2282">
-        <v>24</v>
+        <v>40.1824</v>
       </c>
       <c r="D2282">
-        <v>54</v>
+        <v>116.4142</v>
       </c>
       <c r="E2282" s="2">
         <v>43889</v>
       </c>
       <c r="F2282">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G2282" t="inlineStr">
         <is>
@@ -64748,25 +64758,25 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>Anhui</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2283">
-        <v>31.8257</v>
+        <v>42.3601</v>
       </c>
       <c r="D2283">
-        <v>117.2264</v>
+        <v>-71.05889999999999</v>
       </c>
       <c r="E2283" s="2">
         <v>43889</v>
       </c>
       <c r="F2283">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G2283" t="inlineStr">
         <is>
@@ -64777,7 +64787,7 @@
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
@@ -64786,16 +64796,16 @@
         </is>
       </c>
       <c r="C2284">
-        <v>40.1824</v>
+        <v>30.0572</v>
       </c>
       <c r="D2284">
-        <v>116.4142</v>
+        <v>107.874</v>
       </c>
       <c r="E2284" s="2">
         <v>43889</v>
       </c>
       <c r="F2284">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2284" t="inlineStr">
         <is>
@@ -64806,25 +64816,25 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>Fujian</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2285">
-        <v>42.3601</v>
+        <v>26.0789</v>
       </c>
       <c r="D2285">
-        <v>-71.05889999999999</v>
+        <v>117.9874</v>
       </c>
       <c r="E2285" s="2">
         <v>43889</v>
       </c>
       <c r="F2285">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G2285" t="inlineStr">
         <is>
@@ -64835,7 +64845,7 @@
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Gansu</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
@@ -64844,16 +64854,16 @@
         </is>
       </c>
       <c r="C2286">
-        <v>30.0572</v>
+        <v>36.0611</v>
       </c>
       <c r="D2286">
-        <v>107.874</v>
+        <v>103.8343</v>
       </c>
       <c r="E2286" s="2">
         <v>43889</v>
       </c>
       <c r="F2286">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G2286" t="inlineStr">
         <is>
@@ -64864,7 +64874,7 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>Fujian</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
@@ -64873,16 +64883,16 @@
         </is>
       </c>
       <c r="C2287">
-        <v>26.0789</v>
+        <v>23.3417</v>
       </c>
       <c r="D2287">
-        <v>117.9874</v>
+        <v>113.4244</v>
       </c>
       <c r="E2287" s="2">
         <v>43889</v>
       </c>
       <c r="F2287">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G2287" t="inlineStr">
         <is>
@@ -64893,7 +64903,7 @@
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>Gansu</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
@@ -64902,16 +64912,16 @@
         </is>
       </c>
       <c r="C2288">
-        <v>36.0611</v>
+        <v>23.8298</v>
       </c>
       <c r="D2288">
-        <v>103.8343</v>
+        <v>108.7881</v>
       </c>
       <c r="E2288" s="2">
         <v>43889</v>
       </c>
       <c r="F2288">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G2288" t="inlineStr">
         <is>
@@ -64922,7 +64932,7 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Hainan</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
@@ -64931,16 +64941,16 @@
         </is>
       </c>
       <c r="C2289">
-        <v>23.3417</v>
+        <v>19.1959</v>
       </c>
       <c r="D2289">
-        <v>113.4244</v>
+        <v>109.7453</v>
       </c>
       <c r="E2289" s="2">
         <v>43889</v>
       </c>
       <c r="F2289">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G2289" t="inlineStr">
         <is>
@@ -64951,7 +64961,7 @@
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
@@ -64960,16 +64970,16 @@
         </is>
       </c>
       <c r="C2290">
-        <v>23.8298</v>
+        <v>38.0428</v>
       </c>
       <c r="D2290">
-        <v>108.7881</v>
+        <v>114.5149</v>
       </c>
       <c r="E2290" s="2">
         <v>43889</v>
       </c>
       <c r="F2290">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2290" t="inlineStr">
         <is>
@@ -64980,7 +64990,7 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>Hainan</t>
+          <t>Heilongjiang</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
@@ -64989,16 +64999,16 @@
         </is>
       </c>
       <c r="C2291">
-        <v>19.1959</v>
+        <v>47.862</v>
       </c>
       <c r="D2291">
-        <v>109.7453</v>
+        <v>127.7615</v>
       </c>
       <c r="E2291" s="2">
         <v>43889</v>
       </c>
       <c r="F2291">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G2291" t="inlineStr">
         <is>
@@ -65009,7 +65019,7 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
@@ -65018,16 +65028,16 @@
         </is>
       </c>
       <c r="C2292">
-        <v>38.0428</v>
+        <v>33.88202</v>
       </c>
       <c r="D2292">
-        <v>114.5149</v>
+        <v>113.614</v>
       </c>
       <c r="E2292" s="2">
         <v>43889</v>
       </c>
       <c r="F2292">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G2292" t="inlineStr">
         <is>
@@ -65038,25 +65048,25 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>Heilongjiang</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C2293">
-        <v>47.862</v>
+        <v>22.3</v>
       </c>
       <c r="D2293">
-        <v>127.7615</v>
+        <v>114.2</v>
       </c>
       <c r="E2293" s="2">
         <v>43889</v>
       </c>
       <c r="F2293">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G2293" t="inlineStr">
         <is>
@@ -65067,7 +65077,7 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
@@ -65076,16 +65086,16 @@
         </is>
       </c>
       <c r="C2294">
-        <v>33.88202</v>
+        <v>30.9756</v>
       </c>
       <c r="D2294">
-        <v>113.614</v>
+        <v>112.2707</v>
       </c>
       <c r="E2294" s="2">
         <v>43889</v>
       </c>
       <c r="F2294">
-        <v>44</v>
+        <v>3020</v>
       </c>
       <c r="G2294" t="inlineStr">
         <is>
@@ -65096,25 +65106,25 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2295">
-        <v>22.3</v>
+        <v>27.6104</v>
       </c>
       <c r="D2295">
-        <v>114.2</v>
+        <v>111.7088</v>
       </c>
       <c r="E2295" s="2">
         <v>43889</v>
       </c>
       <c r="F2295">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G2295" t="inlineStr">
         <is>
@@ -65125,7 +65135,7 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Inner Mongolia</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
@@ -65134,16 +65144,16 @@
         </is>
       </c>
       <c r="C2296">
-        <v>30.9756</v>
+        <v>44.0935</v>
       </c>
       <c r="D2296">
-        <v>112.2707</v>
+        <v>113.9448</v>
       </c>
       <c r="E2296" s="2">
         <v>43889</v>
       </c>
       <c r="F2296">
-        <v>3020</v>
+        <v>2</v>
       </c>
       <c r="G2296" t="inlineStr">
         <is>
@@ -65154,7 +65164,7 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Jiangsu</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
@@ -65163,16 +65173,16 @@
         </is>
       </c>
       <c r="C2297">
-        <v>27.6104</v>
+        <v>32.9711</v>
       </c>
       <c r="D2297">
-        <v>111.7088</v>
+        <v>119.455</v>
       </c>
       <c r="E2297" s="2">
         <v>43889</v>
       </c>
       <c r="F2297">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G2297" t="inlineStr">
         <is>
@@ -65183,7 +65193,7 @@
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>Inner Mongolia</t>
+          <t>Jiangxi</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
@@ -65192,16 +65202,16 @@
         </is>
       </c>
       <c r="C2298">
-        <v>44.0935</v>
+        <v>27.614</v>
       </c>
       <c r="D2298">
-        <v>113.9448</v>
+        <v>115.7221</v>
       </c>
       <c r="E2298" s="2">
         <v>43889</v>
       </c>
       <c r="F2298">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G2298" t="inlineStr">
         <is>
@@ -65212,7 +65222,7 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>Jiangsu</t>
+          <t>Jilin</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
@@ -65221,16 +65231,16 @@
         </is>
       </c>
       <c r="C2299">
-        <v>32.9711</v>
+        <v>43.6661</v>
       </c>
       <c r="D2299">
-        <v>119.455</v>
+        <v>126.1923</v>
       </c>
       <c r="E2299" s="2">
         <v>43889</v>
       </c>
       <c r="F2299">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G2299" t="inlineStr">
         <is>
@@ -65241,7 +65251,7 @@
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>Jiangxi</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
@@ -65250,16 +65260,16 @@
         </is>
       </c>
       <c r="C2300">
-        <v>27.614</v>
+        <v>35.1917</v>
       </c>
       <c r="D2300">
-        <v>115.7221</v>
+        <v>108.8701</v>
       </c>
       <c r="E2300" s="2">
         <v>43889</v>
       </c>
       <c r="F2300">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G2300" t="inlineStr">
         <is>
@@ -65270,7 +65280,7 @@
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>Jilin</t>
+          <t>Shandong</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
@@ -65279,16 +65289,16 @@
         </is>
       </c>
       <c r="C2301">
-        <v>43.6661</v>
+        <v>36.3427</v>
       </c>
       <c r="D2301">
-        <v>126.1923</v>
+        <v>118.1498</v>
       </c>
       <c r="E2301" s="2">
         <v>43889</v>
       </c>
       <c r="F2301">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G2301" t="inlineStr">
         <is>
@@ -65299,7 +65309,7 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
@@ -65308,16 +65318,16 @@
         </is>
       </c>
       <c r="C2302">
-        <v>35.1917</v>
+        <v>31.202</v>
       </c>
       <c r="D2302">
-        <v>108.8701</v>
+        <v>121.4491</v>
       </c>
       <c r="E2302" s="2">
         <v>43889</v>
       </c>
       <c r="F2302">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2302" t="inlineStr">
         <is>
@@ -65328,7 +65338,7 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
@@ -65337,16 +65347,16 @@
         </is>
       </c>
       <c r="C2303">
-        <v>36.3427</v>
+        <v>37.5777</v>
       </c>
       <c r="D2303">
-        <v>118.1498</v>
+        <v>112.2922</v>
       </c>
       <c r="E2303" s="2">
         <v>43889</v>
       </c>
       <c r="F2303">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G2303" t="inlineStr">
         <is>
@@ -65357,7 +65367,7 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
@@ -65366,16 +65376,16 @@
         </is>
       </c>
       <c r="C2304">
-        <v>31.202</v>
+        <v>30.6171</v>
       </c>
       <c r="D2304">
-        <v>121.4491</v>
+        <v>102.7103</v>
       </c>
       <c r="E2304" s="2">
         <v>43889</v>
       </c>
       <c r="F2304">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G2304" t="inlineStr">
         <is>
@@ -65386,25 +65396,25 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C2305">
-        <v>37.5777</v>
+        <v>23.7</v>
       </c>
       <c r="D2305">
-        <v>112.2922</v>
+        <v>121</v>
       </c>
       <c r="E2305" s="2">
         <v>43889</v>
       </c>
       <c r="F2305">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2305" t="inlineStr">
         <is>
@@ -65415,7 +65425,7 @@
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Xinjiang</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
@@ -65424,16 +65434,16 @@
         </is>
       </c>
       <c r="C2306">
-        <v>30.6171</v>
+        <v>41.1129</v>
       </c>
       <c r="D2306">
-        <v>102.7103</v>
+        <v>85.2401</v>
       </c>
       <c r="E2306" s="2">
         <v>43889</v>
       </c>
       <c r="F2306">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2306" t="inlineStr">
         <is>
@@ -65444,25 +65454,25 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2307">
-        <v>23.7</v>
+        <v>24.974</v>
       </c>
       <c r="D2307">
-        <v>121</v>
+        <v>101.487</v>
       </c>
       <c r="E2307" s="2">
         <v>43889</v>
       </c>
       <c r="F2307">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2307" t="inlineStr">
         <is>
@@ -65473,7 +65483,7 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>Xinjiang</t>
+          <t>Zhejiang</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
@@ -65482,16 +65492,16 @@
         </is>
       </c>
       <c r="C2308">
-        <v>41.1129</v>
+        <v>29.1832</v>
       </c>
       <c r="D2308">
-        <v>85.2401</v>
+        <v>120.0934</v>
       </c>
       <c r="E2308" s="2">
         <v>43889</v>
       </c>
       <c r="F2308">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G2308" t="inlineStr">
         <is>
@@ -65500,58 +65510,2487 @@
       </c>
     </row>
     <row r="2309">
-      <c r="A2309" t="inlineStr">
-        <is>
-          <t>Yunnan</t>
-        </is>
-      </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C2309">
-        <v>24.974</v>
+        <v>47.5162</v>
       </c>
       <c r="D2309">
-        <v>101.487</v>
+        <v>14.5501</v>
       </c>
       <c r="E2309" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F2309">
         <v>6</v>
       </c>
       <c r="G2309" t="inlineStr">
         <is>
-          <t>recovered</t>
+          <t>confirmed</t>
         </is>
       </c>
     </row>
     <row r="2310">
-      <c r="A2310" t="inlineStr">
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C2310">
+        <v>26.0275</v>
+      </c>
+      <c r="D2310">
+        <v>50.55</v>
+      </c>
+      <c r="E2310" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2310">
+        <v>5</v>
+      </c>
+      <c r="G2310" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="C2311">
+        <v>-14.235</v>
+      </c>
+      <c r="D2311">
+        <v>-51.9253</v>
+      </c>
+      <c r="E2311" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2311">
+        <v>1</v>
+      </c>
+      <c r="G2311" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C2312">
+        <v>45.1</v>
+      </c>
+      <c r="D2312">
+        <v>15.2</v>
+      </c>
+      <c r="E2312" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2312">
+        <v>1</v>
+      </c>
+      <c r="G2312" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C2313">
+        <v>56.2639</v>
+      </c>
+      <c r="D2313">
+        <v>9.501799999999999</v>
+      </c>
+      <c r="E2313" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2313">
+        <v>2</v>
+      </c>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C2314">
+        <v>64</v>
+      </c>
+      <c r="D2314">
+        <v>26</v>
+      </c>
+      <c r="E2314" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2314">
+        <v>1</v>
+      </c>
+      <c r="G2314" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2315">
+        <v>47</v>
+      </c>
+      <c r="D2315">
+        <v>2</v>
+      </c>
+      <c r="E2315" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2315">
+        <v>43</v>
+      </c>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2316">
+        <v>51</v>
+      </c>
+      <c r="D2316">
+        <v>9</v>
+      </c>
+      <c r="E2316" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2316">
+        <v>31</v>
+      </c>
+      <c r="G2316" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2317">
+        <v>32</v>
+      </c>
+      <c r="D2317">
+        <v>53</v>
+      </c>
+      <c r="E2317" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2317">
+        <v>205</v>
+      </c>
+      <c r="G2317" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C2318">
+        <v>33</v>
+      </c>
+      <c r="D2318">
+        <v>44</v>
+      </c>
+      <c r="E2318" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2318">
+        <v>6</v>
+      </c>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C2319">
+        <v>53.1424</v>
+      </c>
+      <c r="D2319">
+        <v>-7.6921</v>
+      </c>
+      <c r="E2319" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2319">
+        <v>1</v>
+      </c>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C2320">
+        <v>31</v>
+      </c>
+      <c r="D2320">
+        <v>35</v>
+      </c>
+      <c r="E2320" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2320">
+        <v>3</v>
+      </c>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2321">
+        <v>43</v>
+      </c>
+      <c r="D2321">
+        <v>12</v>
+      </c>
+      <c r="E2321" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2321">
+        <v>240</v>
+      </c>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2322">
+        <v>36</v>
+      </c>
+      <c r="D2322">
+        <v>138</v>
+      </c>
+      <c r="E2322" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2322">
+        <v>13</v>
+      </c>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C2323">
+        <v>33.8547</v>
+      </c>
+      <c r="D2323">
+        <v>35.8623</v>
+      </c>
+      <c r="E2323" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2323">
+        <v>2</v>
+      </c>
+      <c r="G2323" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="C2324">
+        <v>49.8153</v>
+      </c>
+      <c r="D2324">
+        <v>6.1296</v>
+      </c>
+      <c r="E2324" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2324">
+        <v>1</v>
+      </c>
+      <c r="G2324" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C2325">
+        <v>2.5</v>
+      </c>
+      <c r="D2325">
+        <v>112.5</v>
+      </c>
+      <c r="E2325" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2325">
+        <v>2</v>
+      </c>
+      <c r="G2325" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C2326">
+        <v>23.6345</v>
+      </c>
+      <c r="D2326">
+        <v>-102.5528</v>
+      </c>
+      <c r="E2326" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2326">
+        <v>3</v>
+      </c>
+      <c r="G2326" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C2327">
+        <v>43.7333</v>
+      </c>
+      <c r="D2327">
+        <v>7.4167</v>
+      </c>
+      <c r="E2327" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2327">
+        <v>1</v>
+      </c>
+      <c r="G2327" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C2328">
+        <v>52.1326</v>
+      </c>
+      <c r="D2328">
+        <v>5.2913</v>
+      </c>
+      <c r="E2328" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2328">
+        <v>5</v>
+      </c>
+      <c r="G2328" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2329">
+        <v>60.472</v>
+      </c>
+      <c r="D2329">
+        <v>8.4689</v>
+      </c>
+      <c r="E2329" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2329">
+        <v>9</v>
+      </c>
+      <c r="G2329" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="C2330">
+        <v>21</v>
+      </c>
+      <c r="D2330">
+        <v>57</v>
+      </c>
+      <c r="E2330" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2330">
+        <v>2</v>
+      </c>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="C2331">
+        <v>30.3753</v>
+      </c>
+      <c r="D2331">
+        <v>69.3451</v>
+      </c>
+      <c r="E2331" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2331">
+        <v>2</v>
+      </c>
+      <c r="G2331" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="C2332">
+        <v>25.3548</v>
+      </c>
+      <c r="D2332">
+        <v>51.1839</v>
+      </c>
+      <c r="E2332" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2332">
+        <v>1</v>
+      </c>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2333">
+        <v>1.2833</v>
+      </c>
+      <c r="D2333">
+        <v>103.8333</v>
+      </c>
+      <c r="E2333" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2333">
+        <v>9</v>
+      </c>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2334">
+        <v>36</v>
+      </c>
+      <c r="D2334">
+        <v>128</v>
+      </c>
+      <c r="E2334" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2334">
+        <v>813</v>
+      </c>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2335">
+        <v>40</v>
+      </c>
+      <c r="D2335">
+        <v>-4</v>
+      </c>
+      <c r="E2335" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2335">
+        <v>13</v>
+      </c>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C2336">
+        <v>63</v>
+      </c>
+      <c r="D2336">
+        <v>16</v>
+      </c>
+      <c r="E2336" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2336">
+        <v>5</v>
+      </c>
+      <c r="G2336" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2337">
+        <v>46.8182</v>
+      </c>
+      <c r="D2337">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2337" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2337">
+        <v>10</v>
+      </c>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C2338">
+        <v>15</v>
+      </c>
+      <c r="D2338">
+        <v>101</v>
+      </c>
+      <c r="E2338" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2338">
+        <v>1</v>
+      </c>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C2339">
+        <v>55</v>
+      </c>
+      <c r="D2339">
+        <v>-3</v>
+      </c>
+      <c r="E2339" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2339">
+        <v>3</v>
+      </c>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C2340">
+        <v>24</v>
+      </c>
+      <c r="D2340">
+        <v>54</v>
+      </c>
+      <c r="E2340" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2340">
+        <v>2</v>
+      </c>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2341">
+        <v>40.1824</v>
+      </c>
+      <c r="D2341">
+        <v>116.4142</v>
+      </c>
+      <c r="E2341" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2341">
+        <v>1</v>
+      </c>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2342">
+        <v>49.2827</v>
+      </c>
+      <c r="D2342">
+        <v>-123.1207</v>
+      </c>
+      <c r="E2342" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2342">
+        <v>1</v>
+      </c>
+      <c r="G2342" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>From Diamond Princess</t>
+        </is>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2343">
+        <v>35.4437</v>
+      </c>
+      <c r="D2343">
+        <v>139.638</v>
+      </c>
+      <c r="E2343" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2343">
+        <v>-8</v>
+      </c>
+      <c r="G2343" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2344">
+        <v>23.3417</v>
+      </c>
+      <c r="D2344">
+        <v>113.4244</v>
+      </c>
+      <c r="E2344" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2344">
+        <v>1</v>
+      </c>
+      <c r="G2344" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2345">
+        <v>22.3</v>
+      </c>
+      <c r="D2345">
+        <v>114.2</v>
+      </c>
+      <c r="E2345" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2345">
+        <v>1</v>
+      </c>
+      <c r="G2345" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2346">
+        <v>30.9756</v>
+      </c>
+      <c r="D2346">
+        <v>112.2707</v>
+      </c>
+      <c r="E2346" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2346">
+        <v>423</v>
+      </c>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2347">
+        <v>27.6104</v>
+      </c>
+      <c r="D2347">
+        <v>111.7088</v>
+      </c>
+      <c r="E2347" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2347">
+        <v>1</v>
+      </c>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2348">
+        <v>37.2692</v>
+      </c>
+      <c r="D2348">
+        <v>106.1655</v>
+      </c>
+      <c r="E2348" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2348">
+        <v>1</v>
+      </c>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2349">
+        <v>45.5051</v>
+      </c>
+      <c r="D2349">
+        <v>-122.675</v>
+      </c>
+      <c r="E2349" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2349">
+        <v>1</v>
+      </c>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2350">
+        <v>-28.0167</v>
+      </c>
+      <c r="D2350">
+        <v>153.4</v>
+      </c>
+      <c r="E2350" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2350">
+        <v>4</v>
+      </c>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA</t>
+        </is>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2351">
+        <v>37.3541</v>
+      </c>
+      <c r="D2351">
+        <v>-121.9552</v>
+      </c>
+      <c r="E2351" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2351">
+        <v>1</v>
+      </c>
+      <c r="G2351" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2352">
+        <v>47.6062</v>
+      </c>
+      <c r="D2352">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2352" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2352">
+        <v>5</v>
+      </c>
+      <c r="G2352" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>Snohomish County, WA</t>
+        </is>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2353">
+        <v>48.033</v>
+      </c>
+      <c r="D2353">
+        <v>-121.8339</v>
+      </c>
+      <c r="E2353" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2353">
+        <v>1</v>
+      </c>
+      <c r="G2353" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>South Australia</t>
+        </is>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2354">
+        <v>-34.9285</v>
+      </c>
+      <c r="D2354">
+        <v>138.6007</v>
+      </c>
+      <c r="E2354" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2354">
+        <v>1</v>
+      </c>
+      <c r="G2354" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2355">
+        <v>23.7</v>
+      </c>
+      <c r="D2355">
+        <v>121</v>
+      </c>
+      <c r="E2355" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2355">
+        <v>5</v>
+      </c>
+      <c r="G2355" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>Toronto, ON</t>
+        </is>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2356">
+        <v>43.6532</v>
+      </c>
+      <c r="D2356">
+        <v>-79.3832</v>
+      </c>
+      <c r="E2356" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2356">
+        <v>5</v>
+      </c>
+      <c r="G2356" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2357">
+        <v>-37.8136</v>
+      </c>
+      <c r="D2357">
+        <v>144.9631</v>
+      </c>
+      <c r="E2357" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2357">
+        <v>3</v>
+      </c>
+      <c r="G2357" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>Western Australia</t>
+        </is>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2358">
+        <v>-31.9505</v>
+      </c>
+      <c r="D2358">
+        <v>115.8605</v>
+      </c>
+      <c r="E2358" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2358">
+        <v>2</v>
+      </c>
+      <c r="G2358" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2359">
+        <v>32</v>
+      </c>
+      <c r="D2359">
+        <v>53</v>
+      </c>
+      <c r="E2359" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2359">
+        <v>9</v>
+      </c>
+      <c r="G2359" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2360">
+        <v>43</v>
+      </c>
+      <c r="D2360">
+        <v>12</v>
+      </c>
+      <c r="E2360" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2360">
+        <v>8</v>
+      </c>
+      <c r="G2360" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2361">
+        <v>36</v>
+      </c>
+      <c r="D2361">
+        <v>138</v>
+      </c>
+      <c r="E2361" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2361">
+        <v>1</v>
+      </c>
+      <c r="G2361" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2362">
+        <v>36</v>
+      </c>
+      <c r="D2362">
+        <v>128</v>
+      </c>
+      <c r="E2362" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2362">
+        <v>3</v>
+      </c>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2363">
+        <v>40.1824</v>
+      </c>
+      <c r="D2363">
+        <v>116.4142</v>
+      </c>
+      <c r="E2363" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2363">
+        <v>1</v>
+      </c>
+      <c r="G2363" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2364">
+        <v>33.88202</v>
+      </c>
+      <c r="D2364">
+        <v>113.614</v>
+      </c>
+      <c r="E2364" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2364">
+        <v>1</v>
+      </c>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2365">
+        <v>30.9756</v>
+      </c>
+      <c r="D2365">
+        <v>112.2707</v>
+      </c>
+      <c r="E2365" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2365">
+        <v>45</v>
+      </c>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2366">
+        <v>47.6062</v>
+      </c>
+      <c r="D2366">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2366" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2366">
+        <v>1</v>
+      </c>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2367">
+        <v>47</v>
+      </c>
+      <c r="D2367">
+        <v>2</v>
+      </c>
+      <c r="E2367" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2367">
+        <v>1</v>
+      </c>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2368">
+        <v>32</v>
+      </c>
+      <c r="D2368">
+        <v>53</v>
+      </c>
+      <c r="E2368" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2368">
+        <v>50</v>
+      </c>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2369">
+        <v>36</v>
+      </c>
+      <c r="D2369">
+        <v>138</v>
+      </c>
+      <c r="E2369" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2369">
+        <v>10</v>
+      </c>
+      <c r="G2369" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="C2370">
+        <v>21</v>
+      </c>
+      <c r="D2370">
+        <v>57</v>
+      </c>
+      <c r="E2370" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2370">
+        <v>1</v>
+      </c>
+      <c r="G2370" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2371">
+        <v>1.2833</v>
+      </c>
+      <c r="D2371">
+        <v>103.8333</v>
+      </c>
+      <c r="E2371" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2371">
+        <v>10</v>
+      </c>
+      <c r="G2371" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2372">
+        <v>36</v>
+      </c>
+      <c r="D2372">
+        <v>128</v>
+      </c>
+      <c r="E2372" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2372">
+        <v>5</v>
+      </c>
+      <c r="G2372" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2373">
+        <v>31.8257</v>
+      </c>
+      <c r="D2373">
+        <v>117.2264</v>
+      </c>
+      <c r="E2373" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2373">
+        <v>47</v>
+      </c>
+      <c r="G2373" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2374">
+        <v>40.1824</v>
+      </c>
+      <c r="D2374">
+        <v>116.4142</v>
+      </c>
+      <c r="E2374" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2374">
+        <v>14</v>
+      </c>
+      <c r="G2374" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2375">
+        <v>30.0572</v>
+      </c>
+      <c r="D2375">
+        <v>107.874</v>
+      </c>
+      <c r="E2375" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2375">
+        <v>16</v>
+      </c>
+      <c r="G2375" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2376">
+        <v>26.0789</v>
+      </c>
+      <c r="D2376">
+        <v>117.9874</v>
+      </c>
+      <c r="E2376" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2376">
+        <v>8</v>
+      </c>
+      <c r="G2376" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2377">
+        <v>23.3417</v>
+      </c>
+      <c r="D2377">
+        <v>113.4244</v>
+      </c>
+      <c r="E2377" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2377">
+        <v>48</v>
+      </c>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2378">
+        <v>23.8298</v>
+      </c>
+      <c r="D2378">
+        <v>108.7881</v>
+      </c>
+      <c r="E2378" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2378">
+        <v>8</v>
+      </c>
+      <c r="G2378" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2379">
+        <v>19.1959</v>
+      </c>
+      <c r="D2379">
+        <v>109.7453</v>
+      </c>
+      <c r="E2379" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2379">
+        <v>15</v>
+      </c>
+      <c r="G2379" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2380">
+        <v>38.0428</v>
+      </c>
+      <c r="D2380">
+        <v>114.5149</v>
+      </c>
+      <c r="E2380" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2380">
+        <v>5</v>
+      </c>
+      <c r="G2380" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2381">
+        <v>47.862</v>
+      </c>
+      <c r="D2381">
+        <v>127.7615</v>
+      </c>
+      <c r="E2381" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2381">
+        <v>18</v>
+      </c>
+      <c r="G2381" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2382">
+        <v>33.88202</v>
+      </c>
+      <c r="D2382">
+        <v>113.614</v>
+      </c>
+      <c r="E2382" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2382">
+        <v>58</v>
+      </c>
+      <c r="G2382" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2383">
+        <v>22.3</v>
+      </c>
+      <c r="D2383">
+        <v>114.2</v>
+      </c>
+      <c r="E2383" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2383">
+        <v>3</v>
+      </c>
+      <c r="G2383" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2384">
+        <v>30.9756</v>
+      </c>
+      <c r="D2384">
+        <v>112.2707</v>
+      </c>
+      <c r="E2384" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2384">
+        <v>2590</v>
+      </c>
+      <c r="G2384" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2385">
+        <v>27.6104</v>
+      </c>
+      <c r="D2385">
+        <v>111.7088</v>
+      </c>
+      <c r="E2385" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2385">
+        <v>16</v>
+      </c>
+      <c r="G2385" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2386">
+        <v>44.0935</v>
+      </c>
+      <c r="D2386">
+        <v>113.9448</v>
+      </c>
+      <c r="E2386" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2386">
+        <v>4</v>
+      </c>
+      <c r="G2386" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2387">
+        <v>32.9711</v>
+      </c>
+      <c r="D2387">
+        <v>119.455</v>
+      </c>
+      <c r="E2387" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2387">
+        <v>8</v>
+      </c>
+      <c r="G2387" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2388">
+        <v>27.614</v>
+      </c>
+      <c r="D2388">
+        <v>115.7221</v>
+      </c>
+      <c r="E2388" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2388">
+        <v>21</v>
+      </c>
+      <c r="G2388" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2389">
+        <v>43.6661</v>
+      </c>
+      <c r="D2389">
+        <v>126.1923</v>
+      </c>
+      <c r="E2389" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2389">
+        <v>2</v>
+      </c>
+      <c r="G2389" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2390">
+        <v>41.2956</v>
+      </c>
+      <c r="D2390">
+        <v>122.6085</v>
+      </c>
+      <c r="E2390" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2390">
+        <v>3</v>
+      </c>
+      <c r="G2390" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2391">
+        <v>37.2692</v>
+      </c>
+      <c r="D2391">
+        <v>106.1655</v>
+      </c>
+      <c r="E2391" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2391">
+        <v>1</v>
+      </c>
+      <c r="G2391" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2392">
+        <v>35.1917</v>
+      </c>
+      <c r="D2392">
+        <v>108.8701</v>
+      </c>
+      <c r="E2392" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2392">
+        <v>8</v>
+      </c>
+      <c r="G2392" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2393">
+        <v>36.3427</v>
+      </c>
+      <c r="D2393">
+        <v>118.1498</v>
+      </c>
+      <c r="E2393" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2393">
+        <v>16</v>
+      </c>
+      <c r="G2393" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2394">
+        <v>31.202</v>
+      </c>
+      <c r="D2394">
+        <v>121.4491</v>
+      </c>
+      <c r="E2394" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2394">
+        <v>8</v>
+      </c>
+      <c r="G2394" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2395">
+        <v>37.5777</v>
+      </c>
+      <c r="D2395">
+        <v>112.2922</v>
+      </c>
+      <c r="E2395" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2395">
+        <v>2</v>
+      </c>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2396">
+        <v>30.6171</v>
+      </c>
+      <c r="D2396">
+        <v>102.7103</v>
+      </c>
+      <c r="E2396" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2396">
+        <v>13</v>
+      </c>
+      <c r="G2396" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2397">
+        <v>23.7</v>
+      </c>
+      <c r="D2397">
+        <v>121</v>
+      </c>
+      <c r="E2397" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2397">
+        <v>3</v>
+      </c>
+      <c r="G2397" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2398">
+        <v>39.3054</v>
+      </c>
+      <c r="D2398">
+        <v>117.323</v>
+      </c>
+      <c r="E2398" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2398">
+        <v>7</v>
+      </c>
+      <c r="G2398" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2399">
+        <v>41.1129</v>
+      </c>
+      <c r="D2399">
+        <v>85.2401</v>
+      </c>
+      <c r="E2399" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2399">
+        <v>10</v>
+      </c>
+      <c r="G2399" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2400">
+        <v>24.974</v>
+      </c>
+      <c r="D2400">
+        <v>101.487</v>
+      </c>
+      <c r="E2400" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2400">
+        <v>1</v>
+      </c>
+      <c r="G2400" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
         <is>
           <t>Zhejiang</t>
         </is>
       </c>
-      <c r="B2310" t="inlineStr">
-        <is>
-          <t>Mainland China</t>
-        </is>
-      </c>
-      <c r="C2310">
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2401">
         <v>29.1832</v>
       </c>
-      <c r="D2310">
+      <c r="D2401">
         <v>120.0934</v>
       </c>
-      <c r="E2310" s="2">
-        <v>43889</v>
-      </c>
-      <c r="F2310">
-        <v>43</v>
-      </c>
-      <c r="G2310" t="inlineStr">
+      <c r="E2401" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F2401">
+        <v>41</v>
+      </c>
+      <c r="G2401" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2401"/>
+  <dimension ref="A1:G2486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D46">
         <v>127.7615</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D77">
         <v>127.7615</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D95">
         <v>127.7615</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D114">
         <v>127.7615</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D153">
         <v>127.7615</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D200">
         <v>127.7615</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D246">
         <v>127.7615</v>
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D288">
         <v>127.7615</v>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D334">
         <v>127.7615</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D358">
         <v>127.7615</v>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D389">
         <v>127.7615</v>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="C445">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D445">
         <v>127.7615</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D476">
         <v>127.7615</v>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D502">
         <v>127.7615</v>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="C559">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D559">
         <v>127.7615</v>
@@ -17810,7 +17810,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D615">
         <v>127.7615</v>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="C649">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D649">
         <v>127.7615</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D676">
         <v>127.7615</v>
@@ -20492,7 +20492,7 @@
         </is>
       </c>
       <c r="C708">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D708">
         <v>127.7615</v>
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="C736">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D736">
         <v>127.7615</v>
@@ -21956,7 +21956,7 @@
         </is>
       </c>
       <c r="C759">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D759">
         <v>127.7615</v>
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="C770">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D770">
         <v>127.7615</v>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="C807">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D807">
         <v>127.7615</v>
@@ -24376,7 +24376,7 @@
         </is>
       </c>
       <c r="C844">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D844">
         <v>127.7615</v>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C876">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D876">
         <v>127.7615</v>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C898">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D898">
         <v>127.7615</v>
@@ -26361,7 +26361,7 @@
         </is>
       </c>
       <c r="C914">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D914">
         <v>127.7615</v>
@@ -27264,7 +27264,7 @@
         </is>
       </c>
       <c r="C946">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D946">
         <v>127.7615</v>
@@ -27989,7 +27989,7 @@
         </is>
       </c>
       <c r="C971">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D971">
         <v>127.7615</v>
@@ -28419,7 +28419,7 @@
         </is>
       </c>
       <c r="C986">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D986">
         <v>127.7615</v>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="C1019">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1019">
         <v>127.7615</v>
@@ -29926,7 +29926,7 @@
         </is>
       </c>
       <c r="C1039">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1039">
         <v>127.7615</v>
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="C1052">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1052">
         <v>127.7615</v>
@@ -31143,7 +31143,7 @@
         </is>
       </c>
       <c r="C1082">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1082">
         <v>127.7615</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="C1105">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1105">
         <v>127.7615</v>
@@ -32312,7 +32312,7 @@
         </is>
       </c>
       <c r="C1123">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1123">
         <v>127.7615</v>
@@ -33254,7 +33254,7 @@
         </is>
       </c>
       <c r="C1156">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1156">
         <v>127.7615</v>
@@ -34480,7 +34480,7 @@
         </is>
       </c>
       <c r="C1200">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1200">
         <v>127.7615</v>
@@ -35451,7 +35451,7 @@
         </is>
       </c>
       <c r="C1234">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1234">
         <v>127.7615</v>
@@ -36229,7 +36229,7 @@
         </is>
       </c>
       <c r="C1261">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1261">
         <v>127.7615</v>
@@ -36736,7 +36736,7 @@
         </is>
       </c>
       <c r="C1279">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1279">
         <v>127.7615</v>
@@ -37707,7 +37707,7 @@
         </is>
       </c>
       <c r="C1313">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1313">
         <v>127.7615</v>
@@ -38345,7 +38345,7 @@
         </is>
       </c>
       <c r="C1335">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1335">
         <v>127.7615</v>
@@ -38717,7 +38717,7 @@
         </is>
       </c>
       <c r="C1348">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1348">
         <v>127.7615</v>
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="C1379">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1379">
         <v>127.7615</v>
@@ -40687,7 +40687,7 @@
         </is>
       </c>
       <c r="C1418">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1418">
         <v>127.7615</v>
@@ -41648,7 +41648,7 @@
         </is>
       </c>
       <c r="C1452">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1452">
         <v>127.7615</v>
@@ -42730,7 +42730,7 @@
         </is>
       </c>
       <c r="C1490">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1490">
         <v>127.7615</v>
@@ -43725,7 +43725,7 @@
         </is>
       </c>
       <c r="C1525">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1525">
         <v>127.7615</v>
@@ -44691,7 +44691,7 @@
         </is>
       </c>
       <c r="C1559">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1559">
         <v>127.7615</v>
@@ -45517,7 +45517,7 @@
         </is>
       </c>
       <c r="C1588">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1588">
         <v>127.7615</v>
@@ -46536,7 +46536,7 @@
         </is>
       </c>
       <c r="C1624">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1624">
         <v>127.7615</v>
@@ -47362,7 +47362,7 @@
         </is>
       </c>
       <c r="C1653">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1653">
         <v>127.7615</v>
@@ -47879,7 +47879,7 @@
         </is>
       </c>
       <c r="C1671">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1671">
         <v>127.7615</v>
@@ -48415,7 +48415,7 @@
         </is>
       </c>
       <c r="C1690">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1690">
         <v>127.7615</v>
@@ -49270,7 +49270,7 @@
         </is>
       </c>
       <c r="C1720">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1720">
         <v>127.7615</v>
@@ -50304,7 +50304,7 @@
         </is>
       </c>
       <c r="C1756">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1756">
         <v>127.7615</v>
@@ -51313,7 +51313,7 @@
         </is>
       </c>
       <c r="C1792">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1792">
         <v>127.7615</v>
@@ -52201,7 +52201,7 @@
         </is>
       </c>
       <c r="C1824">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1824">
         <v>127.7615</v>
@@ -53959,7 +53959,7 @@
         </is>
       </c>
       <c r="C1886">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1886">
         <v>127.7615</v>
@@ -54746,7 +54746,7 @@
         </is>
       </c>
       <c r="C1914">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1914">
         <v>127.7615</v>
@@ -55494,7 +55494,7 @@
         </is>
       </c>
       <c r="C1941">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1941">
         <v>127.7615</v>
@@ -57188,7 +57188,7 @@
         </is>
       </c>
       <c r="C2002">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2002">
         <v>127.7615</v>
@@ -59016,7 +59016,7 @@
         </is>
       </c>
       <c r="C2069">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2069">
         <v>127.7615</v>
@@ -60992,7 +60992,7 @@
         </is>
       </c>
       <c r="C2143">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2143">
         <v>127.7615</v>
@@ -62554,7 +62554,7 @@
         </is>
       </c>
       <c r="C2201">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2201">
         <v>127.7615</v>
@@ -63003,7 +63003,7 @@
         </is>
       </c>
       <c r="C2217">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2217">
         <v>127.7615</v>
@@ -64999,7 +64999,7 @@
         </is>
       </c>
       <c r="C2291">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2291">
         <v>127.7615</v>
@@ -67399,7 +67399,7 @@
         </is>
       </c>
       <c r="C2381">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2381">
         <v>127.7615</v>
@@ -67991,6 +67991,2261 @@
         <v>41</v>
       </c>
       <c r="G2401" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="C2402">
+        <v>40.0691</v>
+      </c>
+      <c r="D2402">
+        <v>45.0382</v>
+      </c>
+      <c r="E2402" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2402">
+        <v>1</v>
+      </c>
+      <c r="G2402" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C2403">
+        <v>47.5162</v>
+      </c>
+      <c r="D2403">
+        <v>14.5501</v>
+      </c>
+      <c r="E2403" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2403">
+        <v>5</v>
+      </c>
+      <c r="G2403" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="C2404">
+        <v>40.1431</v>
+      </c>
+      <c r="D2404">
+        <v>47.5769</v>
+      </c>
+      <c r="E2404" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2404">
+        <v>3</v>
+      </c>
+      <c r="G2404" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C2405">
+        <v>26.0275</v>
+      </c>
+      <c r="D2405">
+        <v>50.55</v>
+      </c>
+      <c r="E2405" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2405">
+        <v>6</v>
+      </c>
+      <c r="G2405" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C2406">
+        <v>50.8333</v>
+      </c>
+      <c r="D2406">
+        <v>4</v>
+      </c>
+      <c r="E2406" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2406">
+        <v>1</v>
+      </c>
+      <c r="G2406" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C2407">
+        <v>45.1</v>
+      </c>
+      <c r="D2407">
+        <v>15.2</v>
+      </c>
+      <c r="E2407" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2407">
+        <v>1</v>
+      </c>
+      <c r="G2407" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="C2408">
+        <v>49.8175</v>
+      </c>
+      <c r="D2408">
+        <v>15.473</v>
+      </c>
+      <c r="E2408" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2408">
+        <v>3</v>
+      </c>
+      <c r="G2408" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C2409">
+        <v>56.2639</v>
+      </c>
+      <c r="D2409">
+        <v>9.501799999999999</v>
+      </c>
+      <c r="E2409" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2409">
+        <v>1</v>
+      </c>
+      <c r="G2409" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+      <c r="C2410">
+        <v>18.7357</v>
+      </c>
+      <c r="D2410">
+        <v>-70.1627</v>
+      </c>
+      <c r="E2410" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2410">
+        <v>1</v>
+      </c>
+      <c r="G2410" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C2411">
+        <v>-1.8312</v>
+      </c>
+      <c r="D2411">
+        <v>-78.18340000000001</v>
+      </c>
+      <c r="E2411" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2411">
+        <v>6</v>
+      </c>
+      <c r="G2411" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C2412">
+        <v>26</v>
+      </c>
+      <c r="D2412">
+        <v>30</v>
+      </c>
+      <c r="E2412" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2412">
+        <v>1</v>
+      </c>
+      <c r="G2412" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C2413">
+        <v>64</v>
+      </c>
+      <c r="D2413">
+        <v>26</v>
+      </c>
+      <c r="E2413" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2413">
+        <v>3</v>
+      </c>
+      <c r="G2413" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2414">
+        <v>47</v>
+      </c>
+      <c r="D2414">
+        <v>2</v>
+      </c>
+      <c r="E2414" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2414">
+        <v>30</v>
+      </c>
+      <c r="G2414" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="C2415">
+        <v>42.3154</v>
+      </c>
+      <c r="D2415">
+        <v>43.3569</v>
+      </c>
+      <c r="E2415" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2415">
+        <v>2</v>
+      </c>
+      <c r="G2415" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2416">
+        <v>51</v>
+      </c>
+      <c r="D2416">
+        <v>9</v>
+      </c>
+      <c r="E2416" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2416">
+        <v>51</v>
+      </c>
+      <c r="G2416" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C2417">
+        <v>39.0742</v>
+      </c>
+      <c r="D2417">
+        <v>21.8243</v>
+      </c>
+      <c r="E2417" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2417">
+        <v>3</v>
+      </c>
+      <c r="G2417" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C2418">
+        <v>64.9631</v>
+      </c>
+      <c r="D2418">
+        <v>-19.0208</v>
+      </c>
+      <c r="E2418" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2418">
+        <v>2</v>
+      </c>
+      <c r="G2418" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2419">
+        <v>32</v>
+      </c>
+      <c r="D2419">
+        <v>53</v>
+      </c>
+      <c r="E2419" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2419">
+        <v>385</v>
+      </c>
+      <c r="G2419" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C2420">
+        <v>33</v>
+      </c>
+      <c r="D2420">
+        <v>44</v>
+      </c>
+      <c r="E2420" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2420">
+        <v>6</v>
+      </c>
+      <c r="G2420" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C2421">
+        <v>31</v>
+      </c>
+      <c r="D2421">
+        <v>35</v>
+      </c>
+      <c r="E2421" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2421">
+        <v>3</v>
+      </c>
+      <c r="G2421" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2422">
+        <v>43</v>
+      </c>
+      <c r="D2422">
+        <v>12</v>
+      </c>
+      <c r="E2422" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2422">
+        <v>566</v>
+      </c>
+      <c r="G2422" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2423">
+        <v>36</v>
+      </c>
+      <c r="D2423">
+        <v>138</v>
+      </c>
+      <c r="E2423" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2423">
+        <v>15</v>
+      </c>
+      <c r="G2423" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C2424">
+        <v>33.8547</v>
+      </c>
+      <c r="D2424">
+        <v>35.8623</v>
+      </c>
+      <c r="E2424" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2424">
+        <v>6</v>
+      </c>
+      <c r="G2424" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C2425">
+        <v>2.5</v>
+      </c>
+      <c r="D2425">
+        <v>112.5</v>
+      </c>
+      <c r="E2425" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2425">
+        <v>4</v>
+      </c>
+      <c r="G2425" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C2426">
+        <v>23.6345</v>
+      </c>
+      <c r="D2426">
+        <v>-102.5528</v>
+      </c>
+      <c r="E2426" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2426">
+        <v>1</v>
+      </c>
+      <c r="G2426" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C2427">
+        <v>52.1326</v>
+      </c>
+      <c r="D2427">
+        <v>5.2913</v>
+      </c>
+      <c r="E2427" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2427">
+        <v>4</v>
+      </c>
+      <c r="G2427" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2428">
+        <v>60.472</v>
+      </c>
+      <c r="D2428">
+        <v>8.4689</v>
+      </c>
+      <c r="E2428" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2428">
+        <v>4</v>
+      </c>
+      <c r="G2428" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="C2429">
+        <v>25.3548</v>
+      </c>
+      <c r="D2429">
+        <v>51.1839</v>
+      </c>
+      <c r="E2429" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2429">
+        <v>2</v>
+      </c>
+      <c r="G2429" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2430">
+        <v>1.2833</v>
+      </c>
+      <c r="D2430">
+        <v>103.8333</v>
+      </c>
+      <c r="E2430" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2430">
+        <v>4</v>
+      </c>
+      <c r="G2430" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2431">
+        <v>36</v>
+      </c>
+      <c r="D2431">
+        <v>128</v>
+      </c>
+      <c r="E2431" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2431">
+        <v>586</v>
+      </c>
+      <c r="G2431" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2432">
+        <v>40</v>
+      </c>
+      <c r="D2432">
+        <v>-4</v>
+      </c>
+      <c r="E2432" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2432">
+        <v>39</v>
+      </c>
+      <c r="G2432" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C2433">
+        <v>63</v>
+      </c>
+      <c r="D2433">
+        <v>16</v>
+      </c>
+      <c r="E2433" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2433">
+        <v>2</v>
+      </c>
+      <c r="G2433" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2434">
+        <v>46.8182</v>
+      </c>
+      <c r="D2434">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2434" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2434">
+        <v>9</v>
+      </c>
+      <c r="G2434" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C2435">
+        <v>55</v>
+      </c>
+      <c r="D2435">
+        <v>-3</v>
+      </c>
+      <c r="E2435" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2435">
+        <v>13</v>
+      </c>
+      <c r="G2435" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2436">
+        <v>40.1824</v>
+      </c>
+      <c r="D2436">
+        <v>116.4142</v>
+      </c>
+      <c r="E2436" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2436">
+        <v>2</v>
+      </c>
+      <c r="G2436" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t>Chicago, IL</t>
+        </is>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2437">
+        <v>41.8781</v>
+      </c>
+      <c r="D2437">
+        <v>-87.6298</v>
+      </c>
+      <c r="E2437" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2437">
+        <v>1</v>
+      </c>
+      <c r="G2437" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2438">
+        <v>22.3</v>
+      </c>
+      <c r="D2438">
+        <v>114.2</v>
+      </c>
+      <c r="E2438" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2438">
+        <v>1</v>
+      </c>
+      <c r="G2438" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2439">
+        <v>30.9756</v>
+      </c>
+      <c r="D2439">
+        <v>112.2707</v>
+      </c>
+      <c r="E2439" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2439">
+        <v>570</v>
+      </c>
+      <c r="G2439" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2440">
+        <v>41.2956</v>
+      </c>
+      <c r="D2440">
+        <v>122.6085</v>
+      </c>
+      <c r="E2440" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2440">
+        <v>1</v>
+      </c>
+      <c r="G2440" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2441">
+        <v>-33.8688</v>
+      </c>
+      <c r="D2441">
+        <v>151.2093</v>
+      </c>
+      <c r="E2441" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2441">
+        <v>2</v>
+      </c>
+      <c r="G2441" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t>Providence, RI</t>
+        </is>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2442">
+        <v>41.824</v>
+      </c>
+      <c r="D2442">
+        <v>-71.4128</v>
+      </c>
+      <c r="E2442" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2442">
+        <v>1</v>
+      </c>
+      <c r="G2442" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2443">
+        <v>47.6062</v>
+      </c>
+      <c r="D2443">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2443" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2443">
+        <v>3</v>
+      </c>
+      <c r="G2443" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2444">
+        <v>36.3427</v>
+      </c>
+      <c r="D2444">
+        <v>118.1498</v>
+      </c>
+      <c r="E2444" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2444">
+        <v>2</v>
+      </c>
+      <c r="G2444" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>Snohomish County, WA</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2445">
+        <v>48.033</v>
+      </c>
+      <c r="D2445">
+        <v>-121.8339</v>
+      </c>
+      <c r="E2445" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2445">
+        <v>1</v>
+      </c>
+      <c r="G2445" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2446">
+        <v>23.7</v>
+      </c>
+      <c r="D2446">
+        <v>121</v>
+      </c>
+      <c r="E2446" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2446">
+        <v>1</v>
+      </c>
+      <c r="G2446" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>Toronto, ON</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2447">
+        <v>43.6532</v>
+      </c>
+      <c r="D2447">
+        <v>-79.3832</v>
+      </c>
+      <c r="E2447" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2447">
+        <v>4</v>
+      </c>
+      <c r="G2447" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2448">
+        <v>32</v>
+      </c>
+      <c r="D2448">
+        <v>53</v>
+      </c>
+      <c r="E2448" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2448">
+        <v>11</v>
+      </c>
+      <c r="G2448" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2449">
+        <v>43</v>
+      </c>
+      <c r="D2449">
+        <v>12</v>
+      </c>
+      <c r="E2449" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2449">
+        <v>5</v>
+      </c>
+      <c r="G2449" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2450">
+        <v>36</v>
+      </c>
+      <c r="D2450">
+        <v>138</v>
+      </c>
+      <c r="E2450" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2450">
+        <v>1</v>
+      </c>
+      <c r="G2450" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2451">
+        <v>36</v>
+      </c>
+      <c r="D2451">
+        <v>128</v>
+      </c>
+      <c r="E2451" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2451">
+        <v>1</v>
+      </c>
+      <c r="G2451" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C2452">
+        <v>15</v>
+      </c>
+      <c r="D2452">
+        <v>101</v>
+      </c>
+      <c r="E2452" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2452">
+        <v>1</v>
+      </c>
+      <c r="G2452" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2453">
+        <v>33.88202</v>
+      </c>
+      <c r="D2453">
+        <v>113.614</v>
+      </c>
+      <c r="E2453" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2453">
+        <v>1</v>
+      </c>
+      <c r="G2453" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2454">
+        <v>30.9756</v>
+      </c>
+      <c r="D2454">
+        <v>112.2707</v>
+      </c>
+      <c r="E2454" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2454">
+        <v>34</v>
+      </c>
+      <c r="G2454" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t>Western Australia</t>
+        </is>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2455">
+        <v>-31.9505</v>
+      </c>
+      <c r="D2455">
+        <v>115.8605</v>
+      </c>
+      <c r="E2455" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2455">
+        <v>1</v>
+      </c>
+      <c r="G2455" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2456">
+        <v>32</v>
+      </c>
+      <c r="D2456">
+        <v>53</v>
+      </c>
+      <c r="E2456" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2456">
+        <v>52</v>
+      </c>
+      <c r="G2456" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2457">
+        <v>43</v>
+      </c>
+      <c r="D2457">
+        <v>12</v>
+      </c>
+      <c r="E2457" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2457">
+        <v>37</v>
+      </c>
+      <c r="G2457" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2458">
+        <v>36</v>
+      </c>
+      <c r="D2458">
+        <v>128</v>
+      </c>
+      <c r="E2458" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2458">
+        <v>3</v>
+      </c>
+      <c r="G2458" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2459">
+        <v>31.8257</v>
+      </c>
+      <c r="D2459">
+        <v>117.2264</v>
+      </c>
+      <c r="E2459" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2459">
+        <v>5</v>
+      </c>
+      <c r="G2459" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2460">
+        <v>40.1824</v>
+      </c>
+      <c r="D2460">
+        <v>116.4142</v>
+      </c>
+      <c r="E2460" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2460">
+        <v>5</v>
+      </c>
+      <c r="G2460" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2461">
+        <v>30.0572</v>
+      </c>
+      <c r="D2461">
+        <v>107.874</v>
+      </c>
+      <c r="E2461" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2461">
+        <v>12</v>
+      </c>
+      <c r="G2461" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2462">
+        <v>26.0789</v>
+      </c>
+      <c r="D2462">
+        <v>117.9874</v>
+      </c>
+      <c r="E2462" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2462">
+        <v>4</v>
+      </c>
+      <c r="G2462" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2463">
+        <v>36.0611</v>
+      </c>
+      <c r="D2463">
+        <v>103.8343</v>
+      </c>
+      <c r="E2463" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2463">
+        <v>2</v>
+      </c>
+      <c r="G2463" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2464">
+        <v>23.3417</v>
+      </c>
+      <c r="D2464">
+        <v>113.4244</v>
+      </c>
+      <c r="E2464" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2464">
+        <v>33</v>
+      </c>
+      <c r="G2464" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2465">
+        <v>23.8298</v>
+      </c>
+      <c r="D2465">
+        <v>108.7881</v>
+      </c>
+      <c r="E2465" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2465">
+        <v>5</v>
+      </c>
+      <c r="G2465" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2466">
+        <v>19.1959</v>
+      </c>
+      <c r="D2466">
+        <v>109.7453</v>
+      </c>
+      <c r="E2466" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2466">
+        <v>1</v>
+      </c>
+      <c r="G2466" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2467">
+        <v>38.0428</v>
+      </c>
+      <c r="D2467">
+        <v>114.5149</v>
+      </c>
+      <c r="E2467" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2467">
+        <v>12</v>
+      </c>
+      <c r="G2467" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2468">
+        <v>47.86199999999999</v>
+      </c>
+      <c r="D2468">
+        <v>127.7615</v>
+      </c>
+      <c r="E2468" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2468">
+        <v>41</v>
+      </c>
+      <c r="G2468" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2469">
+        <v>33.88202</v>
+      </c>
+      <c r="D2469">
+        <v>113.614</v>
+      </c>
+      <c r="E2469" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2469">
+        <v>28</v>
+      </c>
+      <c r="G2469" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2470">
+        <v>22.3</v>
+      </c>
+      <c r="D2470">
+        <v>114.2</v>
+      </c>
+      <c r="E2470" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2470">
+        <v>3</v>
+      </c>
+      <c r="G2470" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2471">
+        <v>30.9756</v>
+      </c>
+      <c r="D2471">
+        <v>112.2707</v>
+      </c>
+      <c r="E2471" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2471">
+        <v>2543</v>
+      </c>
+      <c r="G2471" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2472">
+        <v>27.6104</v>
+      </c>
+      <c r="D2472">
+        <v>111.7088</v>
+      </c>
+      <c r="E2472" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2472">
+        <v>20</v>
+      </c>
+      <c r="G2472" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2473">
+        <v>44.0935</v>
+      </c>
+      <c r="D2473">
+        <v>113.9448</v>
+      </c>
+      <c r="E2473" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2473">
+        <v>3</v>
+      </c>
+      <c r="G2473" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2474">
+        <v>32.9711</v>
+      </c>
+      <c r="D2474">
+        <v>119.455</v>
+      </c>
+      <c r="E2474" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2474">
+        <v>13</v>
+      </c>
+      <c r="G2474" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2475">
+        <v>27.614</v>
+      </c>
+      <c r="D2475">
+        <v>115.7221</v>
+      </c>
+      <c r="E2475" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2475">
+        <v>20</v>
+      </c>
+      <c r="G2475" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2476">
+        <v>43.6661</v>
+      </c>
+      <c r="D2476">
+        <v>126.1923</v>
+      </c>
+      <c r="E2476" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2476">
+        <v>3</v>
+      </c>
+      <c r="G2476" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2477">
+        <v>41.2956</v>
+      </c>
+      <c r="D2477">
+        <v>122.6085</v>
+      </c>
+      <c r="E2477" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2477">
+        <v>7</v>
+      </c>
+      <c r="G2477" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2478">
+        <v>35.1917</v>
+      </c>
+      <c r="D2478">
+        <v>108.8701</v>
+      </c>
+      <c r="E2478" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2478">
+        <v>1</v>
+      </c>
+      <c r="G2478" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2479">
+        <v>36.3427</v>
+      </c>
+      <c r="D2479">
+        <v>118.1498</v>
+      </c>
+      <c r="E2479" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2479">
+        <v>22</v>
+      </c>
+      <c r="G2479" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2480">
+        <v>31.202</v>
+      </c>
+      <c r="D2480">
+        <v>121.4491</v>
+      </c>
+      <c r="E2480" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2480">
+        <v>3</v>
+      </c>
+      <c r="G2480" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2481">
+        <v>37.5777</v>
+      </c>
+      <c r="D2481">
+        <v>112.2922</v>
+      </c>
+      <c r="E2481" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2481">
+        <v>2</v>
+      </c>
+      <c r="G2481" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2482">
+        <v>30.6171</v>
+      </c>
+      <c r="D2482">
+        <v>102.7103</v>
+      </c>
+      <c r="E2482" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2482">
+        <v>14</v>
+      </c>
+      <c r="G2482" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2483">
+        <v>39.3054</v>
+      </c>
+      <c r="D2483">
+        <v>117.323</v>
+      </c>
+      <c r="E2483" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2483">
+        <v>2</v>
+      </c>
+      <c r="G2483" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2484">
+        <v>41.1129</v>
+      </c>
+      <c r="D2484">
+        <v>85.2401</v>
+      </c>
+      <c r="E2484" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2484">
+        <v>2</v>
+      </c>
+      <c r="G2484" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2485">
+        <v>24.974</v>
+      </c>
+      <c r="D2485">
+        <v>101.487</v>
+      </c>
+      <c r="E2485" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2485">
+        <v>6</v>
+      </c>
+      <c r="G2485" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2486">
+        <v>29.1832</v>
+      </c>
+      <c r="D2486">
+        <v>120.0934</v>
+      </c>
+      <c r="E2486" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F2486">
+        <v>30</v>
+      </c>
+      <c r="G2486" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2486"/>
+  <dimension ref="A1:G2583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,25 +882,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Liaoning</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C19">
-        <v>41.2956</v>
+        <v>47.6062</v>
       </c>
       <c r="D19">
-        <v>122.6085</v>
+        <v>-122.3321</v>
       </c>
       <c r="E19" s="2">
         <v>43852</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -911,25 +911,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Liaoning</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C20">
-        <v>22.1667</v>
+        <v>41.2956</v>
       </c>
       <c r="D20">
-        <v>113.55</v>
+        <v>122.6085</v>
       </c>
       <c r="E20" s="2">
         <v>43852</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -940,19 +940,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ningxia</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="C21">
-        <v>37.2692</v>
+        <v>22.1667</v>
       </c>
       <c r="D21">
-        <v>106.1655</v>
+        <v>113.55</v>
       </c>
       <c r="E21" s="2">
         <v>43852</v>
@@ -969,19 +969,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Ningxia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C22">
-        <v>47.6062</v>
+        <v>37.2692</v>
       </c>
       <c r="D22">
-        <v>-122.3321</v>
+        <v>106.1655</v>
       </c>
       <c r="E22" s="2">
         <v>43852</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D46">
         <v>127.7615</v>
@@ -2316,25 +2316,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C70">
-        <v>41.8781</v>
+        <v>30.0572</v>
       </c>
       <c r="D70">
-        <v>-87.6298</v>
+        <v>107.874</v>
       </c>
       <c r="E70" s="2">
         <v>43854</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2345,25 +2345,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Cook County, IL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C71">
-        <v>30.0572</v>
+        <v>41.8781</v>
       </c>
       <c r="D71">
-        <v>107.874</v>
+        <v>-87.6298</v>
       </c>
       <c r="E71" s="2">
         <v>43854</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D77">
         <v>127.7615</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D95">
         <v>127.7615</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D114">
         <v>127.7615</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D153">
         <v>127.7615</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D200">
         <v>127.7615</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D246">
         <v>127.7615</v>
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D288">
         <v>127.7615</v>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D334">
         <v>127.7615</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D358">
         <v>127.7615</v>
@@ -11106,25 +11106,25 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C380">
-        <v>41.8781</v>
+        <v>30.0572</v>
       </c>
       <c r="D380">
-        <v>-87.6298</v>
+        <v>107.874</v>
       </c>
       <c r="E380" s="2">
         <v>43861</v>
       </c>
       <c r="F380">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -11135,25 +11135,25 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Cook County, IL</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C381">
-        <v>30.0572</v>
+        <v>41.8781</v>
       </c>
       <c r="D381">
-        <v>107.874</v>
+        <v>-87.6298</v>
       </c>
       <c r="E381" s="2">
         <v>43861</v>
       </c>
       <c r="F381">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D389">
         <v>127.7615</v>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="C445">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D445">
         <v>127.7615</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D476">
         <v>127.7615</v>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D502">
         <v>127.7615</v>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="C559">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D559">
         <v>127.7615</v>
@@ -17810,7 +17810,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D615">
         <v>127.7615</v>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="C649">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D649">
         <v>127.7615</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D676">
         <v>127.7615</v>
@@ -20492,7 +20492,7 @@
         </is>
       </c>
       <c r="C708">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D708">
         <v>127.7615</v>
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="C736">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D736">
         <v>127.7615</v>
@@ -21956,7 +21956,7 @@
         </is>
       </c>
       <c r="C759">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D759">
         <v>127.7615</v>
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="C770">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D770">
         <v>127.7615</v>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="C807">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D807">
         <v>127.7615</v>
@@ -24376,7 +24376,7 @@
         </is>
       </c>
       <c r="C844">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D844">
         <v>127.7615</v>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C876">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D876">
         <v>127.7615</v>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C898">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D898">
         <v>127.7615</v>
@@ -26361,7 +26361,7 @@
         </is>
       </c>
       <c r="C914">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D914">
         <v>127.7615</v>
@@ -27264,7 +27264,7 @@
         </is>
       </c>
       <c r="C946">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D946">
         <v>127.7615</v>
@@ -27989,7 +27989,7 @@
         </is>
       </c>
       <c r="C971">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D971">
         <v>127.7615</v>
@@ -28178,25 +28178,25 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C978">
-        <v>41.8781</v>
+        <v>30.0572</v>
       </c>
       <c r="D978">
-        <v>-87.6298</v>
+        <v>107.874</v>
       </c>
       <c r="E978" s="2">
         <v>43870</v>
       </c>
       <c r="F978">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G978" t="inlineStr">
         <is>
@@ -28207,25 +28207,25 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Cook County, IL</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C979">
-        <v>30.0572</v>
+        <v>41.8781</v>
       </c>
       <c r="D979">
-        <v>107.874</v>
+        <v>-87.6298</v>
       </c>
       <c r="E979" s="2">
         <v>43870</v>
       </c>
       <c r="F979">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G979" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         </is>
       </c>
       <c r="C986">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D986">
         <v>127.7615</v>
@@ -28613,25 +28613,25 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Liaoning</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C993">
-        <v>41.2956</v>
+        <v>47.6062</v>
       </c>
       <c r="D993">
-        <v>122.6085</v>
+        <v>-122.3321</v>
       </c>
       <c r="E993" s="2">
         <v>43870</v>
       </c>
       <c r="F993">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G993" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Ningxia</t>
+          <t>Liaoning</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -28651,16 +28651,16 @@
         </is>
       </c>
       <c r="C994">
-        <v>37.2692</v>
+        <v>41.2956</v>
       </c>
       <c r="D994">
-        <v>106.1655</v>
+        <v>122.6085</v>
       </c>
       <c r="E994" s="2">
         <v>43870</v>
       </c>
       <c r="F994">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="G994" t="inlineStr">
         <is>
@@ -28671,25 +28671,25 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Ningxia</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C995">
-        <v>47.6062</v>
+        <v>37.2692</v>
       </c>
       <c r="D995">
-        <v>-122.3321</v>
+        <v>106.1655</v>
       </c>
       <c r="E995" s="2">
         <v>43870</v>
       </c>
       <c r="F995">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G995" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="C1019">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1019">
         <v>127.7615</v>
@@ -29926,7 +29926,7 @@
         </is>
       </c>
       <c r="C1039">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1039">
         <v>127.7615</v>
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="C1052">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1052">
         <v>127.7615</v>
@@ -31143,7 +31143,7 @@
         </is>
       </c>
       <c r="C1082">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1082">
         <v>127.7615</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="C1105">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1105">
         <v>127.7615</v>
@@ -32312,7 +32312,7 @@
         </is>
       </c>
       <c r="C1123">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1123">
         <v>127.7615</v>
@@ -33254,7 +33254,7 @@
         </is>
       </c>
       <c r="C1156">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1156">
         <v>127.7615</v>
@@ -34480,7 +34480,7 @@
         </is>
       </c>
       <c r="C1200">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1200">
         <v>127.7615</v>
@@ -35451,7 +35451,7 @@
         </is>
       </c>
       <c r="C1234">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1234">
         <v>127.7615</v>
@@ -36229,7 +36229,7 @@
         </is>
       </c>
       <c r="C1261">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1261">
         <v>127.7615</v>
@@ -36736,7 +36736,7 @@
         </is>
       </c>
       <c r="C1279">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1279">
         <v>127.7615</v>
@@ -37707,7 +37707,7 @@
         </is>
       </c>
       <c r="C1313">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1313">
         <v>127.7615</v>
@@ -38345,7 +38345,7 @@
         </is>
       </c>
       <c r="C1335">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1335">
         <v>127.7615</v>
@@ -38717,7 +38717,7 @@
         </is>
       </c>
       <c r="C1348">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1348">
         <v>127.7615</v>
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="C1379">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1379">
         <v>127.7615</v>
@@ -40687,7 +40687,7 @@
         </is>
       </c>
       <c r="C1418">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1418">
         <v>127.7615</v>
@@ -41648,7 +41648,7 @@
         </is>
       </c>
       <c r="C1452">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1452">
         <v>127.7615</v>
@@ -42730,7 +42730,7 @@
         </is>
       </c>
       <c r="C1490">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1490">
         <v>127.7615</v>
@@ -43725,7 +43725,7 @@
         </is>
       </c>
       <c r="C1525">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1525">
         <v>127.7615</v>
@@ -44691,7 +44691,7 @@
         </is>
       </c>
       <c r="C1559">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1559">
         <v>127.7615</v>
@@ -45517,7 +45517,7 @@
         </is>
       </c>
       <c r="C1588">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1588">
         <v>127.7615</v>
@@ -46536,7 +46536,7 @@
         </is>
       </c>
       <c r="C1624">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1624">
         <v>127.7615</v>
@@ -47362,7 +47362,7 @@
         </is>
       </c>
       <c r="C1653">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1653">
         <v>127.7615</v>
@@ -47879,7 +47879,7 @@
         </is>
       </c>
       <c r="C1671">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1671">
         <v>127.7615</v>
@@ -48415,7 +48415,7 @@
         </is>
       </c>
       <c r="C1690">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1690">
         <v>127.7615</v>
@@ -49270,7 +49270,7 @@
         </is>
       </c>
       <c r="C1720">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1720">
         <v>127.7615</v>
@@ -50304,7 +50304,7 @@
         </is>
       </c>
       <c r="C1756">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1756">
         <v>127.7615</v>
@@ -51313,7 +51313,7 @@
         </is>
       </c>
       <c r="C1792">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1792">
         <v>127.7615</v>
@@ -52201,7 +52201,7 @@
         </is>
       </c>
       <c r="C1824">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1824">
         <v>127.7615</v>
@@ -53959,7 +53959,7 @@
         </is>
       </c>
       <c r="C1886">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1886">
         <v>127.7615</v>
@@ -54746,7 +54746,7 @@
         </is>
       </c>
       <c r="C1914">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1914">
         <v>127.7615</v>
@@ -55494,7 +55494,7 @@
         </is>
       </c>
       <c r="C1941">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1941">
         <v>127.7615</v>
@@ -57188,7 +57188,7 @@
         </is>
       </c>
       <c r="C2002">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2002">
         <v>127.7615</v>
@@ -59016,7 +59016,7 @@
         </is>
       </c>
       <c r="C2069">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2069">
         <v>127.7615</v>
@@ -60992,7 +60992,7 @@
         </is>
       </c>
       <c r="C2143">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2143">
         <v>127.7615</v>
@@ -62554,7 +62554,7 @@
         </is>
       </c>
       <c r="C2201">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2201">
         <v>127.7615</v>
@@ -63003,7 +63003,7 @@
         </is>
       </c>
       <c r="C2217">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2217">
         <v>127.7615</v>
@@ -64999,7 +64999,7 @@
         </is>
       </c>
       <c r="C2291">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2291">
         <v>127.7615</v>
@@ -66483,25 +66483,25 @@
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>Ningxia</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2348">
-        <v>37.2692</v>
+        <v>47.6062</v>
       </c>
       <c r="D2348">
-        <v>106.1655</v>
+        <v>-122.3321</v>
       </c>
       <c r="E2348" s="2">
         <v>43890</v>
       </c>
       <c r="F2348">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2348" t="inlineStr">
         <is>
@@ -66512,19 +66512,19 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>Ningxia</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2349">
-        <v>45.5051</v>
+        <v>37.2692</v>
       </c>
       <c r="D2349">
-        <v>-122.675</v>
+        <v>106.1655</v>
       </c>
       <c r="E2349" s="2">
         <v>43890</v>
@@ -66541,25 +66541,25 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Portland, OR</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2350">
-        <v>-28.0167</v>
+        <v>45.5051</v>
       </c>
       <c r="D2350">
-        <v>153.4</v>
+        <v>-122.675</v>
       </c>
       <c r="E2350" s="2">
         <v>43890</v>
       </c>
       <c r="F2350">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2350" t="inlineStr">
         <is>
@@ -66570,25 +66570,25 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>Santa Clara, CA</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2351">
-        <v>37.3541</v>
+        <v>-28.0167</v>
       </c>
       <c r="D2351">
-        <v>-121.9552</v>
+        <v>153.4</v>
       </c>
       <c r="E2351" s="2">
         <v>43890</v>
       </c>
       <c r="F2351">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2351" t="inlineStr">
         <is>
@@ -66599,7 +66599,7 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Santa Clara, CA</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
@@ -66608,16 +66608,16 @@
         </is>
       </c>
       <c r="C2352">
-        <v>47.6062</v>
+        <v>37.3541</v>
       </c>
       <c r="D2352">
-        <v>-122.3321</v>
+        <v>-121.9552</v>
       </c>
       <c r="E2352" s="2">
         <v>43890</v>
       </c>
       <c r="F2352">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2352" t="inlineStr">
         <is>
@@ -66985,7 +66985,7 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
@@ -67399,7 +67399,7 @@
         </is>
       </c>
       <c r="C2381">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2381">
         <v>127.7615</v>
@@ -68844,7 +68844,7 @@
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Cook County, IL</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
@@ -68931,25 +68931,25 @@
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>Liaoning</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2440">
-        <v>41.2956</v>
+        <v>47.6062</v>
       </c>
       <c r="D2440">
-        <v>122.6085</v>
+        <v>-122.3321</v>
       </c>
       <c r="E2440" s="2">
         <v>43891</v>
       </c>
       <c r="F2440">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2440" t="inlineStr">
         <is>
@@ -68960,25 +68960,25 @@
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Liaoning</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2441">
-        <v>-33.8688</v>
+        <v>41.2956</v>
       </c>
       <c r="D2441">
-        <v>151.2093</v>
+        <v>122.6085</v>
       </c>
       <c r="E2441" s="2">
         <v>43891</v>
       </c>
       <c r="F2441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2441" t="inlineStr">
         <is>
@@ -68989,25 +68989,25 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>Providence, RI</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2442">
-        <v>41.824</v>
+        <v>-33.8688</v>
       </c>
       <c r="D2442">
-        <v>-71.4128</v>
+        <v>151.2093</v>
       </c>
       <c r="E2442" s="2">
         <v>43891</v>
       </c>
       <c r="F2442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2442" t="inlineStr">
         <is>
@@ -69018,7 +69018,7 @@
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Providence, RI</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
@@ -69027,16 +69027,16 @@
         </is>
       </c>
       <c r="C2443">
-        <v>47.6062</v>
+        <v>41.824</v>
       </c>
       <c r="D2443">
-        <v>-122.3321</v>
+        <v>-71.4128</v>
       </c>
       <c r="E2443" s="2">
         <v>43891</v>
       </c>
       <c r="F2443">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2443" t="inlineStr">
         <is>
@@ -69712,7 +69712,7 @@
         </is>
       </c>
       <c r="C2468">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2468">
         <v>127.7615</v>
@@ -70246,6 +70246,2619 @@
         <v>30</v>
       </c>
       <c r="G2486" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="C2487">
+        <v>28.0339</v>
+      </c>
+      <c r="D2487">
+        <v>1.6596</v>
+      </c>
+      <c r="E2487" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2487">
+        <v>2</v>
+      </c>
+      <c r="G2487" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="C2488">
+        <v>42.5063</v>
+      </c>
+      <c r="D2488">
+        <v>1.5218</v>
+      </c>
+      <c r="E2488" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2488">
+        <v>1</v>
+      </c>
+      <c r="G2488" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C2489">
+        <v>47.5162</v>
+      </c>
+      <c r="D2489">
+        <v>14.5501</v>
+      </c>
+      <c r="E2489" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2489">
+        <v>4</v>
+      </c>
+      <c r="G2489" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C2490">
+        <v>26.0275</v>
+      </c>
+      <c r="D2490">
+        <v>50.55</v>
+      </c>
+      <c r="E2490" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2490">
+        <v>2</v>
+      </c>
+      <c r="G2490" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C2491">
+        <v>50.8333</v>
+      </c>
+      <c r="D2491">
+        <v>4</v>
+      </c>
+      <c r="E2491" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2491">
+        <v>6</v>
+      </c>
+      <c r="G2491" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2492">
+        <v>47</v>
+      </c>
+      <c r="D2492">
+        <v>2</v>
+      </c>
+      <c r="E2492" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2492">
+        <v>61</v>
+      </c>
+      <c r="G2492" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2493">
+        <v>51</v>
+      </c>
+      <c r="D2493">
+        <v>9</v>
+      </c>
+      <c r="E2493" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2493">
+        <v>29</v>
+      </c>
+      <c r="G2493" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C2494">
+        <v>64.9631</v>
+      </c>
+      <c r="D2494">
+        <v>-19.0208</v>
+      </c>
+      <c r="E2494" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2494">
+        <v>3</v>
+      </c>
+      <c r="G2494" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C2495">
+        <v>21</v>
+      </c>
+      <c r="D2495">
+        <v>78</v>
+      </c>
+      <c r="E2495" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2495">
+        <v>2</v>
+      </c>
+      <c r="G2495" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C2496">
+        <v>-0.7893</v>
+      </c>
+      <c r="D2496">
+        <v>113.9213</v>
+      </c>
+      <c r="E2496" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2496">
+        <v>2</v>
+      </c>
+      <c r="G2496" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2497">
+        <v>32</v>
+      </c>
+      <c r="D2497">
+        <v>53</v>
+      </c>
+      <c r="E2497" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2497">
+        <v>523</v>
+      </c>
+      <c r="G2497" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C2498">
+        <v>33</v>
+      </c>
+      <c r="D2498">
+        <v>44</v>
+      </c>
+      <c r="E2498" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2498">
+        <v>7</v>
+      </c>
+      <c r="G2498" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2499">
+        <v>43</v>
+      </c>
+      <c r="D2499">
+        <v>12</v>
+      </c>
+      <c r="E2499" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2499">
+        <v>342</v>
+      </c>
+      <c r="G2499" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2500">
+        <v>36</v>
+      </c>
+      <c r="D2500">
+        <v>138</v>
+      </c>
+      <c r="E2500" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2500">
+        <v>18</v>
+      </c>
+      <c r="G2500" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="C2501">
+        <v>29.5</v>
+      </c>
+      <c r="D2501">
+        <v>47.75</v>
+      </c>
+      <c r="E2501" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2501">
+        <v>11</v>
+      </c>
+      <c r="G2501" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="C2502">
+        <v>56.8796</v>
+      </c>
+      <c r="D2502">
+        <v>24.6032</v>
+      </c>
+      <c r="E2502" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2502">
+        <v>1</v>
+      </c>
+      <c r="G2502" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C2503">
+        <v>33.8547</v>
+      </c>
+      <c r="D2503">
+        <v>35.8623</v>
+      </c>
+      <c r="E2503" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2503">
+        <v>3</v>
+      </c>
+      <c r="G2503" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="C2504">
+        <v>31.7917</v>
+      </c>
+      <c r="D2504">
+        <v>-7.0926</v>
+      </c>
+      <c r="E2504" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2504">
+        <v>1</v>
+      </c>
+      <c r="G2504" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C2505">
+        <v>52.1326</v>
+      </c>
+      <c r="D2505">
+        <v>5.2913</v>
+      </c>
+      <c r="E2505" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2505">
+        <v>8</v>
+      </c>
+      <c r="G2505" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2506">
+        <v>60.472</v>
+      </c>
+      <c r="D2506">
+        <v>8.4689</v>
+      </c>
+      <c r="E2506" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2506">
+        <v>6</v>
+      </c>
+      <c r="G2506" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C2507">
+        <v>39.3999</v>
+      </c>
+      <c r="D2507">
+        <v>-8.224500000000001</v>
+      </c>
+      <c r="E2507" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2507">
+        <v>2</v>
+      </c>
+      <c r="G2507" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="C2508">
+        <v>60</v>
+      </c>
+      <c r="D2508">
+        <v>90</v>
+      </c>
+      <c r="E2508" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2508">
+        <v>1</v>
+      </c>
+      <c r="G2508" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+      <c r="C2509">
+        <v>43.9424</v>
+      </c>
+      <c r="D2509">
+        <v>12.4578</v>
+      </c>
+      <c r="E2509" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2509">
+        <v>7</v>
+      </c>
+      <c r="G2509" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C2510">
+        <v>24</v>
+      </c>
+      <c r="D2510">
+        <v>45</v>
+      </c>
+      <c r="E2510" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2510">
+        <v>1</v>
+      </c>
+      <c r="G2510" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C2511">
+        <v>14.4974</v>
+      </c>
+      <c r="D2511">
+        <v>-14.4524</v>
+      </c>
+      <c r="E2511" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2511">
+        <v>1</v>
+      </c>
+      <c r="G2511" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2512">
+        <v>1.2833</v>
+      </c>
+      <c r="D2512">
+        <v>103.8333</v>
+      </c>
+      <c r="E2512" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2512">
+        <v>2</v>
+      </c>
+      <c r="G2512" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2513">
+        <v>36</v>
+      </c>
+      <c r="D2513">
+        <v>128</v>
+      </c>
+      <c r="E2513" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2513">
+        <v>599</v>
+      </c>
+      <c r="G2513" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2514">
+        <v>40</v>
+      </c>
+      <c r="D2514">
+        <v>-4</v>
+      </c>
+      <c r="E2514" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2514">
+        <v>36</v>
+      </c>
+      <c r="G2514" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C2515">
+        <v>63</v>
+      </c>
+      <c r="D2515">
+        <v>16</v>
+      </c>
+      <c r="E2515" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2515">
+        <v>1</v>
+      </c>
+      <c r="G2515" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2516">
+        <v>46.8182</v>
+      </c>
+      <c r="D2516">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2516" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2516">
+        <v>15</v>
+      </c>
+      <c r="G2516" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C2517">
+        <v>15</v>
+      </c>
+      <c r="D2517">
+        <v>101</v>
+      </c>
+      <c r="E2517" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2517">
+        <v>1</v>
+      </c>
+      <c r="G2517" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C2518">
+        <v>55</v>
+      </c>
+      <c r="D2518">
+        <v>-3</v>
+      </c>
+      <c r="E2518" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2518">
+        <v>4</v>
+      </c>
+      <c r="G2518" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2519">
+        <v>40.1824</v>
+      </c>
+      <c r="D2519">
+        <v>116.4142</v>
+      </c>
+      <c r="E2519" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2519">
+        <v>1</v>
+      </c>
+      <c r="G2519" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>Cook County, IL</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2520">
+        <v>41.7377</v>
+      </c>
+      <c r="D2520">
+        <v>-87.69759999999999</v>
+      </c>
+      <c r="E2520" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2520">
+        <v>4</v>
+      </c>
+      <c r="G2520" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>Cook County, IL</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2521">
+        <v>41.8781</v>
+      </c>
+      <c r="D2521">
+        <v>-87.6298</v>
+      </c>
+      <c r="E2521" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2521">
+        <v>1</v>
+      </c>
+      <c r="G2521" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>Grafton County, NH</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2522">
+        <v>43.9088</v>
+      </c>
+      <c r="D2522">
+        <v>-71.82599999999999</v>
+      </c>
+      <c r="E2522" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2522">
+        <v>1</v>
+      </c>
+      <c r="G2522" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2523">
+        <v>23.3417</v>
+      </c>
+      <c r="D2523">
+        <v>113.4244</v>
+      </c>
+      <c r="E2523" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2523">
+        <v>1</v>
+      </c>
+      <c r="G2523" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>Hillsborough, FL</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2524">
+        <v>27.9904</v>
+      </c>
+      <c r="D2524">
+        <v>-82.3018</v>
+      </c>
+      <c r="E2524" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2524">
+        <v>1</v>
+      </c>
+      <c r="G2524" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2525">
+        <v>22.3</v>
+      </c>
+      <c r="D2525">
+        <v>114.2</v>
+      </c>
+      <c r="E2525" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2525">
+        <v>4</v>
+      </c>
+      <c r="G2525" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2526">
+        <v>30.9756</v>
+      </c>
+      <c r="D2526">
+        <v>112.2707</v>
+      </c>
+      <c r="E2526" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2526">
+        <v>196</v>
+      </c>
+      <c r="G2526" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2527">
+        <v>47.6062</v>
+      </c>
+      <c r="D2527">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2527" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2527">
+        <v>5</v>
+      </c>
+      <c r="G2527" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>New York City, NY</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2528">
+        <v>40.7128</v>
+      </c>
+      <c r="D2528">
+        <v>-74.006</v>
+      </c>
+      <c r="E2528" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2528">
+        <v>1</v>
+      </c>
+      <c r="G2528" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2529">
+        <v>37.2692</v>
+      </c>
+      <c r="D2529">
+        <v>106.1655</v>
+      </c>
+      <c r="E2529" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2529">
+        <v>1</v>
+      </c>
+      <c r="G2529" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>Placer County, CA</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2530">
+        <v>39.0916</v>
+      </c>
+      <c r="D2530">
+        <v>-120.8039</v>
+      </c>
+      <c r="E2530" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2530">
+        <v>1</v>
+      </c>
+      <c r="G2530" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2531">
+        <v>45.5051</v>
+      </c>
+      <c r="D2531">
+        <v>-122.675</v>
+      </c>
+      <c r="E2531" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2531">
+        <v>1</v>
+      </c>
+      <c r="G2531" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>Providence, RI</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2532">
+        <v>41.824</v>
+      </c>
+      <c r="D2532">
+        <v>-71.4128</v>
+      </c>
+      <c r="E2532" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2532">
+        <v>1</v>
+      </c>
+      <c r="G2532" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>San Mateo, CA</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2533">
+        <v>37.563</v>
+      </c>
+      <c r="D2533">
+        <v>-122.3255</v>
+      </c>
+      <c r="E2533" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2533">
+        <v>1</v>
+      </c>
+      <c r="G2533" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2534">
+        <v>37.3541</v>
+      </c>
+      <c r="D2534">
+        <v>-121.9552</v>
+      </c>
+      <c r="E2534" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2534">
+        <v>6</v>
+      </c>
+      <c r="G2534" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>Sarasota, FL</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2535">
+        <v>27.3364</v>
+      </c>
+      <c r="D2535">
+        <v>-82.5307</v>
+      </c>
+      <c r="E2535" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2535">
+        <v>1</v>
+      </c>
+      <c r="G2535" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>Snohomish County, WA</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2536">
+        <v>48.033</v>
+      </c>
+      <c r="D2536">
+        <v>-121.8339</v>
+      </c>
+      <c r="E2536" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2536">
+        <v>2</v>
+      </c>
+      <c r="G2536" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>Sonoma County, CA</t>
+        </is>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2537">
+        <v>38.578</v>
+      </c>
+      <c r="D2537">
+        <v>-122.9888</v>
+      </c>
+      <c r="E2537" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2537">
+        <v>1</v>
+      </c>
+      <c r="G2537" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2538">
+        <v>23.7</v>
+      </c>
+      <c r="D2538">
+        <v>121</v>
+      </c>
+      <c r="E2538" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2538">
+        <v>1</v>
+      </c>
+      <c r="G2538" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>Tasmania</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2539">
+        <v>-41.4545</v>
+      </c>
+      <c r="D2539">
+        <v>145.9707</v>
+      </c>
+      <c r="E2539" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2539">
+        <v>1</v>
+      </c>
+      <c r="G2539" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>Toronto, ON</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2540">
+        <v>43.6532</v>
+      </c>
+      <c r="D2540">
+        <v>-79.3832</v>
+      </c>
+      <c r="E2540" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2540">
+        <v>3</v>
+      </c>
+      <c r="G2540" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>Umatilla, OR</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2541">
+        <v>45.775</v>
+      </c>
+      <c r="D2541">
+        <v>-118.7606</v>
+      </c>
+      <c r="E2541" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2541">
+        <v>1</v>
+      </c>
+      <c r="G2541" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>Unassigned Location (From Diamond Princess)</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2542">
+        <v>35.4437</v>
+      </c>
+      <c r="D2542">
+        <v>139.638</v>
+      </c>
+      <c r="E2542" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2542">
+        <v>1</v>
+      </c>
+      <c r="G2542" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2543">
+        <v>-37.8136</v>
+      </c>
+      <c r="D2543">
+        <v>144.9631</v>
+      </c>
+      <c r="E2543" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2543">
+        <v>2</v>
+      </c>
+      <c r="G2543" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2544">
+        <v>29.1832</v>
+      </c>
+      <c r="D2544">
+        <v>120.0934</v>
+      </c>
+      <c r="E2544" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2544">
+        <v>1</v>
+      </c>
+      <c r="G2544" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2545">
+        <v>47</v>
+      </c>
+      <c r="D2545">
+        <v>2</v>
+      </c>
+      <c r="E2545" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2545">
+        <v>1</v>
+      </c>
+      <c r="G2545" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2546">
+        <v>32</v>
+      </c>
+      <c r="D2546">
+        <v>53</v>
+      </c>
+      <c r="E2546" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2546">
+        <v>12</v>
+      </c>
+      <c r="G2546" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2547">
+        <v>43</v>
+      </c>
+      <c r="D2547">
+        <v>12</v>
+      </c>
+      <c r="E2547" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2547">
+        <v>18</v>
+      </c>
+      <c r="G2547" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2548">
+        <v>36</v>
+      </c>
+      <c r="D2548">
+        <v>128</v>
+      </c>
+      <c r="E2548" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2548">
+        <v>11</v>
+      </c>
+      <c r="G2548" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2549">
+        <v>30.9756</v>
+      </c>
+      <c r="D2549">
+        <v>112.2707</v>
+      </c>
+      <c r="E2549" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2549">
+        <v>42</v>
+      </c>
+      <c r="G2549" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2550">
+        <v>47.6062</v>
+      </c>
+      <c r="D2550">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2550" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2550">
+        <v>4</v>
+      </c>
+      <c r="G2550" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t>Snohomish County, WA</t>
+        </is>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2551">
+        <v>48.033</v>
+      </c>
+      <c r="D2551">
+        <v>-121.8339</v>
+      </c>
+      <c r="E2551" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2551">
+        <v>1</v>
+      </c>
+      <c r="G2551" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2552">
+        <v>32</v>
+      </c>
+      <c r="D2552">
+        <v>53</v>
+      </c>
+      <c r="E2552" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2552">
+        <v>116</v>
+      </c>
+      <c r="G2552" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2553">
+        <v>43</v>
+      </c>
+      <c r="D2553">
+        <v>12</v>
+      </c>
+      <c r="E2553" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2553">
+        <v>66</v>
+      </c>
+      <c r="G2553" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2554">
+        <v>1.2833</v>
+      </c>
+      <c r="D2554">
+        <v>103.8333</v>
+      </c>
+      <c r="E2554" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2554">
+        <v>6</v>
+      </c>
+      <c r="G2554" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C2555">
+        <v>15</v>
+      </c>
+      <c r="D2555">
+        <v>101</v>
+      </c>
+      <c r="E2555" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2555">
+        <v>3</v>
+      </c>
+      <c r="G2555" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2556">
+        <v>31.8257</v>
+      </c>
+      <c r="D2556">
+        <v>117.2264</v>
+      </c>
+      <c r="E2556" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2556">
+        <v>44</v>
+      </c>
+      <c r="G2556" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2557">
+        <v>40.1824</v>
+      </c>
+      <c r="D2557">
+        <v>116.4142</v>
+      </c>
+      <c r="E2557" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2557">
+        <v>6</v>
+      </c>
+      <c r="G2557" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2558">
+        <v>30.0572</v>
+      </c>
+      <c r="D2558">
+        <v>107.874</v>
+      </c>
+      <c r="E2558" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2558">
+        <v>19</v>
+      </c>
+      <c r="G2558" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t>Cook County, IL</t>
+        </is>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2559">
+        <v>41.7377</v>
+      </c>
+      <c r="D2559">
+        <v>-87.69759999999999</v>
+      </c>
+      <c r="E2559" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2559">
+        <v>2</v>
+      </c>
+      <c r="G2559" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2560">
+        <v>26.0789</v>
+      </c>
+      <c r="D2560">
+        <v>117.9874</v>
+      </c>
+      <c r="E2560" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2560">
+        <v>8</v>
+      </c>
+      <c r="G2560" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2561">
+        <v>36.0611</v>
+      </c>
+      <c r="D2561">
+        <v>103.8343</v>
+      </c>
+      <c r="E2561" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2561">
+        <v>1</v>
+      </c>
+      <c r="G2561" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2562">
+        <v>23.3417</v>
+      </c>
+      <c r="D2562">
+        <v>113.4244</v>
+      </c>
+      <c r="E2562" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2562">
+        <v>43</v>
+      </c>
+      <c r="G2562" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2563">
+        <v>23.8298</v>
+      </c>
+      <c r="D2563">
+        <v>108.7881</v>
+      </c>
+      <c r="E2563" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2563">
+        <v>11</v>
+      </c>
+      <c r="G2563" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2564">
+        <v>26.8154</v>
+      </c>
+      <c r="D2564">
+        <v>106.8748</v>
+      </c>
+      <c r="E2564" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2564">
+        <v>2</v>
+      </c>
+      <c r="G2564" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2565">
+        <v>19.1959</v>
+      </c>
+      <c r="D2565">
+        <v>109.7453</v>
+      </c>
+      <c r="E2565" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2565">
+        <v>2</v>
+      </c>
+      <c r="G2565" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2566">
+        <v>38.0428</v>
+      </c>
+      <c r="D2566">
+        <v>114.5149</v>
+      </c>
+      <c r="E2566" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2566">
+        <v>2</v>
+      </c>
+      <c r="G2566" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2567">
+        <v>47.862</v>
+      </c>
+      <c r="D2567">
+        <v>127.7615</v>
+      </c>
+      <c r="E2567" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2567">
+        <v>14</v>
+      </c>
+      <c r="G2567" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2568">
+        <v>33.88202</v>
+      </c>
+      <c r="D2568">
+        <v>113.614</v>
+      </c>
+      <c r="E2568" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2568">
+        <v>7</v>
+      </c>
+      <c r="G2568" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2569">
+        <v>30.9756</v>
+      </c>
+      <c r="D2569">
+        <v>112.2707</v>
+      </c>
+      <c r="E2569" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2569">
+        <v>2398</v>
+      </c>
+      <c r="G2569" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2570">
+        <v>27.6104</v>
+      </c>
+      <c r="D2570">
+        <v>111.7088</v>
+      </c>
+      <c r="E2570" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2570">
+        <v>21</v>
+      </c>
+      <c r="G2570" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2571">
+        <v>44.0935</v>
+      </c>
+      <c r="D2571">
+        <v>113.9448</v>
+      </c>
+      <c r="E2571" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2571">
+        <v>2</v>
+      </c>
+      <c r="G2571" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2572">
+        <v>32.9711</v>
+      </c>
+      <c r="D2572">
+        <v>119.455</v>
+      </c>
+      <c r="E2572" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2572">
+        <v>7</v>
+      </c>
+      <c r="G2572" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2573">
+        <v>27.614</v>
+      </c>
+      <c r="D2573">
+        <v>115.7221</v>
+      </c>
+      <c r="E2573" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2573">
+        <v>19</v>
+      </c>
+      <c r="G2573" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2574">
+        <v>43.6661</v>
+      </c>
+      <c r="D2574">
+        <v>126.1923</v>
+      </c>
+      <c r="E2574" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2574">
+        <v>5</v>
+      </c>
+      <c r="G2574" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2575">
+        <v>35.1917</v>
+      </c>
+      <c r="D2575">
+        <v>108.8701</v>
+      </c>
+      <c r="E2575" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2575">
+        <v>8</v>
+      </c>
+      <c r="G2575" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2576">
+        <v>36.3427</v>
+      </c>
+      <c r="D2576">
+        <v>118.1498</v>
+      </c>
+      <c r="E2576" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2576">
+        <v>17</v>
+      </c>
+      <c r="G2576" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2577">
+        <v>31.202</v>
+      </c>
+      <c r="D2577">
+        <v>121.4491</v>
+      </c>
+      <c r="E2577" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2577">
+        <v>2</v>
+      </c>
+      <c r="G2577" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2578">
+        <v>37.5777</v>
+      </c>
+      <c r="D2578">
+        <v>112.2922</v>
+      </c>
+      <c r="E2578" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2578">
+        <v>3</v>
+      </c>
+      <c r="G2578" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2579">
+        <v>30.6171</v>
+      </c>
+      <c r="D2579">
+        <v>102.7103</v>
+      </c>
+      <c r="E2579" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2579">
+        <v>21</v>
+      </c>
+      <c r="G2579" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2580">
+        <v>23.7</v>
+      </c>
+      <c r="D2580">
+        <v>121</v>
+      </c>
+      <c r="E2580" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2580">
+        <v>3</v>
+      </c>
+      <c r="G2580" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2581">
+        <v>41.1129</v>
+      </c>
+      <c r="D2581">
+        <v>85.2401</v>
+      </c>
+      <c r="E2581" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2581">
+        <v>2</v>
+      </c>
+      <c r="G2581" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2582">
+        <v>24.974</v>
+      </c>
+      <c r="D2582">
+        <v>101.487</v>
+      </c>
+      <c r="E2582" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2582">
+        <v>5</v>
+      </c>
+      <c r="G2582" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2583">
+        <v>29.1832</v>
+      </c>
+      <c r="D2583">
+        <v>120.0934</v>
+      </c>
+      <c r="E2583" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F2583">
+        <v>23</v>
+      </c>
+      <c r="G2583" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2583"/>
+  <dimension ref="A1:G2681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="C71">
-        <v>41.8781</v>
+        <v>41.7377</v>
       </c>
       <c r="D71">
-        <v>-87.6298</v>
+        <v>-87.69759999999999</v>
       </c>
       <c r="E71" s="2">
         <v>43854</v>
@@ -11144,10 +11144,10 @@
         </is>
       </c>
       <c r="C381">
-        <v>41.8781</v>
+        <v>41.7377</v>
       </c>
       <c r="D381">
-        <v>-87.6298</v>
+        <v>-87.69759999999999</v>
       </c>
       <c r="E381" s="2">
         <v>43861</v>
@@ -28216,10 +28216,10 @@
         </is>
       </c>
       <c r="C979">
-        <v>41.8781</v>
+        <v>41.7377</v>
       </c>
       <c r="D979">
-        <v>-87.6298</v>
+        <v>-87.69759999999999</v>
       </c>
       <c r="E979" s="2">
         <v>43870</v>
@@ -66541,25 +66541,25 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2350">
-        <v>45.5051</v>
+        <v>-28.0167</v>
       </c>
       <c r="D2350">
-        <v>-122.675</v>
+        <v>153.4</v>
       </c>
       <c r="E2350" s="2">
         <v>43890</v>
       </c>
       <c r="F2350">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2350" t="inlineStr">
         <is>
@@ -66570,25 +66570,25 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Santa Clara, CA</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2351">
-        <v>-28.0167</v>
+        <v>37.3541</v>
       </c>
       <c r="D2351">
-        <v>153.4</v>
+        <v>-121.9552</v>
       </c>
       <c r="E2351" s="2">
         <v>43890</v>
       </c>
       <c r="F2351">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2351" t="inlineStr">
         <is>
@@ -66599,7 +66599,7 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>Santa Clara, CA</t>
+          <t>Snohomish County, WA</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
@@ -66608,10 +66608,10 @@
         </is>
       </c>
       <c r="C2352">
-        <v>37.3541</v>
+        <v>48.033</v>
       </c>
       <c r="D2352">
-        <v>-121.9552</v>
+        <v>-121.8339</v>
       </c>
       <c r="E2352" s="2">
         <v>43890</v>
@@ -66628,19 +66628,19 @@
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>Snohomish County, WA</t>
+          <t>South Australia</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2353">
-        <v>48.033</v>
+        <v>-34.9285</v>
       </c>
       <c r="D2353">
-        <v>-121.8339</v>
+        <v>138.6007</v>
       </c>
       <c r="E2353" s="2">
         <v>43890</v>
@@ -66657,25 +66657,25 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>South Australia</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C2354">
-        <v>-34.9285</v>
+        <v>23.7</v>
       </c>
       <c r="D2354">
-        <v>138.6007</v>
+        <v>121</v>
       </c>
       <c r="E2354" s="2">
         <v>43890</v>
       </c>
       <c r="F2354">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2354" t="inlineStr">
         <is>
@@ -66686,19 +66686,19 @@
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C2355">
-        <v>23.7</v>
+        <v>43.6532</v>
       </c>
       <c r="D2355">
-        <v>121</v>
+        <v>-79.3832</v>
       </c>
       <c r="E2355" s="2">
         <v>43890</v>
@@ -66715,25 +66715,25 @@
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2356">
-        <v>43.6532</v>
+        <v>-37.8136</v>
       </c>
       <c r="D2356">
-        <v>-79.3832</v>
+        <v>144.9631</v>
       </c>
       <c r="E2356" s="2">
         <v>43890</v>
       </c>
       <c r="F2356">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2356" t="inlineStr">
         <is>
@@ -66744,25 +66744,25 @@
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Washington County, OR</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2357">
-        <v>-37.8136</v>
+        <v>45.547</v>
       </c>
       <c r="D2357">
-        <v>144.9631</v>
+        <v>-123.1386</v>
       </c>
       <c r="E2357" s="2">
         <v>43890</v>
       </c>
       <c r="F2357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2357" t="inlineStr">
         <is>
@@ -68853,10 +68853,10 @@
         </is>
       </c>
       <c r="C2437">
-        <v>41.8781</v>
+        <v>41.7377</v>
       </c>
       <c r="D2437">
-        <v>-87.6298</v>
+        <v>-87.69759999999999</v>
       </c>
       <c r="E2437" s="2">
         <v>43891</v>
@@ -71069,7 +71069,7 @@
         <v>43892</v>
       </c>
       <c r="F2520">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2520" t="inlineStr">
         <is>
@@ -71080,7 +71080,7 @@
     <row r="2521">
       <c r="A2521" t="inlineStr">
         <is>
-          <t>Cook County, IL</t>
+          <t>Grafton County, NH</t>
         </is>
       </c>
       <c r="B2521" t="inlineStr">
@@ -71089,10 +71089,10 @@
         </is>
       </c>
       <c r="C2521">
-        <v>41.8781</v>
+        <v>43.9088</v>
       </c>
       <c r="D2521">
-        <v>-87.6298</v>
+        <v>-71.82599999999999</v>
       </c>
       <c r="E2521" s="2">
         <v>43892</v>
@@ -71109,19 +71109,19 @@
     <row r="2522">
       <c r="A2522" t="inlineStr">
         <is>
-          <t>Grafton County, NH</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="B2522" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2522">
-        <v>43.9088</v>
+        <v>23.3417</v>
       </c>
       <c r="D2522">
-        <v>-71.82599999999999</v>
+        <v>113.4244</v>
       </c>
       <c r="E2522" s="2">
         <v>43892</v>
@@ -71138,19 +71138,19 @@
     <row r="2523">
       <c r="A2523" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Hillsborough, FL</t>
         </is>
       </c>
       <c r="B2523" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2523">
-        <v>23.3417</v>
+        <v>27.9904</v>
       </c>
       <c r="D2523">
-        <v>113.4244</v>
+        <v>-82.3018</v>
       </c>
       <c r="E2523" s="2">
         <v>43892</v>
@@ -71167,25 +71167,25 @@
     <row r="2524">
       <c r="A2524" t="inlineStr">
         <is>
-          <t>Hillsborough, FL</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B2524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C2524">
-        <v>27.9904</v>
+        <v>22.3</v>
       </c>
       <c r="D2524">
-        <v>-82.3018</v>
+        <v>114.2</v>
       </c>
       <c r="E2524" s="2">
         <v>43892</v>
       </c>
       <c r="F2524">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2524" t="inlineStr">
         <is>
@@ -71196,25 +71196,25 @@
     <row r="2525">
       <c r="A2525" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B2525" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2525">
-        <v>22.3</v>
+        <v>30.9756</v>
       </c>
       <c r="D2525">
-        <v>114.2</v>
+        <v>112.2707</v>
       </c>
       <c r="E2525" s="2">
         <v>43892</v>
       </c>
       <c r="F2525">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="G2525" t="inlineStr">
         <is>
@@ -71225,25 +71225,25 @@
     <row r="2526">
       <c r="A2526" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B2526" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2526">
-        <v>30.9756</v>
+        <v>47.6062</v>
       </c>
       <c r="D2526">
-        <v>112.2707</v>
+        <v>-122.3321</v>
       </c>
       <c r="E2526" s="2">
         <v>43892</v>
       </c>
       <c r="F2526">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G2526" t="inlineStr">
         <is>
@@ -71254,7 +71254,7 @@
     <row r="2527">
       <c r="A2527" t="inlineStr">
         <is>
-          <t>King County, WA</t>
+          <t>New York City, NY</t>
         </is>
       </c>
       <c r="B2527" t="inlineStr">
@@ -71263,16 +71263,16 @@
         </is>
       </c>
       <c r="C2527">
-        <v>47.6062</v>
+        <v>40.7128</v>
       </c>
       <c r="D2527">
-        <v>-122.3321</v>
+        <v>-74.006</v>
       </c>
       <c r="E2527" s="2">
         <v>43892</v>
       </c>
       <c r="F2527">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2527" t="inlineStr">
         <is>
@@ -71283,19 +71283,19 @@
     <row r="2528">
       <c r="A2528" t="inlineStr">
         <is>
-          <t>New York City, NY</t>
+          <t>Ningxia</t>
         </is>
       </c>
       <c r="B2528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2528">
-        <v>40.7128</v>
+        <v>37.2692</v>
       </c>
       <c r="D2528">
-        <v>-74.006</v>
+        <v>106.1655</v>
       </c>
       <c r="E2528" s="2">
         <v>43892</v>
@@ -71312,19 +71312,19 @@
     <row r="2529">
       <c r="A2529" t="inlineStr">
         <is>
-          <t>Ningxia</t>
+          <t>Placer County, CA</t>
         </is>
       </c>
       <c r="B2529" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2529">
-        <v>37.2692</v>
+        <v>39.0916</v>
       </c>
       <c r="D2529">
-        <v>106.1655</v>
+        <v>-120.8039</v>
       </c>
       <c r="E2529" s="2">
         <v>43892</v>
@@ -71341,7 +71341,7 @@
     <row r="2530">
       <c r="A2530" t="inlineStr">
         <is>
-          <t>Placer County, CA</t>
+          <t>Providence, RI</t>
         </is>
       </c>
       <c r="B2530" t="inlineStr">
@@ -71350,10 +71350,10 @@
         </is>
       </c>
       <c r="C2530">
-        <v>39.0916</v>
+        <v>41.824</v>
       </c>
       <c r="D2530">
-        <v>-120.8039</v>
+        <v>-71.4128</v>
       </c>
       <c r="E2530" s="2">
         <v>43892</v>
@@ -71370,7 +71370,7 @@
     <row r="2531">
       <c r="A2531" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>San Mateo, CA</t>
         </is>
       </c>
       <c r="B2531" t="inlineStr">
@@ -71379,10 +71379,10 @@
         </is>
       </c>
       <c r="C2531">
-        <v>45.5051</v>
+        <v>37.563</v>
       </c>
       <c r="D2531">
-        <v>-122.675</v>
+        <v>-122.3255</v>
       </c>
       <c r="E2531" s="2">
         <v>43892</v>
@@ -71399,7 +71399,7 @@
     <row r="2532">
       <c r="A2532" t="inlineStr">
         <is>
-          <t>Providence, RI</t>
+          <t>Santa Clara, CA</t>
         </is>
       </c>
       <c r="B2532" t="inlineStr">
@@ -71408,16 +71408,16 @@
         </is>
       </c>
       <c r="C2532">
-        <v>41.824</v>
+        <v>37.3541</v>
       </c>
       <c r="D2532">
-        <v>-71.4128</v>
+        <v>-121.9552</v>
       </c>
       <c r="E2532" s="2">
         <v>43892</v>
       </c>
       <c r="F2532">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2532" t="inlineStr">
         <is>
@@ -71428,7 +71428,7 @@
     <row r="2533">
       <c r="A2533" t="inlineStr">
         <is>
-          <t>San Mateo, CA</t>
+          <t>Sarasota, FL</t>
         </is>
       </c>
       <c r="B2533" t="inlineStr">
@@ -71437,10 +71437,10 @@
         </is>
       </c>
       <c r="C2533">
-        <v>37.563</v>
+        <v>27.3364</v>
       </c>
       <c r="D2533">
-        <v>-122.3255</v>
+        <v>-82.5307</v>
       </c>
       <c r="E2533" s="2">
         <v>43892</v>
@@ -71457,7 +71457,7 @@
     <row r="2534">
       <c r="A2534" t="inlineStr">
         <is>
-          <t>Santa Clara, CA</t>
+          <t>Snohomish County, WA</t>
         </is>
       </c>
       <c r="B2534" t="inlineStr">
@@ -71466,16 +71466,16 @@
         </is>
       </c>
       <c r="C2534">
-        <v>37.3541</v>
+        <v>48.033</v>
       </c>
       <c r="D2534">
-        <v>-121.9552</v>
+        <v>-121.8339</v>
       </c>
       <c r="E2534" s="2">
         <v>43892</v>
       </c>
       <c r="F2534">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2534" t="inlineStr">
         <is>
@@ -71486,7 +71486,7 @@
     <row r="2535">
       <c r="A2535" t="inlineStr">
         <is>
-          <t>Sarasota, FL</t>
+          <t>Sonoma County, CA</t>
         </is>
       </c>
       <c r="B2535" t="inlineStr">
@@ -71495,10 +71495,10 @@
         </is>
       </c>
       <c r="C2535">
-        <v>27.3364</v>
+        <v>38.578</v>
       </c>
       <c r="D2535">
-        <v>-82.5307</v>
+        <v>-122.9888</v>
       </c>
       <c r="E2535" s="2">
         <v>43892</v>
@@ -71515,25 +71515,25 @@
     <row r="2536">
       <c r="A2536" t="inlineStr">
         <is>
-          <t>Snohomish County, WA</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="B2536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C2536">
-        <v>48.033</v>
+        <v>23.7</v>
       </c>
       <c r="D2536">
-        <v>-121.8339</v>
+        <v>121</v>
       </c>
       <c r="E2536" s="2">
         <v>43892</v>
       </c>
       <c r="F2536">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2536" t="inlineStr">
         <is>
@@ -71544,19 +71544,19 @@
     <row r="2537">
       <c r="A2537" t="inlineStr">
         <is>
-          <t>Sonoma County, CA</t>
+          <t>Tasmania</t>
         </is>
       </c>
       <c r="B2537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2537">
-        <v>38.578</v>
+        <v>-41.4545</v>
       </c>
       <c r="D2537">
-        <v>-122.9888</v>
+        <v>145.9707</v>
       </c>
       <c r="E2537" s="2">
         <v>43892</v>
@@ -71573,25 +71573,25 @@
     <row r="2538">
       <c r="A2538" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="B2538" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C2538">
-        <v>23.7</v>
+        <v>43.6532</v>
       </c>
       <c r="D2538">
-        <v>121</v>
+        <v>-79.3832</v>
       </c>
       <c r="E2538" s="2">
         <v>43892</v>
       </c>
       <c r="F2538">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2538" t="inlineStr">
         <is>
@@ -71602,19 +71602,19 @@
     <row r="2539">
       <c r="A2539" t="inlineStr">
         <is>
-          <t>Tasmania</t>
+          <t>Umatilla, OR</t>
         </is>
       </c>
       <c r="B2539" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2539">
-        <v>-41.4545</v>
+        <v>45.775</v>
       </c>
       <c r="D2539">
-        <v>145.9707</v>
+        <v>-118.7606</v>
       </c>
       <c r="E2539" s="2">
         <v>43892</v>
@@ -71631,25 +71631,25 @@
     <row r="2540">
       <c r="A2540" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Unassigned Location (From Diamond Princess)</t>
         </is>
       </c>
       <c r="B2540" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2540">
-        <v>43.6532</v>
+        <v>35.4437</v>
       </c>
       <c r="D2540">
-        <v>-79.3832</v>
+        <v>139.638</v>
       </c>
       <c r="E2540" s="2">
         <v>43892</v>
       </c>
       <c r="F2540">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2540" t="inlineStr">
         <is>
@@ -71660,25 +71660,25 @@
     <row r="2541">
       <c r="A2541" t="inlineStr">
         <is>
-          <t>Umatilla, OR</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B2541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2541">
-        <v>45.775</v>
+        <v>-37.8136</v>
       </c>
       <c r="D2541">
-        <v>-118.7606</v>
+        <v>144.9631</v>
       </c>
       <c r="E2541" s="2">
         <v>43892</v>
       </c>
       <c r="F2541">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2541" t="inlineStr">
         <is>
@@ -71689,7 +71689,7 @@
     <row r="2542">
       <c r="A2542" t="inlineStr">
         <is>
-          <t>Unassigned Location (From Diamond Princess)</t>
+          <t>Washington County, OR</t>
         </is>
       </c>
       <c r="B2542" t="inlineStr">
@@ -71698,10 +71698,10 @@
         </is>
       </c>
       <c r="C2542">
-        <v>35.4437</v>
+        <v>45.547</v>
       </c>
       <c r="D2542">
-        <v>139.638</v>
+        <v>-123.1386</v>
       </c>
       <c r="E2542" s="2">
         <v>43892</v>
@@ -71718,48 +71718,43 @@
     <row r="2543">
       <c r="A2543" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Zhejiang</t>
         </is>
       </c>
       <c r="B2543" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2543">
-        <v>-37.8136</v>
+        <v>29.1832</v>
       </c>
       <c r="D2543">
-        <v>144.9631</v>
+        <v>120.0934</v>
       </c>
       <c r="E2543" s="2">
         <v>43892</v>
       </c>
       <c r="F2543">
+        <v>1</v>
+      </c>
+      <c r="G2543" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2544">
+        <v>47</v>
+      </c>
+      <c r="D2544">
         <v>2</v>
-      </c>
-      <c r="G2543" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-    </row>
-    <row r="2544">
-      <c r="A2544" t="inlineStr">
-        <is>
-          <t>Zhejiang</t>
-        </is>
-      </c>
-      <c r="B2544" t="inlineStr">
-        <is>
-          <t>Mainland China</t>
-        </is>
-      </c>
-      <c r="C2544">
-        <v>29.1832</v>
-      </c>
-      <c r="D2544">
-        <v>120.0934</v>
       </c>
       <c r="E2544" s="2">
         <v>43892</v>
@@ -71769,27 +71764,27 @@
       </c>
       <c r="G2544" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>death</t>
         </is>
       </c>
     </row>
     <row r="2545">
       <c r="B2545" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C2545">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D2545">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E2545" s="2">
         <v>43892</v>
       </c>
       <c r="F2545">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G2545" t="inlineStr">
         <is>
@@ -71800,20 +71795,20 @@
     <row r="2546">
       <c r="B2546" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C2546">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D2546">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E2546" s="2">
         <v>43892</v>
       </c>
       <c r="F2546">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2546" t="inlineStr">
         <is>
@@ -71824,20 +71819,20 @@
     <row r="2547">
       <c r="B2547" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C2547">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D2547">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="E2547" s="2">
         <v>43892</v>
       </c>
       <c r="F2547">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G2547" t="inlineStr">
         <is>
@@ -71846,22 +71841,27 @@
       </c>
     </row>
     <row r="2548">
+      <c r="A2548" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
       <c r="B2548" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2548">
-        <v>36</v>
+        <v>30.9756</v>
       </c>
       <c r="D2548">
-        <v>128</v>
+        <v>112.2707</v>
       </c>
       <c r="E2548" s="2">
         <v>43892</v>
       </c>
       <c r="F2548">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G2548" t="inlineStr">
         <is>
@@ -71872,25 +71872,25 @@
     <row r="2549">
       <c r="A2549" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B2549" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2549">
-        <v>30.9756</v>
+        <v>47.6062</v>
       </c>
       <c r="D2549">
-        <v>112.2707</v>
+        <v>-122.3321</v>
       </c>
       <c r="E2549" s="2">
         <v>43892</v>
       </c>
       <c r="F2549">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G2549" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
     <row r="2550">
       <c r="A2550" t="inlineStr">
         <is>
-          <t>King County, WA</t>
+          <t>Snohomish County, WA</t>
         </is>
       </c>
       <c r="B2550" t="inlineStr">
@@ -71910,16 +71910,16 @@
         </is>
       </c>
       <c r="C2550">
-        <v>47.6062</v>
+        <v>48.033</v>
       </c>
       <c r="D2550">
-        <v>-122.3321</v>
+        <v>-121.8339</v>
       </c>
       <c r="E2550" s="2">
         <v>43892</v>
       </c>
       <c r="F2550">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2550" t="inlineStr">
         <is>
@@ -71928,51 +71928,46 @@
       </c>
     </row>
     <row r="2551">
-      <c r="A2551" t="inlineStr">
-        <is>
-          <t>Snohomish County, WA</t>
-        </is>
-      </c>
       <c r="B2551" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C2551">
-        <v>48.033</v>
+        <v>32</v>
       </c>
       <c r="D2551">
-        <v>-121.8339</v>
+        <v>53</v>
       </c>
       <c r="E2551" s="2">
         <v>43892</v>
       </c>
       <c r="F2551">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="G2551" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>recovered</t>
         </is>
       </c>
     </row>
     <row r="2552">
       <c r="B2552" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C2552">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D2552">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E2552" s="2">
         <v>43892</v>
       </c>
       <c r="F2552">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="G2552" t="inlineStr">
         <is>
@@ -71983,20 +71978,20 @@
     <row r="2553">
       <c r="B2553" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C2553">
-        <v>43</v>
+        <v>1.2833</v>
       </c>
       <c r="D2553">
-        <v>12</v>
+        <v>103.8333</v>
       </c>
       <c r="E2553" s="2">
         <v>43892</v>
       </c>
       <c r="F2553">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="G2553" t="inlineStr">
         <is>
@@ -72007,20 +72002,20 @@
     <row r="2554">
       <c r="B2554" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C2554">
-        <v>1.2833</v>
+        <v>15</v>
       </c>
       <c r="D2554">
-        <v>103.8333</v>
+        <v>101</v>
       </c>
       <c r="E2554" s="2">
         <v>43892</v>
       </c>
       <c r="F2554">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2554" t="inlineStr">
         <is>
@@ -72029,22 +72024,27 @@
       </c>
     </row>
     <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
       <c r="B2555" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2555">
-        <v>15</v>
+        <v>31.8257</v>
       </c>
       <c r="D2555">
-        <v>101</v>
+        <v>117.2264</v>
       </c>
       <c r="E2555" s="2">
         <v>43892</v>
       </c>
       <c r="F2555">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G2555" t="inlineStr">
         <is>
@@ -72055,7 +72055,7 @@
     <row r="2556">
       <c r="A2556" t="inlineStr">
         <is>
-          <t>Anhui</t>
+          <t>Beijing</t>
         </is>
       </c>
       <c r="B2556" t="inlineStr">
@@ -72064,16 +72064,16 @@
         </is>
       </c>
       <c r="C2556">
-        <v>31.8257</v>
+        <v>40.1824</v>
       </c>
       <c r="D2556">
-        <v>117.2264</v>
+        <v>116.4142</v>
       </c>
       <c r="E2556" s="2">
         <v>43892</v>
       </c>
       <c r="F2556">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G2556" t="inlineStr">
         <is>
@@ -72084,7 +72084,7 @@
     <row r="2557">
       <c r="A2557" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B2557" t="inlineStr">
@@ -72093,16 +72093,16 @@
         </is>
       </c>
       <c r="C2557">
-        <v>40.1824</v>
+        <v>30.0572</v>
       </c>
       <c r="D2557">
-        <v>116.4142</v>
+        <v>107.874</v>
       </c>
       <c r="E2557" s="2">
         <v>43892</v>
       </c>
       <c r="F2557">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G2557" t="inlineStr">
         <is>
@@ -72113,7 +72113,7 @@
     <row r="2558">
       <c r="A2558" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Fujian</t>
         </is>
       </c>
       <c r="B2558" t="inlineStr">
@@ -72122,16 +72122,16 @@
         </is>
       </c>
       <c r="C2558">
-        <v>30.0572</v>
+        <v>26.0789</v>
       </c>
       <c r="D2558">
-        <v>107.874</v>
+        <v>117.9874</v>
       </c>
       <c r="E2558" s="2">
         <v>43892</v>
       </c>
       <c r="F2558">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G2558" t="inlineStr">
         <is>
@@ -72142,25 +72142,25 @@
     <row r="2559">
       <c r="A2559" t="inlineStr">
         <is>
-          <t>Cook County, IL</t>
+          <t>Gansu</t>
         </is>
       </c>
       <c r="B2559" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2559">
-        <v>41.7377</v>
+        <v>36.0611</v>
       </c>
       <c r="D2559">
-        <v>-87.69759999999999</v>
+        <v>103.8343</v>
       </c>
       <c r="E2559" s="2">
         <v>43892</v>
       </c>
       <c r="F2559">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2559" t="inlineStr">
         <is>
@@ -72171,7 +72171,7 @@
     <row r="2560">
       <c r="A2560" t="inlineStr">
         <is>
-          <t>Fujian</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="B2560" t="inlineStr">
@@ -72180,16 +72180,16 @@
         </is>
       </c>
       <c r="C2560">
-        <v>26.0789</v>
+        <v>23.3417</v>
       </c>
       <c r="D2560">
-        <v>117.9874</v>
+        <v>113.4244</v>
       </c>
       <c r="E2560" s="2">
         <v>43892</v>
       </c>
       <c r="F2560">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G2560" t="inlineStr">
         <is>
@@ -72200,7 +72200,7 @@
     <row r="2561">
       <c r="A2561" t="inlineStr">
         <is>
-          <t>Gansu</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B2561" t="inlineStr">
@@ -72209,16 +72209,16 @@
         </is>
       </c>
       <c r="C2561">
-        <v>36.0611</v>
+        <v>23.8298</v>
       </c>
       <c r="D2561">
-        <v>103.8343</v>
+        <v>108.7881</v>
       </c>
       <c r="E2561" s="2">
         <v>43892</v>
       </c>
       <c r="F2561">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G2561" t="inlineStr">
         <is>
@@ -72229,7 +72229,7 @@
     <row r="2562">
       <c r="A2562" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B2562" t="inlineStr">
@@ -72238,16 +72238,16 @@
         </is>
       </c>
       <c r="C2562">
-        <v>23.3417</v>
+        <v>26.8154</v>
       </c>
       <c r="D2562">
-        <v>113.4244</v>
+        <v>106.8748</v>
       </c>
       <c r="E2562" s="2">
         <v>43892</v>
       </c>
       <c r="F2562">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="G2562" t="inlineStr">
         <is>
@@ -72258,7 +72258,7 @@
     <row r="2563">
       <c r="A2563" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Hainan</t>
         </is>
       </c>
       <c r="B2563" t="inlineStr">
@@ -72267,16 +72267,16 @@
         </is>
       </c>
       <c r="C2563">
-        <v>23.8298</v>
+        <v>19.1959</v>
       </c>
       <c r="D2563">
-        <v>108.7881</v>
+        <v>109.7453</v>
       </c>
       <c r="E2563" s="2">
         <v>43892</v>
       </c>
       <c r="F2563">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G2563" t="inlineStr">
         <is>
@@ -72287,7 +72287,7 @@
     <row r="2564">
       <c r="A2564" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B2564" t="inlineStr">
@@ -72296,10 +72296,10 @@
         </is>
       </c>
       <c r="C2564">
-        <v>26.8154</v>
+        <v>38.0428</v>
       </c>
       <c r="D2564">
-        <v>106.8748</v>
+        <v>114.5149</v>
       </c>
       <c r="E2564" s="2">
         <v>43892</v>
@@ -72316,7 +72316,7 @@
     <row r="2565">
       <c r="A2565" t="inlineStr">
         <is>
-          <t>Hainan</t>
+          <t>Heilongjiang</t>
         </is>
       </c>
       <c r="B2565" t="inlineStr">
@@ -72325,16 +72325,16 @@
         </is>
       </c>
       <c r="C2565">
-        <v>19.1959</v>
+        <v>47.862</v>
       </c>
       <c r="D2565">
-        <v>109.7453</v>
+        <v>127.7615</v>
       </c>
       <c r="E2565" s="2">
         <v>43892</v>
       </c>
       <c r="F2565">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G2565" t="inlineStr">
         <is>
@@ -72345,7 +72345,7 @@
     <row r="2566">
       <c r="A2566" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B2566" t="inlineStr">
@@ -72354,16 +72354,16 @@
         </is>
       </c>
       <c r="C2566">
-        <v>38.0428</v>
+        <v>33.88202</v>
       </c>
       <c r="D2566">
-        <v>114.5149</v>
+        <v>113.614</v>
       </c>
       <c r="E2566" s="2">
         <v>43892</v>
       </c>
       <c r="F2566">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G2566" t="inlineStr">
         <is>
@@ -72374,7 +72374,7 @@
     <row r="2567">
       <c r="A2567" t="inlineStr">
         <is>
-          <t>Heilongjiang</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B2567" t="inlineStr">
@@ -72383,16 +72383,16 @@
         </is>
       </c>
       <c r="C2567">
-        <v>47.862</v>
+        <v>30.9756</v>
       </c>
       <c r="D2567">
-        <v>127.7615</v>
+        <v>112.2707</v>
       </c>
       <c r="E2567" s="2">
         <v>43892</v>
       </c>
       <c r="F2567">
-        <v>14</v>
+        <v>2398</v>
       </c>
       <c r="G2567" t="inlineStr">
         <is>
@@ -72403,7 +72403,7 @@
     <row r="2568">
       <c r="A2568" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B2568" t="inlineStr">
@@ -72412,16 +72412,16 @@
         </is>
       </c>
       <c r="C2568">
-        <v>33.88202</v>
+        <v>27.6104</v>
       </c>
       <c r="D2568">
-        <v>113.614</v>
+        <v>111.7088</v>
       </c>
       <c r="E2568" s="2">
         <v>43892</v>
       </c>
       <c r="F2568">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G2568" t="inlineStr">
         <is>
@@ -72432,7 +72432,7 @@
     <row r="2569">
       <c r="A2569" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Inner Mongolia</t>
         </is>
       </c>
       <c r="B2569" t="inlineStr">
@@ -72441,16 +72441,16 @@
         </is>
       </c>
       <c r="C2569">
-        <v>30.9756</v>
+        <v>44.0935</v>
       </c>
       <c r="D2569">
-        <v>112.2707</v>
+        <v>113.9448</v>
       </c>
       <c r="E2569" s="2">
         <v>43892</v>
       </c>
       <c r="F2569">
-        <v>2398</v>
+        <v>2</v>
       </c>
       <c r="G2569" t="inlineStr">
         <is>
@@ -72461,7 +72461,7 @@
     <row r="2570">
       <c r="A2570" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Jiangsu</t>
         </is>
       </c>
       <c r="B2570" t="inlineStr">
@@ -72470,16 +72470,16 @@
         </is>
       </c>
       <c r="C2570">
-        <v>27.6104</v>
+        <v>32.9711</v>
       </c>
       <c r="D2570">
-        <v>111.7088</v>
+        <v>119.455</v>
       </c>
       <c r="E2570" s="2">
         <v>43892</v>
       </c>
       <c r="F2570">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G2570" t="inlineStr">
         <is>
@@ -72490,7 +72490,7 @@
     <row r="2571">
       <c r="A2571" t="inlineStr">
         <is>
-          <t>Inner Mongolia</t>
+          <t>Jiangxi</t>
         </is>
       </c>
       <c r="B2571" t="inlineStr">
@@ -72499,16 +72499,16 @@
         </is>
       </c>
       <c r="C2571">
-        <v>44.0935</v>
+        <v>27.614</v>
       </c>
       <c r="D2571">
-        <v>113.9448</v>
+        <v>115.7221</v>
       </c>
       <c r="E2571" s="2">
         <v>43892</v>
       </c>
       <c r="F2571">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G2571" t="inlineStr">
         <is>
@@ -72519,7 +72519,7 @@
     <row r="2572">
       <c r="A2572" t="inlineStr">
         <is>
-          <t>Jiangsu</t>
+          <t>Jilin</t>
         </is>
       </c>
       <c r="B2572" t="inlineStr">
@@ -72528,16 +72528,16 @@
         </is>
       </c>
       <c r="C2572">
-        <v>32.9711</v>
+        <v>43.6661</v>
       </c>
       <c r="D2572">
-        <v>119.455</v>
+        <v>126.1923</v>
       </c>
       <c r="E2572" s="2">
         <v>43892</v>
       </c>
       <c r="F2572">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2572" t="inlineStr">
         <is>
@@ -72548,7 +72548,7 @@
     <row r="2573">
       <c r="A2573" t="inlineStr">
         <is>
-          <t>Jiangxi</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="B2573" t="inlineStr">
@@ -72557,16 +72557,16 @@
         </is>
       </c>
       <c r="C2573">
-        <v>27.614</v>
+        <v>35.1917</v>
       </c>
       <c r="D2573">
-        <v>115.7221</v>
+        <v>108.8701</v>
       </c>
       <c r="E2573" s="2">
         <v>43892</v>
       </c>
       <c r="F2573">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G2573" t="inlineStr">
         <is>
@@ -72577,7 +72577,7 @@
     <row r="2574">
       <c r="A2574" t="inlineStr">
         <is>
-          <t>Jilin</t>
+          <t>Shandong</t>
         </is>
       </c>
       <c r="B2574" t="inlineStr">
@@ -72586,16 +72586,16 @@
         </is>
       </c>
       <c r="C2574">
-        <v>43.6661</v>
+        <v>36.3427</v>
       </c>
       <c r="D2574">
-        <v>126.1923</v>
+        <v>118.1498</v>
       </c>
       <c r="E2574" s="2">
         <v>43892</v>
       </c>
       <c r="F2574">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G2574" t="inlineStr">
         <is>
@@ -72606,7 +72606,7 @@
     <row r="2575">
       <c r="A2575" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="B2575" t="inlineStr">
@@ -72615,16 +72615,16 @@
         </is>
       </c>
       <c r="C2575">
-        <v>35.1917</v>
+        <v>31.202</v>
       </c>
       <c r="D2575">
-        <v>108.8701</v>
+        <v>121.4491</v>
       </c>
       <c r="E2575" s="2">
         <v>43892</v>
       </c>
       <c r="F2575">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2575" t="inlineStr">
         <is>
@@ -72635,7 +72635,7 @@
     <row r="2576">
       <c r="A2576" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B2576" t="inlineStr">
@@ -72644,16 +72644,16 @@
         </is>
       </c>
       <c r="C2576">
-        <v>36.3427</v>
+        <v>37.5777</v>
       </c>
       <c r="D2576">
-        <v>118.1498</v>
+        <v>112.2922</v>
       </c>
       <c r="E2576" s="2">
         <v>43892</v>
       </c>
       <c r="F2576">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G2576" t="inlineStr">
         <is>
@@ -72664,7 +72664,7 @@
     <row r="2577">
       <c r="A2577" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B2577" t="inlineStr">
@@ -72673,16 +72673,16 @@
         </is>
       </c>
       <c r="C2577">
-        <v>31.202</v>
+        <v>30.6171</v>
       </c>
       <c r="D2577">
-        <v>121.4491</v>
+        <v>102.7103</v>
       </c>
       <c r="E2577" s="2">
         <v>43892</v>
       </c>
       <c r="F2577">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G2577" t="inlineStr">
         <is>
@@ -72693,19 +72693,19 @@
     <row r="2578">
       <c r="A2578" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C2578">
-        <v>37.5777</v>
+        <v>23.7</v>
       </c>
       <c r="D2578">
-        <v>112.2922</v>
+        <v>121</v>
       </c>
       <c r="E2578" s="2">
         <v>43892</v>
@@ -72722,7 +72722,7 @@
     <row r="2579">
       <c r="A2579" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Xinjiang</t>
         </is>
       </c>
       <c r="B2579" t="inlineStr">
@@ -72731,16 +72731,16 @@
         </is>
       </c>
       <c r="C2579">
-        <v>30.6171</v>
+        <v>41.1129</v>
       </c>
       <c r="D2579">
-        <v>102.7103</v>
+        <v>85.2401</v>
       </c>
       <c r="E2579" s="2">
         <v>43892</v>
       </c>
       <c r="F2579">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G2579" t="inlineStr">
         <is>
@@ -72751,25 +72751,25 @@
     <row r="2580">
       <c r="A2580" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2580">
-        <v>23.7</v>
+        <v>24.974</v>
       </c>
       <c r="D2580">
-        <v>121</v>
+        <v>101.487</v>
       </c>
       <c r="E2580" s="2">
         <v>43892</v>
       </c>
       <c r="F2580">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2580" t="inlineStr">
         <is>
@@ -72780,7 +72780,7 @@
     <row r="2581">
       <c r="A2581" t="inlineStr">
         <is>
-          <t>Xinjiang</t>
+          <t>Zhejiang</t>
         </is>
       </c>
       <c r="B2581" t="inlineStr">
@@ -72789,76 +72789,2683 @@
         </is>
       </c>
       <c r="C2581">
-        <v>41.1129</v>
+        <v>29.1832</v>
       </c>
       <c r="D2581">
-        <v>85.2401</v>
+        <v>120.0934</v>
       </c>
       <c r="E2581" s="2">
         <v>43892</v>
       </c>
       <c r="F2581">
+        <v>23</v>
+      </c>
+      <c r="G2581" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="C2582">
+        <v>28.0339</v>
+      </c>
+      <c r="D2582">
+        <v>1.6596</v>
+      </c>
+      <c r="E2582" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2582">
         <v>2</v>
       </c>
-      <c r="G2581" t="inlineStr">
-        <is>
-          <t>recovered</t>
-        </is>
-      </c>
-    </row>
-    <row r="2582">
-      <c r="A2582" t="inlineStr">
+      <c r="G2582" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C2583">
+        <v>-38.4161</v>
+      </c>
+      <c r="D2583">
+        <v>-63.6167</v>
+      </c>
+      <c r="E2583" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2583">
+        <v>1</v>
+      </c>
+      <c r="G2583" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C2584">
+        <v>47.5162</v>
+      </c>
+      <c r="D2584">
+        <v>14.5501</v>
+      </c>
+      <c r="E2584" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2584">
+        <v>3</v>
+      </c>
+      <c r="G2584" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C2585">
+        <v>50.8333</v>
+      </c>
+      <c r="D2585">
+        <v>4</v>
+      </c>
+      <c r="E2585" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2585">
+        <v>5</v>
+      </c>
+      <c r="G2585" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C2586">
+        <v>-35.6751</v>
+      </c>
+      <c r="D2586">
+        <v>-71.54300000000001</v>
+      </c>
+      <c r="E2586" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2586">
+        <v>1</v>
+      </c>
+      <c r="G2586" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C2587">
+        <v>45.1</v>
+      </c>
+      <c r="D2587">
+        <v>15.2</v>
+      </c>
+      <c r="E2587" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2587">
+        <v>2</v>
+      </c>
+      <c r="G2587" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="C2588">
+        <v>49.8175</v>
+      </c>
+      <c r="D2588">
+        <v>15.473</v>
+      </c>
+      <c r="E2588" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2588">
+        <v>2</v>
+      </c>
+      <c r="G2588" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C2589">
+        <v>56.2639</v>
+      </c>
+      <c r="D2589">
+        <v>9.501799999999999</v>
+      </c>
+      <c r="E2589" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2589">
+        <v>2</v>
+      </c>
+      <c r="G2589" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C2590">
+        <v>-1.8312</v>
+      </c>
+      <c r="D2590">
+        <v>-78.18340000000001</v>
+      </c>
+      <c r="E2590" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2590">
+        <v>1</v>
+      </c>
+      <c r="G2590" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="C2591">
+        <v>58.5953</v>
+      </c>
+      <c r="D2591">
+        <v>25.0136</v>
+      </c>
+      <c r="E2591" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2591">
+        <v>1</v>
+      </c>
+      <c r="G2591" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2592">
+        <v>47</v>
+      </c>
+      <c r="D2592">
+        <v>2</v>
+      </c>
+      <c r="E2592" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2592">
+        <v>13</v>
+      </c>
+      <c r="G2592" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2593">
+        <v>51</v>
+      </c>
+      <c r="D2593">
+        <v>9</v>
+      </c>
+      <c r="E2593" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2593">
+        <v>37</v>
+      </c>
+      <c r="G2593" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C2594">
+        <v>64.9631</v>
+      </c>
+      <c r="D2594">
+        <v>-19.0208</v>
+      </c>
+      <c r="E2594" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2594">
+        <v>5</v>
+      </c>
+      <c r="G2594" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2595">
+        <v>32</v>
+      </c>
+      <c r="D2595">
+        <v>53</v>
+      </c>
+      <c r="E2595" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2595">
+        <v>835</v>
+      </c>
+      <c r="G2595" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C2596">
+        <v>33</v>
+      </c>
+      <c r="D2596">
+        <v>44</v>
+      </c>
+      <c r="E2596" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2596">
+        <v>6</v>
+      </c>
+      <c r="G2596" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C2597">
+        <v>53.1424</v>
+      </c>
+      <c r="D2597">
+        <v>-7.6921</v>
+      </c>
+      <c r="E2597" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2597">
+        <v>1</v>
+      </c>
+      <c r="G2597" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C2598">
+        <v>31</v>
+      </c>
+      <c r="D2598">
+        <v>35</v>
+      </c>
+      <c r="E2598" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2598">
+        <v>2</v>
+      </c>
+      <c r="G2598" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2599">
+        <v>43</v>
+      </c>
+      <c r="D2599">
+        <v>12</v>
+      </c>
+      <c r="E2599" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2599">
+        <v>466</v>
+      </c>
+      <c r="G2599" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2600">
+        <v>36</v>
+      </c>
+      <c r="D2600">
+        <v>138</v>
+      </c>
+      <c r="E2600" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2600">
+        <v>19</v>
+      </c>
+      <c r="G2600" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="C2601">
+        <v>31.24</v>
+      </c>
+      <c r="D2601">
+        <v>36.51</v>
+      </c>
+      <c r="E2601" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2601">
+        <v>1</v>
+      </c>
+      <c r="G2601" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C2602">
+        <v>2.5</v>
+      </c>
+      <c r="D2602">
+        <v>112.5</v>
+      </c>
+      <c r="E2602" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2602">
+        <v>7</v>
+      </c>
+      <c r="G2602" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C2603">
+        <v>52.1326</v>
+      </c>
+      <c r="D2603">
+        <v>5.2913</v>
+      </c>
+      <c r="E2603" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2603">
+        <v>6</v>
+      </c>
+      <c r="G2603" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2604">
+        <v>60.472</v>
+      </c>
+      <c r="D2604">
+        <v>8.4689</v>
+      </c>
+      <c r="E2604" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2604">
+        <v>7</v>
+      </c>
+      <c r="G2604" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="C2605">
+        <v>21</v>
+      </c>
+      <c r="D2605">
+        <v>57</v>
+      </c>
+      <c r="E2605" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2605">
+        <v>6</v>
+      </c>
+      <c r="G2605" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="C2606">
+        <v>30.3753</v>
+      </c>
+      <c r="D2606">
+        <v>69.3451</v>
+      </c>
+      <c r="E2606" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2606">
+        <v>1</v>
+      </c>
+      <c r="G2606" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="C2607">
+        <v>25.3548</v>
+      </c>
+      <c r="D2607">
+        <v>51.1839</v>
+      </c>
+      <c r="E2607" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2607">
+        <v>4</v>
+      </c>
+      <c r="G2607" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+      <c r="C2608">
+        <v>43.9424</v>
+      </c>
+      <c r="D2608">
+        <v>12.4578</v>
+      </c>
+      <c r="E2608" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2608">
+        <v>2</v>
+      </c>
+      <c r="G2608" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C2609">
+        <v>14.4974</v>
+      </c>
+      <c r="D2609">
+        <v>-14.4524</v>
+      </c>
+      <c r="E2609" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2609">
+        <v>1</v>
+      </c>
+      <c r="G2609" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2610">
+        <v>1.2833</v>
+      </c>
+      <c r="D2610">
+        <v>103.8333</v>
+      </c>
+      <c r="E2610" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2610">
+        <v>2</v>
+      </c>
+      <c r="G2610" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2611">
+        <v>36</v>
+      </c>
+      <c r="D2611">
+        <v>128</v>
+      </c>
+      <c r="E2611" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2611">
+        <v>851</v>
+      </c>
+      <c r="G2611" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2612">
+        <v>40</v>
+      </c>
+      <c r="D2612">
+        <v>-4</v>
+      </c>
+      <c r="E2612" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2612">
+        <v>45</v>
+      </c>
+      <c r="G2612" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C2613">
+        <v>63</v>
+      </c>
+      <c r="D2613">
+        <v>16</v>
+      </c>
+      <c r="E2613" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2613">
+        <v>6</v>
+      </c>
+      <c r="G2613" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2614">
+        <v>46.8182</v>
+      </c>
+      <c r="D2614">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2614" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2614">
+        <v>14</v>
+      </c>
+      <c r="G2614" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C2615">
+        <v>55</v>
+      </c>
+      <c r="D2615">
+        <v>-3</v>
+      </c>
+      <c r="E2615" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2615">
+        <v>11</v>
+      </c>
+      <c r="G2615" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="C2616">
+        <v>48.3794</v>
+      </c>
+      <c r="D2616">
+        <v>31.1656</v>
+      </c>
+      <c r="E2616" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2616">
+        <v>1</v>
+      </c>
+      <c r="G2616" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C2617">
+        <v>24</v>
+      </c>
+      <c r="D2617">
+        <v>54</v>
+      </c>
+      <c r="E2617" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2617">
+        <v>6</v>
+      </c>
+      <c r="G2617" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t>Norfolk County, MA</t>
+        </is>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2618">
+        <v>42.1767</v>
+      </c>
+      <c r="D2618">
+        <v>-71.14490000000001</v>
+      </c>
+      <c r="E2618" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2618">
+        <v>1</v>
+      </c>
+      <c r="G2618" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t>Berkeley, CA</t>
+        </is>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2619">
+        <v>37.8715</v>
+      </c>
+      <c r="D2619">
+        <v>-122.273</v>
+      </c>
+      <c r="E2619" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2619">
+        <v>1</v>
+      </c>
+      <c r="G2619" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2620">
+        <v>49.2827</v>
+      </c>
+      <c r="D2620">
+        <v>-123.1207</v>
+      </c>
+      <c r="E2620" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2620">
+        <v>1</v>
+      </c>
+      <c r="G2620" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C2621">
+        <v>35.4437</v>
+      </c>
+      <c r="D2621">
+        <v>139.638</v>
+      </c>
+      <c r="E2621" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2621">
+        <v>1</v>
+      </c>
+      <c r="G2621" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="inlineStr">
+        <is>
+          <t>Fulton County, GA</t>
+        </is>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2622">
+        <v>33.8034</v>
+      </c>
+      <c r="D2622">
+        <v>-84.3963</v>
+      </c>
+      <c r="E2622" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2622">
+        <v>2</v>
+      </c>
+      <c r="G2622" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t>Grafton County, NH</t>
+        </is>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2623">
+        <v>43.9088</v>
+      </c>
+      <c r="D2623">
+        <v>-71.82599999999999</v>
+      </c>
+      <c r="E2623" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2623">
+        <v>1</v>
+      </c>
+      <c r="G2623" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="inlineStr">
+        <is>
+          <t>Hillsborough, FL</t>
+        </is>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2624">
+        <v>27.9904</v>
+      </c>
+      <c r="D2624">
+        <v>-82.3018</v>
+      </c>
+      <c r="E2624" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2624">
+        <v>1</v>
+      </c>
+      <c r="G2624" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2625">
+        <v>30.9756</v>
+      </c>
+      <c r="D2625">
+        <v>112.2707</v>
+      </c>
+      <c r="E2625" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2625">
+        <v>114</v>
+      </c>
+      <c r="G2625" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2626">
+        <v>47.6062</v>
+      </c>
+      <c r="D2626">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2626" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2626">
+        <v>7</v>
+      </c>
+      <c r="G2626" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2627">
+        <v>41.2956</v>
+      </c>
+      <c r="D2627">
+        <v>122.6085</v>
+      </c>
+      <c r="E2627" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2627">
+        <v>3</v>
+      </c>
+      <c r="G2627" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="inlineStr">
+        <is>
+          <t>Maricopa County, AZ</t>
+        </is>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2628">
+        <v>33.2918</v>
+      </c>
+      <c r="D2628">
+        <v>-112.4291</v>
+      </c>
+      <c r="E2628" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2628">
+        <v>1</v>
+      </c>
+      <c r="G2628" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2629">
+        <v>-33.8688</v>
+      </c>
+      <c r="D2629">
+        <v>151.2093</v>
+      </c>
+      <c r="E2629" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2629">
+        <v>7</v>
+      </c>
+      <c r="G2629" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2630">
+        <v>-28.0167</v>
+      </c>
+      <c r="D2630">
+        <v>153.4</v>
+      </c>
+      <c r="E2630" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2630">
+        <v>2</v>
+      </c>
+      <c r="G2630" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="inlineStr">
+        <is>
+          <t>San Mateo, CA</t>
+        </is>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2631">
+        <v>37.563</v>
+      </c>
+      <c r="D2631">
+        <v>-122.3255</v>
+      </c>
+      <c r="E2631" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2631">
+        <v>1</v>
+      </c>
+      <c r="G2631" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA</t>
+        </is>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2632">
+        <v>37.3541</v>
+      </c>
+      <c r="D2632">
+        <v>-121.9552</v>
+      </c>
+      <c r="E2632" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2632">
+        <v>2</v>
+      </c>
+      <c r="G2632" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2633">
+        <v>31.202</v>
+      </c>
+      <c r="D2633">
+        <v>121.4491</v>
+      </c>
+      <c r="E2633" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2633">
+        <v>1</v>
+      </c>
+      <c r="G2633" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="inlineStr">
+        <is>
+          <t>Snohomish County, WA</t>
+        </is>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2634">
+        <v>48.033</v>
+      </c>
+      <c r="D2634">
+        <v>-121.8339</v>
+      </c>
+      <c r="E2634" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2634">
+        <v>2</v>
+      </c>
+      <c r="G2634" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2635">
+        <v>23.7</v>
+      </c>
+      <c r="D2635">
+        <v>121</v>
+      </c>
+      <c r="E2635" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2635">
+        <v>1</v>
+      </c>
+      <c r="G2635" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="inlineStr">
+        <is>
+          <t>Toronto, ON</t>
+        </is>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2636">
+        <v>43.6532</v>
+      </c>
+      <c r="D2636">
+        <v>-79.3832</v>
+      </c>
+      <c r="E2636" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2636">
+        <v>2</v>
+      </c>
+      <c r="G2636" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="inlineStr">
+        <is>
+          <t>Wake County, NC</t>
+        </is>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2637">
+        <v>35.8032</v>
+      </c>
+      <c r="D2637">
+        <v>-78.56610000000001</v>
+      </c>
+      <c r="E2637" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2637">
+        <v>1</v>
+      </c>
+      <c r="G2637" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="inlineStr">
+        <is>
+          <t>Westchester County, NY</t>
+        </is>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2638">
+        <v>41.122</v>
+      </c>
+      <c r="D2638">
+        <v>-73.7949</v>
+      </c>
+      <c r="E2638" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2638">
+        <v>1</v>
+      </c>
+      <c r="G2638" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2639">
+        <v>29.1832</v>
+      </c>
+      <c r="D2639">
+        <v>120.0934</v>
+      </c>
+      <c r="E2639" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2639">
+        <v>7</v>
+      </c>
+      <c r="G2639" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2640">
+        <v>47</v>
+      </c>
+      <c r="D2640">
+        <v>2</v>
+      </c>
+      <c r="E2640" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2640">
+        <v>1</v>
+      </c>
+      <c r="G2640" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2641">
+        <v>32</v>
+      </c>
+      <c r="D2641">
+        <v>53</v>
+      </c>
+      <c r="E2641" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2641">
+        <v>11</v>
+      </c>
+      <c r="G2641" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2642">
+        <v>43</v>
+      </c>
+      <c r="D2642">
+        <v>12</v>
+      </c>
+      <c r="E2642" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2642">
+        <v>27</v>
+      </c>
+      <c r="G2642" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+      <c r="C2643">
+        <v>43.9424</v>
+      </c>
+      <c r="D2643">
+        <v>12.4578</v>
+      </c>
+      <c r="E2643" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2643">
+        <v>1</v>
+      </c>
+      <c r="G2643" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2644">
+        <v>40</v>
+      </c>
+      <c r="D2644">
+        <v>-4</v>
+      </c>
+      <c r="E2644" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2644">
+        <v>1</v>
+      </c>
+      <c r="G2644" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2645">
+        <v>30.9756</v>
+      </c>
+      <c r="D2645">
+        <v>112.2707</v>
+      </c>
+      <c r="E2645" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2645">
+        <v>32</v>
+      </c>
+      <c r="G2645" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2646">
+        <v>44.0935</v>
+      </c>
+      <c r="D2646">
+        <v>113.9448</v>
+      </c>
+      <c r="E2646" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2646">
+        <v>1</v>
+      </c>
+      <c r="G2646" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2647">
+        <v>47.6062</v>
+      </c>
+      <c r="D2647">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2647" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2647">
+        <v>1</v>
+      </c>
+      <c r="G2647" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2648">
+        <v>43</v>
+      </c>
+      <c r="D2648">
+        <v>12</v>
+      </c>
+      <c r="E2648" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2648">
+        <v>11</v>
+      </c>
+      <c r="G2648" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2649">
+        <v>36</v>
+      </c>
+      <c r="D2649">
+        <v>138</v>
+      </c>
+      <c r="E2649" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2649">
+        <v>11</v>
+      </c>
+      <c r="G2649" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C2650">
+        <v>2.5</v>
+      </c>
+      <c r="D2650">
+        <v>112.5</v>
+      </c>
+      <c r="E2650" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2650">
+        <v>4</v>
+      </c>
+      <c r="G2650" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C2651">
+        <v>23.6345</v>
+      </c>
+      <c r="D2651">
+        <v>-102.5528</v>
+      </c>
+      <c r="E2651" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2651">
+        <v>1</v>
+      </c>
+      <c r="G2651" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="C2652">
+        <v>21</v>
+      </c>
+      <c r="D2652">
+        <v>57</v>
+      </c>
+      <c r="E2652" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2652">
+        <v>1</v>
+      </c>
+      <c r="G2652" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2653">
+        <v>46.8182</v>
+      </c>
+      <c r="D2653">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2653" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2653">
+        <v>2</v>
+      </c>
+      <c r="G2653" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2654">
+        <v>31.8257</v>
+      </c>
+      <c r="D2654">
+        <v>117.2264</v>
+      </c>
+      <c r="E2654" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2654">
+        <v>19</v>
+      </c>
+      <c r="G2654" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2655">
+        <v>40.1824</v>
+      </c>
+      <c r="D2655">
+        <v>116.4142</v>
+      </c>
+      <c r="E2655" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2655">
+        <v>6</v>
+      </c>
+      <c r="G2655" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2656">
+        <v>30.0572</v>
+      </c>
+      <c r="D2656">
+        <v>107.874</v>
+      </c>
+      <c r="E2656" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2656">
+        <v>21</v>
+      </c>
+      <c r="G2656" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2657">
+        <v>26.0789</v>
+      </c>
+      <c r="D2657">
+        <v>117.9874</v>
+      </c>
+      <c r="E2657" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2657">
+        <v>5</v>
+      </c>
+      <c r="G2657" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2658">
+        <v>36.0611</v>
+      </c>
+      <c r="D2658">
+        <v>103.8343</v>
+      </c>
+      <c r="E2658" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2658">
+        <v>1</v>
+      </c>
+      <c r="G2658" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2659">
+        <v>23.3417</v>
+      </c>
+      <c r="D2659">
+        <v>113.4244</v>
+      </c>
+      <c r="E2659" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2659">
+        <v>42</v>
+      </c>
+      <c r="G2659" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2660">
+        <v>23.8298</v>
+      </c>
+      <c r="D2660">
+        <v>108.7881</v>
+      </c>
+      <c r="E2660" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2660">
+        <v>10</v>
+      </c>
+      <c r="G2660" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2661">
+        <v>19.1959</v>
+      </c>
+      <c r="D2661">
+        <v>109.7453</v>
+      </c>
+      <c r="E2661" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2661">
+        <v>4</v>
+      </c>
+      <c r="G2661" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2662">
+        <v>38.0428</v>
+      </c>
+      <c r="D2662">
+        <v>114.5149</v>
+      </c>
+      <c r="E2662" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2662">
+        <v>4</v>
+      </c>
+      <c r="G2662" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2663">
+        <v>47.862</v>
+      </c>
+      <c r="D2663">
+        <v>127.7615</v>
+      </c>
+      <c r="E2663" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2663">
+        <v>10</v>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2664">
+        <v>33.88202</v>
+      </c>
+      <c r="D2664">
+        <v>113.614</v>
+      </c>
+      <c r="E2664" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2664">
+        <v>26</v>
+      </c>
+      <c r="G2664" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2665">
+        <v>22.3</v>
+      </c>
+      <c r="D2665">
+        <v>114.2</v>
+      </c>
+      <c r="E2665" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2665">
+        <v>1</v>
+      </c>
+      <c r="G2665" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2666">
+        <v>30.9756</v>
+      </c>
+      <c r="D2666">
+        <v>112.2707</v>
+      </c>
+      <c r="E2666" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2666">
+        <v>2274</v>
+      </c>
+      <c r="G2666" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2667">
+        <v>27.6104</v>
+      </c>
+      <c r="D2667">
+        <v>111.7088</v>
+      </c>
+      <c r="E2667" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2667">
+        <v>19</v>
+      </c>
+      <c r="G2667" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2668">
+        <v>44.0935</v>
+      </c>
+      <c r="D2668">
+        <v>113.9448</v>
+      </c>
+      <c r="E2668" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2668">
+        <v>5</v>
+      </c>
+      <c r="G2668" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2669">
+        <v>32.9711</v>
+      </c>
+      <c r="D2669">
+        <v>119.455</v>
+      </c>
+      <c r="E2669" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2669">
+        <v>19</v>
+      </c>
+      <c r="G2669" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2670">
+        <v>27.614</v>
+      </c>
+      <c r="D2670">
+        <v>115.7221</v>
+      </c>
+      <c r="E2670" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2670">
+        <v>20</v>
+      </c>
+      <c r="G2670" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2671">
+        <v>41.2956</v>
+      </c>
+      <c r="D2671">
+        <v>122.6085</v>
+      </c>
+      <c r="E2671" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2671">
+        <v>3</v>
+      </c>
+      <c r="G2671" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="C2672">
+        <v>22.1667</v>
+      </c>
+      <c r="D2672">
+        <v>113.55</v>
+      </c>
+      <c r="E2672" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2672">
+        <v>1</v>
+      </c>
+      <c r="G2672" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="inlineStr">
+        <is>
+          <t>Madison, WI</t>
+        </is>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2673">
+        <v>43.0731</v>
+      </c>
+      <c r="D2673">
+        <v>-89.4012</v>
+      </c>
+      <c r="E2673" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2673">
+        <v>1</v>
+      </c>
+      <c r="G2673" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2674">
+        <v>36.3427</v>
+      </c>
+      <c r="D2674">
+        <v>118.1498</v>
+      </c>
+      <c r="E2674" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2674">
+        <v>51</v>
+      </c>
+      <c r="G2674" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2675">
+        <v>31.202</v>
+      </c>
+      <c r="D2675">
+        <v>121.4491</v>
+      </c>
+      <c r="E2675" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2675">
+        <v>2</v>
+      </c>
+      <c r="G2675" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2676">
+        <v>37.5777</v>
+      </c>
+      <c r="D2676">
+        <v>112.2922</v>
+      </c>
+      <c r="E2676" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2676">
+        <v>5</v>
+      </c>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2677">
+        <v>30.6171</v>
+      </c>
+      <c r="D2677">
+        <v>102.7103</v>
+      </c>
+      <c r="E2677" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2677">
+        <v>8</v>
+      </c>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2678">
+        <v>39.3054</v>
+      </c>
+      <c r="D2678">
+        <v>117.323</v>
+      </c>
+      <c r="E2678" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2678">
+        <v>13</v>
+      </c>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2679">
+        <v>41.1129</v>
+      </c>
+      <c r="D2679">
+        <v>85.2401</v>
+      </c>
+      <c r="E2679" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2679">
+        <v>2</v>
+      </c>
+      <c r="G2679" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="inlineStr">
         <is>
           <t>Yunnan</t>
         </is>
       </c>
-      <c r="B2582" t="inlineStr">
-        <is>
-          <t>Mainland China</t>
-        </is>
-      </c>
-      <c r="C2582">
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2680">
         <v>24.974</v>
       </c>
-      <c r="D2582">
+      <c r="D2680">
         <v>101.487</v>
       </c>
-      <c r="E2582" s="2">
-        <v>43892</v>
-      </c>
-      <c r="F2582">
-        <v>5</v>
-      </c>
-      <c r="G2582" t="inlineStr">
-        <is>
-          <t>recovered</t>
-        </is>
-      </c>
-    </row>
-    <row r="2583">
-      <c r="A2583" t="inlineStr">
+      <c r="E2680" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2680">
+        <v>1</v>
+      </c>
+      <c r="G2680" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="inlineStr">
         <is>
           <t>Zhejiang</t>
         </is>
       </c>
-      <c r="B2583" t="inlineStr">
-        <is>
-          <t>Mainland China</t>
-        </is>
-      </c>
-      <c r="C2583">
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2681">
         <v>29.1832</v>
       </c>
-      <c r="D2583">
+      <c r="D2681">
         <v>120.0934</v>
       </c>
-      <c r="E2583" s="2">
-        <v>43892</v>
-      </c>
-      <c r="F2583">
-        <v>23</v>
-      </c>
-      <c r="G2583" t="inlineStr">
+      <c r="E2681" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F2681">
+        <v>24</v>
+      </c>
+      <c r="G2681" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2681"/>
+  <dimension ref="A1:G2778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5026,7 +5026,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Orange, CA</t>
+          <t>Orange County, CA</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -75466,6 +75466,2549 @@
         <v>24</v>
       </c>
       <c r="G2681" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="C2682">
+        <v>28.0339</v>
+      </c>
+      <c r="D2682">
+        <v>1.6596</v>
+      </c>
+      <c r="E2682" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2682">
+        <v>7</v>
+      </c>
+      <c r="G2682" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C2683">
+        <v>47.5162</v>
+      </c>
+      <c r="D2683">
+        <v>14.5501</v>
+      </c>
+      <c r="E2683" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2683">
+        <v>8</v>
+      </c>
+      <c r="G2683" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C2684">
+        <v>26.0275</v>
+      </c>
+      <c r="D2684">
+        <v>50.55</v>
+      </c>
+      <c r="E2684" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2684">
+        <v>3</v>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
+      </c>
+      <c r="C2685">
+        <v>53.7098</v>
+      </c>
+      <c r="D2685">
+        <v>27.9534</v>
+      </c>
+      <c r="E2685" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2685">
+        <v>5</v>
+      </c>
+      <c r="G2685" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C2686">
+        <v>50.8333</v>
+      </c>
+      <c r="D2686">
+        <v>4</v>
+      </c>
+      <c r="E2686" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2686">
+        <v>10</v>
+      </c>
+      <c r="G2686" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="C2687">
+        <v>-14.235</v>
+      </c>
+      <c r="D2687">
+        <v>-51.9253</v>
+      </c>
+      <c r="E2687" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2687">
+        <v>2</v>
+      </c>
+      <c r="G2687" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C2688">
+        <v>45.1</v>
+      </c>
+      <c r="D2688">
+        <v>15.2</v>
+      </c>
+      <c r="E2688" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2688">
+        <v>1</v>
+      </c>
+      <c r="G2688" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="C2689">
+        <v>49.8175</v>
+      </c>
+      <c r="D2689">
+        <v>15.473</v>
+      </c>
+      <c r="E2689" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2689">
+        <v>3</v>
+      </c>
+      <c r="G2689" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C2690">
+        <v>56.2639</v>
+      </c>
+      <c r="D2690">
+        <v>9.501799999999999</v>
+      </c>
+      <c r="E2690" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2690">
+        <v>4</v>
+      </c>
+      <c r="G2690" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C2691">
+        <v>-1.8312</v>
+      </c>
+      <c r="D2691">
+        <v>-78.18340000000001</v>
+      </c>
+      <c r="E2691" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2691">
+        <v>3</v>
+      </c>
+      <c r="G2691" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>Faroe Islands</t>
+        </is>
+      </c>
+      <c r="C2692">
+        <v>61.8926</v>
+      </c>
+      <c r="D2692">
+        <v>-6.9118</v>
+      </c>
+      <c r="E2692" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2692">
+        <v>1</v>
+      </c>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2693">
+        <v>47</v>
+      </c>
+      <c r="D2693">
+        <v>2</v>
+      </c>
+      <c r="E2693" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2693">
+        <v>81</v>
+      </c>
+      <c r="G2693" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2694">
+        <v>51</v>
+      </c>
+      <c r="D2694">
+        <v>9</v>
+      </c>
+      <c r="E2694" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2694">
+        <v>66</v>
+      </c>
+      <c r="G2694" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>Gibraltar</t>
+        </is>
+      </c>
+      <c r="C2695">
+        <v>36.1408</v>
+      </c>
+      <c r="D2695">
+        <v>-5.3536</v>
+      </c>
+      <c r="E2695" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2695">
+        <v>1</v>
+      </c>
+      <c r="G2695" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C2696">
+        <v>39.0742</v>
+      </c>
+      <c r="D2696">
+        <v>21.8243</v>
+      </c>
+      <c r="E2696" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2696">
+        <v>2</v>
+      </c>
+      <c r="G2696" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="C2697">
+        <v>47.1625</v>
+      </c>
+      <c r="D2697">
+        <v>19.5033</v>
+      </c>
+      <c r="E2697" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2697">
+        <v>2</v>
+      </c>
+      <c r="G2697" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C2698">
+        <v>64.9631</v>
+      </c>
+      <c r="D2698">
+        <v>-19.0208</v>
+      </c>
+      <c r="E2698" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2698">
+        <v>15</v>
+      </c>
+      <c r="G2698" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C2699">
+        <v>21</v>
+      </c>
+      <c r="D2699">
+        <v>78</v>
+      </c>
+      <c r="E2699" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2699">
+        <v>23</v>
+      </c>
+      <c r="G2699" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2700">
+        <v>32</v>
+      </c>
+      <c r="D2700">
+        <v>53</v>
+      </c>
+      <c r="E2700" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2700">
+        <v>586</v>
+      </c>
+      <c r="G2700" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C2701">
+        <v>33</v>
+      </c>
+      <c r="D2701">
+        <v>44</v>
+      </c>
+      <c r="E2701" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2701">
+        <v>3</v>
+      </c>
+      <c r="G2701" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C2702">
+        <v>53.1424</v>
+      </c>
+      <c r="D2702">
+        <v>-7.6921</v>
+      </c>
+      <c r="E2702" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2702">
+        <v>4</v>
+      </c>
+      <c r="G2702" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C2703">
+        <v>31</v>
+      </c>
+      <c r="D2703">
+        <v>35</v>
+      </c>
+      <c r="E2703" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2703">
+        <v>3</v>
+      </c>
+      <c r="G2703" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2704">
+        <v>43</v>
+      </c>
+      <c r="D2704">
+        <v>12</v>
+      </c>
+      <c r="E2704" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2704">
+        <v>587</v>
+      </c>
+      <c r="G2704" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2705">
+        <v>36</v>
+      </c>
+      <c r="D2705">
+        <v>138</v>
+      </c>
+      <c r="E2705" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2705">
+        <v>38</v>
+      </c>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>Liechtenstein</t>
+        </is>
+      </c>
+      <c r="C2706">
+        <v>47.14</v>
+      </c>
+      <c r="D2706">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E2706" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2706">
+        <v>1</v>
+      </c>
+      <c r="G2706" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C2707">
+        <v>2.5</v>
+      </c>
+      <c r="D2707">
+        <v>112.5</v>
+      </c>
+      <c r="E2707" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2707">
+        <v>14</v>
+      </c>
+      <c r="G2707" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C2708">
+        <v>52.1326</v>
+      </c>
+      <c r="D2708">
+        <v>5.2913</v>
+      </c>
+      <c r="E2708" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2708">
+        <v>14</v>
+      </c>
+      <c r="G2708" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="C2709">
+        <v>-40.9006</v>
+      </c>
+      <c r="D2709">
+        <v>174.886</v>
+      </c>
+      <c r="E2709" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2709">
+        <v>2</v>
+      </c>
+      <c r="G2709" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2710">
+        <v>60.472</v>
+      </c>
+      <c r="D2710">
+        <v>8.4689</v>
+      </c>
+      <c r="E2710" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2710">
+        <v>24</v>
+      </c>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="C2711">
+        <v>21</v>
+      </c>
+      <c r="D2711">
+        <v>57</v>
+      </c>
+      <c r="E2711" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2711">
+        <v>3</v>
+      </c>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C2712">
+        <v>51.9194</v>
+      </c>
+      <c r="D2712">
+        <v>19.1451</v>
+      </c>
+      <c r="E2712" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2712">
+        <v>1</v>
+      </c>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="B2713" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C2713">
+        <v>39.3999</v>
+      </c>
+      <c r="D2713">
+        <v>-8.224500000000001</v>
+      </c>
+      <c r="E2713" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2713">
+        <v>3</v>
+      </c>
+      <c r="G2713" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="B2714" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="C2714">
+        <v>25.3548</v>
+      </c>
+      <c r="D2714">
+        <v>51.1839</v>
+      </c>
+      <c r="E2714" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2714">
+        <v>1</v>
+      </c>
+      <c r="G2714" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C2715">
+        <v>45.9432</v>
+      </c>
+      <c r="D2715">
+        <v>24.9668</v>
+      </c>
+      <c r="E2715" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2715">
+        <v>1</v>
+      </c>
+      <c r="G2715" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="B2716" t="inlineStr">
+        <is>
+          <t>Saint Barthelemy</t>
+        </is>
+      </c>
+      <c r="C2716">
+        <v>17.9</v>
+      </c>
+      <c r="D2716">
+        <v>-62.8333</v>
+      </c>
+      <c r="E2716" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2716">
+        <v>3</v>
+      </c>
+      <c r="G2716" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="B2717" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+      <c r="C2717">
+        <v>43.9424</v>
+      </c>
+      <c r="D2717">
+        <v>12.4578</v>
+      </c>
+      <c r="E2717" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2717">
+        <v>6</v>
+      </c>
+      <c r="G2717" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="B2718" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C2718">
+        <v>14.4974</v>
+      </c>
+      <c r="D2718">
+        <v>-14.4524</v>
+      </c>
+      <c r="E2718" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2718">
+        <v>2</v>
+      </c>
+      <c r="G2718" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2719">
+        <v>36</v>
+      </c>
+      <c r="D2719">
+        <v>128</v>
+      </c>
+      <c r="E2719" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2719">
+        <v>435</v>
+      </c>
+      <c r="G2719" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2720">
+        <v>40</v>
+      </c>
+      <c r="D2720">
+        <v>-4</v>
+      </c>
+      <c r="E2720" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2720">
+        <v>57</v>
+      </c>
+      <c r="G2720" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C2721">
+        <v>63</v>
+      </c>
+      <c r="D2721">
+        <v>16</v>
+      </c>
+      <c r="E2721" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2721">
+        <v>14</v>
+      </c>
+      <c r="G2721" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2722">
+        <v>46.8182</v>
+      </c>
+      <c r="D2722">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2722" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2722">
+        <v>34</v>
+      </c>
+      <c r="G2722" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="C2723">
+        <v>34</v>
+      </c>
+      <c r="D2723">
+        <v>9</v>
+      </c>
+      <c r="E2723" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2723">
+        <v>1</v>
+      </c>
+      <c r="G2723" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="B2724" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C2724">
+        <v>55</v>
+      </c>
+      <c r="D2724">
+        <v>-3</v>
+      </c>
+      <c r="E2724" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2724">
+        <v>34</v>
+      </c>
+      <c r="G2724" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2725">
+        <v>40.1824</v>
+      </c>
+      <c r="D2725">
+        <v>116.4142</v>
+      </c>
+      <c r="E2725" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2725">
+        <v>4</v>
+      </c>
+      <c r="G2725" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2726">
+        <v>49.2827</v>
+      </c>
+      <c r="D2726">
+        <v>-123.1207</v>
+      </c>
+      <c r="E2726" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2726">
+        <v>3</v>
+      </c>
+      <c r="G2726" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="inlineStr">
+        <is>
+          <t>Contra Costa County, CA</t>
+        </is>
+      </c>
+      <c r="B2727" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2727">
+        <v>37.8534</v>
+      </c>
+      <c r="D2727">
+        <v>-121.9018</v>
+      </c>
+      <c r="E2727" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2727">
+        <v>1</v>
+      </c>
+      <c r="G2727" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2728" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2728">
+        <v>22.3</v>
+      </c>
+      <c r="D2728">
+        <v>114.2</v>
+      </c>
+      <c r="E2728" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2728">
+        <v>5</v>
+      </c>
+      <c r="G2728" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2729" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2729">
+        <v>30.9756</v>
+      </c>
+      <c r="D2729">
+        <v>112.2707</v>
+      </c>
+      <c r="E2729" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2729">
+        <v>115</v>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2730" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2730">
+        <v>47.6062</v>
+      </c>
+      <c r="D2730">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2730" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2730">
+        <v>10</v>
+      </c>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="B2731" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2731">
+        <v>34.0522</v>
+      </c>
+      <c r="D2731">
+        <v>-118.2437</v>
+      </c>
+      <c r="E2731" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2731">
+        <v>6</v>
+      </c>
+      <c r="G2731" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
+      <c r="B2732" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2732">
+        <v>-33.8688</v>
+      </c>
+      <c r="D2732">
+        <v>151.2093</v>
+      </c>
+      <c r="E2732" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2732">
+        <v>9</v>
+      </c>
+      <c r="G2732" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B2733" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2733">
+        <v>37.2692</v>
+      </c>
+      <c r="D2733">
+        <v>106.1655</v>
+      </c>
+      <c r="E2733" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2733">
+        <v>1</v>
+      </c>
+      <c r="G2733" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t>Northern Territory</t>
+        </is>
+      </c>
+      <c r="B2734" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2734">
+        <v>-12.4634</v>
+      </c>
+      <c r="D2734">
+        <v>130.8456</v>
+      </c>
+      <c r="E2734" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2734">
+        <v>1</v>
+      </c>
+      <c r="G2734" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t>Orange County, CA</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2735">
+        <v>33.7879</v>
+      </c>
+      <c r="D2735">
+        <v>-117.8531</v>
+      </c>
+      <c r="E2735" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2735">
+        <v>2</v>
+      </c>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t>Placer County, CA</t>
+        </is>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2736">
+        <v>39.0916</v>
+      </c>
+      <c r="D2736">
+        <v>-120.8039</v>
+      </c>
+      <c r="E2736" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2736">
+        <v>1</v>
+      </c>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>Snohomish County, WA</t>
+        </is>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2737">
+        <v>48.033</v>
+      </c>
+      <c r="D2737">
+        <v>-121.8339</v>
+      </c>
+      <c r="E2737" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2737">
+        <v>2</v>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>South Australia</t>
+        </is>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2738">
+        <v>-34.9285</v>
+      </c>
+      <c r="D2738">
+        <v>138.6007</v>
+      </c>
+      <c r="E2738" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2738">
+        <v>2</v>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2739">
+        <v>-37.8136</v>
+      </c>
+      <c r="D2739">
+        <v>144.9631</v>
+      </c>
+      <c r="E2739" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2739">
+        <v>1</v>
+      </c>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>Westchester County, NY</t>
+        </is>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2740">
+        <v>41.122</v>
+      </c>
+      <c r="D2740">
+        <v>-73.7949</v>
+      </c>
+      <c r="E2740" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2740">
+        <v>9</v>
+      </c>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2741">
+        <v>32</v>
+      </c>
+      <c r="D2741">
+        <v>53</v>
+      </c>
+      <c r="E2741" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2741">
+        <v>15</v>
+      </c>
+      <c r="G2741" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C2742">
+        <v>33</v>
+      </c>
+      <c r="D2742">
+        <v>44</v>
+      </c>
+      <c r="E2742" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2742">
+        <v>2</v>
+      </c>
+      <c r="G2742" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="B2743" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2743">
+        <v>43</v>
+      </c>
+      <c r="D2743">
+        <v>12</v>
+      </c>
+      <c r="E2743" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2743">
+        <v>28</v>
+      </c>
+      <c r="G2743" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="B2744" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2744">
+        <v>36</v>
+      </c>
+      <c r="D2744">
+        <v>128</v>
+      </c>
+      <c r="E2744" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2744">
+        <v>7</v>
+      </c>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="B2745" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2745">
+        <v>40</v>
+      </c>
+      <c r="D2745">
+        <v>-4</v>
+      </c>
+      <c r="E2745" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2745">
+        <v>1</v>
+      </c>
+      <c r="G2745" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2746" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2746">
+        <v>30.9756</v>
+      </c>
+      <c r="D2746">
+        <v>112.2707</v>
+      </c>
+      <c r="E2746" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2746">
+        <v>36</v>
+      </c>
+      <c r="G2746" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2747" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2747">
+        <v>47.6062</v>
+      </c>
+      <c r="D2747">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2747" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2747">
+        <v>3</v>
+      </c>
+      <c r="G2747" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
+      <c r="B2748" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2748">
+        <v>-33.8688</v>
+      </c>
+      <c r="D2748">
+        <v>151.2093</v>
+      </c>
+      <c r="E2748" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2748">
+        <v>1</v>
+      </c>
+      <c r="G2748" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="inlineStr">
+        <is>
+          <t>Placer County, CA</t>
+        </is>
+      </c>
+      <c r="B2749" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2749">
+        <v>39.0916</v>
+      </c>
+      <c r="D2749">
+        <v>-120.8039</v>
+      </c>
+      <c r="E2749" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2749">
+        <v>1</v>
+      </c>
+      <c r="G2749" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="B2750" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2750">
+        <v>32</v>
+      </c>
+      <c r="D2750">
+        <v>53</v>
+      </c>
+      <c r="E2750" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2750">
+        <v>261</v>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="B2751" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2751">
+        <v>43</v>
+      </c>
+      <c r="D2751">
+        <v>12</v>
+      </c>
+      <c r="E2751" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2751">
+        <v>116</v>
+      </c>
+      <c r="G2751" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="B2752" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C2752">
+        <v>33.8547</v>
+      </c>
+      <c r="D2752">
+        <v>35.8623</v>
+      </c>
+      <c r="E2752" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2752">
+        <v>1</v>
+      </c>
+      <c r="G2752" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C2753">
+        <v>45.9432</v>
+      </c>
+      <c r="D2753">
+        <v>24.9668</v>
+      </c>
+      <c r="E2753" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2753">
+        <v>1</v>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2754">
+        <v>36</v>
+      </c>
+      <c r="D2754">
+        <v>128</v>
+      </c>
+      <c r="E2754" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2754">
+        <v>11</v>
+      </c>
+      <c r="G2754" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2755">
+        <v>46.8182</v>
+      </c>
+      <c r="D2755">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2755" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2755">
+        <v>1</v>
+      </c>
+      <c r="G2755" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2756">
+        <v>31.8257</v>
+      </c>
+      <c r="D2756">
+        <v>117.2264</v>
+      </c>
+      <c r="E2756" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2756">
+        <v>20</v>
+      </c>
+      <c r="G2756" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2757">
+        <v>40.1824</v>
+      </c>
+      <c r="D2757">
+        <v>116.4142</v>
+      </c>
+      <c r="E2757" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2757">
+        <v>9</v>
+      </c>
+      <c r="G2757" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2758">
+        <v>30.0572</v>
+      </c>
+      <c r="D2758">
+        <v>107.874</v>
+      </c>
+      <c r="E2758" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2758">
+        <v>12</v>
+      </c>
+      <c r="G2758" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2759">
+        <v>26.0789</v>
+      </c>
+      <c r="D2759">
+        <v>117.9874</v>
+      </c>
+      <c r="E2759" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2759">
+        <v>10</v>
+      </c>
+      <c r="G2759" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2760">
+        <v>36.0611</v>
+      </c>
+      <c r="D2760">
+        <v>103.8343</v>
+      </c>
+      <c r="E2760" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2760">
+        <v>1</v>
+      </c>
+      <c r="G2760" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2761" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2761">
+        <v>23.3417</v>
+      </c>
+      <c r="D2761">
+        <v>113.4244</v>
+      </c>
+      <c r="E2761" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2761">
+        <v>32</v>
+      </c>
+      <c r="G2761" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B2762" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2762">
+        <v>23.8298</v>
+      </c>
+      <c r="D2762">
+        <v>108.7881</v>
+      </c>
+      <c r="E2762" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2762">
+        <v>8</v>
+      </c>
+      <c r="G2762" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2763">
+        <v>19.1959</v>
+      </c>
+      <c r="D2763">
+        <v>109.7453</v>
+      </c>
+      <c r="E2763" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2763">
+        <v>3</v>
+      </c>
+      <c r="G2763" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2764" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2764">
+        <v>38.0428</v>
+      </c>
+      <c r="D2764">
+        <v>114.5149</v>
+      </c>
+      <c r="E2764" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2764">
+        <v>1</v>
+      </c>
+      <c r="G2764" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2765" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2765">
+        <v>47.862</v>
+      </c>
+      <c r="D2765">
+        <v>127.7615</v>
+      </c>
+      <c r="E2765" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2765">
+        <v>7</v>
+      </c>
+      <c r="G2765" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2766" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2766">
+        <v>33.88202</v>
+      </c>
+      <c r="D2766">
+        <v>113.614</v>
+      </c>
+      <c r="E2766" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2766">
+        <v>3</v>
+      </c>
+      <c r="G2766" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2767" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2767">
+        <v>30.9756</v>
+      </c>
+      <c r="D2767">
+        <v>112.2707</v>
+      </c>
+      <c r="E2767" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2767">
+        <v>2349</v>
+      </c>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2768" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2768">
+        <v>27.6104</v>
+      </c>
+      <c r="D2768">
+        <v>111.7088</v>
+      </c>
+      <c r="E2768" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2768">
+        <v>10</v>
+      </c>
+      <c r="G2768" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2769" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2769">
+        <v>44.0935</v>
+      </c>
+      <c r="D2769">
+        <v>113.9448</v>
+      </c>
+      <c r="E2769" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2769">
+        <v>4</v>
+      </c>
+      <c r="G2769" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B2770" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2770">
+        <v>32.9711</v>
+      </c>
+      <c r="D2770">
+        <v>119.455</v>
+      </c>
+      <c r="E2770" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2770">
+        <v>15</v>
+      </c>
+      <c r="G2770" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2771">
+        <v>27.614</v>
+      </c>
+      <c r="D2771">
+        <v>115.7221</v>
+      </c>
+      <c r="E2771" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2771">
+        <v>14</v>
+      </c>
+      <c r="G2771" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2772">
+        <v>43.6661</v>
+      </c>
+      <c r="D2772">
+        <v>126.1923</v>
+      </c>
+      <c r="E2772" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2772">
+        <v>3</v>
+      </c>
+      <c r="G2772" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2773">
+        <v>35.1917</v>
+      </c>
+      <c r="D2773">
+        <v>108.8701</v>
+      </c>
+      <c r="E2773" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2773">
+        <v>7</v>
+      </c>
+      <c r="G2773" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2774">
+        <v>36.3427</v>
+      </c>
+      <c r="D2774">
+        <v>118.1498</v>
+      </c>
+      <c r="E2774" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2774">
+        <v>5</v>
+      </c>
+      <c r="G2774" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2775" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2775">
+        <v>31.202</v>
+      </c>
+      <c r="D2775">
+        <v>121.4491</v>
+      </c>
+      <c r="E2775" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2775">
+        <v>4</v>
+      </c>
+      <c r="G2775" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2776">
+        <v>30.6171</v>
+      </c>
+      <c r="D2776">
+        <v>102.7103</v>
+      </c>
+      <c r="E2776" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2776">
+        <v>12</v>
+      </c>
+      <c r="G2776" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2777">
+        <v>41.1129</v>
+      </c>
+      <c r="D2777">
+        <v>85.2401</v>
+      </c>
+      <c r="E2777" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2777">
+        <v>1</v>
+      </c>
+      <c r="G2777" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2778">
+        <v>29.1832</v>
+      </c>
+      <c r="D2778">
+        <v>120.0934</v>
+      </c>
+      <c r="E2778" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F2778">
+        <v>21</v>
+      </c>
+      <c r="G2778" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2778"/>
+  <dimension ref="A1:G2887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D46">
         <v>127.7615</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D77">
         <v>127.7615</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D95">
         <v>127.7615</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D114">
         <v>127.7615</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D153">
         <v>127.7615</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D200">
         <v>127.7615</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D246">
         <v>127.7615</v>
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D288">
         <v>127.7615</v>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D334">
         <v>127.7615</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D358">
         <v>127.7615</v>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D389">
         <v>127.7615</v>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="C445">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D445">
         <v>127.7615</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D476">
         <v>127.7615</v>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D502">
         <v>127.7615</v>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="C559">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D559">
         <v>127.7615</v>
@@ -17810,7 +17810,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D615">
         <v>127.7615</v>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="C649">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D649">
         <v>127.7615</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D676">
         <v>127.7615</v>
@@ -20492,7 +20492,7 @@
         </is>
       </c>
       <c r="C708">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D708">
         <v>127.7615</v>
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="C736">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D736">
         <v>127.7615</v>
@@ -21956,7 +21956,7 @@
         </is>
       </c>
       <c r="C759">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D759">
         <v>127.7615</v>
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="C770">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D770">
         <v>127.7615</v>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="C807">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D807">
         <v>127.7615</v>
@@ -24376,7 +24376,7 @@
         </is>
       </c>
       <c r="C844">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D844">
         <v>127.7615</v>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C876">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D876">
         <v>127.7615</v>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C898">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D898">
         <v>127.7615</v>
@@ -26361,7 +26361,7 @@
         </is>
       </c>
       <c r="C914">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D914">
         <v>127.7615</v>
@@ -27264,7 +27264,7 @@
         </is>
       </c>
       <c r="C946">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D946">
         <v>127.7615</v>
@@ -27989,7 +27989,7 @@
         </is>
       </c>
       <c r="C971">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D971">
         <v>127.7615</v>
@@ -28419,7 +28419,7 @@
         </is>
       </c>
       <c r="C986">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D986">
         <v>127.7615</v>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="C1019">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1019">
         <v>127.7615</v>
@@ -29926,7 +29926,7 @@
         </is>
       </c>
       <c r="C1039">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1039">
         <v>127.7615</v>
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="C1052">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1052">
         <v>127.7615</v>
@@ -31143,7 +31143,7 @@
         </is>
       </c>
       <c r="C1082">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1082">
         <v>127.7615</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="C1105">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1105">
         <v>127.7615</v>
@@ -32312,7 +32312,7 @@
         </is>
       </c>
       <c r="C1123">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1123">
         <v>127.7615</v>
@@ -33254,7 +33254,7 @@
         </is>
       </c>
       <c r="C1156">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1156">
         <v>127.7615</v>
@@ -34480,7 +34480,7 @@
         </is>
       </c>
       <c r="C1200">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1200">
         <v>127.7615</v>
@@ -35451,7 +35451,7 @@
         </is>
       </c>
       <c r="C1234">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1234">
         <v>127.7615</v>
@@ -36229,7 +36229,7 @@
         </is>
       </c>
       <c r="C1261">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1261">
         <v>127.7615</v>
@@ -36736,7 +36736,7 @@
         </is>
       </c>
       <c r="C1279">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1279">
         <v>127.7615</v>
@@ -37707,7 +37707,7 @@
         </is>
       </c>
       <c r="C1313">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1313">
         <v>127.7615</v>
@@ -38345,7 +38345,7 @@
         </is>
       </c>
       <c r="C1335">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1335">
         <v>127.7615</v>
@@ -38717,7 +38717,7 @@
         </is>
       </c>
       <c r="C1348">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1348">
         <v>127.7615</v>
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="C1379">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1379">
         <v>127.7615</v>
@@ -40687,7 +40687,7 @@
         </is>
       </c>
       <c r="C1418">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1418">
         <v>127.7615</v>
@@ -41648,7 +41648,7 @@
         </is>
       </c>
       <c r="C1452">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1452">
         <v>127.7615</v>
@@ -42730,7 +42730,7 @@
         </is>
       </c>
       <c r="C1490">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1490">
         <v>127.7615</v>
@@ -43725,7 +43725,7 @@
         </is>
       </c>
       <c r="C1525">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1525">
         <v>127.7615</v>
@@ -44691,7 +44691,7 @@
         </is>
       </c>
       <c r="C1559">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1559">
         <v>127.7615</v>
@@ -45517,7 +45517,7 @@
         </is>
       </c>
       <c r="C1588">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1588">
         <v>127.7615</v>
@@ -46536,7 +46536,7 @@
         </is>
       </c>
       <c r="C1624">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1624">
         <v>127.7615</v>
@@ -47362,7 +47362,7 @@
         </is>
       </c>
       <c r="C1653">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1653">
         <v>127.7615</v>
@@ -47879,7 +47879,7 @@
         </is>
       </c>
       <c r="C1671">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1671">
         <v>127.7615</v>
@@ -48415,7 +48415,7 @@
         </is>
       </c>
       <c r="C1690">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1690">
         <v>127.7615</v>
@@ -49270,7 +49270,7 @@
         </is>
       </c>
       <c r="C1720">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1720">
         <v>127.7615</v>
@@ -50304,7 +50304,7 @@
         </is>
       </c>
       <c r="C1756">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1756">
         <v>127.7615</v>
@@ -51313,7 +51313,7 @@
         </is>
       </c>
       <c r="C1792">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1792">
         <v>127.7615</v>
@@ -52201,7 +52201,7 @@
         </is>
       </c>
       <c r="C1824">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1824">
         <v>127.7615</v>
@@ -53959,7 +53959,7 @@
         </is>
       </c>
       <c r="C1886">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1886">
         <v>127.7615</v>
@@ -54746,7 +54746,7 @@
         </is>
       </c>
       <c r="C1914">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1914">
         <v>127.7615</v>
@@ -55494,7 +55494,7 @@
         </is>
       </c>
       <c r="C1941">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D1941">
         <v>127.7615</v>
@@ -57188,7 +57188,7 @@
         </is>
       </c>
       <c r="C2002">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2002">
         <v>127.7615</v>
@@ -59016,7 +59016,7 @@
         </is>
       </c>
       <c r="C2069">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2069">
         <v>127.7615</v>
@@ -60992,7 +60992,7 @@
         </is>
       </c>
       <c r="C2143">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2143">
         <v>127.7615</v>
@@ -62554,7 +62554,7 @@
         </is>
       </c>
       <c r="C2201">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2201">
         <v>127.7615</v>
@@ -63003,7 +63003,7 @@
         </is>
       </c>
       <c r="C2217">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2217">
         <v>127.7615</v>
@@ -64999,7 +64999,7 @@
         </is>
       </c>
       <c r="C2291">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2291">
         <v>127.7615</v>
@@ -67399,7 +67399,7 @@
         </is>
       </c>
       <c r="C2381">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2381">
         <v>127.7615</v>
@@ -69712,7 +69712,7 @@
         </is>
       </c>
       <c r="C2468">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2468">
         <v>127.7615</v>
@@ -71092,7 +71092,7 @@
         <v>43.9088</v>
       </c>
       <c r="D2521">
-        <v>-71.82599999999999</v>
+        <v>-71.82600000000001</v>
       </c>
       <c r="E2521" s="2">
         <v>43892</v>
@@ -72325,7 +72325,7 @@
         </is>
       </c>
       <c r="C2565">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2565">
         <v>127.7615</v>
@@ -73830,7 +73830,7 @@
         <v>43.9088</v>
       </c>
       <c r="D2623">
-        <v>-71.82599999999999</v>
+        <v>-71.82600000000001</v>
       </c>
       <c r="E2623" s="2">
         <v>43893</v>
@@ -74932,7 +74932,7 @@
         </is>
       </c>
       <c r="C2663">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2663">
         <v>127.7615</v>
@@ -77620,7 +77620,7 @@
         </is>
       </c>
       <c r="C2765">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D2765">
         <v>127.7615</v>
@@ -78009,6 +78009,2912 @@
         <v>21</v>
       </c>
       <c r="G2778" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C2779">
+        <v>47.5162</v>
+      </c>
+      <c r="D2779">
+        <v>14.5501</v>
+      </c>
+      <c r="E2779" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2779">
+        <v>12</v>
+      </c>
+      <c r="G2779" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="C2780">
+        <v>40.1431</v>
+      </c>
+      <c r="D2780">
+        <v>47.5769</v>
+      </c>
+      <c r="E2780" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2780">
+        <v>3</v>
+      </c>
+      <c r="G2780" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C2781">
+        <v>26.0275</v>
+      </c>
+      <c r="D2781">
+        <v>50.55</v>
+      </c>
+      <c r="E2781" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2781">
+        <v>3</v>
+      </c>
+      <c r="G2781" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C2782">
+        <v>50.8333</v>
+      </c>
+      <c r="D2782">
+        <v>4</v>
+      </c>
+      <c r="E2782" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2782">
+        <v>27</v>
+      </c>
+      <c r="G2782" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="C2783">
+        <v>43.9159</v>
+      </c>
+      <c r="D2783">
+        <v>17.6791</v>
+      </c>
+      <c r="E2783" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2783">
+        <v>2</v>
+      </c>
+      <c r="G2783" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C2784">
+        <v>-35.6751</v>
+      </c>
+      <c r="D2784">
+        <v>-71.54300000000001</v>
+      </c>
+      <c r="E2784" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2784">
+        <v>3</v>
+      </c>
+      <c r="G2784" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="C2785">
+        <v>49.8175</v>
+      </c>
+      <c r="D2785">
+        <v>15.473</v>
+      </c>
+      <c r="E2785" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2785">
+        <v>4</v>
+      </c>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C2786">
+        <v>-1.8312</v>
+      </c>
+      <c r="D2786">
+        <v>-78.18340000000001</v>
+      </c>
+      <c r="E2786" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2786">
+        <v>3</v>
+      </c>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C2787">
+        <v>26</v>
+      </c>
+      <c r="D2787">
+        <v>30</v>
+      </c>
+      <c r="E2787" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2787">
+        <v>1</v>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="C2788">
+        <v>58.5953</v>
+      </c>
+      <c r="D2788">
+        <v>25.0136</v>
+      </c>
+      <c r="E2788" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2788">
+        <v>1</v>
+      </c>
+      <c r="G2788" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C2789">
+        <v>64</v>
+      </c>
+      <c r="D2789">
+        <v>26</v>
+      </c>
+      <c r="E2789" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2789">
+        <v>6</v>
+      </c>
+      <c r="G2789" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2790">
+        <v>47</v>
+      </c>
+      <c r="D2790">
+        <v>2</v>
+      </c>
+      <c r="E2790" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2790">
+        <v>92</v>
+      </c>
+      <c r="G2790" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="C2791">
+        <v>42.3154</v>
+      </c>
+      <c r="D2791">
+        <v>43.3569</v>
+      </c>
+      <c r="E2791" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2791">
+        <v>1</v>
+      </c>
+      <c r="G2791" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2792">
+        <v>51</v>
+      </c>
+      <c r="D2792">
+        <v>9</v>
+      </c>
+      <c r="E2792" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2792">
+        <v>220</v>
+      </c>
+      <c r="G2792" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C2793">
+        <v>39.0742</v>
+      </c>
+      <c r="D2793">
+        <v>21.8243</v>
+      </c>
+      <c r="E2793" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2793">
+        <v>22</v>
+      </c>
+      <c r="G2793" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C2794">
+        <v>64.9631</v>
+      </c>
+      <c r="D2794">
+        <v>-19.0208</v>
+      </c>
+      <c r="E2794" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2794">
+        <v>8</v>
+      </c>
+      <c r="G2794" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C2795">
+        <v>21</v>
+      </c>
+      <c r="D2795">
+        <v>78</v>
+      </c>
+      <c r="E2795" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2795">
+        <v>2</v>
+      </c>
+      <c r="G2795" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2796">
+        <v>32</v>
+      </c>
+      <c r="D2796">
+        <v>53</v>
+      </c>
+      <c r="E2796" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2796">
+        <v>591</v>
+      </c>
+      <c r="G2796" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C2797">
+        <v>31</v>
+      </c>
+      <c r="D2797">
+        <v>35</v>
+      </c>
+      <c r="E2797" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2797">
+        <v>1</v>
+      </c>
+      <c r="G2797" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2798">
+        <v>43</v>
+      </c>
+      <c r="D2798">
+        <v>12</v>
+      </c>
+      <c r="E2798" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2798">
+        <v>769</v>
+      </c>
+      <c r="G2798" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2799">
+        <v>36</v>
+      </c>
+      <c r="D2799">
+        <v>138</v>
+      </c>
+      <c r="E2799" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2799">
+        <v>29</v>
+      </c>
+      <c r="G2799" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="C2800">
+        <v>29.5</v>
+      </c>
+      <c r="D2800">
+        <v>47.75</v>
+      </c>
+      <c r="E2800" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2800">
+        <v>2</v>
+      </c>
+      <c r="G2800" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C2801">
+        <v>33.8547</v>
+      </c>
+      <c r="D2801">
+        <v>35.8623</v>
+      </c>
+      <c r="E2801" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2801">
+        <v>3</v>
+      </c>
+      <c r="G2801" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="C2802">
+        <v>31.7917</v>
+      </c>
+      <c r="D2802">
+        <v>-7.0926</v>
+      </c>
+      <c r="E2802" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2802">
+        <v>1</v>
+      </c>
+      <c r="G2802" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C2803">
+        <v>52.1326</v>
+      </c>
+      <c r="D2803">
+        <v>5.2913</v>
+      </c>
+      <c r="E2803" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2803">
+        <v>44</v>
+      </c>
+      <c r="G2803" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2804">
+        <v>60.472</v>
+      </c>
+      <c r="D2804">
+        <v>8.4689</v>
+      </c>
+      <c r="E2804" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2804">
+        <v>31</v>
+      </c>
+      <c r="G2804" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="C2805">
+        <v>21</v>
+      </c>
+      <c r="D2805">
+        <v>57</v>
+      </c>
+      <c r="E2805" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2805">
+        <v>1</v>
+      </c>
+      <c r="G2805" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="C2806">
+        <v>31.9522</v>
+      </c>
+      <c r="D2806">
+        <v>35.2332</v>
+      </c>
+      <c r="E2806" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2806">
+        <v>4</v>
+      </c>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C2807">
+        <v>39.3999</v>
+      </c>
+      <c r="D2807">
+        <v>-8.224500000000001</v>
+      </c>
+      <c r="E2807" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2807">
+        <v>3</v>
+      </c>
+      <c r="G2807" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C2808">
+        <v>45.9432</v>
+      </c>
+      <c r="D2808">
+        <v>24.9668</v>
+      </c>
+      <c r="E2808" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2808">
+        <v>2</v>
+      </c>
+      <c r="G2808" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="C2809">
+        <v>60</v>
+      </c>
+      <c r="D2809">
+        <v>90</v>
+      </c>
+      <c r="E2809" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2809">
+        <v>1</v>
+      </c>
+      <c r="G2809" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+      <c r="C2810">
+        <v>43.9424</v>
+      </c>
+      <c r="D2810">
+        <v>12.4578</v>
+      </c>
+      <c r="E2810" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2810">
+        <v>5</v>
+      </c>
+      <c r="G2810" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C2811">
+        <v>24</v>
+      </c>
+      <c r="D2811">
+        <v>45</v>
+      </c>
+      <c r="E2811" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2811">
+        <v>4</v>
+      </c>
+      <c r="G2811" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2812">
+        <v>1.2833</v>
+      </c>
+      <c r="D2812">
+        <v>103.8333</v>
+      </c>
+      <c r="E2812" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2812">
+        <v>7</v>
+      </c>
+      <c r="G2812" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C2813">
+        <v>46.1512</v>
+      </c>
+      <c r="D2813">
+        <v>14.9955</v>
+      </c>
+      <c r="E2813" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2813">
+        <v>2</v>
+      </c>
+      <c r="G2813" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="C2814">
+        <v>-30.5595</v>
+      </c>
+      <c r="D2814">
+        <v>22.9375</v>
+      </c>
+      <c r="E2814" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2814">
+        <v>1</v>
+      </c>
+      <c r="G2814" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2815">
+        <v>36</v>
+      </c>
+      <c r="D2815">
+        <v>128</v>
+      </c>
+      <c r="E2815" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2815">
+        <v>467</v>
+      </c>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2816">
+        <v>40</v>
+      </c>
+      <c r="D2816">
+        <v>-4</v>
+      </c>
+      <c r="E2816" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2816">
+        <v>37</v>
+      </c>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C2817">
+        <v>63</v>
+      </c>
+      <c r="D2817">
+        <v>16</v>
+      </c>
+      <c r="E2817" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2817">
+        <v>59</v>
+      </c>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2818">
+        <v>46.8182</v>
+      </c>
+      <c r="D2818">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2818" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2818">
+        <v>24</v>
+      </c>
+      <c r="G2818" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C2819">
+        <v>15</v>
+      </c>
+      <c r="D2819">
+        <v>101</v>
+      </c>
+      <c r="E2819" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2819">
+        <v>4</v>
+      </c>
+      <c r="G2819" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C2820">
+        <v>55</v>
+      </c>
+      <c r="D2820">
+        <v>-3</v>
+      </c>
+      <c r="E2820" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2820">
+        <v>30</v>
+      </c>
+      <c r="G2820" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C2821">
+        <v>24</v>
+      </c>
+      <c r="D2821">
+        <v>54</v>
+      </c>
+      <c r="E2821" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2821">
+        <v>2</v>
+      </c>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="inlineStr">
+        <is>
+          <t>Montreal, QC</t>
+        </is>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2822">
+        <v>45.5017</v>
+      </c>
+      <c r="D2822">
+        <v>-73.5673</v>
+      </c>
+      <c r="E2822" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2822">
+        <v>1</v>
+      </c>
+      <c r="G2822" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="inlineStr">
+        <is>
+          <t>Bergen County, NJ</t>
+        </is>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2823">
+        <v>40.9263</v>
+      </c>
+      <c r="D2823">
+        <v>-74.077</v>
+      </c>
+      <c r="E2823" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2823">
+        <v>2</v>
+      </c>
+      <c r="G2823" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2824">
+        <v>49.2827</v>
+      </c>
+      <c r="D2824">
+        <v>-123.1207</v>
+      </c>
+      <c r="E2824" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2824">
+        <v>1</v>
+      </c>
+      <c r="G2824" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="inlineStr">
+        <is>
+          <t>Clark County, NV</t>
+        </is>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2825">
+        <v>36.0796</v>
+      </c>
+      <c r="D2825">
+        <v>-115.094</v>
+      </c>
+      <c r="E2825" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2825">
+        <v>1</v>
+      </c>
+      <c r="G2825" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="inlineStr">
+        <is>
+          <t>Cook County, IL</t>
+        </is>
+      </c>
+      <c r="B2826" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2826">
+        <v>41.7377</v>
+      </c>
+      <c r="D2826">
+        <v>-87.69759999999999</v>
+      </c>
+      <c r="E2826" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2826">
+        <v>1</v>
+      </c>
+      <c r="G2826" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="inlineStr">
+        <is>
+          <t>Fort Bend County, TX</t>
+        </is>
+      </c>
+      <c r="B2827" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2827">
+        <v>29.5693</v>
+      </c>
+      <c r="D2827">
+        <v>-95.8143</v>
+      </c>
+      <c r="E2827" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2827">
+        <v>1</v>
+      </c>
+      <c r="G2827" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B2828" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2828">
+        <v>36.0611</v>
+      </c>
+      <c r="D2828">
+        <v>103.8343</v>
+      </c>
+      <c r="E2828" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2828">
+        <v>11</v>
+      </c>
+      <c r="G2828" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="inlineStr">
+        <is>
+          <t>Grant County, WA</t>
+        </is>
+      </c>
+      <c r="B2829" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2829">
+        <v>47.1981</v>
+      </c>
+      <c r="D2829">
+        <v>-119.3732</v>
+      </c>
+      <c r="E2829" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2829">
+        <v>1</v>
+      </c>
+      <c r="G2829" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2830" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2830">
+        <v>23.3417</v>
+      </c>
+      <c r="D2830">
+        <v>113.4244</v>
+      </c>
+      <c r="E2830" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2830">
+        <v>1</v>
+      </c>
+      <c r="G2830" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="inlineStr">
+        <is>
+          <t>Harris County, TX</t>
+        </is>
+      </c>
+      <c r="B2831" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2831">
+        <v>29.7752</v>
+      </c>
+      <c r="D2831">
+        <v>-95.3103</v>
+      </c>
+      <c r="E2831" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2831">
+        <v>2</v>
+      </c>
+      <c r="G2831" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2832" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2832">
+        <v>47.86199999999999</v>
+      </c>
+      <c r="D2832">
+        <v>127.7615</v>
+      </c>
+      <c r="E2832" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2832">
+        <v>1</v>
+      </c>
+      <c r="G2832" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2833" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2833">
+        <v>30.9756</v>
+      </c>
+      <c r="D2833">
+        <v>112.2707</v>
+      </c>
+      <c r="E2833" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2833">
+        <v>134</v>
+      </c>
+      <c r="G2833" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2834" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2834">
+        <v>47.6062</v>
+      </c>
+      <c r="D2834">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2834" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2834">
+        <v>20</v>
+      </c>
+      <c r="G2834" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2835">
+        <v>34.0522</v>
+      </c>
+      <c r="D2835">
+        <v>-118.2437</v>
+      </c>
+      <c r="E2835" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2835">
+        <v>4</v>
+      </c>
+      <c r="G2835" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="inlineStr">
+        <is>
+          <t>New York City, NY</t>
+        </is>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2836">
+        <v>40.7128</v>
+      </c>
+      <c r="D2836">
+        <v>-74.006</v>
+      </c>
+      <c r="E2836" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2836">
+        <v>3</v>
+      </c>
+      <c r="G2836" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="inlineStr">
+        <is>
+          <t>Queens County, NY</t>
+        </is>
+      </c>
+      <c r="B2837" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2837">
+        <v>40.7282</v>
+      </c>
+      <c r="D2837">
+        <v>-73.7949</v>
+      </c>
+      <c r="E2837" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2837">
+        <v>1</v>
+      </c>
+      <c r="G2837" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
+      </c>
+      <c r="B2838" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2838">
+        <v>-28.0167</v>
+      </c>
+      <c r="D2838">
+        <v>153.4</v>
+      </c>
+      <c r="E2838" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2838">
+        <v>2</v>
+      </c>
+      <c r="G2838" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="inlineStr">
+        <is>
+          <t>San Diego County, CA</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2839">
+        <v>32.7157</v>
+      </c>
+      <c r="D2839">
+        <v>-117.1611</v>
+      </c>
+      <c r="E2839" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2839">
+        <v>1</v>
+      </c>
+      <c r="G2839" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="inlineStr">
+        <is>
+          <t>San Francisco County, CA</t>
+        </is>
+      </c>
+      <c r="B2840" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2840">
+        <v>37.7749</v>
+      </c>
+      <c r="D2840">
+        <v>-122.4194</v>
+      </c>
+      <c r="E2840" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2840">
+        <v>2</v>
+      </c>
+      <c r="G2840" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA</t>
+        </is>
+      </c>
+      <c r="B2841" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2841">
+        <v>37.3541</v>
+      </c>
+      <c r="D2841">
+        <v>-121.9552</v>
+      </c>
+      <c r="E2841" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2841">
+        <v>9</v>
+      </c>
+      <c r="G2841" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="inlineStr">
+        <is>
+          <t>Santa Rosa County, FL</t>
+        </is>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2842">
+        <v>30.769</v>
+      </c>
+      <c r="D2842">
+        <v>-86.9824</v>
+      </c>
+      <c r="E2842" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2842">
+        <v>1</v>
+      </c>
+      <c r="G2842" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2843">
+        <v>31.202</v>
+      </c>
+      <c r="D2843">
+        <v>121.4491</v>
+      </c>
+      <c r="E2843" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2843">
+        <v>1</v>
+      </c>
+      <c r="G2843" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2844">
+        <v>30.6171</v>
+      </c>
+      <c r="D2844">
+        <v>102.7103</v>
+      </c>
+      <c r="E2844" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2844">
+        <v>1</v>
+      </c>
+      <c r="G2844" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="inlineStr">
+        <is>
+          <t>Snohomish County, WA</t>
+        </is>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2845">
+        <v>48.033</v>
+      </c>
+      <c r="D2845">
+        <v>-121.8339</v>
+      </c>
+      <c r="E2845" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2845">
+        <v>10</v>
+      </c>
+      <c r="G2845" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2846" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2846">
+        <v>23.7</v>
+      </c>
+      <c r="D2846">
+        <v>121</v>
+      </c>
+      <c r="E2846" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2846">
+        <v>2</v>
+      </c>
+      <c r="G2846" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="inlineStr">
+        <is>
+          <t>Toronto, ON</t>
+        </is>
+      </c>
+      <c r="B2847" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2847">
+        <v>43.6532</v>
+      </c>
+      <c r="D2847">
+        <v>-79.3832</v>
+      </c>
+      <c r="E2847" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2847">
+        <v>2</v>
+      </c>
+      <c r="G2847" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="inlineStr">
+        <is>
+          <t>Westchester County, NY</t>
+        </is>
+      </c>
+      <c r="B2848" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2848">
+        <v>41.122</v>
+      </c>
+      <c r="D2848">
+        <v>-73.7949</v>
+      </c>
+      <c r="E2848" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2848">
+        <v>8</v>
+      </c>
+      <c r="G2848" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="inlineStr">
+        <is>
+          <t>Western Australia</t>
+        </is>
+      </c>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2849">
+        <v>-31.9505</v>
+      </c>
+      <c r="D2849">
+        <v>115.8605</v>
+      </c>
+      <c r="E2849" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2849">
+        <v>1</v>
+      </c>
+      <c r="G2849" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="inlineStr">
+        <is>
+          <t>Williamson County, TN</t>
+        </is>
+      </c>
+      <c r="B2850" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2850">
+        <v>35.9179</v>
+      </c>
+      <c r="D2850">
+        <v>-86.8622</v>
+      </c>
+      <c r="E2850" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2850">
+        <v>1</v>
+      </c>
+      <c r="G2850" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2851">
+        <v>29.1832</v>
+      </c>
+      <c r="D2851">
+        <v>120.0934</v>
+      </c>
+      <c r="E2851" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2851">
+        <v>2</v>
+      </c>
+      <c r="G2851" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="B2852" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2852">
+        <v>47</v>
+      </c>
+      <c r="D2852">
+        <v>2</v>
+      </c>
+      <c r="E2852" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2852">
+        <v>2</v>
+      </c>
+      <c r="G2852" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2853">
+        <v>32</v>
+      </c>
+      <c r="D2853">
+        <v>53</v>
+      </c>
+      <c r="E2853" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2853">
+        <v>15</v>
+      </c>
+      <c r="G2853" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2854">
+        <v>43</v>
+      </c>
+      <c r="D2854">
+        <v>12</v>
+      </c>
+      <c r="E2854" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2854">
+        <v>41</v>
+      </c>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2855">
+        <v>40</v>
+      </c>
+      <c r="D2855">
+        <v>-4</v>
+      </c>
+      <c r="E2855" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2855">
+        <v>1</v>
+      </c>
+      <c r="G2855" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2856">
+        <v>46.8182</v>
+      </c>
+      <c r="D2856">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2856" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2856">
+        <v>1</v>
+      </c>
+      <c r="G2856" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C2857">
+        <v>55</v>
+      </c>
+      <c r="D2857">
+        <v>-3</v>
+      </c>
+      <c r="E2857" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2857">
+        <v>1</v>
+      </c>
+      <c r="G2857" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2858">
+        <v>19.1959</v>
+      </c>
+      <c r="D2858">
+        <v>109.7453</v>
+      </c>
+      <c r="E2858" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2858">
+        <v>1</v>
+      </c>
+      <c r="G2858" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2859">
+        <v>30.9756</v>
+      </c>
+      <c r="D2859">
+        <v>112.2707</v>
+      </c>
+      <c r="E2859" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2859">
+        <v>31</v>
+      </c>
+      <c r="G2859" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2860">
+        <v>47.6062</v>
+      </c>
+      <c r="D2860">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2860" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2860">
+        <v>1</v>
+      </c>
+      <c r="G2860" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2861">
+        <v>32</v>
+      </c>
+      <c r="D2861">
+        <v>53</v>
+      </c>
+      <c r="E2861" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2861">
+        <v>187</v>
+      </c>
+      <c r="G2861" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2862">
+        <v>43</v>
+      </c>
+      <c r="D2862">
+        <v>12</v>
+      </c>
+      <c r="E2862" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2862">
+        <v>138</v>
+      </c>
+      <c r="G2862" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2863">
+        <v>31.8257</v>
+      </c>
+      <c r="D2863">
+        <v>117.2264</v>
+      </c>
+      <c r="E2863" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2863">
+        <v>14</v>
+      </c>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2864">
+        <v>30.0572</v>
+      </c>
+      <c r="D2864">
+        <v>107.874</v>
+      </c>
+      <c r="E2864" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2864">
+        <v>10</v>
+      </c>
+      <c r="G2864" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2865">
+        <v>26.0789</v>
+      </c>
+      <c r="D2865">
+        <v>117.9874</v>
+      </c>
+      <c r="E2865" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2865">
+        <v>7</v>
+      </c>
+      <c r="G2865" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2866">
+        <v>23.3417</v>
+      </c>
+      <c r="D2866">
+        <v>113.4244</v>
+      </c>
+      <c r="E2866" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2866">
+        <v>48</v>
+      </c>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2867">
+        <v>23.8298</v>
+      </c>
+      <c r="D2867">
+        <v>108.7881</v>
+      </c>
+      <c r="E2867" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2867">
+        <v>4</v>
+      </c>
+      <c r="G2867" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2868">
+        <v>38.0428</v>
+      </c>
+      <c r="D2868">
+        <v>114.5149</v>
+      </c>
+      <c r="E2868" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2868">
+        <v>3</v>
+      </c>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2869">
+        <v>47.86199999999999</v>
+      </c>
+      <c r="D2869">
+        <v>127.7615</v>
+      </c>
+      <c r="E2869" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2869">
+        <v>6</v>
+      </c>
+      <c r="G2869" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2870">
+        <v>33.88202</v>
+      </c>
+      <c r="D2870">
+        <v>113.614</v>
+      </c>
+      <c r="E2870" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2870">
+        <v>5</v>
+      </c>
+      <c r="G2870" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2871">
+        <v>22.3</v>
+      </c>
+      <c r="D2871">
+        <v>114.2</v>
+      </c>
+      <c r="E2871" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2871">
+        <v>6</v>
+      </c>
+      <c r="G2871" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2872">
+        <v>30.9756</v>
+      </c>
+      <c r="D2872">
+        <v>112.2707</v>
+      </c>
+      <c r="E2872" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2872">
+        <v>2035</v>
+      </c>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2873">
+        <v>27.6104</v>
+      </c>
+      <c r="D2873">
+        <v>111.7088</v>
+      </c>
+      <c r="E2873" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2873">
+        <v>22</v>
+      </c>
+      <c r="G2873" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2874">
+        <v>44.0935</v>
+      </c>
+      <c r="D2874">
+        <v>113.9448</v>
+      </c>
+      <c r="E2874" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2874">
+        <v>2</v>
+      </c>
+      <c r="G2874" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2875">
+        <v>32.9711</v>
+      </c>
+      <c r="D2875">
+        <v>119.455</v>
+      </c>
+      <c r="E2875" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2875">
+        <v>6</v>
+      </c>
+      <c r="G2875" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2876">
+        <v>27.614</v>
+      </c>
+      <c r="D2876">
+        <v>115.7221</v>
+      </c>
+      <c r="E2876" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2876">
+        <v>17</v>
+      </c>
+      <c r="G2876" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2877">
+        <v>43.6661</v>
+      </c>
+      <c r="D2877">
+        <v>126.1923</v>
+      </c>
+      <c r="E2877" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2877">
+        <v>2</v>
+      </c>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2878">
+        <v>-28.0167</v>
+      </c>
+      <c r="D2878">
+        <v>153.4</v>
+      </c>
+      <c r="E2878" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2878">
+        <v>7</v>
+      </c>
+      <c r="G2878" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2879">
+        <v>35.1917</v>
+      </c>
+      <c r="D2879">
+        <v>108.8701</v>
+      </c>
+      <c r="E2879" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2879">
+        <v>1</v>
+      </c>
+      <c r="G2879" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2880">
+        <v>36.3427</v>
+      </c>
+      <c r="D2880">
+        <v>118.1498</v>
+      </c>
+      <c r="E2880" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2880">
+        <v>62</v>
+      </c>
+      <c r="G2880" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2881">
+        <v>31.202</v>
+      </c>
+      <c r="D2881">
+        <v>121.4491</v>
+      </c>
+      <c r="E2881" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2881">
+        <v>5</v>
+      </c>
+      <c r="G2881" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2882">
+        <v>37.5777</v>
+      </c>
+      <c r="D2882">
+        <v>112.2922</v>
+      </c>
+      <c r="E2882" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2882">
+        <v>2</v>
+      </c>
+      <c r="G2882" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2883">
+        <v>30.6171</v>
+      </c>
+      <c r="D2883">
+        <v>102.7103</v>
+      </c>
+      <c r="E2883" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2883">
+        <v>19</v>
+      </c>
+      <c r="G2883" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2884">
+        <v>39.3054</v>
+      </c>
+      <c r="D2884">
+        <v>117.323</v>
+      </c>
+      <c r="E2884" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2884">
+        <v>4</v>
+      </c>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2885">
+        <v>-37.8136</v>
+      </c>
+      <c r="D2885">
+        <v>144.9631</v>
+      </c>
+      <c r="E2885" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2885">
+        <v>3</v>
+      </c>
+      <c r="G2885" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B2886" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2886">
+        <v>41.1129</v>
+      </c>
+      <c r="D2886">
+        <v>85.2401</v>
+      </c>
+      <c r="E2886" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2886">
+        <v>1</v>
+      </c>
+      <c r="G2886" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B2887" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2887">
+        <v>29.1832</v>
+      </c>
+      <c r="D2887">
+        <v>120.0934</v>
+      </c>
+      <c r="E2887" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F2887">
+        <v>10</v>
+      </c>
+      <c r="G2887" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2887"/>
+  <dimension ref="A1:G3034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D46">
         <v>127.7615</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D77">
         <v>127.7615</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D95">
         <v>127.7615</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D114">
         <v>127.7615</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D153">
         <v>127.7615</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D200">
         <v>127.7615</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D246">
         <v>127.7615</v>
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D288">
         <v>127.7615</v>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D334">
         <v>127.7615</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D358">
         <v>127.7615</v>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="C389">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D389">
         <v>127.7615</v>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="C445">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D445">
         <v>127.7615</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D476">
         <v>127.7615</v>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D502">
         <v>127.7615</v>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="C559">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D559">
         <v>127.7615</v>
@@ -17810,7 +17810,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D615">
         <v>127.7615</v>
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="C649">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D649">
         <v>127.7615</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D676">
         <v>127.7615</v>
@@ -20492,7 +20492,7 @@
         </is>
       </c>
       <c r="C708">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D708">
         <v>127.7615</v>
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="C736">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D736">
         <v>127.7615</v>
@@ -21956,7 +21956,7 @@
         </is>
       </c>
       <c r="C759">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D759">
         <v>127.7615</v>
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="C770">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D770">
         <v>127.7615</v>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="C807">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D807">
         <v>127.7615</v>
@@ -24376,7 +24376,7 @@
         </is>
       </c>
       <c r="C844">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D844">
         <v>127.7615</v>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="C876">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D876">
         <v>127.7615</v>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C898">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D898">
         <v>127.7615</v>
@@ -26361,7 +26361,7 @@
         </is>
       </c>
       <c r="C914">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D914">
         <v>127.7615</v>
@@ -27264,7 +27264,7 @@
         </is>
       </c>
       <c r="C946">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D946">
         <v>127.7615</v>
@@ -27989,7 +27989,7 @@
         </is>
       </c>
       <c r="C971">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D971">
         <v>127.7615</v>
@@ -28419,7 +28419,7 @@
         </is>
       </c>
       <c r="C986">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D986">
         <v>127.7615</v>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="C1019">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1019">
         <v>127.7615</v>
@@ -29926,7 +29926,7 @@
         </is>
       </c>
       <c r="C1039">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1039">
         <v>127.7615</v>
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="C1052">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1052">
         <v>127.7615</v>
@@ -31143,7 +31143,7 @@
         </is>
       </c>
       <c r="C1082">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1082">
         <v>127.7615</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="C1105">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1105">
         <v>127.7615</v>
@@ -32312,7 +32312,7 @@
         </is>
       </c>
       <c r="C1123">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1123">
         <v>127.7615</v>
@@ -33254,7 +33254,7 @@
         </is>
       </c>
       <c r="C1156">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1156">
         <v>127.7615</v>
@@ -34480,7 +34480,7 @@
         </is>
       </c>
       <c r="C1200">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1200">
         <v>127.7615</v>
@@ -35451,7 +35451,7 @@
         </is>
       </c>
       <c r="C1234">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1234">
         <v>127.7615</v>
@@ -36229,7 +36229,7 @@
         </is>
       </c>
       <c r="C1261">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1261">
         <v>127.7615</v>
@@ -36736,7 +36736,7 @@
         </is>
       </c>
       <c r="C1279">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1279">
         <v>127.7615</v>
@@ -37707,7 +37707,7 @@
         </is>
       </c>
       <c r="C1313">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1313">
         <v>127.7615</v>
@@ -38345,7 +38345,7 @@
         </is>
       </c>
       <c r="C1335">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1335">
         <v>127.7615</v>
@@ -38717,7 +38717,7 @@
         </is>
       </c>
       <c r="C1348">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1348">
         <v>127.7615</v>
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="C1379">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1379">
         <v>127.7615</v>
@@ -40687,7 +40687,7 @@
         </is>
       </c>
       <c r="C1418">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1418">
         <v>127.7615</v>
@@ -41648,7 +41648,7 @@
         </is>
       </c>
       <c r="C1452">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1452">
         <v>127.7615</v>
@@ -42730,7 +42730,7 @@
         </is>
       </c>
       <c r="C1490">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1490">
         <v>127.7615</v>
@@ -43725,7 +43725,7 @@
         </is>
       </c>
       <c r="C1525">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1525">
         <v>127.7615</v>
@@ -44691,7 +44691,7 @@
         </is>
       </c>
       <c r="C1559">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1559">
         <v>127.7615</v>
@@ -45517,7 +45517,7 @@
         </is>
       </c>
       <c r="C1588">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1588">
         <v>127.7615</v>
@@ -46536,7 +46536,7 @@
         </is>
       </c>
       <c r="C1624">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1624">
         <v>127.7615</v>
@@ -47362,7 +47362,7 @@
         </is>
       </c>
       <c r="C1653">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1653">
         <v>127.7615</v>
@@ -47879,7 +47879,7 @@
         </is>
       </c>
       <c r="C1671">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1671">
         <v>127.7615</v>
@@ -48415,7 +48415,7 @@
         </is>
       </c>
       <c r="C1690">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1690">
         <v>127.7615</v>
@@ -49270,7 +49270,7 @@
         </is>
       </c>
       <c r="C1720">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1720">
         <v>127.7615</v>
@@ -50304,7 +50304,7 @@
         </is>
       </c>
       <c r="C1756">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1756">
         <v>127.7615</v>
@@ -51313,7 +51313,7 @@
         </is>
       </c>
       <c r="C1792">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1792">
         <v>127.7615</v>
@@ -52201,7 +52201,7 @@
         </is>
       </c>
       <c r="C1824">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1824">
         <v>127.7615</v>
@@ -53959,7 +53959,7 @@
         </is>
       </c>
       <c r="C1886">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1886">
         <v>127.7615</v>
@@ -54746,7 +54746,7 @@
         </is>
       </c>
       <c r="C1914">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1914">
         <v>127.7615</v>
@@ -55494,7 +55494,7 @@
         </is>
       </c>
       <c r="C1941">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D1941">
         <v>127.7615</v>
@@ -57188,7 +57188,7 @@
         </is>
       </c>
       <c r="C2002">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2002">
         <v>127.7615</v>
@@ -59016,7 +59016,7 @@
         </is>
       </c>
       <c r="C2069">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2069">
         <v>127.7615</v>
@@ -60992,7 +60992,7 @@
         </is>
       </c>
       <c r="C2143">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2143">
         <v>127.7615</v>
@@ -62554,7 +62554,7 @@
         </is>
       </c>
       <c r="C2201">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2201">
         <v>127.7615</v>
@@ -63003,7 +63003,7 @@
         </is>
       </c>
       <c r="C2217">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2217">
         <v>127.7615</v>
@@ -64999,7 +64999,7 @@
         </is>
       </c>
       <c r="C2291">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2291">
         <v>127.7615</v>
@@ -67399,7 +67399,7 @@
         </is>
       </c>
       <c r="C2381">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2381">
         <v>127.7615</v>
@@ -69712,7 +69712,7 @@
         </is>
       </c>
       <c r="C2468">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2468">
         <v>127.7615</v>
@@ -71092,7 +71092,7 @@
         <v>43.9088</v>
       </c>
       <c r="D2521">
-        <v>-71.82600000000001</v>
+        <v>-71.82600000000002</v>
       </c>
       <c r="E2521" s="2">
         <v>43892</v>
@@ -72325,7 +72325,7 @@
         </is>
       </c>
       <c r="C2565">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2565">
         <v>127.7615</v>
@@ -73830,7 +73830,7 @@
         <v>43.9088</v>
       </c>
       <c r="D2623">
-        <v>-71.82600000000001</v>
+        <v>-71.82600000000002</v>
       </c>
       <c r="E2623" s="2">
         <v>43893</v>
@@ -74932,7 +74932,7 @@
         </is>
       </c>
       <c r="C2663">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2663">
         <v>127.7615</v>
@@ -77620,7 +77620,7 @@
         </is>
       </c>
       <c r="C2765">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2765">
         <v>127.7615</v>
@@ -79348,7 +79348,7 @@
         </is>
       </c>
       <c r="C2832">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2832">
         <v>127.7615</v>
@@ -80381,7 +80381,7 @@
         </is>
       </c>
       <c r="C2869">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D2869">
         <v>127.7615</v>
@@ -80915,6 +80915,3904 @@
         <v>10</v>
       </c>
       <c r="G2887" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="C2888">
+        <v>28.0339</v>
+      </c>
+      <c r="D2888">
+        <v>1.6596</v>
+      </c>
+      <c r="E2888" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2888">
+        <v>5</v>
+      </c>
+      <c r="G2888" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C2889">
+        <v>-38.4161</v>
+      </c>
+      <c r="D2889">
+        <v>-63.6167</v>
+      </c>
+      <c r="E2889" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2889">
+        <v>1</v>
+      </c>
+      <c r="G2889" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C2890">
+        <v>47.5162</v>
+      </c>
+      <c r="D2890">
+        <v>14.5501</v>
+      </c>
+      <c r="E2890" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2890">
+        <v>14</v>
+      </c>
+      <c r="G2890" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C2891">
+        <v>26.0275</v>
+      </c>
+      <c r="D2891">
+        <v>50.55</v>
+      </c>
+      <c r="E2891" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2891">
+        <v>5</v>
+      </c>
+      <c r="G2891" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C2892">
+        <v>50.8333</v>
+      </c>
+      <c r="D2892">
+        <v>4</v>
+      </c>
+      <c r="E2892" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2892">
+        <v>59</v>
+      </c>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>Bhutan</t>
+        </is>
+      </c>
+      <c r="C2893">
+        <v>27.5142</v>
+      </c>
+      <c r="D2893">
+        <v>90.4336</v>
+      </c>
+      <c r="E2893" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2893">
+        <v>1</v>
+      </c>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="C2894">
+        <v>-14.235</v>
+      </c>
+      <c r="D2894">
+        <v>-51.9253</v>
+      </c>
+      <c r="E2894" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2894">
+        <v>9</v>
+      </c>
+      <c r="G2894" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="C2895">
+        <v>3.848</v>
+      </c>
+      <c r="D2895">
+        <v>11.5021</v>
+      </c>
+      <c r="E2895" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2895">
+        <v>1</v>
+      </c>
+      <c r="G2895" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C2896">
+        <v>4.5709</v>
+      </c>
+      <c r="D2896">
+        <v>-74.29730000000001</v>
+      </c>
+      <c r="E2896" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2896">
+        <v>1</v>
+      </c>
+      <c r="G2896" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C2897">
+        <v>9.748900000000001</v>
+      </c>
+      <c r="D2897">
+        <v>-83.7534</v>
+      </c>
+      <c r="E2897" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2897">
+        <v>1</v>
+      </c>
+      <c r="G2897" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C2898">
+        <v>45.1</v>
+      </c>
+      <c r="D2898">
+        <v>15.2</v>
+      </c>
+      <c r="E2898" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2898">
+        <v>1</v>
+      </c>
+      <c r="G2898" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="C2899">
+        <v>49.8175</v>
+      </c>
+      <c r="D2899">
+        <v>15.473</v>
+      </c>
+      <c r="E2899" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2899">
+        <v>6</v>
+      </c>
+      <c r="G2899" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C2900">
+        <v>56.2639</v>
+      </c>
+      <c r="D2900">
+        <v>9.501799999999999</v>
+      </c>
+      <c r="E2900" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2900">
+        <v>13</v>
+      </c>
+      <c r="G2900" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+      <c r="C2901">
+        <v>18.7357</v>
+      </c>
+      <c r="D2901">
+        <v>-70.1627</v>
+      </c>
+      <c r="E2901" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2901">
+        <v>1</v>
+      </c>
+      <c r="G2901" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C2902">
+        <v>26</v>
+      </c>
+      <c r="D2902">
+        <v>30</v>
+      </c>
+      <c r="E2902" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2902">
+        <v>12</v>
+      </c>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="C2903">
+        <v>58.5953</v>
+      </c>
+      <c r="D2903">
+        <v>25.0136</v>
+      </c>
+      <c r="E2903" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2903">
+        <v>7</v>
+      </c>
+      <c r="G2903" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C2904">
+        <v>64</v>
+      </c>
+      <c r="D2904">
+        <v>26</v>
+      </c>
+      <c r="E2904" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2904">
+        <v>3</v>
+      </c>
+      <c r="G2904" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2905">
+        <v>47</v>
+      </c>
+      <c r="D2905">
+        <v>2</v>
+      </c>
+      <c r="E2905" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2905">
+        <v>276</v>
+      </c>
+      <c r="G2905" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C2906">
+        <v>51</v>
+      </c>
+      <c r="D2906">
+        <v>9</v>
+      </c>
+      <c r="E2906" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2906">
+        <v>188</v>
+      </c>
+      <c r="G2906" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C2907">
+        <v>39.0742</v>
+      </c>
+      <c r="D2907">
+        <v>21.8243</v>
+      </c>
+      <c r="E2907" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2907">
+        <v>14</v>
+      </c>
+      <c r="G2907" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C2908">
+        <v>64.9631</v>
+      </c>
+      <c r="D2908">
+        <v>-19.0208</v>
+      </c>
+      <c r="E2908" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2908">
+        <v>9</v>
+      </c>
+      <c r="G2908" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C2909">
+        <v>21</v>
+      </c>
+      <c r="D2909">
+        <v>78</v>
+      </c>
+      <c r="E2909" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2909">
+        <v>1</v>
+      </c>
+      <c r="G2909" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C2910">
+        <v>-0.7893</v>
+      </c>
+      <c r="D2910">
+        <v>113.9213</v>
+      </c>
+      <c r="E2910" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2910">
+        <v>2</v>
+      </c>
+      <c r="G2910" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2911">
+        <v>32</v>
+      </c>
+      <c r="D2911">
+        <v>53</v>
+      </c>
+      <c r="E2911" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2911">
+        <v>1234</v>
+      </c>
+      <c r="G2911" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C2912">
+        <v>33</v>
+      </c>
+      <c r="D2912">
+        <v>44</v>
+      </c>
+      <c r="E2912" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2912">
+        <v>5</v>
+      </c>
+      <c r="G2912" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C2913">
+        <v>53.1424</v>
+      </c>
+      <c r="D2913">
+        <v>-7.6921</v>
+      </c>
+      <c r="E2913" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2913">
+        <v>12</v>
+      </c>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C2914">
+        <v>31</v>
+      </c>
+      <c r="D2914">
+        <v>35</v>
+      </c>
+      <c r="E2914" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2914">
+        <v>5</v>
+      </c>
+      <c r="G2914" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2915">
+        <v>43</v>
+      </c>
+      <c r="D2915">
+        <v>12</v>
+      </c>
+      <c r="E2915" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2915">
+        <v>778</v>
+      </c>
+      <c r="G2915" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C2916">
+        <v>36</v>
+      </c>
+      <c r="D2916">
+        <v>138</v>
+      </c>
+      <c r="E2916" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2916">
+        <v>60</v>
+      </c>
+      <c r="G2916" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C2917">
+        <v>33.8547</v>
+      </c>
+      <c r="D2917">
+        <v>35.8623</v>
+      </c>
+      <c r="E2917" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2917">
+        <v>6</v>
+      </c>
+      <c r="G2917" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="C2918">
+        <v>49.8153</v>
+      </c>
+      <c r="D2918">
+        <v>6.1296</v>
+      </c>
+      <c r="E2918" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2918">
+        <v>1</v>
+      </c>
+      <c r="G2918" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C2919">
+        <v>2.5</v>
+      </c>
+      <c r="D2919">
+        <v>112.5</v>
+      </c>
+      <c r="E2919" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2919">
+        <v>33</v>
+      </c>
+      <c r="G2919" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C2920">
+        <v>23.6345</v>
+      </c>
+      <c r="D2920">
+        <v>-102.5528</v>
+      </c>
+      <c r="E2920" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2920">
+        <v>1</v>
+      </c>
+      <c r="G2920" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C2921">
+        <v>52.1326</v>
+      </c>
+      <c r="D2921">
+        <v>5.2913</v>
+      </c>
+      <c r="E2921" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2921">
+        <v>46</v>
+      </c>
+      <c r="G2921" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="C2922">
+        <v>-40.9006</v>
+      </c>
+      <c r="D2922">
+        <v>174.886</v>
+      </c>
+      <c r="E2922" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2922">
+        <v>1</v>
+      </c>
+      <c r="G2922" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="C2923">
+        <v>41.6086</v>
+      </c>
+      <c r="D2923">
+        <v>21.7453</v>
+      </c>
+      <c r="E2923" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2923">
+        <v>2</v>
+      </c>
+      <c r="G2923" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2924">
+        <v>60.472</v>
+      </c>
+      <c r="D2924">
+        <v>8.4689</v>
+      </c>
+      <c r="E2924" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2924">
+        <v>21</v>
+      </c>
+      <c r="G2924" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="C2925">
+        <v>30.3753</v>
+      </c>
+      <c r="D2925">
+        <v>69.3451</v>
+      </c>
+      <c r="E2925" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2925">
+        <v>1</v>
+      </c>
+      <c r="G2925" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="C2926">
+        <v>31.9522</v>
+      </c>
+      <c r="D2926">
+        <v>35.2332</v>
+      </c>
+      <c r="E2926" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2926">
+        <v>12</v>
+      </c>
+      <c r="G2926" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="C2927">
+        <v>-9.19</v>
+      </c>
+      <c r="D2927">
+        <v>-75.01519999999999</v>
+      </c>
+      <c r="E2927" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2927">
+        <v>1</v>
+      </c>
+      <c r="G2927" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="C2928">
+        <v>13</v>
+      </c>
+      <c r="D2928">
+        <v>122</v>
+      </c>
+      <c r="E2928" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2928">
+        <v>2</v>
+      </c>
+      <c r="G2928" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C2929">
+        <v>51.9194</v>
+      </c>
+      <c r="D2929">
+        <v>19.1451</v>
+      </c>
+      <c r="E2929" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2929">
+        <v>4</v>
+      </c>
+      <c r="G2929" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C2930">
+        <v>39.3999</v>
+      </c>
+      <c r="D2930">
+        <v>-8.224500000000001</v>
+      </c>
+      <c r="E2930" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2930">
+        <v>5</v>
+      </c>
+      <c r="G2930" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C2931">
+        <v>45.9432</v>
+      </c>
+      <c r="D2931">
+        <v>24.9668</v>
+      </c>
+      <c r="E2931" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2931">
+        <v>3</v>
+      </c>
+      <c r="G2931" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="C2932">
+        <v>60</v>
+      </c>
+      <c r="D2932">
+        <v>90</v>
+      </c>
+      <c r="E2932" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2932">
+        <v>9</v>
+      </c>
+      <c r="G2932" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C2933">
+        <v>44.0165</v>
+      </c>
+      <c r="D2933">
+        <v>21.0059</v>
+      </c>
+      <c r="E2933" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2933">
+        <v>1</v>
+      </c>
+      <c r="G2933" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C2934">
+        <v>1.2833</v>
+      </c>
+      <c r="D2934">
+        <v>103.8333</v>
+      </c>
+      <c r="E2934" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2934">
+        <v>13</v>
+      </c>
+      <c r="G2934" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C2935">
+        <v>48.669</v>
+      </c>
+      <c r="D2935">
+        <v>19.699</v>
+      </c>
+      <c r="E2935" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2935">
+        <v>1</v>
+      </c>
+      <c r="G2935" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C2936">
+        <v>46.1512</v>
+      </c>
+      <c r="D2936">
+        <v>14.9955</v>
+      </c>
+      <c r="E2936" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2936">
+        <v>5</v>
+      </c>
+      <c r="G2936" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2937">
+        <v>36</v>
+      </c>
+      <c r="D2937">
+        <v>128</v>
+      </c>
+      <c r="E2937" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2937">
+        <v>505</v>
+      </c>
+      <c r="G2937" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2938">
+        <v>40</v>
+      </c>
+      <c r="D2938">
+        <v>-4</v>
+      </c>
+      <c r="E2938" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2938">
+        <v>141</v>
+      </c>
+      <c r="G2938" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C2939">
+        <v>63</v>
+      </c>
+      <c r="D2939">
+        <v>16</v>
+      </c>
+      <c r="E2939" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2939">
+        <v>7</v>
+      </c>
+      <c r="G2939" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C2940">
+        <v>46.8182</v>
+      </c>
+      <c r="D2940">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E2940" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2940">
+        <v>100</v>
+      </c>
+      <c r="G2940" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C2941">
+        <v>15</v>
+      </c>
+      <c r="D2941">
+        <v>101</v>
+      </c>
+      <c r="E2941" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2941">
+        <v>1</v>
+      </c>
+      <c r="G2941" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="C2942">
+        <v>8.6195</v>
+      </c>
+      <c r="D2942">
+        <v>0.8248</v>
+      </c>
+      <c r="E2942" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2942">
+        <v>1</v>
+      </c>
+      <c r="G2942" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C2943">
+        <v>55</v>
+      </c>
+      <c r="D2943">
+        <v>-3</v>
+      </c>
+      <c r="E2943" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2943">
+        <v>48</v>
+      </c>
+      <c r="G2943" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>Vatican City</t>
+        </is>
+      </c>
+      <c r="C2944">
+        <v>41.9029</v>
+      </c>
+      <c r="D2944">
+        <v>12.4534</v>
+      </c>
+      <c r="E2944" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2944">
+        <v>1</v>
+      </c>
+      <c r="G2944" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="inlineStr">
+        <is>
+          <t>Norfolk County, MA</t>
+        </is>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2945">
+        <v>42.1767</v>
+      </c>
+      <c r="D2945">
+        <v>-71.14490000000001</v>
+      </c>
+      <c r="E2945" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2945">
+        <v>1</v>
+      </c>
+      <c r="G2945" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2946">
+        <v>40.1824</v>
+      </c>
+      <c r="D2946">
+        <v>116.4142</v>
+      </c>
+      <c r="E2946" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2946">
+        <v>4</v>
+      </c>
+      <c r="G2946" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2947">
+        <v>42.3601</v>
+      </c>
+      <c r="D2947">
+        <v>-71.05889999999999</v>
+      </c>
+      <c r="E2947" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2947">
+        <v>-1</v>
+      </c>
+      <c r="G2947" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2948">
+        <v>49.2827</v>
+      </c>
+      <c r="D2948">
+        <v>-123.1207</v>
+      </c>
+      <c r="E2948" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2948">
+        <v>8</v>
+      </c>
+      <c r="G2948" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="inlineStr">
+        <is>
+          <t>Calgary, Alberta</t>
+        </is>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2949">
+        <v>51.0447</v>
+      </c>
+      <c r="D2949">
+        <v>-114.0719</v>
+      </c>
+      <c r="E2949" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2949">
+        <v>1</v>
+      </c>
+      <c r="G2949" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="inlineStr">
+        <is>
+          <t>Chatham County, NC</t>
+        </is>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2950">
+        <v>35.7211</v>
+      </c>
+      <c r="D2950">
+        <v>-79.1781</v>
+      </c>
+      <c r="E2950" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2950">
+        <v>1</v>
+      </c>
+      <c r="G2950" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="inlineStr">
+        <is>
+          <t>Contra Costa County, CA</t>
+        </is>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2951">
+        <v>37.8534</v>
+      </c>
+      <c r="D2951">
+        <v>-121.9018</v>
+      </c>
+      <c r="E2951" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2951">
+        <v>2</v>
+      </c>
+      <c r="G2951" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="inlineStr">
+        <is>
+          <t>Delaware County, PA</t>
+        </is>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2952">
+        <v>39.9078</v>
+      </c>
+      <c r="D2952">
+        <v>-75.3879</v>
+      </c>
+      <c r="E2952" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2952">
+        <v>1</v>
+      </c>
+      <c r="G2952" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="inlineStr">
+        <is>
+          <t>Denver County, CO</t>
+        </is>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2953">
+        <v>39.7392</v>
+      </c>
+      <c r="D2953">
+        <v>-104.9903</v>
+      </c>
+      <c r="E2953" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2953">
+        <v>2</v>
+      </c>
+      <c r="G2953" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C2954">
+        <v>35.4437</v>
+      </c>
+      <c r="D2954">
+        <v>139.638</v>
+      </c>
+      <c r="E2954" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2954">
+        <v>-10</v>
+      </c>
+      <c r="G2954" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="inlineStr">
+        <is>
+          <t>Douglas County, NE</t>
+        </is>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2955">
+        <v>41.3148</v>
+      </c>
+      <c r="D2955">
+        <v>-96.1951</v>
+      </c>
+      <c r="E2955" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2955">
+        <v>1</v>
+      </c>
+      <c r="G2955" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="inlineStr">
+        <is>
+          <t>Fayette County, KY</t>
+        </is>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2956">
+        <v>38.0606</v>
+      </c>
+      <c r="D2956">
+        <v>-84.4803</v>
+      </c>
+      <c r="E2956" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2956">
+        <v>1</v>
+      </c>
+      <c r="G2956" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="inlineStr">
+        <is>
+          <t>Floyd County, GA</t>
+        </is>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2957">
+        <v>34.2829</v>
+      </c>
+      <c r="D2957">
+        <v>-85.2308</v>
+      </c>
+      <c r="E2957" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2957">
+        <v>1</v>
+      </c>
+      <c r="G2957" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2958">
+        <v>36.0611</v>
+      </c>
+      <c r="D2958">
+        <v>103.8343</v>
+      </c>
+      <c r="E2958" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2958">
+        <v>17</v>
+      </c>
+      <c r="G2958" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2959">
+        <v>23.3417</v>
+      </c>
+      <c r="D2959">
+        <v>113.4244</v>
+      </c>
+      <c r="E2959" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2959">
+        <v>1</v>
+      </c>
+      <c r="G2959" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="inlineStr">
+        <is>
+          <t>Harris County, TX</t>
+        </is>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2960">
+        <v>29.7752</v>
+      </c>
+      <c r="D2960">
+        <v>-95.3103</v>
+      </c>
+      <c r="E2960" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2960">
+        <v>1</v>
+      </c>
+      <c r="G2960" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2961">
+        <v>22.3</v>
+      </c>
+      <c r="D2961">
+        <v>114.2</v>
+      </c>
+      <c r="E2961" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2961">
+        <v>2</v>
+      </c>
+      <c r="G2961" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2962">
+        <v>30.9756</v>
+      </c>
+      <c r="D2962">
+        <v>112.2707</v>
+      </c>
+      <c r="E2962" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2962">
+        <v>126</v>
+      </c>
+      <c r="G2962" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2963">
+        <v>47.6062</v>
+      </c>
+      <c r="D2963">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2963" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2963">
+        <v>7</v>
+      </c>
+      <c r="G2963" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2964">
+        <v>34.0522</v>
+      </c>
+      <c r="D2964">
+        <v>-118.2437</v>
+      </c>
+      <c r="E2964" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2964">
+        <v>2</v>
+      </c>
+      <c r="G2964" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="inlineStr">
+        <is>
+          <t>Maricopa County, AZ</t>
+        </is>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2965">
+        <v>33.2918</v>
+      </c>
+      <c r="D2965">
+        <v>-112.4291</v>
+      </c>
+      <c r="E2965" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2965">
+        <v>1</v>
+      </c>
+      <c r="G2965" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="inlineStr">
+        <is>
+          <t>Marion County, IN</t>
+        </is>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2966">
+        <v>39.8362</v>
+      </c>
+      <c r="D2966">
+        <v>-86.1752</v>
+      </c>
+      <c r="E2966" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2966">
+        <v>1</v>
+      </c>
+      <c r="G2966" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="inlineStr">
+        <is>
+          <t>Middlesex County, MA</t>
+        </is>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2967">
+        <v>42.4672</v>
+      </c>
+      <c r="D2967">
+        <v>-71.28740000000001</v>
+      </c>
+      <c r="E2967" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2967">
+        <v>1</v>
+      </c>
+      <c r="G2967" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="inlineStr">
+        <is>
+          <t>Montgomery County, MD</t>
+        </is>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2968">
+        <v>39.1547</v>
+      </c>
+      <c r="D2968">
+        <v>-77.2405</v>
+      </c>
+      <c r="E2968" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2968">
+        <v>3</v>
+      </c>
+      <c r="G2968" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="inlineStr">
+        <is>
+          <t>Nassau County, NY</t>
+        </is>
+      </c>
+      <c r="B2969" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2969">
+        <v>40.6546</v>
+      </c>
+      <c r="D2969">
+        <v>-73.5594</v>
+      </c>
+      <c r="E2969" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2969">
+        <v>1</v>
+      </c>
+      <c r="G2969" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2970">
+        <v>-33.8688</v>
+      </c>
+      <c r="D2970">
+        <v>151.2093</v>
+      </c>
+      <c r="E2970" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2970">
+        <v>4</v>
+      </c>
+      <c r="G2970" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="inlineStr">
+        <is>
+          <t>New York City, NY</t>
+        </is>
+      </c>
+      <c r="B2971" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2971">
+        <v>40.7128</v>
+      </c>
+      <c r="D2971">
+        <v>-74.006</v>
+      </c>
+      <c r="E2971" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2971">
+        <v>-4</v>
+      </c>
+      <c r="G2971" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="inlineStr">
+        <is>
+          <t>New York County, NY</t>
+        </is>
+      </c>
+      <c r="B2972" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2972">
+        <v>40.7128</v>
+      </c>
+      <c r="D2972">
+        <v>-74.006</v>
+      </c>
+      <c r="E2972" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2972">
+        <v>16</v>
+      </c>
+      <c r="G2972" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="inlineStr">
+        <is>
+          <t>Northern Territory</t>
+        </is>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2973">
+        <v>-12.4634</v>
+      </c>
+      <c r="D2973">
+        <v>130.8456</v>
+      </c>
+      <c r="E2973" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2973">
+        <v>-1</v>
+      </c>
+      <c r="G2973" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="inlineStr">
+        <is>
+          <t>Norwell County, MA</t>
+        </is>
+      </c>
+      <c r="B2974" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2974">
+        <v>42.1615</v>
+      </c>
+      <c r="D2974">
+        <v>-70.7928</v>
+      </c>
+      <c r="E2974" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2974">
+        <v>1</v>
+      </c>
+      <c r="G2974" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="inlineStr">
+        <is>
+          <t>Placer County, CA</t>
+        </is>
+      </c>
+      <c r="B2975" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2975">
+        <v>39.0916</v>
+      </c>
+      <c r="D2975">
+        <v>-120.8039</v>
+      </c>
+      <c r="E2975" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2975">
+        <v>3</v>
+      </c>
+      <c r="G2975" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="inlineStr">
+        <is>
+          <t>Queens County, NY</t>
+        </is>
+      </c>
+      <c r="B2976" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2976">
+        <v>40.7282</v>
+      </c>
+      <c r="D2976">
+        <v>-73.7949</v>
+      </c>
+      <c r="E2976" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2976">
+        <v>-1</v>
+      </c>
+      <c r="G2976" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="inlineStr">
+        <is>
+          <t>Ramsey County, MN</t>
+        </is>
+      </c>
+      <c r="B2977" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2977">
+        <v>44.9964</v>
+      </c>
+      <c r="D2977">
+        <v>-93.0616</v>
+      </c>
+      <c r="E2977" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2977">
+        <v>1</v>
+      </c>
+      <c r="G2977" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B2978" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2978">
+        <v>31.202</v>
+      </c>
+      <c r="D2978">
+        <v>121.4491</v>
+      </c>
+      <c r="E2978" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2978">
+        <v>3</v>
+      </c>
+      <c r="G2978" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="inlineStr">
+        <is>
+          <t>Snohomish County, WA</t>
+        </is>
+      </c>
+      <c r="B2979" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2979">
+        <v>48.033</v>
+      </c>
+      <c r="D2979">
+        <v>-121.8339</v>
+      </c>
+      <c r="E2979" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2979">
+        <v>1</v>
+      </c>
+      <c r="G2979" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="inlineStr">
+        <is>
+          <t>South Australia</t>
+        </is>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2980">
+        <v>-34.9285</v>
+      </c>
+      <c r="D2980">
+        <v>138.6007</v>
+      </c>
+      <c r="E2980" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2980">
+        <v>2</v>
+      </c>
+      <c r="G2980" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="inlineStr">
+        <is>
+          <t>Suffolk County, MA</t>
+        </is>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2981">
+        <v>42.3601</v>
+      </c>
+      <c r="D2981">
+        <v>-71.05889999999999</v>
+      </c>
+      <c r="E2981" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2981">
+        <v>3</v>
+      </c>
+      <c r="G2981" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="inlineStr">
+        <is>
+          <t>Summit County, CO</t>
+        </is>
+      </c>
+      <c r="B2982" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2982">
+        <v>39.5912</v>
+      </c>
+      <c r="D2982">
+        <v>-106.064</v>
+      </c>
+      <c r="E2982" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2982">
+        <v>2</v>
+      </c>
+      <c r="G2982" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B2983" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C2983">
+        <v>23.7</v>
+      </c>
+      <c r="D2983">
+        <v>121</v>
+      </c>
+      <c r="E2983" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2983">
+        <v>1</v>
+      </c>
+      <c r="G2983" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="inlineStr">
+        <is>
+          <t>Toronto, ON</t>
+        </is>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2984">
+        <v>43.6532</v>
+      </c>
+      <c r="D2984">
+        <v>-79.3832</v>
+      </c>
+      <c r="E2984" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2984">
+        <v>3</v>
+      </c>
+      <c r="G2984" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="inlineStr">
+        <is>
+          <t>Unassigned Location, WA</t>
+        </is>
+      </c>
+      <c r="B2985" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2985">
+        <v>47.7511</v>
+      </c>
+      <c r="D2985">
+        <v>-120.7401</v>
+      </c>
+      <c r="E2985" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2985">
+        <v>5</v>
+      </c>
+      <c r="G2985" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="inlineStr">
+        <is>
+          <t>Washoe County, NV</t>
+        </is>
+      </c>
+      <c r="B2986" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2986">
+        <v>40.5608</v>
+      </c>
+      <c r="D2986">
+        <v>-119.6035</v>
+      </c>
+      <c r="E2986" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2986">
+        <v>1</v>
+      </c>
+      <c r="G2986" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="inlineStr">
+        <is>
+          <t>Wayne County, PA</t>
+        </is>
+      </c>
+      <c r="B2987" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2987">
+        <v>41.6739</v>
+      </c>
+      <c r="D2987">
+        <v>-75.2479</v>
+      </c>
+      <c r="E2987" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2987">
+        <v>1</v>
+      </c>
+      <c r="G2987" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="inlineStr">
+        <is>
+          <t>Westchester County, NY</t>
+        </is>
+      </c>
+      <c r="B2988" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2988">
+        <v>41.122</v>
+      </c>
+      <c r="D2988">
+        <v>-73.7949</v>
+      </c>
+      <c r="E2988" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2988">
+        <v>1</v>
+      </c>
+      <c r="G2988" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="inlineStr">
+        <is>
+          <t>Yolo County, CA</t>
+        </is>
+      </c>
+      <c r="B2989" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2989">
+        <v>38.7646</v>
+      </c>
+      <c r="D2989">
+        <v>-121.9018</v>
+      </c>
+      <c r="E2989" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2989">
+        <v>1</v>
+      </c>
+      <c r="G2989" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="B2990" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2990">
+        <v>47</v>
+      </c>
+      <c r="D2990">
+        <v>2</v>
+      </c>
+      <c r="E2990" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2990">
+        <v>3</v>
+      </c>
+      <c r="G2990" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="B2991" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C2991">
+        <v>32</v>
+      </c>
+      <c r="D2991">
+        <v>53</v>
+      </c>
+      <c r="E2991" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2991">
+        <v>17</v>
+      </c>
+      <c r="G2991" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="B2992" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C2992">
+        <v>33</v>
+      </c>
+      <c r="D2992">
+        <v>44</v>
+      </c>
+      <c r="E2992" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2992">
+        <v>1</v>
+      </c>
+      <c r="G2992" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="B2993" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C2993">
+        <v>43</v>
+      </c>
+      <c r="D2993">
+        <v>12</v>
+      </c>
+      <c r="E2993" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2993">
+        <v>49</v>
+      </c>
+      <c r="G2993" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C2994">
+        <v>52.1326</v>
+      </c>
+      <c r="D2994">
+        <v>5.2913</v>
+      </c>
+      <c r="E2994" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2994">
+        <v>1</v>
+      </c>
+      <c r="G2994" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="B2995" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C2995">
+        <v>36</v>
+      </c>
+      <c r="D2995">
+        <v>128</v>
+      </c>
+      <c r="E2995" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2995">
+        <v>7</v>
+      </c>
+      <c r="G2995" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="B2996" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C2996">
+        <v>40</v>
+      </c>
+      <c r="D2996">
+        <v>-4</v>
+      </c>
+      <c r="E2996" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2996">
+        <v>2</v>
+      </c>
+      <c r="G2996" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="B2997" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C2997">
+        <v>55</v>
+      </c>
+      <c r="D2997">
+        <v>-3</v>
+      </c>
+      <c r="E2997" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2997">
+        <v>1</v>
+      </c>
+      <c r="G2997" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B2998" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C2998">
+        <v>30.9756</v>
+      </c>
+      <c r="D2998">
+        <v>112.2707</v>
+      </c>
+      <c r="E2998" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2998">
+        <v>29</v>
+      </c>
+      <c r="G2998" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B2999" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2999">
+        <v>47.6062</v>
+      </c>
+      <c r="D2999">
+        <v>-122.3321</v>
+      </c>
+      <c r="E2999" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F2999">
+        <v>2</v>
+      </c>
+      <c r="G2999" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="B3000" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C3000">
+        <v>26.0275</v>
+      </c>
+      <c r="D3000">
+        <v>50.55</v>
+      </c>
+      <c r="E3000" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3000">
+        <v>4</v>
+      </c>
+      <c r="G3000" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="B3001" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C3001">
+        <v>56.2639</v>
+      </c>
+      <c r="D3001">
+        <v>9.501799999999999</v>
+      </c>
+      <c r="E3001" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3001">
+        <v>1</v>
+      </c>
+      <c r="G3001" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="B3002" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C3002">
+        <v>51</v>
+      </c>
+      <c r="D3002">
+        <v>9</v>
+      </c>
+      <c r="E3002" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3002">
+        <v>1</v>
+      </c>
+      <c r="G3002" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C3003">
+        <v>32</v>
+      </c>
+      <c r="D3003">
+        <v>53</v>
+      </c>
+      <c r="E3003" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3003">
+        <v>174</v>
+      </c>
+      <c r="G3003" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="B3004" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C3004">
+        <v>31</v>
+      </c>
+      <c r="D3004">
+        <v>35</v>
+      </c>
+      <c r="E3004" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3004">
+        <v>1</v>
+      </c>
+      <c r="G3004" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="B3005" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C3005">
+        <v>43</v>
+      </c>
+      <c r="D3005">
+        <v>12</v>
+      </c>
+      <c r="E3005" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3005">
+        <v>109</v>
+      </c>
+      <c r="G3005" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="B3006" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C3006">
+        <v>36</v>
+      </c>
+      <c r="D3006">
+        <v>138</v>
+      </c>
+      <c r="E3006" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3006">
+        <v>3</v>
+      </c>
+      <c r="G3006" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="B3007" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C3007">
+        <v>36</v>
+      </c>
+      <c r="D3007">
+        <v>128</v>
+      </c>
+      <c r="E3007" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3007">
+        <v>94</v>
+      </c>
+      <c r="G3007" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B3008" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3008">
+        <v>31.8257</v>
+      </c>
+      <c r="D3008">
+        <v>117.2264</v>
+      </c>
+      <c r="E3008" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3008">
+        <v>9</v>
+      </c>
+      <c r="G3008" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3009">
+        <v>40.1824</v>
+      </c>
+      <c r="D3009">
+        <v>116.4142</v>
+      </c>
+      <c r="E3009" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3009">
+        <v>2</v>
+      </c>
+      <c r="G3009" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3010">
+        <v>42.3601</v>
+      </c>
+      <c r="D3010">
+        <v>-71.05889999999999</v>
+      </c>
+      <c r="E3010" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3010">
+        <v>-1</v>
+      </c>
+      <c r="G3010" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B3011" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3011">
+        <v>30.0572</v>
+      </c>
+      <c r="D3011">
+        <v>107.874</v>
+      </c>
+      <c r="E3011" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3011">
+        <v>1</v>
+      </c>
+      <c r="G3011" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="inlineStr">
+        <is>
+          <t>Diamond Princess cruise ship</t>
+        </is>
+      </c>
+      <c r="B3012" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C3012">
+        <v>35.4437</v>
+      </c>
+      <c r="D3012">
+        <v>139.638</v>
+      </c>
+      <c r="E3012" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3012">
+        <v>30</v>
+      </c>
+      <c r="G3012" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3013">
+        <v>26.0789</v>
+      </c>
+      <c r="D3013">
+        <v>117.9874</v>
+      </c>
+      <c r="E3013" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3013">
+        <v>7</v>
+      </c>
+      <c r="G3013" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B3014" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3014">
+        <v>23.3417</v>
+      </c>
+      <c r="D3014">
+        <v>113.4244</v>
+      </c>
+      <c r="E3014" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3014">
+        <v>35</v>
+      </c>
+      <c r="G3014" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B3015" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3015">
+        <v>23.8298</v>
+      </c>
+      <c r="D3015">
+        <v>108.7881</v>
+      </c>
+      <c r="E3015" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3015">
+        <v>3</v>
+      </c>
+      <c r="G3015" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B3016" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3016">
+        <v>38.0428</v>
+      </c>
+      <c r="D3016">
+        <v>114.5149</v>
+      </c>
+      <c r="E3016" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3016">
+        <v>1</v>
+      </c>
+      <c r="G3016" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B3017" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3017">
+        <v>47.862</v>
+      </c>
+      <c r="D3017">
+        <v>127.7615</v>
+      </c>
+      <c r="E3017" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3017">
+        <v>17</v>
+      </c>
+      <c r="G3017" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B3018" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3018">
+        <v>33.88202</v>
+      </c>
+      <c r="D3018">
+        <v>113.614</v>
+      </c>
+      <c r="E3018" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3018">
+        <v>5</v>
+      </c>
+      <c r="G3018" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B3019" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C3019">
+        <v>22.3</v>
+      </c>
+      <c r="D3019">
+        <v>114.2</v>
+      </c>
+      <c r="E3019" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3019">
+        <v>3</v>
+      </c>
+      <c r="G3019" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B3020" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3020">
+        <v>30.9756</v>
+      </c>
+      <c r="D3020">
+        <v>112.2707</v>
+      </c>
+      <c r="E3020" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3020">
+        <v>1441</v>
+      </c>
+      <c r="G3020" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B3021" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3021">
+        <v>27.6104</v>
+      </c>
+      <c r="D3021">
+        <v>111.7088</v>
+      </c>
+      <c r="E3021" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3021">
+        <v>17</v>
+      </c>
+      <c r="G3021" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B3022" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3022">
+        <v>32.9711</v>
+      </c>
+      <c r="D3022">
+        <v>119.455</v>
+      </c>
+      <c r="E3022" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3022">
+        <v>11</v>
+      </c>
+      <c r="G3022" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3023">
+        <v>27.614</v>
+      </c>
+      <c r="D3023">
+        <v>115.7221</v>
+      </c>
+      <c r="E3023" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3023">
+        <v>8</v>
+      </c>
+      <c r="G3023" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="B3024" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3024">
+        <v>43.6661</v>
+      </c>
+      <c r="D3024">
+        <v>126.1923</v>
+      </c>
+      <c r="E3024" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3024">
+        <v>2</v>
+      </c>
+      <c r="G3024" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="B3025" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
+      <c r="C3025">
+        <v>22.1667</v>
+      </c>
+      <c r="D3025">
+        <v>113.55</v>
+      </c>
+      <c r="E3025" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3025">
+        <v>1</v>
+      </c>
+      <c r="G3025" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" t="inlineStr">
+        <is>
+          <t>Ningxia</t>
+        </is>
+      </c>
+      <c r="B3026" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3026">
+        <v>37.2692</v>
+      </c>
+      <c r="D3026">
+        <v>106.1655</v>
+      </c>
+      <c r="E3026" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3026">
+        <v>2</v>
+      </c>
+      <c r="G3026" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B3027" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3027">
+        <v>35.1917</v>
+      </c>
+      <c r="D3027">
+        <v>108.8701</v>
+      </c>
+      <c r="E3027" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3027">
+        <v>2</v>
+      </c>
+      <c r="G3027" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B3028" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3028">
+        <v>36.3427</v>
+      </c>
+      <c r="D3028">
+        <v>118.1498</v>
+      </c>
+      <c r="E3028" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3028">
+        <v>40</v>
+      </c>
+      <c r="G3028" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B3029" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3029">
+        <v>31.202</v>
+      </c>
+      <c r="D3029">
+        <v>121.4491</v>
+      </c>
+      <c r="E3029" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3029">
+        <v>3</v>
+      </c>
+      <c r="G3029" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B3030" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3030">
+        <v>30.6171</v>
+      </c>
+      <c r="D3030">
+        <v>102.7103</v>
+      </c>
+      <c r="E3030" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3030">
+        <v>17</v>
+      </c>
+      <c r="G3030" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" t="inlineStr">
+        <is>
+          <t>Suffolk County, MA</t>
+        </is>
+      </c>
+      <c r="B3031" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3031">
+        <v>42.3601</v>
+      </c>
+      <c r="D3031">
+        <v>-71.05889999999999</v>
+      </c>
+      <c r="E3031" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3031">
+        <v>1</v>
+      </c>
+      <c r="G3031" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B3032" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3032">
+        <v>41.1129</v>
+      </c>
+      <c r="D3032">
+        <v>85.2401</v>
+      </c>
+      <c r="E3032" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3032">
+        <v>1</v>
+      </c>
+      <c r="G3032" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B3033" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3033">
+        <v>24.974</v>
+      </c>
+      <c r="D3033">
+        <v>101.487</v>
+      </c>
+      <c r="E3033" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3033">
+        <v>1</v>
+      </c>
+      <c r="G3033" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="B3034" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3034">
+        <v>29.1832</v>
+      </c>
+      <c r="D3034">
+        <v>120.0934</v>
+      </c>
+      <c r="E3034" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F3034">
+        <v>23</v>
+      </c>
+      <c r="G3034" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>

--- a/coronavirus_dataset.xlsx
+++ b/coronavirus_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3153"/>
+  <dimension ref="A1:G3320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -82557,25 +82557,25 @@
     <row r="2954">
       <c r="A2954" t="inlineStr">
         <is>
-          <t>Floyd County, GA</t>
+          <t>Gansu</t>
         </is>
       </c>
       <c r="B2954" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2954">
-        <v>34.2829</v>
+        <v>36.0611</v>
       </c>
       <c r="D2954">
-        <v>-85.2308</v>
+        <v>103.8343</v>
       </c>
       <c r="E2954" s="2">
         <v>43896</v>
       </c>
       <c r="F2954">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G2954" t="inlineStr">
         <is>
@@ -82586,7 +82586,7 @@
     <row r="2955">
       <c r="A2955" t="inlineStr">
         <is>
-          <t>Gansu</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="B2955" t="inlineStr">
@@ -82595,16 +82595,16 @@
         </is>
       </c>
       <c r="C2955">
-        <v>36.0611</v>
+        <v>23.3417</v>
       </c>
       <c r="D2955">
-        <v>103.8343</v>
+        <v>113.4244</v>
       </c>
       <c r="E2955" s="2">
         <v>43896</v>
       </c>
       <c r="F2955">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G2955" t="inlineStr">
         <is>
@@ -82615,19 +82615,19 @@
     <row r="2956">
       <c r="A2956" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Harris County, TX</t>
         </is>
       </c>
       <c r="B2956" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2956">
-        <v>23.3417</v>
+        <v>29.7752</v>
       </c>
       <c r="D2956">
-        <v>113.4244</v>
+        <v>-95.3103</v>
       </c>
       <c r="E2956" s="2">
         <v>43896</v>
@@ -82644,25 +82644,25 @@
     <row r="2957">
       <c r="A2957" t="inlineStr">
         <is>
-          <t>Harris County, TX</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B2957" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C2957">
-        <v>29.7752</v>
+        <v>22.3</v>
       </c>
       <c r="D2957">
-        <v>-95.3103</v>
+        <v>114.2</v>
       </c>
       <c r="E2957" s="2">
         <v>43896</v>
       </c>
       <c r="F2957">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2957" t="inlineStr">
         <is>
@@ -82673,25 +82673,25 @@
     <row r="2958">
       <c r="A2958" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B2958" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C2958">
-        <v>22.3</v>
+        <v>30.9756</v>
       </c>
       <c r="D2958">
-        <v>114.2</v>
+        <v>112.2707</v>
       </c>
       <c r="E2958" s="2">
         <v>43896</v>
       </c>
       <c r="F2958">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G2958" t="inlineStr">
         <is>
@@ -82702,25 +82702,25 @@
     <row r="2959">
       <c r="A2959" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B2959" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2959">
-        <v>30.9756</v>
+        <v>47.6062</v>
       </c>
       <c r="D2959">
-        <v>112.2707</v>
+        <v>-122.3321</v>
       </c>
       <c r="E2959" s="2">
         <v>43896</v>
       </c>
       <c r="F2959">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="G2959" t="inlineStr">
         <is>
@@ -82731,7 +82731,7 @@
     <row r="2960">
       <c r="A2960" t="inlineStr">
         <is>
-          <t>King County, WA</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="B2960" t="inlineStr">
@@ -82740,16 +82740,16 @@
         </is>
       </c>
       <c r="C2960">
-        <v>47.6062</v>
+        <v>34.0522</v>
       </c>
       <c r="D2960">
-        <v>-122.3321</v>
+        <v>-118.2437</v>
       </c>
       <c r="E2960" s="2">
         <v>43896</v>
       </c>
       <c r="F2960">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2960" t="inlineStr">
         <is>
@@ -82760,7 +82760,7 @@
     <row r="2961">
       <c r="A2961" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Maricopa County, AZ</t>
         </is>
       </c>
       <c r="B2961" t="inlineStr">
@@ -82769,16 +82769,16 @@
         </is>
       </c>
       <c r="C2961">
-        <v>34.0522</v>
+        <v>33.2918</v>
       </c>
       <c r="D2961">
-        <v>-118.2437</v>
+        <v>-112.4291</v>
       </c>
       <c r="E2961" s="2">
         <v>43896</v>
       </c>
       <c r="F2961">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2961" t="inlineStr">
         <is>
@@ -82789,7 +82789,7 @@
     <row r="2962">
       <c r="A2962" t="inlineStr">
         <is>
-          <t>Maricopa County, AZ</t>
+          <t>Marion County, IN</t>
         </is>
       </c>
       <c r="B2962" t="inlineStr">
@@ -82798,10 +82798,10 @@
         </is>
       </c>
       <c r="C2962">
-        <v>33.2918</v>
+        <v>39.8362</v>
       </c>
       <c r="D2962">
-        <v>-112.4291</v>
+        <v>-86.1752</v>
       </c>
       <c r="E2962" s="2">
         <v>43896</v>
@@ -82818,7 +82818,7 @@
     <row r="2963">
       <c r="A2963" t="inlineStr">
         <is>
-          <t>Marion County, IN</t>
+          <t>Middlesex County, MA</t>
         </is>
       </c>
       <c r="B2963" t="inlineStr">
@@ -82827,10 +82827,10 @@
         </is>
       </c>
       <c r="C2963">
-        <v>39.8362</v>
+        <v>42.4672</v>
       </c>
       <c r="D2963">
-        <v>-86.1752</v>
+        <v>-71.28740000000001</v>
       </c>
       <c r="E2963" s="2">
         <v>43896</v>
@@ -82847,7 +82847,7 @@
     <row r="2964">
       <c r="A2964" t="inlineStr">
         <is>
-          <t>Middlesex County, MA</t>
+          <t>Montgomery County, MD</t>
         </is>
       </c>
       <c r="B2964" t="inlineStr">
@@ -82856,16 +82856,16 @@
         </is>
       </c>
       <c r="C2964">
-        <v>42.4672</v>
+        <v>39.1547</v>
       </c>
       <c r="D2964">
-        <v>-71.28740000000001</v>
+        <v>-77.2405</v>
       </c>
       <c r="E2964" s="2">
         <v>43896</v>
       </c>
       <c r="F2964">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2964" t="inlineStr">
         <is>
@@ -82876,25 +82876,25 @@
     <row r="2965">
       <c r="A2965" t="inlineStr">
         <is>
-          <t>Montgomery County, MD</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="B2965" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2965">
-        <v>39.1547</v>
+        <v>-33.8688</v>
       </c>
       <c r="D2965">
-        <v>-77.2405</v>
+        <v>151.2093</v>
       </c>
       <c r="E2965" s="2">
         <v>43896</v>
       </c>
       <c r="F2965">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2965" t="inlineStr">
         <is>
@@ -82905,25 +82905,25 @@
     <row r="2966">
       <c r="A2966" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>New York County, NY</t>
         </is>
       </c>
       <c r="B2966" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2966">
-        <v>-33.8688</v>
+        <v>40.7128</v>
       </c>
       <c r="D2966">
-        <v>151.2093</v>
+        <v>-74.006</v>
       </c>
       <c r="E2966" s="2">
         <v>43896</v>
       </c>
       <c r="F2966">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G2966" t="inlineStr">
         <is>
@@ -82934,25 +82934,25 @@
     <row r="2967">
       <c r="A2967" t="inlineStr">
         <is>
-          <t>New York County, NY</t>
+          <t>Northern Territory</t>
         </is>
       </c>
       <c r="B2967" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2967">
-        <v>40.7128</v>
+        <v>-12.4634</v>
       </c>
       <c r="D2967">
-        <v>-74.006</v>
+        <v>130.8456</v>
       </c>
       <c r="E2967" s="2">
         <v>43896</v>
       </c>
       <c r="F2967">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="G2967" t="inlineStr">
         <is>
@@ -82963,25 +82963,25 @@
     <row r="2968">
       <c r="A2968" t="inlineStr">
         <is>
-          <t>Northern Territory</t>
+          <t>Placer County, CA</t>
         </is>
       </c>
       <c r="B2968" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2968">
-        <v>-12.4634</v>
+        <v>39.0916</v>
       </c>
       <c r="D2968">
-        <v>130.8456</v>
+        <v>-120.8039</v>
       </c>
       <c r="E2968" s="2">
         <v>43896</v>
       </c>
       <c r="F2968">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G2968" t="inlineStr">
         <is>
@@ -82992,7 +82992,7 @@
     <row r="2969">
       <c r="A2969" t="inlineStr">
         <is>
-          <t>Placer County, CA</t>
+          <t>Plymouth County, MA</t>
         </is>
       </c>
       <c r="B2969" t="inlineStr">
@@ -83001,16 +83001,16 @@
         </is>
       </c>
       <c r="C2969">
-        <v>39.0916</v>
+        <v>42.1615</v>
       </c>
       <c r="D2969">
-        <v>-120.8039</v>
+        <v>-70.7928</v>
       </c>
       <c r="E2969" s="2">
         <v>43896</v>
       </c>
       <c r="F2969">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2969" t="inlineStr">
         <is>
@@ -83021,7 +83021,7 @@
     <row r="2970">
       <c r="A2970" t="inlineStr">
         <is>
-          <t>Plymouth County, MA</t>
+          <t>Polk County, GA</t>
         </is>
       </c>
       <c r="B2970" t="inlineStr">
@@ -83030,10 +83030,10 @@
         </is>
       </c>
       <c r="C2970">
-        <v>42.1615</v>
+        <v>34.0132</v>
       </c>
       <c r="D2970">
-        <v>-70.7928</v>
+        <v>-85.14790000000001</v>
       </c>
       <c r="E2970" s="2">
         <v>43896</v>
@@ -85936,7 +85936,7 @@
     <row r="3080">
       <c r="A3080" t="inlineStr">
         <is>
-          <t>Floyd County, GA</t>
+          <t>Fort Bend County, TX</t>
         </is>
       </c>
       <c r="B3080" t="inlineStr">
@@ -85945,16 +85945,16 @@
         </is>
       </c>
       <c r="C3080">
-        <v>34.2829</v>
+        <v>29.5693</v>
       </c>
       <c r="D3080">
-        <v>-85.2308</v>
+        <v>-95.8143</v>
       </c>
       <c r="E3080" s="2">
         <v>43897</v>
       </c>
       <c r="F3080">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3080" t="inlineStr">
         <is>
@@ -85965,7 +85965,7 @@
     <row r="3081">
       <c r="A3081" t="inlineStr">
         <is>
-          <t>Fort Bend County, TX</t>
+          <t>Fulton County, GA</t>
         </is>
       </c>
       <c r="B3081" t="inlineStr">
@@ -85974,16 +85974,16 @@
         </is>
       </c>
       <c r="C3081">
-        <v>29.5693</v>
+        <v>33.8034</v>
       </c>
       <c r="D3081">
-        <v>-95.8143</v>
+        <v>-84.3963</v>
       </c>
       <c r="E3081" s="2">
         <v>43897</v>
       </c>
       <c r="F3081">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3081" t="inlineStr">
         <is>
@@ -85994,19 +85994,19 @@
     <row r="3082">
       <c r="A3082" t="inlineStr">
         <is>
-          <t>Fulton County, GA</t>
+          <t>Gansu</t>
         </is>
       </c>
       <c r="B3082" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C3082">
-        <v>33.8034</v>
+        <v>36.0611</v>
       </c>
       <c r="D3082">
-        <v>-84.3963</v>
+        <v>103.8343</v>
       </c>
       <c r="E3082" s="2">
         <v>43897</v>
@@ -86023,25 +86023,25 @@
     <row r="3083">
       <c r="A3083" t="inlineStr">
         <is>
-          <t>Gansu</t>
+          <t>Grand Princess Cruise Ship</t>
         </is>
       </c>
       <c r="B3083" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C3083">
-        <v>36.0611</v>
+        <v>37.6489</v>
       </c>
       <c r="D3083">
-        <v>103.8343</v>
+        <v>-122.6655</v>
       </c>
       <c r="E3083" s="2">
         <v>43897</v>
       </c>
       <c r="F3083">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G3083" t="inlineStr">
         <is>
@@ -86052,7 +86052,7 @@
     <row r="3084">
       <c r="A3084" t="inlineStr">
         <is>
-          <t>Grand Princess Cruise Ship</t>
+          <t>Harris County, TX</t>
         </is>
       </c>
       <c r="B3084" t="inlineStr">
@@ -86061,16 +86061,16 @@
         </is>
       </c>
       <c r="C3084">
-        <v>37.6489</v>
+        <v>29.7752</v>
       </c>
       <c r="D3084">
-        <v>-122.6655</v>
+        <v>-95.3103</v>
       </c>
       <c r="E3084" s="2">
         <v>43897</v>
       </c>
       <c r="F3084">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G3084" t="inlineStr">
         <is>
@@ -86081,25 +86081,25 @@
     <row r="3085">
       <c r="A3085" t="inlineStr">
         <is>
-          <t>Harris County, TX</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B3085" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C3085">
-        <v>29.7752</v>
+        <v>22.3</v>
       </c>
       <c r="D3085">
-        <v>-95.3103</v>
+        <v>114.2</v>
       </c>
       <c r="E3085" s="2">
         <v>43897</v>
       </c>
       <c r="F3085">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3085" t="inlineStr">
         <is>
@@ -86110,19 +86110,19 @@
     <row r="3086">
       <c r="A3086" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Honolulu County, HI</t>
         </is>
       </c>
       <c r="B3086" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C3086">
-        <v>22.3</v>
+        <v>21.307</v>
       </c>
       <c r="D3086">
-        <v>114.2</v>
+        <v>-157.8584</v>
       </c>
       <c r="E3086" s="2">
         <v>43897</v>
@@ -86139,25 +86139,25 @@
     <row r="3087">
       <c r="A3087" t="inlineStr">
         <is>
-          <t>Honolulu County, HI</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B3087" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C3087">
-        <v>21.307</v>
+        <v>30.9756</v>
       </c>
       <c r="D3087">
-        <v>-157.8584</v>
+        <v>112.2707</v>
       </c>
       <c r="E3087" s="2">
         <v>43897</v>
       </c>
       <c r="F3087">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="G3087" t="inlineStr">
         <is>
@@ -86168,25 +86168,25 @@
     <row r="3088">
       <c r="A3088" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Jackson County, OR</t>
         </is>
       </c>
       <c r="B3088" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C3088">
-        <v>30.9756</v>
+        <v>42.3345</v>
       </c>
       <c r="D3088">
-        <v>112.2707</v>
+        <v>-122.7647</v>
       </c>
       <c r="E3088" s="2">
         <v>43897</v>
       </c>
       <c r="F3088">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="G3088" t="inlineStr">
         <is>
@@ -86197,7 +86197,7 @@
     <row r="3089">
       <c r="A3089" t="inlineStr">
         <is>
-          <t>Jackson County, OR</t>
+          <t>Jefferson County, WA</t>
         </is>
       </c>
       <c r="B3089" t="inlineStr">
@@ -86206,10 +86206,10 @@
         </is>
       </c>
       <c r="C3089">
-        <v>42.3345</v>
+        <v>47.7425</v>
       </c>
       <c r="D3089">
-        <v>-122.7647</v>
+        <v>-123.304</v>
       </c>
       <c r="E3089" s="2">
         <v>43897</v>
@@ -86226,7 +86226,7 @@
     <row r="3090">
       <c r="A3090" t="inlineStr">
         <is>
-          <t>Jefferson County, WA</t>
+          <t>Kershaw County, SC</t>
         </is>
       </c>
       <c r="B3090" t="inlineStr">
@@ -86235,10 +86235,10 @@
         </is>
       </c>
       <c r="C3090">
-        <v>47.7425</v>
+        <v>34.3672</v>
       </c>
       <c r="D3090">
-        <v>-123.304</v>
+        <v>-80.5883</v>
       </c>
       <c r="E3090" s="2">
         <v>43897</v>
@@ -86255,7 +86255,7 @@
     <row r="3091">
       <c r="A3091" t="inlineStr">
         <is>
-          <t>Kershaw County, SC</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B3091" t="inlineStr">
@@ -86264,16 +86264,16 @@
         </is>
       </c>
       <c r="C3091">
-        <v>34.3672</v>
+        <v>47.6062</v>
       </c>
       <c r="D3091">
-        <v>-80.5883</v>
+        <v>-122.3321</v>
       </c>
       <c r="E3091" s="2">
         <v>43897</v>
       </c>
       <c r="F3091">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G3091" t="inlineStr">
         <is>
@@ -86284,7 +86284,7 @@
     <row r="3092">
       <c r="A3092" t="inlineStr">
         <is>
-          <t>King County, WA</t>
+          <t>Klamath County, OR</t>
         </is>
       </c>
       <c r="B3092" t="inlineStr">
@@ -86293,16 +86293,16 @@
         </is>
       </c>
       <c r="C3092">
-        <v>47.6062</v>
+        <v>42.6953</v>
       </c>
       <c r="D3092">
-        <v>-122.3321</v>
+        <v>-121.6142</v>
       </c>
       <c r="E3092" s="2">
         <v>43897</v>
       </c>
       <c r="F3092">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G3092" t="inlineStr">
         <is>
@@ -86313,7 +86313,7 @@
     <row r="3093">
       <c r="A3093" t="inlineStr">
         <is>
-          <t>Klamath County, OR</t>
+          <t>Lee County, FL</t>
         </is>
       </c>
       <c r="B3093" t="inlineStr">
@@ -86322,16 +86322,16 @@
         </is>
       </c>
       <c r="C3093">
-        <v>42.6953</v>
+        <v>26.663</v>
       </c>
       <c r="D3093">
-        <v>-121.6142</v>
+        <v>-81.95350000000001</v>
       </c>
       <c r="E3093" s="2">
         <v>43897</v>
       </c>
       <c r="F3093">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3093" t="inlineStr">
         <is>
@@ -86342,7 +86342,7 @@
     <row r="3094">
       <c r="A3094" t="inlineStr">
         <is>
-          <t>Lee County, FL</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="B3094" t="inlineStr">
@@ -86351,16 +86351,16 @@
         </is>
       </c>
       <c r="C3094">
-        <v>26.663</v>
+        <v>34.0522</v>
       </c>
       <c r="D3094">
-        <v>-81.95350000000001</v>
+        <v>-118.2437</v>
       </c>
       <c r="E3094" s="2">
         <v>43897</v>
       </c>
       <c r="F3094">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3094" t="inlineStr">
         <is>
@@ -86371,7 +86371,7 @@
     <row r="3095">
       <c r="A3095" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t>Madera County, CA</t>
         </is>
       </c>
       <c r="B3095" t="inlineStr">
@@ -86380,10 +86380,10 @@
         </is>
       </c>
       <c r="C3095">
-        <v>34.0522</v>
+        <v>37.2519</v>
       </c>
       <c r="D3095">
-        <v>-118.2437</v>
+        <v>-119.6963</v>
       </c>
       <c r="E3095" s="2">
         <v>43897</v>
@@ -86400,7 +86400,7 @@
     <row r="3096">
       <c r="A3096" t="inlineStr">
         <is>
-          <t>Madera County, CA</t>
+          <t>Maricopa County, AZ</t>
         </is>
       </c>
       <c r="B3096" t="inlineStr">
@@ -86409,10 +86409,10 @@
         </is>
       </c>
       <c r="C3096">
-        <v>37.2519</v>
+        <v>33.2918</v>
       </c>
       <c r="D3096">
-        <v>-119.6963</v>
+        <v>-112.4291</v>
       </c>
       <c r="E3096" s="2">
         <v>43897</v>
@@ -86429,7 +86429,7 @@
     <row r="3097">
       <c r="A3097" t="inlineStr">
         <is>
-          <t>Maricopa County, AZ</t>
+          <t>Nassau County, NY</t>
         </is>
       </c>
       <c r="B3097" t="inlineStr">
@@ -86438,16 +86438,16 @@
         </is>
       </c>
       <c r="C3097">
-        <v>33.2918</v>
+        <v>40.6546</v>
       </c>
       <c r="D3097">
-        <v>-112.4291</v>
+        <v>-73.5594</v>
       </c>
       <c r="E3097" s="2">
         <v>43897</v>
       </c>
       <c r="F3097">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3097" t="inlineStr">
         <is>
@@ -86458,25 +86458,25 @@
     <row r="3098">
       <c r="A3098" t="inlineStr">
         <is>
-          <t>Nassau County, NY</t>
+          <t>New South Wales</t>
         </is>
       </c>
       <c r="B3098" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C3098">
-        <v>40.6546</v>
+        <v>-33.8688</v>
       </c>
       <c r="D3098">
-        <v>-73.5594</v>
+        <v>151.2093</v>
       </c>
       <c r="E3098" s="2">
         <v>43897</v>
       </c>
       <c r="F3098">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3098" t="inlineStr">
         <is>
@@ -86487,25 +86487,25 @@
     <row r="3099">
       <c r="A3099" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>New York County, NY</t>
         </is>
       </c>
       <c r="B3099" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C3099">
-        <v>-33.8688</v>
+        <v>40.7128</v>
       </c>
       <c r="D3099">
-        <v>151.2093</v>
+        <v>-74.006</v>
       </c>
       <c r="E3099" s="2">
         <v>43897</v>
       </c>
       <c r="F3099">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="G3099" t="inlineStr">
         <is>
@@ -86516,7 +86516,7 @@
     <row r="3100">
       <c r="A3100" t="inlineStr">
         <is>
-          <t>New York County, NY</t>
+          <t>Pierce County, WA</t>
         </is>
       </c>
       <c r="B3100" t="inlineStr">
@@ -86525,16 +86525,16 @@
         </is>
       </c>
       <c r="C3100">
-        <v>40.7128</v>
+        <v>47.0676</v>
       </c>
       <c r="D3100">
-        <v>-74.006</v>
+        <v>-122.1295</v>
       </c>
       <c r="E3100" s="2">
         <v>43897</v>
       </c>
       <c r="F3100">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="G3100" t="inlineStr">
         <is>
@@ -86545,7 +86545,7 @@
     <row r="3101">
       <c r="A3101" t="inlineStr">
         <is>
-          <t>Pierce County, WA</t>
+          <t>Pinal County, AZ</t>
         </is>
       </c>
       <c r="B3101" t="inlineStr">
@@ -86554,16 +86554,16 @@
         </is>
       </c>
       <c r="C3101">
-        <v>47.0676</v>
+        <v>32.8162</v>
       </c>
       <c r="D3101">
-        <v>-122.1295</v>
+        <v>-111.2845</v>
       </c>
       <c r="E3101" s="2">
         <v>43897</v>
       </c>
       <c r="F3101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3101" t="inlineStr">
         <is>
@@ -86574,7 +86574,7 @@
     <row r="3102">
       <c r="A3102" t="inlineStr">
         <is>
-          <t>Pinal County, AZ</t>
+          <t>Polk County, GA</t>
         </is>
       </c>
       <c r="B3102" t="inlineStr">
@@ -86583,16 +86583,16 @@
         </is>
       </c>
       <c r="C3102">
-        <v>32.8162</v>
+        <v>34.0132</v>
       </c>
       <c r="D3102">
-        <v>-111.2845</v>
+        <v>-85.14790000000001</v>
       </c>
       <c r="E3102" s="2">
         <v>43897</v>
       </c>
       <c r="F3102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3102" t="inlineStr">
         <is>
@@ -86719,7 +86719,7 @@
     <row r="3107">
       <c r="A3107" t="inlineStr">
         <is>
-          <t>Santa Cruz County, CA</t>
+          <t>Saratoga County, NY</t>
         </is>
       </c>
       <c r="B3107" t="inlineStr">
@@ -86728,16 +86728,16 @@
         </is>
       </c>
       <c r="C3107">
-        <v>36.9741</v>
+        <v>43.0324</v>
       </c>
       <c r="D3107">
-        <v>-122.0308</v>
+        <v>-73.93600000000001</v>
       </c>
       <c r="E3107" s="2">
         <v>43897</v>
       </c>
       <c r="F3107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3107" t="inlineStr">
         <is>
@@ -86748,7 +86748,7 @@
     <row r="3108">
       <c r="A3108" t="inlineStr">
         <is>
-          <t>Saratoga County, NY</t>
+          <t>Snohomish County, WA</t>
         </is>
       </c>
       <c r="B3108" t="inlineStr">
@@ -86757,16 +86757,16 @@
         </is>
       </c>
       <c r="C3108">
-        <v>43.0324</v>
+        <v>48.033</v>
       </c>
       <c r="D3108">
-        <v>-73.93600000000001</v>
+        <v>-121.8339</v>
       </c>
       <c r="E3108" s="2">
         <v>43897</v>
       </c>
       <c r="F3108">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G3108" t="inlineStr">
         <is>
@@ -86777,25 +86777,25 @@
     <row r="3109">
       <c r="A3109" t="inlineStr">
         <is>
-          <t>Snohomish County, WA</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="B3109" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C3109">
-        <v>48.033</v>
+        <v>43.6532</v>
       </c>
       <c r="D3109">
-        <v>-121.8339</v>
+        <v>-79.3832</v>
       </c>
       <c r="E3109" s="2">
         <v>43897</v>
       </c>
       <c r="F3109">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3109" t="inlineStr">
         <is>
@@ -86806,25 +86806,25 @@
     <row r="3110">
       <c r="A3110" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Tulsa County, OK</t>
         </is>
       </c>
       <c r="B3110" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C3110">
-        <v>43.6532</v>
+        <v>36.1593</v>
       </c>
       <c r="D3110">
-        <v>-79.3832</v>
+        <v>-95.941</v>
       </c>
       <c r="E3110" s="2">
         <v>43897</v>
       </c>
       <c r="F3110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3110" t="inlineStr">
         <is>
@@ -86835,19 +86835,19 @@
     <row r="3111">
       <c r="A3111" t="inlineStr">
         <is>
-          <t>Tulsa County, OK</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B3111" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C3111">
-        <v>36.1593</v>
+        <v>-37.8136</v>
       </c>
       <c r="D3111">
-        <v>-95.941</v>
+        <v>144.9631</v>
       </c>
       <c r="E3111" s="2">
         <v>43897</v>
@@ -86864,19 +86864,19 @@
     <row r="3112">
       <c r="A3112" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Washington County, OR</t>
         </is>
       </c>
       <c r="B3112" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C3112">
-        <v>-37.8136</v>
+        <v>45.547</v>
       </c>
       <c r="D3112">
-        <v>144.9631</v>
+        <v>-123.1386</v>
       </c>
       <c r="E3112" s="2">
         <v>43897</v>
@@ -86893,7 +86893,7 @@
     <row r="3113">
       <c r="A3113" t="inlineStr">
         <is>
-          <t>Washington County, OR</t>
+          <t>Westchester County, NY</t>
         </is>
       </c>
       <c r="B3113" t="inlineStr">
@@ -86902,16 +86902,16 @@
         </is>
       </c>
       <c r="C3113">
-        <v>45.547</v>
+        <v>41.122</v>
       </c>
       <c r="D3113">
-        <v>-123.1386</v>
+        <v>-73.7949</v>
       </c>
       <c r="E3113" s="2">
         <v>43897</v>
       </c>
       <c r="F3113">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G3113" t="inlineStr">
         <is>
@@ -86920,51 +86920,46 @@
       </c>
     </row>
     <row r="3114">
-      <c r="A3114" t="inlineStr">
-        <is>
-          <t>Westchester County, NY</t>
-        </is>
-      </c>
       <c r="B3114" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C3114">
-        <v>41.122</v>
+        <v>47</v>
       </c>
       <c r="D3114">
-        <v>-73.7949</v>
+        <v>2</v>
       </c>
       <c r="E3114" s="2">
         <v>43897</v>
       </c>
       <c r="F3114">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G3114" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>death</t>
         </is>
       </c>
     </row>
     <row r="3115">
       <c r="B3115" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C3115">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D3115">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E3115" s="2">
         <v>43897</v>
       </c>
       <c r="F3115">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G3115" t="inlineStr">
         <is>
@@ -86975,20 +86970,20 @@
     <row r="3116">
       <c r="B3116" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="C3116">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3116">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E3116" s="2">
         <v>43897</v>
       </c>
       <c r="F3116">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G3116" t="inlineStr">
         <is>
@@ -86999,20 +86994,20 @@
     <row r="3117">
       <c r="B3117" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C3117">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D3117">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E3117" s="2">
         <v>43897</v>
       </c>
       <c r="F3117">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G3117" t="inlineStr">
         <is>
@@ -87023,20 +87018,20 @@
     <row r="3118">
       <c r="B3118" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C3118">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3118">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="E3118" s="2">
         <v>43897</v>
       </c>
       <c r="F3118">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="G3118" t="inlineStr">
         <is>
@@ -87047,20 +87042,20 @@
     <row r="3119">
       <c r="B3119" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C3119">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D3119">
-        <v>128</v>
+        <v>-4</v>
       </c>
       <c r="E3119" s="2">
         <v>43897</v>
       </c>
       <c r="F3119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3119" t="inlineStr">
         <is>
@@ -87069,22 +87064,27 @@
       </c>
     </row>
     <row r="3120">
+      <c r="A3120" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
       <c r="B3120" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C3120">
-        <v>40</v>
+        <v>30.9756</v>
       </c>
       <c r="D3120">
-        <v>-4</v>
+        <v>112.2707</v>
       </c>
       <c r="E3120" s="2">
         <v>43897</v>
       </c>
       <c r="F3120">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G3120" t="inlineStr">
         <is>
@@ -87095,25 +87095,25 @@
     <row r="3121">
       <c r="A3121" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>King County, WA</t>
         </is>
       </c>
       <c r="B3121" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C3121">
-        <v>30.9756</v>
+        <v>47.6062</v>
       </c>
       <c r="D3121">
-        <v>112.2707</v>
+        <v>-122.3321</v>
       </c>
       <c r="E3121" s="2">
         <v>43897</v>
       </c>
       <c r="F3121">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G3121" t="inlineStr">
         <is>
@@ -87122,51 +87122,46 @@
       </c>
     </row>
     <row r="3122">
-      <c r="A3122" t="inlineStr">
-        <is>
-          <t>King County, WA</t>
-        </is>
-      </c>
       <c r="B3122" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C3122">
-        <v>47.6062</v>
+        <v>51</v>
       </c>
       <c r="D3122">
-        <v>-122.3321</v>
+        <v>9</v>
       </c>
       <c r="E3122" s="2">
         <v>43897</v>
       </c>
       <c r="F3122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3122" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>recovered</t>
         </is>
       </c>
     </row>
     <row r="3123">
       <c r="B3123" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C3123">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D3123">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E3123" s="2">
         <v>43897</v>
       </c>
       <c r="F3123">
-        <v>1</v>
+        <v>756</v>
       </c>
       <c r="G3123" t="inlineStr">
         <is>
@@ -87177,20 +87172,20 @@
     <row r="3124">
       <c r="B3124" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C3124">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D3124">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E3124" s="2">
         <v>43897</v>
       </c>
       <c r="F3124">
-        <v>756</v>
+        <v>66</v>
       </c>
       <c r="G3124" t="inlineStr">
         <is>
@@ -87201,20 +87196,20 @@
     <row r="3125">
       <c r="B3125" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C3125">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3125">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="E3125" s="2">
         <v>43897</v>
       </c>
       <c r="F3125">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G3125" t="inlineStr">
         <is>
@@ -87225,20 +87220,20 @@
     <row r="3126">
       <c r="B3126" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C3126">
-        <v>36</v>
+        <v>2.5</v>
       </c>
       <c r="D3126">
-        <v>138</v>
+        <v>112.5</v>
       </c>
       <c r="E3126" s="2">
         <v>43897</v>
       </c>
       <c r="F3126">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G3126" t="inlineStr">
         <is>
@@ -87249,20 +87244,20 @@
     <row r="3127">
       <c r="B3127" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C3127">
-        <v>2.5</v>
+        <v>45.9432</v>
       </c>
       <c r="D3127">
-        <v>112.5</v>
+        <v>24.9668</v>
       </c>
       <c r="E3127" s="2">
         <v>43897</v>
       </c>
       <c r="F3127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3127" t="inlineStr">
         <is>
@@ -87273,20 +87268,20 @@
     <row r="3128">
       <c r="B3128" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C3128">
-        <v>45.9432</v>
+        <v>40</v>
       </c>
       <c r="D3128">
-        <v>24.9668</v>
+        <v>-4</v>
       </c>
       <c r="E3128" s="2">
         <v>43897</v>
       </c>
       <c r="F3128">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G3128" t="inlineStr">
         <is>
@@ -87297,20 +87292,20 @@
     <row r="3129">
       <c r="B3129" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C3129">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D3129">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E3129" s="2">
         <v>43897</v>
       </c>
       <c r="F3129">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G3129" t="inlineStr">
         <is>
@@ -87321,20 +87316,20 @@
     <row r="3130">
       <c r="B3130" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C3130">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D3130">
-        <v>-3</v>
+        <v>54</v>
       </c>
       <c r="E3130" s="2">
         <v>43897</v>
       </c>
       <c r="F3130">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G3130" t="inlineStr">
         <is>
@@ -87343,22 +87338,27 @@
       </c>
     </row>
     <row r="3131">
+      <c r="A3131" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
       <c r="B3131" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C3131">
-        <v>24</v>
+        <v>40.1824</v>
       </c>
       <c r="D3131">
-        <v>54</v>
+        <v>116.4142</v>
       </c>
       <c r="E3131" s="2">
         <v>43897</v>
       </c>
       <c r="F3131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3131" t="inlineStr">
         <is>
@@ -87369,25 +87369,25 @@
     <row r="3132">
       <c r="A3132" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>British Columbia</t>
         </is>
       </c>
       <c r="B3132" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C3132">
-        <v>40.1824</v>
+        <v>49.2827</v>
       </c>
       <c r="D3132">
-        <v>116.4142</v>
+        <v>-123.1207</v>
       </c>
       <c r="E3132" s="2">
         <v>43897</v>
       </c>
       <c r="F3132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3132" t="inlineStr">
         <is>
@@ -87398,25 +87398,25 @@
     <row r="3133">
       <c r="A3133" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B3133" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C3133">
-        <v>49.2827</v>
+        <v>30.0572</v>
       </c>
       <c r="D3133">
-        <v>-123.1207</v>
+        <v>107.874</v>
       </c>
       <c r="E3133" s="2">
         <v>43897</v>
       </c>
       <c r="F3133">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G3133" t="inlineStr">
         <is>
@@ -87427,7 +87427,7 @@
     <row r="3134">
       <c r="A3134" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Fujian</t>
         </is>
       </c>
       <c r="B3134" t="inlineStr">
@@ -87436,16 +87436,16 @@
         </is>
       </c>
       <c r="C3134">
-        <v>30.0572</v>
+        <v>26.0789</v>
       </c>
       <c r="D3134">
-        <v>107.874</v>
+        <v>117.9874</v>
       </c>
       <c r="E3134" s="2">
         <v>43897</v>
       </c>
       <c r="F3134">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3134" t="inlineStr">
         <is>
@@ -87456,7 +87456,7 @@
     <row r="3135">
       <c r="A3135" t="inlineStr">
         <is>
-          <t>Fujian</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="B3135" t="inlineStr">
@@ -87465,16 +87465,16 @@
         </is>
       </c>
       <c r="C3135">
-        <v>26.0789</v>
+        <v>23.3417</v>
       </c>
       <c r="D3135">
-        <v>117.9874</v>
+        <v>113.4244</v>
       </c>
       <c r="E3135" s="2">
         <v>43897</v>
       </c>
       <c r="F3135">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G3135" t="inlineStr">
         <is>
@@ -87485,7 +87485,7 @@
     <row r="3136">
       <c r="A3136" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B3136" t="inlineStr">
@@ -87494,16 +87494,16 @@
         </is>
       </c>
       <c r="C3136">
-        <v>23.3417</v>
+        <v>23.8298</v>
       </c>
       <c r="D3136">
-        <v>113.4244</v>
+        <v>108.7881</v>
       </c>
       <c r="E3136" s="2">
         <v>43897</v>
       </c>
       <c r="F3136">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G3136" t="inlineStr">
         <is>
@@ -87514,7 +87514,7 @@
     <row r="3137">
       <c r="A3137" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B3137" t="inlineStr">
@@ -87523,10 +87523,10 @@
         </is>
       </c>
       <c r="C3137">
-        <v>23.8298</v>
+        <v>26.8154</v>
       </c>
       <c r="D3137">
-        <v>108.7881</v>
+        <v>106.8748</v>
       </c>
       <c r="E3137" s="2">
         <v>43897</v>
@@ -87543,7 +87543,7 @@
     <row r="3138">
       <c r="A3138" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B3138" t="inlineStr">
@@ -87552,16 +87552,16 @@
         </is>
       </c>
       <c r="C3138">
-        <v>26.8154</v>
+        <v>38.0428</v>
       </c>
       <c r="D3138">
-        <v>106.8748</v>
+        <v>114.5149</v>
       </c>
       <c r="E3138" s="2">
         <v>43897</v>
       </c>
       <c r="F3138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3138" t="inlineStr">
         <is>
@@ -87572,7 +87572,7 @@
     <row r="3139">
       <c r="A3139" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Heilongjiang</t>
         </is>
       </c>
       <c r="B3139" t="inlineStr">
@@ -87581,16 +87581,16 @@
         </is>
       </c>
       <c r="C3139">
-        <v>38.0428</v>
+        <v>47.862</v>
       </c>
       <c r="D3139">
-        <v>114.5149</v>
+        <v>127.7615</v>
       </c>
       <c r="E3139" s="2">
         <v>43897</v>
       </c>
       <c r="F3139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3139" t="inlineStr">
         <is>
@@ -87601,25 +87601,25 @@
     <row r="3140">
       <c r="A3140" t="inlineStr">
         <is>
-          <t>Heilongjiang</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B3140" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C3140">
-        <v>47.862</v>
+        <v>22.3</v>
       </c>
       <c r="D3140">
-        <v>127.7615</v>
+        <v>114.2</v>
       </c>
       <c r="E3140" s="2">
         <v>43897</v>
       </c>
       <c r="F3140">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3140" t="inlineStr">
         <is>
@@ -87630,25 +87630,25 @@
     <row r="3141">
       <c r="A3141" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B3141" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C3141">
-        <v>22.3</v>
+        <v>30.9756</v>
       </c>
       <c r="D3141">
-        <v>114.2</v>
+        <v>112.2707</v>
       </c>
       <c r="E3141" s="2">
         <v>43897</v>
       </c>
       <c r="F3141">
-        <v>5</v>
+        <v>1467</v>
       </c>
       <c r="G3141" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     <row r="3142">
       <c r="A3142" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B3142" t="inlineStr">
@@ -87668,16 +87668,16 @@
         </is>
       </c>
       <c r="C3142">
-        <v>30.9756</v>
+        <v>27.6104</v>
       </c>
       <c r="D3142">
-        <v>112.2707</v>
+        <v>111.7088</v>
       </c>
       <c r="E3142" s="2">
         <v>43897</v>
       </c>
       <c r="F3142">
-        <v>1467</v>
+        <v>5</v>
       </c>
       <c r="G3142" t="inlineStr">
         <is>
@@ -87688,7 +87688,7 @@
     <row r="3143">
       <c r="A3143" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Inner Mongolia</t>
         </is>
       </c>
       <c r="B3143" t="inlineStr">
@@ -87697,16 +87697,16 @@
         </is>
       </c>
       <c r="C3143">
-        <v>27.6104</v>
+        <v>44.0935</v>
       </c>
       <c r="D3143">
-        <v>111.7088</v>
+        <v>113.9448</v>
       </c>
       <c r="E3143" s="2">
         <v>43897</v>
       </c>
       <c r="F3143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3143" t="inlineStr">
         <is>
@@ -87717,7 +87717,7 @@
     <row r="3144">
       <c r="A3144" t="inlineStr">
         <is>
-          <t>Inner Mongolia</t>
+          <t>Jiangsu</t>
         </is>
       </c>
       <c r="B3144" t="inlineStr">
@@ -87726,16 +87726,16 @@
         </is>
       </c>
       <c r="C3144">
-        <v>44.0935</v>
+        <v>32.9711</v>
       </c>
       <c r="D3144">
-        <v>113.9448</v>
+        <v>119.455</v>
       </c>
       <c r="E3144" s="2">
         <v>43897</v>
       </c>
       <c r="F3144">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G3144" t="inlineStr">
         <is>
@@ -87746,7 +87746,7 @@
     <row r="3145">
       <c r="A3145" t="inlineStr">
         <is>
-          <t>Jiangsu</t>
+          <t>Jiangxi</t>
         </is>
       </c>
       <c r="B3145" t="inlineStr">
@@ -87755,16 +87755,16 @@
         </is>
       </c>
       <c r="C3145">
-        <v>32.9711</v>
+        <v>27.614</v>
       </c>
       <c r="D3145">
-        <v>119.455</v>
+        <v>115.7221</v>
       </c>
       <c r="E3145" s="2">
         <v>43897</v>
       </c>
       <c r="F3145">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3145" t="inlineStr">
         <is>
@@ -87775,7 +87775,7 @@
     <row r="3146">
       <c r="A3146" t="inlineStr">
         <is>
-          <t>Jiangxi</t>
+          <t>Liaoning</t>
         </is>
       </c>
       <c r="B3146" t="inlineStr">
@@ -87784,16 +87784,16 @@
         </is>
       </c>
       <c r="C3146">
-        <v>27.614</v>
+        <v>41.2956</v>
       </c>
       <c r="D3146">
-        <v>115.7221</v>
+        <v>122.6085</v>
       </c>
       <c r="E3146" s="2">
         <v>43897</v>
       </c>
       <c r="F3146">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G3146" t="inlineStr">
         <is>
@@ -87804,7 +87804,7 @@
     <row r="3147">
       <c r="A3147" t="inlineStr">
         <is>
-          <t>Liaoning</t>
+          <t>Shandong</t>
         </is>
       </c>
       <c r="B3147" t="inlineStr">
@@ -87813,16 +87813,16 @@
         </is>
       </c>
       <c r="C3147">
-        <v>41.2956</v>
+        <v>36.3427</v>
       </c>
       <c r="D3147">
-        <v>122.6085</v>
+        <v>118.1498</v>
       </c>
       <c r="E3147" s="2">
         <v>43897</v>
       </c>
       <c r="F3147">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G3147" t="inlineStr">
         <is>
@@ -87833,7 +87833,7 @@
     <row r="3148">
       <c r="A3148" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="B3148" t="inlineStr">
@@ -87842,16 +87842,16 @@
         </is>
       </c>
       <c r="C3148">
-        <v>36.3427</v>
+        <v>31.202</v>
       </c>
       <c r="D3148">
-        <v>118.1498</v>
+        <v>121.4491</v>
       </c>
       <c r="E3148" s="2">
         <v>43897</v>
       </c>
       <c r="F3148">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3148" t="inlineStr">
         <is>
@@ -87862,7 +87862,7 @@
     <row r="3149">
       <c r="A3149" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B3149" t="inlineStr">
@@ -87871,16 +87871,16 @@
         </is>
       </c>
       <c r="C3149">
-        <v>31.202</v>
+        <v>30.6171</v>
       </c>
       <c r="D3149">
-        <v>121.4491</v>
+        <v>102.7103</v>
       </c>
       <c r="E3149" s="2">
         <v>43897</v>
       </c>
       <c r="F3149">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G3149" t="inlineStr">
         <is>
@@ -87891,25 +87891,25 @@
     <row r="3150">
       <c r="A3150" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="B3150" t="inlineStr">
         <is>
-          <t>Mainland China</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C3150">
-        <v>30.6171</v>
+        <v>43.6532</v>
       </c>
       <c r="D3150">
-        <v>102.7103</v>
+        <v>-79.3832</v>
       </c>
       <c r="E3150" s="2">
         <v>43897</v>
       </c>
       <c r="F3150">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G3150" t="inlineStr">
         <is>
@@ -87920,19 +87920,19 @@
     <row r="3151">
       <c r="A3151" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Xinjiang</t>
         </is>
       </c>
       <c r="B3151" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Mainland China</t>
         </is>
       </c>
       <c r="C3151">
-        <v>43.6532</v>
+        <v>41.1129</v>
       </c>
       <c r="D3151">
-        <v>-79.3832</v>
+        <v>85.2401</v>
       </c>
       <c r="E3151" s="2">
         <v>43897</v>
@@ -87949,7 +87949,7 @@
     <row r="3152">
       <c r="A3152" t="inlineStr">
         <is>
-          <t>Xinjiang</t>
+          <t>Zhejiang</t>
         </is>
       </c>
       <c r="B3152" t="inlineStr">
@@ -87958,47 +87958,4475 @@
         </is>
       </c>
       <c r="C3152">
-        <v>41.1129</v>
+        <v>29.1832</v>
       </c>
       <c r="D3152">
-        <v>85.2401</v>
+        <v>120.0934</v>
       </c>
       <c r="E3152" s="2">
         <v>43897</v>
       </c>
       <c r="F3152">
+        <v>7</v>
+      </c>
+      <c r="G3152" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="B3153" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="C3153">
+        <v>33</v>
+      </c>
+      <c r="D3153">
+        <v>65</v>
+      </c>
+      <c r="E3153" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3153">
+        <v>3</v>
+      </c>
+      <c r="G3153" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="B3154" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="C3154">
+        <v>28.0339</v>
+      </c>
+      <c r="D3154">
+        <v>1.6596</v>
+      </c>
+      <c r="E3154" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3154">
+        <v>2</v>
+      </c>
+      <c r="G3154" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="B3155" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C3155">
+        <v>-38.4161</v>
+      </c>
+      <c r="D3155">
+        <v>-63.6167</v>
+      </c>
+      <c r="E3155" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3155">
+        <v>4</v>
+      </c>
+      <c r="G3155" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="B3156" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C3156">
+        <v>47.5162</v>
+      </c>
+      <c r="D3156">
+        <v>14.5501</v>
+      </c>
+      <c r="E3156" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3156">
+        <v>25</v>
+      </c>
+      <c r="G3156" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="B3157" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="C3157">
+        <v>23.685</v>
+      </c>
+      <c r="D3157">
+        <v>90.3563</v>
+      </c>
+      <c r="E3157" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3157">
+        <v>3</v>
+      </c>
+      <c r="G3157" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="B3158" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C3158">
+        <v>50.8333</v>
+      </c>
+      <c r="D3158">
+        <v>4</v>
+      </c>
+      <c r="E3158" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3158">
+        <v>31</v>
+      </c>
+      <c r="G3158" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="B3159" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="C3159">
+        <v>-14.235</v>
+      </c>
+      <c r="D3159">
+        <v>-51.9253</v>
+      </c>
+      <c r="E3159" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3159">
+        <v>7</v>
+      </c>
+      <c r="G3159" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="B3160" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C3160">
+        <v>42.7339</v>
+      </c>
+      <c r="D3160">
+        <v>25.4858</v>
+      </c>
+      <c r="E3160" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3160">
+        <v>4</v>
+      </c>
+      <c r="G3160" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="B3161" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C3161">
+        <v>11.55</v>
+      </c>
+      <c r="D3161">
+        <v>104.9167</v>
+      </c>
+      <c r="E3161" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3161">
         <v>1</v>
       </c>
-      <c r="G3152" t="inlineStr">
-        <is>
-          <t>recovered</t>
-        </is>
-      </c>
-    </row>
-    <row r="3153">
-      <c r="A3153" t="inlineStr">
+      <c r="G3161" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="B3162" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="C3162">
+        <v>3.848</v>
+      </c>
+      <c r="D3162">
+        <v>11.5021</v>
+      </c>
+      <c r="E3162" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3162">
+        <v>1</v>
+      </c>
+      <c r="G3162" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="B3163" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C3163">
+        <v>-35.6751</v>
+      </c>
+      <c r="D3163">
+        <v>-71.54300000000001</v>
+      </c>
+      <c r="E3163" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3163">
+        <v>4</v>
+      </c>
+      <c r="G3163" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="B3164" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C3164">
+        <v>9.748900000000001</v>
+      </c>
+      <c r="D3164">
+        <v>-83.7534</v>
+      </c>
+      <c r="E3164" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3164">
+        <v>4</v>
+      </c>
+      <c r="G3164" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="B3165" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="C3165">
+        <v>49.8175</v>
+      </c>
+      <c r="D3165">
+        <v>15.473</v>
+      </c>
+      <c r="E3165" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3165">
+        <v>12</v>
+      </c>
+      <c r="G3165" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="B3166" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C3166">
+        <v>56.2639</v>
+      </c>
+      <c r="D3166">
+        <v>9.501799999999999</v>
+      </c>
+      <c r="E3166" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3166">
+        <v>12</v>
+      </c>
+      <c r="G3166" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="B3167" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+      <c r="C3167">
+        <v>18.7357</v>
+      </c>
+      <c r="D3167">
+        <v>-70.1627</v>
+      </c>
+      <c r="E3167" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3167">
+        <v>3</v>
+      </c>
+      <c r="G3167" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="B3168" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C3168">
+        <v>-1.8312</v>
+      </c>
+      <c r="D3168">
+        <v>-78.18340000000001</v>
+      </c>
+      <c r="E3168" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3168">
+        <v>1</v>
+      </c>
+      <c r="G3168" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="B3169" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C3169">
+        <v>26</v>
+      </c>
+      <c r="D3169">
+        <v>30</v>
+      </c>
+      <c r="E3169" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3169">
+        <v>34</v>
+      </c>
+      <c r="G3169" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="B3170" t="inlineStr">
+        <is>
+          <t>Faroe Islands</t>
+        </is>
+      </c>
+      <c r="C3170">
+        <v>61.8926</v>
+      </c>
+      <c r="D3170">
+        <v>-6.9118</v>
+      </c>
+      <c r="E3170" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3170">
+        <v>1</v>
+      </c>
+      <c r="G3170" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="B3171" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C3171">
+        <v>64</v>
+      </c>
+      <c r="D3171">
+        <v>26</v>
+      </c>
+      <c r="E3171" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3171">
+        <v>8</v>
+      </c>
+      <c r="G3171" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="B3172" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C3172">
+        <v>47</v>
+      </c>
+      <c r="D3172">
+        <v>2</v>
+      </c>
+      <c r="E3172" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3172">
+        <v>177</v>
+      </c>
+      <c r="G3172" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="B3173" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="C3173">
+        <v>42.3154</v>
+      </c>
+      <c r="D3173">
+        <v>43.3569</v>
+      </c>
+      <c r="E3173" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3173">
+        <v>9</v>
+      </c>
+      <c r="G3173" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="B3174" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C3174">
+        <v>51</v>
+      </c>
+      <c r="D3174">
+        <v>9</v>
+      </c>
+      <c r="E3174" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3174">
+        <v>241</v>
+      </c>
+      <c r="G3174" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="B3175" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C3175">
+        <v>39.0742</v>
+      </c>
+      <c r="D3175">
+        <v>21.8243</v>
+      </c>
+      <c r="E3175" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3175">
+        <v>27</v>
+      </c>
+      <c r="G3175" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="B3176" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="C3176">
+        <v>47.1625</v>
+      </c>
+      <c r="D3176">
+        <v>19.5033</v>
+      </c>
+      <c r="E3176" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3176">
+        <v>3</v>
+      </c>
+      <c r="G3176" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="B3177" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C3177">
+        <v>21</v>
+      </c>
+      <c r="D3177">
+        <v>78</v>
+      </c>
+      <c r="E3177" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3177">
+        <v>5</v>
+      </c>
+      <c r="G3177" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="B3178" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C3178">
+        <v>-0.7893</v>
+      </c>
+      <c r="D3178">
+        <v>113.9213</v>
+      </c>
+      <c r="E3178" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3178">
+        <v>2</v>
+      </c>
+      <c r="G3178" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="B3179" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C3179">
+        <v>32</v>
+      </c>
+      <c r="D3179">
+        <v>53</v>
+      </c>
+      <c r="E3179" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3179">
+        <v>743</v>
+      </c>
+      <c r="G3179" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="B3180" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C3180">
+        <v>33</v>
+      </c>
+      <c r="D3180">
+        <v>44</v>
+      </c>
+      <c r="E3180" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3180">
+        <v>6</v>
+      </c>
+      <c r="G3180" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="B3181" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C3181">
+        <v>53.1424</v>
+      </c>
+      <c r="D3181">
+        <v>-7.6921</v>
+      </c>
+      <c r="E3181" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3181">
+        <v>1</v>
+      </c>
+      <c r="G3181" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="B3182" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C3182">
+        <v>31</v>
+      </c>
+      <c r="D3182">
+        <v>35</v>
+      </c>
+      <c r="E3182" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3182">
+        <v>18</v>
+      </c>
+      <c r="G3182" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="B3183" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C3183">
+        <v>43</v>
+      </c>
+      <c r="D3183">
+        <v>12</v>
+      </c>
+      <c r="E3183" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3183">
+        <v>1492</v>
+      </c>
+      <c r="G3183" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="B3184" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C3184">
+        <v>36</v>
+      </c>
+      <c r="D3184">
+        <v>138</v>
+      </c>
+      <c r="E3184" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3184">
+        <v>41</v>
+      </c>
+      <c r="G3184" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="B3185" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="C3185">
+        <v>29.5</v>
+      </c>
+      <c r="D3185">
+        <v>47.75</v>
+      </c>
+      <c r="E3185" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3185">
+        <v>3</v>
+      </c>
+      <c r="G3185" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="B3186" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="C3186">
+        <v>56.8796</v>
+      </c>
+      <c r="D3186">
+        <v>24.6032</v>
+      </c>
+      <c r="E3186" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3186">
+        <v>1</v>
+      </c>
+      <c r="G3186" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="B3187" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C3187">
+        <v>33.8547</v>
+      </c>
+      <c r="D3187">
+        <v>35.8623</v>
+      </c>
+      <c r="E3187" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3187">
+        <v>10</v>
+      </c>
+      <c r="G3187" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="B3188" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="C3188">
+        <v>49.8153</v>
+      </c>
+      <c r="D3188">
+        <v>6.1296</v>
+      </c>
+      <c r="E3188" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3188">
+        <v>1</v>
+      </c>
+      <c r="G3188" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="B3189" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C3189">
+        <v>2.5</v>
+      </c>
+      <c r="D3189">
+        <v>112.5</v>
+      </c>
+      <c r="E3189" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3189">
+        <v>6</v>
+      </c>
+      <c r="G3189" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="B3190" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
+      </c>
+      <c r="C3190">
+        <v>3.2028</v>
+      </c>
+      <c r="D3190">
+        <v>73.22069999999999</v>
+      </c>
+      <c r="E3190" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3190">
+        <v>4</v>
+      </c>
+      <c r="G3190" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="B3191" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C3191">
+        <v>23.6345</v>
+      </c>
+      <c r="D3191">
+        <v>-102.5528</v>
+      </c>
+      <c r="E3191" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3191">
+        <v>1</v>
+      </c>
+      <c r="G3191" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="B3192" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
+      </c>
+      <c r="C3192">
+        <v>47.4116</v>
+      </c>
+      <c r="D3192">
+        <v>28.3699</v>
+      </c>
+      <c r="E3192" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3192">
+        <v>1</v>
+      </c>
+      <c r="G3192" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="B3193" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C3193">
+        <v>52.1326</v>
+      </c>
+      <c r="D3193">
+        <v>5.2913</v>
+      </c>
+      <c r="E3193" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3193">
+        <v>77</v>
+      </c>
+      <c r="G3193" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="B3194" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3194">
+        <v>60.472</v>
+      </c>
+      <c r="D3194">
+        <v>8.4689</v>
+      </c>
+      <c r="E3194" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3194">
+        <v>29</v>
+      </c>
+      <c r="G3194" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="B3195" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C3195">
+        <v>-23.4425</v>
+      </c>
+      <c r="D3195">
+        <v>-58.4438</v>
+      </c>
+      <c r="E3195" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3195">
+        <v>1</v>
+      </c>
+      <c r="G3195" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="B3196" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="C3196">
+        <v>-9.19</v>
+      </c>
+      <c r="D3196">
+        <v>-75.01519999999999</v>
+      </c>
+      <c r="E3196" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3196">
+        <v>5</v>
+      </c>
+      <c r="G3196" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="B3197" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="C3197">
+        <v>13</v>
+      </c>
+      <c r="D3197">
+        <v>122</v>
+      </c>
+      <c r="E3197" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3197">
+        <v>4</v>
+      </c>
+      <c r="G3197" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="B3198" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C3198">
+        <v>51.9194</v>
+      </c>
+      <c r="D3198">
+        <v>19.1451</v>
+      </c>
+      <c r="E3198" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3198">
+        <v>6</v>
+      </c>
+      <c r="G3198" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="B3199" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C3199">
+        <v>39.3999</v>
+      </c>
+      <c r="D3199">
+        <v>-8.224500000000001</v>
+      </c>
+      <c r="E3199" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3199">
+        <v>10</v>
+      </c>
+      <c r="G3199" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="B3200" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="C3200">
+        <v>25.3548</v>
+      </c>
+      <c r="D3200">
+        <v>51.1839</v>
+      </c>
+      <c r="E3200" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3200">
+        <v>7</v>
+      </c>
+      <c r="G3200" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="B3201" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="C3201">
+        <v>53.1424</v>
+      </c>
+      <c r="D3201">
+        <v>-7.6921</v>
+      </c>
+      <c r="E3201" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3201">
+        <v>21</v>
+      </c>
+      <c r="G3201" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="B3202" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C3202">
+        <v>45.9432</v>
+      </c>
+      <c r="D3202">
+        <v>24.9668</v>
+      </c>
+      <c r="E3202" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3202">
+        <v>6</v>
+      </c>
+      <c r="G3202" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="B3203" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="C3203">
+        <v>60</v>
+      </c>
+      <c r="D3203">
+        <v>90</v>
+      </c>
+      <c r="E3203" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3203">
+        <v>4</v>
+      </c>
+      <c r="G3203" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="B3204" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+      <c r="C3204">
+        <v>43.9424</v>
+      </c>
+      <c r="D3204">
+        <v>12.4578</v>
+      </c>
+      <c r="E3204" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3204">
+        <v>13</v>
+      </c>
+      <c r="G3204" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="B3205" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C3205">
+        <v>24</v>
+      </c>
+      <c r="D3205">
+        <v>45</v>
+      </c>
+      <c r="E3205" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3205">
+        <v>6</v>
+      </c>
+      <c r="G3205" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="B3206" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C3206">
+        <v>1.2833</v>
+      </c>
+      <c r="D3206">
+        <v>103.8333</v>
+      </c>
+      <c r="E3206" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3206">
+        <v>12</v>
+      </c>
+      <c r="G3206" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="B3207" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C3207">
+        <v>48.669</v>
+      </c>
+      <c r="D3207">
+        <v>19.699</v>
+      </c>
+      <c r="E3207" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3207">
+        <v>2</v>
+      </c>
+      <c r="G3207" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="B3208" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C3208">
+        <v>46.1512</v>
+      </c>
+      <c r="D3208">
+        <v>14.9955</v>
+      </c>
+      <c r="E3208" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3208">
+        <v>9</v>
+      </c>
+      <c r="G3208" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="B3209" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="C3209">
+        <v>-30.5595</v>
+      </c>
+      <c r="D3209">
+        <v>22.9375</v>
+      </c>
+      <c r="E3209" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3209">
+        <v>2</v>
+      </c>
+      <c r="G3209" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="B3210" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C3210">
+        <v>36</v>
+      </c>
+      <c r="D3210">
+        <v>128</v>
+      </c>
+      <c r="E3210" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3210">
+        <v>273</v>
+      </c>
+      <c r="G3210" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="B3211" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C3211">
+        <v>40</v>
+      </c>
+      <c r="D3211">
+        <v>-4</v>
+      </c>
+      <c r="E3211" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3211">
+        <v>173</v>
+      </c>
+      <c r="G3211" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="B3212" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C3212">
+        <v>63</v>
+      </c>
+      <c r="D3212">
+        <v>16</v>
+      </c>
+      <c r="E3212" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3212">
+        <v>42</v>
+      </c>
+      <c r="G3212" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="B3213" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C3213">
+        <v>46.8182</v>
+      </c>
+      <c r="D3213">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E3213" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3213">
+        <v>69</v>
+      </c>
+      <c r="G3213" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="B3214" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="C3214">
+        <v>34</v>
+      </c>
+      <c r="D3214">
+        <v>9</v>
+      </c>
+      <c r="E3214" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3214">
+        <v>1</v>
+      </c>
+      <c r="G3214" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="B3215" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C3215">
+        <v>55</v>
+      </c>
+      <c r="D3215">
+        <v>-3</v>
+      </c>
+      <c r="E3215" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3215">
+        <v>67</v>
+      </c>
+      <c r="G3215" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="B3216" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C3216">
+        <v>16</v>
+      </c>
+      <c r="D3216">
+        <v>108</v>
+      </c>
+      <c r="E3216" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3216">
+        <v>12</v>
+      </c>
+      <c r="G3216" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="inlineStr">
+        <is>
+          <t>Montreal, QC</t>
+        </is>
+      </c>
+      <c r="B3217" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C3217">
+        <v>45.5017</v>
+      </c>
+      <c r="D3217">
+        <v>-73.5673</v>
+      </c>
+      <c r="E3217" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3217">
+        <v>1</v>
+      </c>
+      <c r="G3217" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" t="inlineStr">
+        <is>
+          <t>Norfolk County, MA</t>
+        </is>
+      </c>
+      <c r="B3218" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3218">
+        <v>42.1767</v>
+      </c>
+      <c r="D3218">
+        <v>-71.14490000000001</v>
+      </c>
+      <c r="E3218" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3218">
+        <v>4</v>
+      </c>
+      <c r="G3218" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B3219" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3219">
+        <v>40.1824</v>
+      </c>
+      <c r="D3219">
+        <v>116.4142</v>
+      </c>
+      <c r="E3219" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3219">
+        <v>2</v>
+      </c>
+      <c r="G3219" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="inlineStr">
+        <is>
+          <t>Berkshire County, MA</t>
+        </is>
+      </c>
+      <c r="B3220" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3220">
+        <v>42.3118</v>
+      </c>
+      <c r="D3220">
+        <v>-73.18219999999999</v>
+      </c>
+      <c r="E3220" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3220">
+        <v>1</v>
+      </c>
+      <c r="G3220" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
+      <c r="B3221" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C3221">
+        <v>49.2827</v>
+      </c>
+      <c r="D3221">
+        <v>-123.1207</v>
+      </c>
+      <c r="E3221" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3221">
+        <v>6</v>
+      </c>
+      <c r="G3221" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="inlineStr">
+        <is>
+          <t>Clark County, NV</t>
+        </is>
+      </c>
+      <c r="B3222" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3222">
+        <v>36.0796</v>
+      </c>
+      <c r="D3222">
+        <v>-115.094</v>
+      </c>
+      <c r="E3222" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3222">
+        <v>1</v>
+      </c>
+      <c r="G3222" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="inlineStr">
+        <is>
+          <t>Contra Costa County, CA</t>
+        </is>
+      </c>
+      <c r="B3223" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3223">
+        <v>37.8534</v>
+      </c>
+      <c r="D3223">
+        <v>-121.9018</v>
+      </c>
+      <c r="E3223" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3223">
+        <v>9</v>
+      </c>
+      <c r="G3223" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="inlineStr">
+        <is>
+          <t>Cook County, IL</t>
+        </is>
+      </c>
+      <c r="B3224" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3224">
+        <v>41.7377</v>
+      </c>
+      <c r="D3224">
+        <v>-87.69759999999999</v>
+      </c>
+      <c r="E3224" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3224">
+        <v>1</v>
+      </c>
+      <c r="G3224" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="inlineStr">
+        <is>
+          <t>Davidson County, TN</t>
+        </is>
+      </c>
+      <c r="B3225" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3225">
+        <v>36.1343</v>
+      </c>
+      <c r="D3225">
+        <v>-86.822</v>
+      </c>
+      <c r="E3225" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3225">
+        <v>1</v>
+      </c>
+      <c r="G3225" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="inlineStr">
+        <is>
+          <t>Douglas County, OR</t>
+        </is>
+      </c>
+      <c r="B3226" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3226">
+        <v>43.1261</v>
+      </c>
+      <c r="D3226">
+        <v>-123.2492</v>
+      </c>
+      <c r="E3226" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3226">
+        <v>1</v>
+      </c>
+      <c r="G3226" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta</t>
+        </is>
+      </c>
+      <c r="B3227" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C3227">
+        <v>53.5461</v>
+      </c>
+      <c r="D3227">
+        <v>-113.4938</v>
+      </c>
+      <c r="E3227" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3227">
+        <v>2</v>
+      </c>
+      <c r="G3227" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="inlineStr">
+        <is>
+          <t>Fairfax County, VA</t>
+        </is>
+      </c>
+      <c r="B3228" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3228">
+        <v>38.9085</v>
+      </c>
+      <c r="D3228">
+        <v>-77.2405</v>
+      </c>
+      <c r="E3228" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3228">
+        <v>2</v>
+      </c>
+      <c r="G3228" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="inlineStr">
+        <is>
+          <t>Fairfield County, CT</t>
+        </is>
+      </c>
+      <c r="B3229" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3229">
+        <v>41.256</v>
+      </c>
+      <c r="D3229">
+        <v>-73.37090000000001</v>
+      </c>
+      <c r="E3229" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3229">
+        <v>-1</v>
+      </c>
+      <c r="G3229" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="inlineStr">
+        <is>
+          <t>Fort Bend County, TX</t>
+        </is>
+      </c>
+      <c r="B3230" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3230">
+        <v>29.5693</v>
+      </c>
+      <c r="D3230">
+        <v>-95.8143</v>
+      </c>
+      <c r="E3230" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3230">
+        <v>3</v>
+      </c>
+      <c r="G3230" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="inlineStr">
+        <is>
+          <t>Fresno County, CA</t>
+        </is>
+      </c>
+      <c r="B3231" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3231">
+        <v>36.9859</v>
+      </c>
+      <c r="D3231">
+        <v>-119.2321</v>
+      </c>
+      <c r="E3231" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3231">
+        <v>1</v>
+      </c>
+      <c r="G3231" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="inlineStr">
+        <is>
+          <t>Gansu</t>
+        </is>
+      </c>
+      <c r="B3232" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3232">
+        <v>36.0611</v>
+      </c>
+      <c r="D3232">
+        <v>103.8343</v>
+      </c>
+      <c r="E3232" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3232">
+        <v>4</v>
+      </c>
+      <c r="G3232" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="inlineStr">
+        <is>
+          <t>Grafton County, NH</t>
+        </is>
+      </c>
+      <c r="B3233" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3233">
+        <v>43.9088</v>
+      </c>
+      <c r="D3233">
+        <v>-71.82599999999999</v>
+      </c>
+      <c r="E3233" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3233">
+        <v>2</v>
+      </c>
+      <c r="G3233" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" t="inlineStr">
+        <is>
+          <t>Harford County, MD</t>
+        </is>
+      </c>
+      <c r="B3234" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3234">
+        <v>39.5839</v>
+      </c>
+      <c r="D3234">
+        <v>-76.36369999999999</v>
+      </c>
+      <c r="E3234" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3234">
+        <v>1</v>
+      </c>
+      <c r="G3234" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="inlineStr">
+        <is>
+          <t>Hendricks County, IN</t>
+        </is>
+      </c>
+      <c r="B3235" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3235">
+        <v>39.8065</v>
+      </c>
+      <c r="D3235">
+        <v>-86.5401</v>
+      </c>
+      <c r="E3235" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3235">
+        <v>1</v>
+      </c>
+      <c r="G3235" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B3236" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C3236">
+        <v>22.3</v>
+      </c>
+      <c r="D3236">
+        <v>114.2</v>
+      </c>
+      <c r="E3236" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3236">
+        <v>6</v>
+      </c>
+      <c r="G3236" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B3237" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3237">
+        <v>30.9756</v>
+      </c>
+      <c r="D3237">
+        <v>112.2707</v>
+      </c>
+      <c r="E3237" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3237">
+        <v>41</v>
+      </c>
+      <c r="G3237" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="inlineStr">
+        <is>
+          <t>Hudson County, NJ</t>
+        </is>
+      </c>
+      <c r="B3238" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3238">
+        <v>40.7453</v>
+      </c>
+      <c r="D3238">
+        <v>-74.0535</v>
+      </c>
+      <c r="E3238" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3238">
+        <v>1</v>
+      </c>
+      <c r="G3238" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="inlineStr">
+        <is>
+          <t>Jackson County, OR</t>
+        </is>
+      </c>
+      <c r="B3239" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3239">
+        <v>42.3345</v>
+      </c>
+      <c r="D3239">
+        <v>-122.7647</v>
+      </c>
+      <c r="E3239" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3239">
+        <v>1</v>
+      </c>
+      <c r="G3239" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="inlineStr">
+        <is>
+          <t>Johnson County, KS</t>
+        </is>
+      </c>
+      <c r="B3240" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3240">
+        <v>38.8454</v>
+      </c>
+      <c r="D3240">
+        <v>-94.85209999999999</v>
+      </c>
+      <c r="E3240" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3240">
+        <v>1</v>
+      </c>
+      <c r="G3240" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B3241" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3241">
+        <v>47.6062</v>
+      </c>
+      <c r="D3241">
+        <v>-122.3321</v>
+      </c>
+      <c r="E3241" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3241">
+        <v>12</v>
+      </c>
+      <c r="G3241" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="inlineStr">
+        <is>
+          <t>Kittitas County, WA</t>
+        </is>
+      </c>
+      <c r="B3242" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3242">
+        <v>47.175</v>
+      </c>
+      <c r="D3242">
+        <v>-120.9319</v>
+      </c>
+      <c r="E3242" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3242">
+        <v>1</v>
+      </c>
+      <c r="G3242" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="inlineStr">
+        <is>
+          <t>Manatee County, FL</t>
+        </is>
+      </c>
+      <c r="B3243" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3243">
+        <v>27.4799</v>
+      </c>
+      <c r="D3243">
+        <v>-82.34520000000001</v>
+      </c>
+      <c r="E3243" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3243">
+        <v>1</v>
+      </c>
+      <c r="G3243" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="inlineStr">
+        <is>
+          <t>Marion County, OR</t>
+        </is>
+      </c>
+      <c r="B3244" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3244">
+        <v>44.8446</v>
+      </c>
+      <c r="D3244">
+        <v>-122.5927</v>
+      </c>
+      <c r="E3244" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3244">
+        <v>1</v>
+      </c>
+      <c r="G3244" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="inlineStr">
+        <is>
+          <t>Middlesex County, MA</t>
+        </is>
+      </c>
+      <c r="B3245" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3245">
+        <v>42.4672</v>
+      </c>
+      <c r="D3245">
+        <v>-71.28740000000001</v>
+      </c>
+      <c r="E3245" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3245">
+        <v>6</v>
+      </c>
+      <c r="G3245" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="inlineStr">
+        <is>
+          <t>Montgomery County, MD</t>
+        </is>
+      </c>
+      <c r="B3246" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3246">
+        <v>39.1547</v>
+      </c>
+      <c r="D3246">
+        <v>-77.2405</v>
+      </c>
+      <c r="E3246" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3246">
+        <v>1</v>
+      </c>
+      <c r="G3246" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" t="inlineStr">
+        <is>
+          <t>Montgomery County, PA</t>
+        </is>
+      </c>
+      <c r="B3247" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3247">
+        <v>40.229</v>
+      </c>
+      <c r="D3247">
+        <v>-75.3879</v>
+      </c>
+      <c r="E3247" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3247">
+        <v>4</v>
+      </c>
+      <c r="G3247" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="inlineStr">
+        <is>
+          <t>Nassau County, NY</t>
+        </is>
+      </c>
+      <c r="B3248" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3248">
+        <v>40.6546</v>
+      </c>
+      <c r="D3248">
+        <v>-73.5594</v>
+      </c>
+      <c r="E3248" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3248">
+        <v>1</v>
+      </c>
+      <c r="G3248" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
+      <c r="B3249" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C3249">
+        <v>-33.8688</v>
+      </c>
+      <c r="D3249">
+        <v>151.2093</v>
+      </c>
+      <c r="E3249" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3249">
+        <v>10</v>
+      </c>
+      <c r="G3249" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" t="inlineStr">
+        <is>
+          <t>New York County, NY</t>
+        </is>
+      </c>
+      <c r="B3250" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3250">
+        <v>40.7128</v>
+      </c>
+      <c r="D3250">
+        <v>-74.006</v>
+      </c>
+      <c r="E3250" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3250">
+        <v>1</v>
+      </c>
+      <c r="G3250" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="inlineStr">
+        <is>
+          <t>Okaloosa County, FL</t>
+        </is>
+      </c>
+      <c r="B3251" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3251">
+        <v>30.5773</v>
+      </c>
+      <c r="D3251">
+        <v>-86.6611</v>
+      </c>
+      <c r="E3251" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3251">
+        <v>1</v>
+      </c>
+      <c r="G3251" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="inlineStr">
+        <is>
+          <t>Pierce County, WA</t>
+        </is>
+      </c>
+      <c r="B3252" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3252">
+        <v>47.0676</v>
+      </c>
+      <c r="D3252">
+        <v>-122.1295</v>
+      </c>
+      <c r="E3252" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3252">
+        <v>3</v>
+      </c>
+      <c r="G3252" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
+      </c>
+      <c r="B3253" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C3253">
+        <v>-28.0167</v>
+      </c>
+      <c r="D3253">
+        <v>153.4</v>
+      </c>
+      <c r="E3253" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3253">
+        <v>2</v>
+      </c>
+      <c r="G3253" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="inlineStr">
+        <is>
+          <t>Riverside County, CA</t>
+        </is>
+      </c>
+      <c r="B3254" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3254">
+        <v>33.9533</v>
+      </c>
+      <c r="D3254">
+        <v>-117.3961</v>
+      </c>
+      <c r="E3254" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3254">
+        <v>1</v>
+      </c>
+      <c r="G3254" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="inlineStr">
+        <is>
+          <t>Rockingham County, NH</t>
+        </is>
+      </c>
+      <c r="B3255" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3255">
+        <v>42.9931</v>
+      </c>
+      <c r="D3255">
+        <v>-71.0498</v>
+      </c>
+      <c r="E3255" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3255">
+        <v>2</v>
+      </c>
+      <c r="G3255" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="inlineStr">
+        <is>
+          <t>Santa Clara County, CA</t>
+        </is>
+      </c>
+      <c r="B3256" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3256">
+        <v>37.3541</v>
+      </c>
+      <c r="D3256">
+        <v>-121.9552</v>
+      </c>
+      <c r="E3256" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3256">
+        <v>6</v>
+      </c>
+      <c r="G3256" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="inlineStr">
+        <is>
+          <t>Shelby County, TN</t>
+        </is>
+      </c>
+      <c r="B3257" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3257">
+        <v>35.1269</v>
+      </c>
+      <c r="D3257">
+        <v>-89.92529999999999</v>
+      </c>
+      <c r="E3257" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3257">
+        <v>1</v>
+      </c>
+      <c r="G3257" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="inlineStr">
+        <is>
+          <t>Snohomish County, WA</t>
+        </is>
+      </c>
+      <c r="B3258" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3258">
+        <v>48.033</v>
+      </c>
+      <c r="D3258">
+        <v>-121.8339</v>
+      </c>
+      <c r="E3258" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3258">
+        <v>4</v>
+      </c>
+      <c r="G3258" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="inlineStr">
+        <is>
+          <t>Spokane County, WA</t>
+        </is>
+      </c>
+      <c r="B3259" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3259">
+        <v>47.6587</v>
+      </c>
+      <c r="D3259">
+        <v>-117.4225</v>
+      </c>
+      <c r="E3259" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3259">
+        <v>1</v>
+      </c>
+      <c r="G3259" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="inlineStr">
+        <is>
+          <t>St. Louis County, MO</t>
+        </is>
+      </c>
+      <c r="B3260" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3260">
+        <v>38.6103</v>
+      </c>
+      <c r="D3260">
+        <v>-90.41249999999999</v>
+      </c>
+      <c r="E3260" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3260">
+        <v>1</v>
+      </c>
+      <c r="G3260" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="inlineStr">
+        <is>
+          <t>Suffolk County, MA</t>
+        </is>
+      </c>
+      <c r="B3261" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3261">
+        <v>42.3601</v>
+      </c>
+      <c r="D3261">
+        <v>-71.05889999999999</v>
+      </c>
+      <c r="E3261" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3261">
+        <v>5</v>
+      </c>
+      <c r="G3261" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="inlineStr">
+        <is>
+          <t>Suffolk County, NY</t>
+        </is>
+      </c>
+      <c r="B3262" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3262">
+        <v>40.9849</v>
+      </c>
+      <c r="D3262">
+        <v>-72.6151</v>
+      </c>
+      <c r="E3262" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3262">
+        <v>1</v>
+      </c>
+      <c r="G3262" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="inlineStr">
+        <is>
+          <t>Tasmania</t>
+        </is>
+      </c>
+      <c r="B3263" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C3263">
+        <v>-41.4545</v>
+      </c>
+      <c r="D3263">
+        <v>145.9707</v>
+      </c>
+      <c r="E3263" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3263">
+        <v>1</v>
+      </c>
+      <c r="G3263" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="inlineStr">
+        <is>
+          <t>Toronto, ON</t>
+        </is>
+      </c>
+      <c r="B3264" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C3264">
+        <v>43.6532</v>
+      </c>
+      <c r="D3264">
+        <v>-79.3832</v>
+      </c>
+      <c r="E3264" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3264">
+        <v>1</v>
+      </c>
+      <c r="G3264" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="inlineStr">
+        <is>
+          <t>Ulster County, NY</t>
+        </is>
+      </c>
+      <c r="B3265" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3265">
+        <v>41.8586</v>
+      </c>
+      <c r="D3265">
+        <v>-74.31180000000001</v>
+      </c>
+      <c r="E3265" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3265">
+        <v>1</v>
+      </c>
+      <c r="G3265" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="inlineStr">
+        <is>
+          <t>Unassigned Location, VT</t>
+        </is>
+      </c>
+      <c r="B3266" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3266">
+        <v>44.3378</v>
+      </c>
+      <c r="D3266">
+        <v>-72.7563</v>
+      </c>
+      <c r="E3266" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3266">
+        <v>1</v>
+      </c>
+      <c r="G3266" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="inlineStr">
+        <is>
+          <t>Unknown Location, MA</t>
+        </is>
+      </c>
+      <c r="B3267" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3267">
+        <v>42.4072</v>
+      </c>
+      <c r="D3267">
+        <v>-71.3824</v>
+      </c>
+      <c r="E3267" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3267">
+        <v>1</v>
+      </c>
+      <c r="G3267" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="inlineStr">
+        <is>
+          <t>Volusia County, FL</t>
+        </is>
+      </c>
+      <c r="B3268" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3268">
+        <v>29.028</v>
+      </c>
+      <c r="D3268">
+        <v>-81.07550000000001</v>
+      </c>
+      <c r="E3268" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3268">
+        <v>1</v>
+      </c>
+      <c r="G3268" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="inlineStr">
+        <is>
+          <t>Washington County, OR</t>
+        </is>
+      </c>
+      <c r="B3269" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3269">
+        <v>45.547</v>
+      </c>
+      <c r="D3269">
+        <v>-123.1386</v>
+      </c>
+      <c r="E3269" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3269">
+        <v>5</v>
+      </c>
+      <c r="G3269" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="inlineStr">
+        <is>
+          <t>Washington, D.C.</t>
+        </is>
+      </c>
+      <c r="B3270" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3270">
+        <v>38.9072</v>
+      </c>
+      <c r="D3270">
+        <v>-77.0369</v>
+      </c>
+      <c r="E3270" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3270">
+        <v>2</v>
+      </c>
+      <c r="G3270" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="inlineStr">
+        <is>
+          <t>Washoe County, NV</t>
+        </is>
+      </c>
+      <c r="B3271" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3271">
+        <v>40.5608</v>
+      </c>
+      <c r="D3271">
+        <v>-119.6035</v>
+      </c>
+      <c r="E3271" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3271">
+        <v>1</v>
+      </c>
+      <c r="G3271" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="inlineStr">
+        <is>
+          <t>Westchester County, NY</t>
+        </is>
+      </c>
+      <c r="B3272" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3272">
+        <v>41.122</v>
+      </c>
+      <c r="D3272">
+        <v>-73.7949</v>
+      </c>
+      <c r="E3272" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3272">
+        <v>26</v>
+      </c>
+      <c r="G3272" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="B3273" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C3273">
+        <v>-38.4161</v>
+      </c>
+      <c r="D3273">
+        <v>-63.6167</v>
+      </c>
+      <c r="E3273" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3273">
+        <v>1</v>
+      </c>
+      <c r="G3273" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="B3274" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C3274">
+        <v>26</v>
+      </c>
+      <c r="D3274">
+        <v>30</v>
+      </c>
+      <c r="E3274" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3274">
+        <v>1</v>
+      </c>
+      <c r="G3274" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="B3275" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C3275">
+        <v>47</v>
+      </c>
+      <c r="D3275">
+        <v>2</v>
+      </c>
+      <c r="E3275" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3275">
+        <v>8</v>
+      </c>
+      <c r="G3275" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="B3276" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C3276">
+        <v>32</v>
+      </c>
+      <c r="D3276">
+        <v>53</v>
+      </c>
+      <c r="E3276" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3276">
+        <v>49</v>
+      </c>
+      <c r="G3276" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="B3277" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C3277">
+        <v>33</v>
+      </c>
+      <c r="D3277">
+        <v>44</v>
+      </c>
+      <c r="E3277" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3277">
+        <v>2</v>
+      </c>
+      <c r="G3277" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="B3278" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C3278">
+        <v>43</v>
+      </c>
+      <c r="D3278">
+        <v>12</v>
+      </c>
+      <c r="E3278" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3278">
+        <v>133</v>
+      </c>
+      <c r="G3278" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="B3279" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C3279">
+        <v>52.1326</v>
+      </c>
+      <c r="D3279">
+        <v>5.2913</v>
+      </c>
+      <c r="E3279" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3279">
+        <v>2</v>
+      </c>
+      <c r="G3279" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="B3280" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C3280">
+        <v>36</v>
+      </c>
+      <c r="D3280">
+        <v>128</v>
+      </c>
+      <c r="E3280" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3280">
+        <v>6</v>
+      </c>
+      <c r="G3280" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="B3281" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C3281">
+        <v>40</v>
+      </c>
+      <c r="D3281">
+        <v>-4</v>
+      </c>
+      <c r="E3281" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3281">
+        <v>7</v>
+      </c>
+      <c r="G3281" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="B3282" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C3282">
+        <v>46.8182</v>
+      </c>
+      <c r="D3282">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E3282" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3282">
+        <v>1</v>
+      </c>
+      <c r="G3282" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="B3283" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C3283">
+        <v>55</v>
+      </c>
+      <c r="D3283">
+        <v>-3</v>
+      </c>
+      <c r="E3283" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3283">
+        <v>1</v>
+      </c>
+      <c r="G3283" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B3284" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C3284">
+        <v>22.3</v>
+      </c>
+      <c r="D3284">
+        <v>114.2</v>
+      </c>
+      <c r="E3284" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3284">
+        <v>1</v>
+      </c>
+      <c r="G3284" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B3285" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3285">
+        <v>30.9756</v>
+      </c>
+      <c r="D3285">
+        <v>112.2707</v>
+      </c>
+      <c r="E3285" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3285">
+        <v>27</v>
+      </c>
+      <c r="G3285" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="inlineStr">
+        <is>
+          <t>King County, WA</t>
+        </is>
+      </c>
+      <c r="B3286" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3286">
+        <v>47.6062</v>
+      </c>
+      <c r="D3286">
+        <v>-122.3321</v>
+      </c>
+      <c r="E3286" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3286">
+        <v>2</v>
+      </c>
+      <c r="G3286" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="inlineStr">
+        <is>
+          <t>Lee County, FL</t>
+        </is>
+      </c>
+      <c r="B3287" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3287">
+        <v>26.663</v>
+      </c>
+      <c r="D3287">
+        <v>-81.95350000000001</v>
+      </c>
+      <c r="E3287" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3287">
+        <v>1</v>
+      </c>
+      <c r="G3287" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
+      <c r="B3288" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C3288">
+        <v>-33.8688</v>
+      </c>
+      <c r="D3288">
+        <v>151.2093</v>
+      </c>
+      <c r="E3288" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3288">
+        <v>2</v>
+      </c>
+      <c r="G3288" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="inlineStr">
+        <is>
+          <t>Santa Rosa County, FL</t>
+        </is>
+      </c>
+      <c r="B3289" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3289">
+        <v>30.769</v>
+      </c>
+      <c r="D3289">
+        <v>-86.9824</v>
+      </c>
+      <c r="E3289" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3289">
+        <v>1</v>
+      </c>
+      <c r="G3289" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="B3290" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C3290">
+        <v>32</v>
+      </c>
+      <c r="D3290">
+        <v>53</v>
+      </c>
+      <c r="E3290" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3290">
+        <v>465</v>
+      </c>
+      <c r="G3290" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="B3291" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C3291">
+        <v>43</v>
+      </c>
+      <c r="D3291">
+        <v>12</v>
+      </c>
+      <c r="E3291" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3291">
+        <v>33</v>
+      </c>
+      <c r="G3291" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="B3292" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="C3292">
+        <v>29.5</v>
+      </c>
+      <c r="D3292">
+        <v>47.75</v>
+      </c>
+      <c r="E3292" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3292">
+        <v>1</v>
+      </c>
+      <c r="G3292" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="B3293" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C3293">
+        <v>2.5</v>
+      </c>
+      <c r="D3293">
+        <v>112.5</v>
+      </c>
+      <c r="E3293" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3293">
+        <v>1</v>
+      </c>
+      <c r="G3293" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="B3294" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="C3294">
+        <v>30.3753</v>
+      </c>
+      <c r="D3294">
+        <v>69.3451</v>
+      </c>
+      <c r="E3294" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3294">
+        <v>1</v>
+      </c>
+      <c r="G3294" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="B3295" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="C3295">
+        <v>60</v>
+      </c>
+      <c r="D3295">
+        <v>90</v>
+      </c>
+      <c r="E3295" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3295">
+        <v>1</v>
+      </c>
+      <c r="G3295" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="B3296" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C3296">
+        <v>14.4974</v>
+      </c>
+      <c r="D3296">
+        <v>-14.4524</v>
+      </c>
+      <c r="E3296" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3296">
+        <v>1</v>
+      </c>
+      <c r="G3296" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="B3297" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C3297">
+        <v>36</v>
+      </c>
+      <c r="D3297">
+        <v>128</v>
+      </c>
+      <c r="E3297" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3297">
+        <v>-17</v>
+      </c>
+      <c r="G3297" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="inlineStr">
+        <is>
+          <t>Anhui</t>
+        </is>
+      </c>
+      <c r="B3298" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3298">
+        <v>31.8257</v>
+      </c>
+      <c r="D3298">
+        <v>117.2264</v>
+      </c>
+      <c r="E3298" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3298">
+        <v>5</v>
+      </c>
+      <c r="G3298" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B3299" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3299">
+        <v>40.1824</v>
+      </c>
+      <c r="D3299">
+        <v>116.4142</v>
+      </c>
+      <c r="E3299" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3299">
+        <v>5</v>
+      </c>
+      <c r="G3299" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B3300" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3300">
+        <v>30.0572</v>
+      </c>
+      <c r="D3300">
+        <v>107.874</v>
+      </c>
+      <c r="E3300" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3300">
+        <v>1</v>
+      </c>
+      <c r="G3300" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B3301" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3301">
+        <v>23.3417</v>
+      </c>
+      <c r="D3301">
+        <v>113.4244</v>
+      </c>
+      <c r="E3301" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3301">
+        <v>19</v>
+      </c>
+      <c r="G3301" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B3302" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3302">
+        <v>23.8298</v>
+      </c>
+      <c r="D3302">
+        <v>108.7881</v>
+      </c>
+      <c r="E3302" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3302">
+        <v>5</v>
+      </c>
+      <c r="G3302" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B3303" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3303">
+        <v>26.8154</v>
+      </c>
+      <c r="D3303">
+        <v>106.8748</v>
+      </c>
+      <c r="E3303" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3303">
+        <v>2</v>
+      </c>
+      <c r="G3303" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B3304" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3304">
+        <v>19.1959</v>
+      </c>
+      <c r="D3304">
+        <v>109.7453</v>
+      </c>
+      <c r="E3304" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3304">
+        <v>1</v>
+      </c>
+      <c r="G3304" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="B3305" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3305">
+        <v>47.862</v>
+      </c>
+      <c r="D3305">
+        <v>127.7615</v>
+      </c>
+      <c r="E3305" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3305">
+        <v>9</v>
+      </c>
+      <c r="G3305" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B3306" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3306">
+        <v>33.88202</v>
+      </c>
+      <c r="D3306">
+        <v>113.614</v>
+      </c>
+      <c r="E3306" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3306">
+        <v>3</v>
+      </c>
+      <c r="G3306" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B3307" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C3307">
+        <v>22.3</v>
+      </c>
+      <c r="D3307">
+        <v>114.2</v>
+      </c>
+      <c r="E3307" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3307">
+        <v>7</v>
+      </c>
+      <c r="G3307" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B3308" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3308">
+        <v>30.9756</v>
+      </c>
+      <c r="D3308">
+        <v>112.2707</v>
+      </c>
+      <c r="E3308" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3308">
+        <v>1735</v>
+      </c>
+      <c r="G3308" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B3309" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3309">
+        <v>27.6104</v>
+      </c>
+      <c r="D3309">
+        <v>111.7088</v>
+      </c>
+      <c r="E3309" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3309">
+        <v>8</v>
+      </c>
+      <c r="G3309" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B3310" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3310">
+        <v>44.0935</v>
+      </c>
+      <c r="D3310">
+        <v>113.9448</v>
+      </c>
+      <c r="E3310" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3310">
+        <v>3</v>
+      </c>
+      <c r="G3310" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="inlineStr">
+        <is>
+          <t>Jiangsu</t>
+        </is>
+      </c>
+      <c r="B3311" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3311">
+        <v>32.9711</v>
+      </c>
+      <c r="D3311">
+        <v>119.455</v>
+      </c>
+      <c r="E3311" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3311">
+        <v>6</v>
+      </c>
+      <c r="G3311" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B3312" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3312">
+        <v>27.614</v>
+      </c>
+      <c r="D3312">
+        <v>115.7221</v>
+      </c>
+      <c r="E3312" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3312">
+        <v>3</v>
+      </c>
+      <c r="G3312" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B3313" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3313">
+        <v>41.2956</v>
+      </c>
+      <c r="D3313">
+        <v>122.6085</v>
+      </c>
+      <c r="E3313" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3313">
+        <v>2</v>
+      </c>
+      <c r="G3313" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B3314" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3314">
+        <v>35.1917</v>
+      </c>
+      <c r="D3314">
+        <v>108.8701</v>
+      </c>
+      <c r="E3314" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3314">
+        <v>1</v>
+      </c>
+      <c r="G3314" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B3315" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3315">
+        <v>36.3427</v>
+      </c>
+      <c r="D3315">
+        <v>118.1498</v>
+      </c>
+      <c r="E3315" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3315">
+        <v>15</v>
+      </c>
+      <c r="G3315" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B3316" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3316">
+        <v>31.202</v>
+      </c>
+      <c r="D3316">
+        <v>121.4491</v>
+      </c>
+      <c r="E3316" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3316">
+        <v>1</v>
+      </c>
+      <c r="G3316" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B3317" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3317">
+        <v>30.6171</v>
+      </c>
+      <c r="D3317">
+        <v>102.7103</v>
+      </c>
+      <c r="E3317" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3317">
+        <v>10</v>
+      </c>
+      <c r="G3317" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B3318" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C3318">
+        <v>23.7</v>
+      </c>
+      <c r="D3318">
+        <v>121</v>
+      </c>
+      <c r="E3318" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3318">
+        <v>1</v>
+      </c>
+      <c r="G3318" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B3319" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3319">
+        <v>41.1129</v>
+      </c>
+      <c r="D3319">
+        <v>85.2401</v>
+      </c>
+      <c r="E3319" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3319">
+        <v>1</v>
+      </c>
+      <c r="G3319" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="inlineStr">
         <is>
           <t>Zhejiang</t>
         </is>
       </c>
-      <c r="B3153" t="inlineStr">
-        <is>
-          <t>Mainland China</t>
-        </is>
-      </c>
-      <c r="C3153">
+      <c r="B3320" t="inlineStr">
+        <is>
+          <t>Mainland China</t>
+        </is>
+      </c>
+      <c r="C3320">
         <v>29.1832</v>
       </c>
-      <c r="D3153">
+      <c r="D3320">
         <v>120.0934</v>
       </c>
-      <c r="E3153" s="2">
-        <v>43897</v>
-      </c>
-      <c r="F3153">
+      <c r="E3320" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F3320">
         <v>7</v>
       </c>
-      <c r="G3153" t="inlineStr">
+      <c r="G3320" t="inlineStr">
         <is>
           <t>recovered</t>
         </is>
